--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,114 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>France Ligue 2</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Saint-Étienne</t>
+  </si>
+  <si>
+    <t>Amiens SC</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Annecy</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>Laval</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Concarneau</t>
+  </si>
+  <si>
+    <t>Grenoble Foot 38</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Angers SCO</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['45+5']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['23', '73']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['54', '72', '74', '90+1']</t>
+  </si>
+  <si>
+    <t>['18', '61', '70', '79']</t>
+  </si>
+  <si>
+    <t>['45+3', '62']</t>
+  </si>
+  <si>
+    <t>['13', '17']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +363,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +860,1725 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6651843</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45143.41666666666</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>2.25</v>
+      </c>
+      <c r="U2">
+        <v>2.25</v>
+      </c>
+      <c r="V2">
+        <v>5.5</v>
+      </c>
+      <c r="W2">
+        <v>1.36</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <v>2.75</v>
+      </c>
+      <c r="Z2">
+        <v>1.4</v>
+      </c>
+      <c r="AA2">
+        <v>7</v>
+      </c>
+      <c r="AB2">
+        <v>1.1</v>
+      </c>
+      <c r="AC2">
+        <v>1.48</v>
+      </c>
+      <c r="AD2">
+        <v>4.43</v>
+      </c>
+      <c r="AE2">
+        <v>6</v>
+      </c>
+      <c r="AF2">
+        <v>1.03</v>
+      </c>
+      <c r="AG2">
+        <v>12.5</v>
+      </c>
+      <c r="AH2">
+        <v>1.25</v>
+      </c>
+      <c r="AI2">
+        <v>3.75</v>
+      </c>
+      <c r="AJ2">
+        <v>1.85</v>
+      </c>
+      <c r="AK2">
+        <v>1.85</v>
+      </c>
+      <c r="AL2">
+        <v>1.83</v>
+      </c>
+      <c r="AM2">
+        <v>1.83</v>
+      </c>
+      <c r="AN2">
+        <v>1.12</v>
+      </c>
+      <c r="AO2">
+        <v>1.2</v>
+      </c>
+      <c r="AP2">
+        <v>2.25</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>1.19</v>
+      </c>
+      <c r="AY2">
+        <v>7.25</v>
+      </c>
+      <c r="AZ2">
+        <v>5.5</v>
+      </c>
+      <c r="BA2">
+        <v>1.3</v>
+      </c>
+      <c r="BB2">
+        <v>1.56</v>
+      </c>
+      <c r="BC2">
+        <v>1.98</v>
+      </c>
+      <c r="BD2">
+        <v>2.36</v>
+      </c>
+      <c r="BE2">
+        <v>3.6</v>
+      </c>
+      <c r="BF2">
+        <v>5</v>
+      </c>
+      <c r="BG2">
+        <v>6</v>
+      </c>
+      <c r="BH2">
+        <v>11</v>
+      </c>
+      <c r="BI2">
+        <v>6</v>
+      </c>
+      <c r="BJ2">
+        <v>16</v>
+      </c>
+      <c r="BK2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6651839</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45143.58333333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>11</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>2.1</v>
+      </c>
+      <c r="V3">
+        <v>3.25</v>
+      </c>
+      <c r="W3">
+        <v>1.4</v>
+      </c>
+      <c r="X3">
+        <v>2.75</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>1.36</v>
+      </c>
+      <c r="AA3">
+        <v>8</v>
+      </c>
+      <c r="AB3">
+        <v>1.08</v>
+      </c>
+      <c r="AC3">
+        <v>2.35</v>
+      </c>
+      <c r="AD3">
+        <v>3.45</v>
+      </c>
+      <c r="AE3">
+        <v>2.75</v>
+      </c>
+      <c r="AF3">
+        <v>1.06</v>
+      </c>
+      <c r="AG3">
+        <v>8</v>
+      </c>
+      <c r="AH3">
+        <v>1.3</v>
+      </c>
+      <c r="AI3">
+        <v>3.3</v>
+      </c>
+      <c r="AJ3">
+        <v>1.85</v>
+      </c>
+      <c r="AK3">
+        <v>1.9</v>
+      </c>
+      <c r="AL3">
+        <v>1.73</v>
+      </c>
+      <c r="AM3">
+        <v>2</v>
+      </c>
+      <c r="AN3">
+        <v>1.4</v>
+      </c>
+      <c r="AO3">
+        <v>1.25</v>
+      </c>
+      <c r="AP3">
+        <v>1.5</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1.83</v>
+      </c>
+      <c r="AY3">
+        <v>5.5</v>
+      </c>
+      <c r="AZ3">
+        <v>2.3</v>
+      </c>
+      <c r="BA3">
+        <v>1.44</v>
+      </c>
+      <c r="BB3">
+        <v>1.83</v>
+      </c>
+      <c r="BC3">
+        <v>2.38</v>
+      </c>
+      <c r="BD3">
+        <v>3.3</v>
+      </c>
+      <c r="BE3">
+        <v>4.75</v>
+      </c>
+      <c r="BF3">
+        <v>3</v>
+      </c>
+      <c r="BG3">
+        <v>3</v>
+      </c>
+      <c r="BH3">
+        <v>2</v>
+      </c>
+      <c r="BI3">
+        <v>2</v>
+      </c>
+      <c r="BJ3">
+        <v>5</v>
+      </c>
+      <c r="BK3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6651840</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45143.58333333334</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>11</v>
+      </c>
+      <c r="T4">
+        <v>2.75</v>
+      </c>
+      <c r="U4">
+        <v>1.95</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>1.57</v>
+      </c>
+      <c r="X4">
+        <v>2.25</v>
+      </c>
+      <c r="Y4">
+        <v>3.75</v>
+      </c>
+      <c r="Z4">
+        <v>1.25</v>
+      </c>
+      <c r="AA4">
+        <v>13</v>
+      </c>
+      <c r="AB4">
+        <v>1.04</v>
+      </c>
+      <c r="AC4">
+        <v>1.9</v>
+      </c>
+      <c r="AD4">
+        <v>3.15</v>
+      </c>
+      <c r="AE4">
+        <v>4.2</v>
+      </c>
+      <c r="AF4">
+        <v>1.09</v>
+      </c>
+      <c r="AG4">
+        <v>7</v>
+      </c>
+      <c r="AH4">
+        <v>1.5</v>
+      </c>
+      <c r="AI4">
+        <v>2.4</v>
+      </c>
+      <c r="AJ4">
+        <v>2.5</v>
+      </c>
+      <c r="AK4">
+        <v>1.5</v>
+      </c>
+      <c r="AL4">
+        <v>2.25</v>
+      </c>
+      <c r="AM4">
+        <v>1.57</v>
+      </c>
+      <c r="AN4">
+        <v>1.18</v>
+      </c>
+      <c r="AO4">
+        <v>1.28</v>
+      </c>
+      <c r="AP4">
+        <v>1.83</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>1.5</v>
+      </c>
+      <c r="AY4">
+        <v>7</v>
+      </c>
+      <c r="AZ4">
+        <v>3.4</v>
+      </c>
+      <c r="BA4">
+        <v>1.63</v>
+      </c>
+      <c r="BB4">
+        <v>2.12</v>
+      </c>
+      <c r="BC4">
+        <v>2.95</v>
+      </c>
+      <c r="BD4">
+        <v>4.25</v>
+      </c>
+      <c r="BE4">
+        <v>6.8</v>
+      </c>
+      <c r="BF4">
+        <v>8</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
+      <c r="BH4">
+        <v>7</v>
+      </c>
+      <c r="BI4">
+        <v>3</v>
+      </c>
+      <c r="BJ4">
+        <v>15</v>
+      </c>
+      <c r="BK4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6651841</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45143.58333333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>2.1</v>
+      </c>
+      <c r="V5">
+        <v>3.6</v>
+      </c>
+      <c r="W5">
+        <v>1.44</v>
+      </c>
+      <c r="X5">
+        <v>2.63</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>1.36</v>
+      </c>
+      <c r="AA5">
+        <v>9</v>
+      </c>
+      <c r="AB5">
+        <v>1.07</v>
+      </c>
+      <c r="AC5">
+        <v>2.73</v>
+      </c>
+      <c r="AD5">
+        <v>3.15</v>
+      </c>
+      <c r="AE5">
+        <v>2.53</v>
+      </c>
+      <c r="AF5">
+        <v>1.06</v>
+      </c>
+      <c r="AG5">
+        <v>8</v>
+      </c>
+      <c r="AH5">
+        <v>1.33</v>
+      </c>
+      <c r="AI5">
+        <v>3.25</v>
+      </c>
+      <c r="AJ5">
+        <v>2.07</v>
+      </c>
+      <c r="AK5">
+        <v>1.66</v>
+      </c>
+      <c r="AL5">
+        <v>1.8</v>
+      </c>
+      <c r="AM5">
+        <v>1.91</v>
+      </c>
+      <c r="AN5">
+        <v>1.63</v>
+      </c>
+      <c r="AO5">
+        <v>1.3</v>
+      </c>
+      <c r="AP5">
+        <v>1.35</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>3</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1.51</v>
+      </c>
+      <c r="AY5">
+        <v>6</v>
+      </c>
+      <c r="AZ5">
+        <v>3</v>
+      </c>
+      <c r="BA5">
+        <v>1.44</v>
+      </c>
+      <c r="BB5">
+        <v>1.76</v>
+      </c>
+      <c r="BC5">
+        <v>2.18</v>
+      </c>
+      <c r="BD5">
+        <v>3.04</v>
+      </c>
+      <c r="BE5">
+        <v>4.35</v>
+      </c>
+      <c r="BF5">
+        <v>4</v>
+      </c>
+      <c r="BG5">
+        <v>5</v>
+      </c>
+      <c r="BH5">
+        <v>5</v>
+      </c>
+      <c r="BI5">
+        <v>6</v>
+      </c>
+      <c r="BJ5">
+        <v>9</v>
+      </c>
+      <c r="BK5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6651844</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45143.58333333334</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>13</v>
+      </c>
+      <c r="T6">
+        <v>4.33</v>
+      </c>
+      <c r="U6">
+        <v>2.05</v>
+      </c>
+      <c r="V6">
+        <v>2.75</v>
+      </c>
+      <c r="W6">
+        <v>1.44</v>
+      </c>
+      <c r="X6">
+        <v>2.63</v>
+      </c>
+      <c r="Y6">
+        <v>3.25</v>
+      </c>
+      <c r="Z6">
+        <v>1.33</v>
+      </c>
+      <c r="AA6">
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <v>1.06</v>
+      </c>
+      <c r="AC6">
+        <v>3.55</v>
+      </c>
+      <c r="AD6">
+        <v>3.2</v>
+      </c>
+      <c r="AE6">
+        <v>2.05</v>
+      </c>
+      <c r="AF6">
+        <v>1.08</v>
+      </c>
+      <c r="AG6">
+        <v>7</v>
+      </c>
+      <c r="AH6">
+        <v>1.36</v>
+      </c>
+      <c r="AI6">
+        <v>3</v>
+      </c>
+      <c r="AJ6">
+        <v>2.08</v>
+      </c>
+      <c r="AK6">
+        <v>1.71</v>
+      </c>
+      <c r="AL6">
+        <v>1.91</v>
+      </c>
+      <c r="AM6">
+        <v>1.8</v>
+      </c>
+      <c r="AN6">
+        <v>1.72</v>
+      </c>
+      <c r="AO6">
+        <v>1.25</v>
+      </c>
+      <c r="AP6">
+        <v>1.28</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>3</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>2.5</v>
+      </c>
+      <c r="AY6">
+        <v>6.5</v>
+      </c>
+      <c r="AZ6">
+        <v>1.83</v>
+      </c>
+      <c r="BA6">
+        <v>1.44</v>
+      </c>
+      <c r="BB6">
+        <v>1.83</v>
+      </c>
+      <c r="BC6">
+        <v>2.38</v>
+      </c>
+      <c r="BD6">
+        <v>3.3</v>
+      </c>
+      <c r="BE6">
+        <v>4.75</v>
+      </c>
+      <c r="BF6">
+        <v>5</v>
+      </c>
+      <c r="BG6">
+        <v>4</v>
+      </c>
+      <c r="BH6">
+        <v>3</v>
+      </c>
+      <c r="BI6">
+        <v>8</v>
+      </c>
+      <c r="BJ6">
+        <v>8</v>
+      </c>
+      <c r="BK6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6651845</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45143.58333333334</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>3.25</v>
+      </c>
+      <c r="U7">
+        <v>2.05</v>
+      </c>
+      <c r="V7">
+        <v>3.4</v>
+      </c>
+      <c r="W7">
+        <v>1.44</v>
+      </c>
+      <c r="X7">
+        <v>2.63</v>
+      </c>
+      <c r="Y7">
+        <v>3.25</v>
+      </c>
+      <c r="Z7">
+        <v>1.33</v>
+      </c>
+      <c r="AA7">
+        <v>10</v>
+      </c>
+      <c r="AB7">
+        <v>1.06</v>
+      </c>
+      <c r="AC7">
+        <v>2.63</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>2.7</v>
+      </c>
+      <c r="AF7">
+        <v>1.06</v>
+      </c>
+      <c r="AG7">
+        <v>8.25</v>
+      </c>
+      <c r="AH7">
+        <v>1.36</v>
+      </c>
+      <c r="AI7">
+        <v>3</v>
+      </c>
+      <c r="AJ7">
+        <v>2.05</v>
+      </c>
+      <c r="AK7">
+        <v>1.73</v>
+      </c>
+      <c r="AL7">
+        <v>1.83</v>
+      </c>
+      <c r="AM7">
+        <v>1.83</v>
+      </c>
+      <c r="AN7">
+        <v>1.45</v>
+      </c>
+      <c r="AO7">
+        <v>1.28</v>
+      </c>
+      <c r="AP7">
+        <v>1.47</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>1.95</v>
+      </c>
+      <c r="AY7">
+        <v>7</v>
+      </c>
+      <c r="AZ7">
+        <v>2.25</v>
+      </c>
+      <c r="BA7">
+        <v>1.23</v>
+      </c>
+      <c r="BB7">
+        <v>1.42</v>
+      </c>
+      <c r="BC7">
+        <v>1.74</v>
+      </c>
+      <c r="BD7">
+        <v>2.23</v>
+      </c>
+      <c r="BE7">
+        <v>3.05</v>
+      </c>
+      <c r="BF7">
+        <v>8</v>
+      </c>
+      <c r="BG7">
+        <v>3</v>
+      </c>
+      <c r="BH7">
+        <v>4</v>
+      </c>
+      <c r="BI7">
+        <v>4</v>
+      </c>
+      <c r="BJ7">
+        <v>12</v>
+      </c>
+      <c r="BK7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6651846</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45143.58333333334</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <v>3.1</v>
+      </c>
+      <c r="U8">
+        <v>2.1</v>
+      </c>
+      <c r="V8">
+        <v>3.6</v>
+      </c>
+      <c r="W8">
+        <v>1.44</v>
+      </c>
+      <c r="X8">
+        <v>2.63</v>
+      </c>
+      <c r="Y8">
+        <v>3.25</v>
+      </c>
+      <c r="Z8">
+        <v>1.33</v>
+      </c>
+      <c r="AA8">
+        <v>9</v>
+      </c>
+      <c r="AB8">
+        <v>1.07</v>
+      </c>
+      <c r="AC8">
+        <v>2.5</v>
+      </c>
+      <c r="AD8">
+        <v>2.88</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>1.07</v>
+      </c>
+      <c r="AG8">
+        <v>7.5</v>
+      </c>
+      <c r="AH8">
+        <v>1.33</v>
+      </c>
+      <c r="AI8">
+        <v>3.1</v>
+      </c>
+      <c r="AJ8">
+        <v>2.02</v>
+      </c>
+      <c r="AK8">
+        <v>1.74</v>
+      </c>
+      <c r="AL8">
+        <v>1.83</v>
+      </c>
+      <c r="AM8">
+        <v>1.83</v>
+      </c>
+      <c r="AN8">
+        <v>1.33</v>
+      </c>
+      <c r="AO8">
+        <v>1.3</v>
+      </c>
+      <c r="AP8">
+        <v>1.5</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>3</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1.95</v>
+      </c>
+      <c r="AY8">
+        <v>5.75</v>
+      </c>
+      <c r="AZ8">
+        <v>2.15</v>
+      </c>
+      <c r="BA8">
+        <v>1.36</v>
+      </c>
+      <c r="BB8">
+        <v>1.74</v>
+      </c>
+      <c r="BC8">
+        <v>2.15</v>
+      </c>
+      <c r="BD8">
+        <v>2.95</v>
+      </c>
+      <c r="BE8">
+        <v>4.1</v>
+      </c>
+      <c r="BF8">
+        <v>2</v>
+      </c>
+      <c r="BG8">
+        <v>6</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8">
+        <v>4</v>
+      </c>
+      <c r="BJ8">
+        <v>3</v>
+      </c>
+      <c r="BK8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6651847</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45143.58333333334</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>3.4</v>
+      </c>
+      <c r="U9">
+        <v>2.05</v>
+      </c>
+      <c r="V9">
+        <v>3.4</v>
+      </c>
+      <c r="W9">
+        <v>1.44</v>
+      </c>
+      <c r="X9">
+        <v>2.63</v>
+      </c>
+      <c r="Y9">
+        <v>3.25</v>
+      </c>
+      <c r="Z9">
+        <v>1.33</v>
+      </c>
+      <c r="AA9">
+        <v>9</v>
+      </c>
+      <c r="AB9">
+        <v>1.07</v>
+      </c>
+      <c r="AC9">
+        <v>2.8</v>
+      </c>
+      <c r="AD9">
+        <v>2.8</v>
+      </c>
+      <c r="AE9">
+        <v>2.75</v>
+      </c>
+      <c r="AF9">
+        <v>1.07</v>
+      </c>
+      <c r="AG9">
+        <v>8</v>
+      </c>
+      <c r="AH9">
+        <v>1.36</v>
+      </c>
+      <c r="AI9">
+        <v>3</v>
+      </c>
+      <c r="AJ9">
+        <v>2.02</v>
+      </c>
+      <c r="AK9">
+        <v>1.74</v>
+      </c>
+      <c r="AL9">
+        <v>1.83</v>
+      </c>
+      <c r="AM9">
+        <v>1.83</v>
+      </c>
+      <c r="AN9">
+        <v>1.47</v>
+      </c>
+      <c r="AO9">
+        <v>1.28</v>
+      </c>
+      <c r="AP9">
+        <v>1.47</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>1.95</v>
+      </c>
+      <c r="AY9">
+        <v>7.5</v>
+      </c>
+      <c r="AZ9">
+        <v>2.2</v>
+      </c>
+      <c r="BA9">
+        <v>1.1</v>
+      </c>
+      <c r="BB9">
+        <v>1.2</v>
+      </c>
+      <c r="BC9">
+        <v>1.36</v>
+      </c>
+      <c r="BD9">
+        <v>1.62</v>
+      </c>
+      <c r="BE9">
+        <v>2.02</v>
+      </c>
+      <c r="BF9">
+        <v>5</v>
+      </c>
+      <c r="BG9">
+        <v>8</v>
+      </c>
+      <c r="BH9">
+        <v>8</v>
+      </c>
+      <c r="BI9">
+        <v>2</v>
+      </c>
+      <c r="BJ9">
+        <v>13</v>
+      </c>
+      <c r="BK9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6651848</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45143.58333333334</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>11</v>
+      </c>
+      <c r="T10">
+        <v>3.75</v>
+      </c>
+      <c r="U10">
+        <v>2.05</v>
+      </c>
+      <c r="V10">
+        <v>3.1</v>
+      </c>
+      <c r="W10">
+        <v>1.5</v>
+      </c>
+      <c r="X10">
+        <v>2.5</v>
+      </c>
+      <c r="Y10">
+        <v>3.4</v>
+      </c>
+      <c r="Z10">
+        <v>1.3</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
+        <v>1.06</v>
+      </c>
+      <c r="AC10">
+        <v>2.7</v>
+      </c>
+      <c r="AD10">
+        <v>3.05</v>
+      </c>
+      <c r="AE10">
+        <v>2.6</v>
+      </c>
+      <c r="AF10">
+        <v>1.07</v>
+      </c>
+      <c r="AG10">
+        <v>9</v>
+      </c>
+      <c r="AH10">
+        <v>1.33</v>
+      </c>
+      <c r="AI10">
+        <v>3.15</v>
+      </c>
+      <c r="AJ10">
+        <v>2.12</v>
+      </c>
+      <c r="AK10">
+        <v>1.68</v>
+      </c>
+      <c r="AL10">
+        <v>1.83</v>
+      </c>
+      <c r="AM10">
+        <v>1.83</v>
+      </c>
+      <c r="AN10">
+        <v>1.55</v>
+      </c>
+      <c r="AO10">
+        <v>1.28</v>
+      </c>
+      <c r="AP10">
+        <v>1.38</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>2.25</v>
+      </c>
+      <c r="AY10">
+        <v>6</v>
+      </c>
+      <c r="AZ10">
+        <v>2.05</v>
+      </c>
+      <c r="BA10">
+        <v>1.47</v>
+      </c>
+      <c r="BB10">
+        <v>1.88</v>
+      </c>
+      <c r="BC10">
+        <v>2.45</v>
+      </c>
+      <c r="BD10">
+        <v>3.4</v>
+      </c>
+      <c r="BE10">
+        <v>5</v>
+      </c>
+      <c r="BF10">
+        <v>3</v>
+      </c>
+      <c r="BG10">
+        <v>2</v>
+      </c>
+      <c r="BH10">
+        <v>8</v>
+      </c>
+      <c r="BI10">
+        <v>6</v>
+      </c>
+      <c r="BJ10">
+        <v>11</v>
+      </c>
+      <c r="BK10">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -238,6 +238,9 @@
     <t>Concarneau</t>
   </si>
   <si>
+    <t>Pau</t>
+  </si>
+  <si>
     <t>Grenoble Foot 38</t>
   </si>
   <si>
@@ -265,6 +268,9 @@
     <t>Bastia</t>
   </si>
   <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -286,13 +292,16 @@
     <t>['23', '73']</t>
   </si>
   <si>
+    <t>['17', '19', '73']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
     <t>['6']</t>
   </si>
   <si>
-    <t>['54', '72', '74', '90+1']</t>
+    <t>['54', '72', '74', '90']</t>
   </si>
   <si>
     <t>['18', '61', '70', '79']</t>
@@ -663,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK10"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -883,7 +892,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -904,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1039,13 +1048,13 @@
         <v>6</v>
       </c>
       <c r="BH2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BI2">
         <v>6</v>
       </c>
       <c r="BJ2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BK2">
         <v>12</v>
@@ -1074,7 +1083,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1095,10 +1104,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -1233,13 +1242,13 @@
         <v>2</v>
       </c>
       <c r="BI3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ3">
         <v>5</v>
       </c>
       <c r="BK3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:63">
@@ -1265,7 +1274,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1286,10 +1295,10 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1415,19 +1424,19 @@
         <v>6.8</v>
       </c>
       <c r="BF4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG4">
         <v>4</v>
       </c>
       <c r="BH4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI4">
         <v>3</v>
       </c>
       <c r="BJ4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BK4">
         <v>7</v>
@@ -1456,7 +1465,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1477,10 +1486,10 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1606,22 +1615,22 @@
         <v>4.35</v>
       </c>
       <c r="BF5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BH5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BK5">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:63">
@@ -1647,7 +1656,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1668,10 +1677,10 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1797,22 +1806,22 @@
         <v>4.75</v>
       </c>
       <c r="BF6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH6">
         <v>3</v>
       </c>
       <c r="BI6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK6">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:63">
@@ -1838,7 +1847,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1859,10 +1868,10 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -1988,7 +1997,7 @@
         <v>3.05</v>
       </c>
       <c r="BF7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG7">
         <v>3</v>
@@ -2000,7 +2009,7 @@
         <v>4</v>
       </c>
       <c r="BJ7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK7">
         <v>7</v>
@@ -2029,7 +2038,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2050,10 +2059,10 @@
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2179,22 +2188,22 @@
         <v>4.1</v>
       </c>
       <c r="BF8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG8">
         <v>6</v>
       </c>
       <c r="BH8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BK8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:63">
@@ -2220,7 +2229,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2241,10 +2250,10 @@
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2370,7 +2379,7 @@
         <v>2.02</v>
       </c>
       <c r="BF9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG9">
         <v>8</v>
@@ -2379,13 +2388,13 @@
         <v>8</v>
       </c>
       <c r="BI9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BK9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:63">
@@ -2411,7 +2420,7 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2432,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2561,7 +2570,7 @@
         <v>5</v>
       </c>
       <c r="BF10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG10">
         <v>2</v>
@@ -2570,13 +2579,204 @@
         <v>8</v>
       </c>
       <c r="BI10">
+        <v>4</v>
+      </c>
+      <c r="BJ10">
+        <v>12</v>
+      </c>
+      <c r="BK10">
         <v>6</v>
       </c>
-      <c r="BJ10">
-        <v>11</v>
-      </c>
-      <c r="BK10">
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6651842</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45145.65625</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
         <v>8</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>4.33</v>
+      </c>
+      <c r="U11">
+        <v>2.2</v>
+      </c>
+      <c r="V11">
+        <v>2.63</v>
+      </c>
+      <c r="W11">
+        <v>1.4</v>
+      </c>
+      <c r="X11">
+        <v>2.75</v>
+      </c>
+      <c r="Y11">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>1.36</v>
+      </c>
+      <c r="AA11">
+        <v>8</v>
+      </c>
+      <c r="AB11">
+        <v>1.08</v>
+      </c>
+      <c r="AC11">
+        <v>3.45</v>
+      </c>
+      <c r="AD11">
+        <v>3.25</v>
+      </c>
+      <c r="AE11">
+        <v>1.91</v>
+      </c>
+      <c r="AF11">
+        <v>1.06</v>
+      </c>
+      <c r="AG11">
+        <v>8</v>
+      </c>
+      <c r="AH11">
+        <v>1.3</v>
+      </c>
+      <c r="AI11">
+        <v>3.3</v>
+      </c>
+      <c r="AJ11">
+        <v>1.9</v>
+      </c>
+      <c r="AK11">
+        <v>1.8</v>
+      </c>
+      <c r="AL11">
+        <v>1.8</v>
+      </c>
+      <c r="AM11">
+        <v>1.91</v>
+      </c>
+      <c r="AN11">
+        <v>1.8</v>
+      </c>
+      <c r="AO11">
+        <v>1.25</v>
+      </c>
+      <c r="AP11">
+        <v>1.28</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>3</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>2.4</v>
+      </c>
+      <c r="AY11">
+        <v>5.25</v>
+      </c>
+      <c r="AZ11">
+        <v>1.71</v>
+      </c>
+      <c r="BA11">
+        <v>1.63</v>
+      </c>
+      <c r="BB11">
+        <v>2.12</v>
+      </c>
+      <c r="BC11">
+        <v>2.95</v>
+      </c>
+      <c r="BD11">
+        <v>4.25</v>
+      </c>
+      <c r="BE11">
+        <v>5.2</v>
+      </c>
+      <c r="BF11">
+        <v>5</v>
+      </c>
+      <c r="BG11">
+        <v>7</v>
+      </c>
+      <c r="BH11">
+        <v>3</v>
+      </c>
+      <c r="BI11">
+        <v>7</v>
+      </c>
+      <c r="BJ11">
+        <v>8</v>
+      </c>
+      <c r="BK11">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -241,18 +241,24 @@
     <t>Pau</t>
   </si>
   <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
     <t>Grenoble Foot 38</t>
   </si>
   <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
+    <t>Troyes</t>
   </si>
   <si>
     <t>Guingamp</t>
   </si>
   <si>
+    <t>Bastia</t>
+  </si>
+  <si>
     <t>Auxerre</t>
   </si>
   <si>
@@ -262,12 +268,6 @@
     <t>Caen</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
     <t>Bordeaux</t>
   </si>
   <si>
@@ -295,6 +295,21 @@
     <t>['17', '19', '73']</t>
   </si>
   <si>
+    <t>['41', '90+5']</t>
+  </si>
+  <si>
+    <t>['63', '89']</t>
+  </si>
+  <si>
+    <t>['15', '20', '79']</t>
+  </si>
+  <si>
+    <t>['40', '77', '90+5']</t>
+  </si>
+  <si>
+    <t>['38', '45+3']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -311,6 +326,21 @@
   </si>
   <si>
     <t>['13', '17']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['47']</t>
   </si>
 </sst>
 </file>
@@ -672,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,7 +922,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -916,7 +946,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1274,7 +1304,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1298,7 +1328,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1465,7 +1495,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1489,7 +1519,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1656,7 +1686,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1680,7 +1710,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1847,7 +1877,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2038,7 +2068,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2062,7 +2092,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2229,7 +2259,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2253,7 +2283,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2420,7 +2450,7 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2777,6 +2807,1725 @@
       </c>
       <c r="BK11">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6651858</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45150.45833333334</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>12</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>2.15</v>
+      </c>
+      <c r="V12">
+        <v>2.55</v>
+      </c>
+      <c r="W12">
+        <v>1.36</v>
+      </c>
+      <c r="X12">
+        <v>2.9</v>
+      </c>
+      <c r="Y12">
+        <v>2.62</v>
+      </c>
+      <c r="Z12">
+        <v>1.42</v>
+      </c>
+      <c r="AA12">
+        <v>5.75</v>
+      </c>
+      <c r="AB12">
+        <v>1.1</v>
+      </c>
+      <c r="AC12">
+        <v>3.45</v>
+      </c>
+      <c r="AD12">
+        <v>3.35</v>
+      </c>
+      <c r="AE12">
+        <v>1.85</v>
+      </c>
+      <c r="AF12">
+        <v>1.05</v>
+      </c>
+      <c r="AG12">
+        <v>12.5</v>
+      </c>
+      <c r="AH12">
+        <v>1.28</v>
+      </c>
+      <c r="AI12">
+        <v>3.75</v>
+      </c>
+      <c r="AJ12">
+        <v>1.75</v>
+      </c>
+      <c r="AK12">
+        <v>1.95</v>
+      </c>
+      <c r="AL12">
+        <v>1.73</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12">
+        <v>1.78</v>
+      </c>
+      <c r="AO12">
+        <v>1.3</v>
+      </c>
+      <c r="AP12">
+        <v>1.3</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>2.51</v>
+      </c>
+      <c r="AY12">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ12">
+        <v>1.72</v>
+      </c>
+      <c r="BA12">
+        <v>1.4</v>
+      </c>
+      <c r="BB12">
+        <v>1.74</v>
+      </c>
+      <c r="BC12">
+        <v>2.28</v>
+      </c>
+      <c r="BD12">
+        <v>3.1</v>
+      </c>
+      <c r="BE12">
+        <v>4.5</v>
+      </c>
+      <c r="BF12">
+        <v>8</v>
+      </c>
+      <c r="BG12">
+        <v>9</v>
+      </c>
+      <c r="BH12">
+        <v>8</v>
+      </c>
+      <c r="BI12">
+        <v>5</v>
+      </c>
+      <c r="BJ12">
+        <v>16</v>
+      </c>
+      <c r="BK12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6651857</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45150.58333333334</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>3.2</v>
+      </c>
+      <c r="U13">
+        <v>1.83</v>
+      </c>
+      <c r="V13">
+        <v>3.7</v>
+      </c>
+      <c r="W13">
+        <v>1.5</v>
+      </c>
+      <c r="X13">
+        <v>2.4</v>
+      </c>
+      <c r="Y13">
+        <v>3.6</v>
+      </c>
+      <c r="Z13">
+        <v>1.25</v>
+      </c>
+      <c r="AA13">
+        <v>8.5</v>
+      </c>
+      <c r="AB13">
+        <v>1.04</v>
+      </c>
+      <c r="AC13">
+        <v>2.54</v>
+      </c>
+      <c r="AD13">
+        <v>2.93</v>
+      </c>
+      <c r="AE13">
+        <v>2.73</v>
+      </c>
+      <c r="AF13">
+        <v>1.07</v>
+      </c>
+      <c r="AG13">
+        <v>6.5</v>
+      </c>
+      <c r="AH13">
+        <v>1.42</v>
+      </c>
+      <c r="AI13">
+        <v>2.6</v>
+      </c>
+      <c r="AJ13">
+        <v>2.35</v>
+      </c>
+      <c r="AK13">
+        <v>1.53</v>
+      </c>
+      <c r="AL13">
+        <v>2</v>
+      </c>
+      <c r="AM13">
+        <v>1.7</v>
+      </c>
+      <c r="AN13">
+        <v>1.35</v>
+      </c>
+      <c r="AO13">
+        <v>1.4</v>
+      </c>
+      <c r="AP13">
+        <v>1.4</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>3</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>1.94</v>
+      </c>
+      <c r="AY13">
+        <v>8</v>
+      </c>
+      <c r="AZ13">
+        <v>2.21</v>
+      </c>
+      <c r="BA13">
+        <v>1.57</v>
+      </c>
+      <c r="BB13">
+        <v>2.02</v>
+      </c>
+      <c r="BC13">
+        <v>2.75</v>
+      </c>
+      <c r="BD13">
+        <v>3.95</v>
+      </c>
+      <c r="BE13">
+        <v>5.65</v>
+      </c>
+      <c r="BF13">
+        <v>2</v>
+      </c>
+      <c r="BG13">
+        <v>3</v>
+      </c>
+      <c r="BH13">
+        <v>2</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>4</v>
+      </c>
+      <c r="BK13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6651856</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45150.58333333334</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>11</v>
+      </c>
+      <c r="T14">
+        <v>3.18</v>
+      </c>
+      <c r="U14">
+        <v>2.14</v>
+      </c>
+      <c r="V14">
+        <v>3.74</v>
+      </c>
+      <c r="W14">
+        <v>1.45</v>
+      </c>
+      <c r="X14">
+        <v>2.78</v>
+      </c>
+      <c r="Y14">
+        <v>3.26</v>
+      </c>
+      <c r="Z14">
+        <v>1.35</v>
+      </c>
+      <c r="AA14">
+        <v>9</v>
+      </c>
+      <c r="AB14">
+        <v>1.06</v>
+      </c>
+      <c r="AC14">
+        <v>2.37</v>
+      </c>
+      <c r="AD14">
+        <v>3.06</v>
+      </c>
+      <c r="AE14">
+        <v>2.61</v>
+      </c>
+      <c r="AF14">
+        <v>1.07</v>
+      </c>
+      <c r="AG14">
+        <v>9.5</v>
+      </c>
+      <c r="AH14">
+        <v>1.38</v>
+      </c>
+      <c r="AI14">
+        <v>3.1</v>
+      </c>
+      <c r="AJ14">
+        <v>2.1</v>
+      </c>
+      <c r="AK14">
+        <v>1.65</v>
+      </c>
+      <c r="AL14">
+        <v>1.85</v>
+      </c>
+      <c r="AM14">
+        <v>1.85</v>
+      </c>
+      <c r="AN14">
+        <v>1.4</v>
+      </c>
+      <c r="AO14">
+        <v>1.35</v>
+      </c>
+      <c r="AP14">
+        <v>1.55</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>3</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>1.88</v>
+      </c>
+      <c r="AY14">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ14">
+        <v>2.27</v>
+      </c>
+      <c r="BA14">
+        <v>1.48</v>
+      </c>
+      <c r="BB14">
+        <v>1.88</v>
+      </c>
+      <c r="BC14">
+        <v>2.5</v>
+      </c>
+      <c r="BD14">
+        <v>3.5</v>
+      </c>
+      <c r="BE14">
+        <v>5.1</v>
+      </c>
+      <c r="BF14">
+        <v>7</v>
+      </c>
+      <c r="BG14">
+        <v>3</v>
+      </c>
+      <c r="BH14">
+        <v>2</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>9</v>
+      </c>
+      <c r="BK14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6651855</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45150.58333333334</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <v>12</v>
+      </c>
+      <c r="T15">
+        <v>2.5</v>
+      </c>
+      <c r="U15">
+        <v>2.05</v>
+      </c>
+      <c r="V15">
+        <v>4.2</v>
+      </c>
+      <c r="W15">
+        <v>1.4</v>
+      </c>
+      <c r="X15">
+        <v>2.75</v>
+      </c>
+      <c r="Y15">
+        <v>2.75</v>
+      </c>
+      <c r="Z15">
+        <v>1.4</v>
+      </c>
+      <c r="AA15">
+        <v>7</v>
+      </c>
+      <c r="AB15">
+        <v>1.08</v>
+      </c>
+      <c r="AC15">
+        <v>2.1</v>
+      </c>
+      <c r="AD15">
+        <v>3.35</v>
+      </c>
+      <c r="AE15">
+        <v>3.1</v>
+      </c>
+      <c r="AF15">
+        <v>1.07</v>
+      </c>
+      <c r="AG15">
+        <v>7.5</v>
+      </c>
+      <c r="AH15">
+        <v>1.36</v>
+      </c>
+      <c r="AI15">
+        <v>3</v>
+      </c>
+      <c r="AJ15">
+        <v>1.95</v>
+      </c>
+      <c r="AK15">
+        <v>1.75</v>
+      </c>
+      <c r="AL15">
+        <v>1.91</v>
+      </c>
+      <c r="AM15">
+        <v>1.8</v>
+      </c>
+      <c r="AN15">
+        <v>1.25</v>
+      </c>
+      <c r="AO15">
+        <v>1.3</v>
+      </c>
+      <c r="AP15">
+        <v>1.73</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>3</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>1.97</v>
+      </c>
+      <c r="AY15">
+        <v>8.4</v>
+      </c>
+      <c r="AZ15">
+        <v>2.14</v>
+      </c>
+      <c r="BA15">
+        <v>1.36</v>
+      </c>
+      <c r="BB15">
+        <v>1.67</v>
+      </c>
+      <c r="BC15">
+        <v>2.15</v>
+      </c>
+      <c r="BD15">
+        <v>2.95</v>
+      </c>
+      <c r="BE15">
+        <v>4.1</v>
+      </c>
+      <c r="BF15">
+        <v>5</v>
+      </c>
+      <c r="BG15">
+        <v>4</v>
+      </c>
+      <c r="BH15">
+        <v>2</v>
+      </c>
+      <c r="BI15">
+        <v>7</v>
+      </c>
+      <c r="BJ15">
+        <v>7</v>
+      </c>
+      <c r="BK15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6651854</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45150.58333333334</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>2.3</v>
+      </c>
+      <c r="U16">
+        <v>2.15</v>
+      </c>
+      <c r="V16">
+        <v>4.4</v>
+      </c>
+      <c r="W16">
+        <v>1.37</v>
+      </c>
+      <c r="X16">
+        <v>2.8</v>
+      </c>
+      <c r="Y16">
+        <v>2.85</v>
+      </c>
+      <c r="Z16">
+        <v>1.37</v>
+      </c>
+      <c r="AA16">
+        <v>6.8</v>
+      </c>
+      <c r="AB16">
+        <v>1.07</v>
+      </c>
+      <c r="AC16">
+        <v>1.82</v>
+      </c>
+      <c r="AD16">
+        <v>3.4</v>
+      </c>
+      <c r="AE16">
+        <v>3.9</v>
+      </c>
+      <c r="AF16">
+        <v>1.02</v>
+      </c>
+      <c r="AG16">
+        <v>9.5</v>
+      </c>
+      <c r="AH16">
+        <v>1.27</v>
+      </c>
+      <c r="AI16">
+        <v>3.4</v>
+      </c>
+      <c r="AJ16">
+        <v>2.08</v>
+      </c>
+      <c r="AK16">
+        <v>1.8</v>
+      </c>
+      <c r="AL16">
+        <v>1.75</v>
+      </c>
+      <c r="AM16">
+        <v>1.93</v>
+      </c>
+      <c r="AN16">
+        <v>1.15</v>
+      </c>
+      <c r="AO16">
+        <v>1.28</v>
+      </c>
+      <c r="AP16">
+        <v>1.93</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>3</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>1.72</v>
+      </c>
+      <c r="AY16">
+        <v>8.6</v>
+      </c>
+      <c r="AZ16">
+        <v>2.53</v>
+      </c>
+      <c r="BA16">
+        <v>1.4</v>
+      </c>
+      <c r="BB16">
+        <v>1.74</v>
+      </c>
+      <c r="BC16">
+        <v>2.28</v>
+      </c>
+      <c r="BD16">
+        <v>3.1</v>
+      </c>
+      <c r="BE16">
+        <v>4.5</v>
+      </c>
+      <c r="BF16">
+        <v>4</v>
+      </c>
+      <c r="BG16">
+        <v>2</v>
+      </c>
+      <c r="BH16">
+        <v>7</v>
+      </c>
+      <c r="BI16">
+        <v>2</v>
+      </c>
+      <c r="BJ16">
+        <v>11</v>
+      </c>
+      <c r="BK16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6651851</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45150.58333333334</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>2.25</v>
+      </c>
+      <c r="U17">
+        <v>2.1</v>
+      </c>
+      <c r="V17">
+        <v>4.8</v>
+      </c>
+      <c r="W17">
+        <v>1.42</v>
+      </c>
+      <c r="X17">
+        <v>2.65</v>
+      </c>
+      <c r="Y17">
+        <v>2.95</v>
+      </c>
+      <c r="Z17">
+        <v>1.35</v>
+      </c>
+      <c r="AA17">
+        <v>7.9</v>
+      </c>
+      <c r="AB17">
+        <v>1.05</v>
+      </c>
+      <c r="AC17">
+        <v>1.84</v>
+      </c>
+      <c r="AD17">
+        <v>3.16</v>
+      </c>
+      <c r="AE17">
+        <v>3.78</v>
+      </c>
+      <c r="AF17">
+        <v>1.04</v>
+      </c>
+      <c r="AG17">
+        <v>7.8</v>
+      </c>
+      <c r="AH17">
+        <v>1.36</v>
+      </c>
+      <c r="AI17">
+        <v>3</v>
+      </c>
+      <c r="AJ17">
+        <v>2.1</v>
+      </c>
+      <c r="AK17">
+        <v>1.65</v>
+      </c>
+      <c r="AL17">
+        <v>1.95</v>
+      </c>
+      <c r="AM17">
+        <v>1.8</v>
+      </c>
+      <c r="AN17">
+        <v>1.12</v>
+      </c>
+      <c r="AO17">
+        <v>1.3</v>
+      </c>
+      <c r="AP17">
+        <v>1.97</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>1.4</v>
+      </c>
+      <c r="AY17">
+        <v>9.5</v>
+      </c>
+      <c r="AZ17">
+        <v>3.65</v>
+      </c>
+      <c r="BA17">
+        <v>1.45</v>
+      </c>
+      <c r="BB17">
+        <v>1.8</v>
+      </c>
+      <c r="BC17">
+        <v>2.4</v>
+      </c>
+      <c r="BD17">
+        <v>3.35</v>
+      </c>
+      <c r="BE17">
+        <v>4.8</v>
+      </c>
+      <c r="BF17">
+        <v>5</v>
+      </c>
+      <c r="BG17">
+        <v>3</v>
+      </c>
+      <c r="BH17">
+        <v>5</v>
+      </c>
+      <c r="BI17">
+        <v>1</v>
+      </c>
+      <c r="BJ17">
+        <v>10</v>
+      </c>
+      <c r="BK17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6651852</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45150.58333333334</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>11</v>
+      </c>
+      <c r="T18">
+        <v>2.24</v>
+      </c>
+      <c r="U18">
+        <v>2.2</v>
+      </c>
+      <c r="V18">
+        <v>5.45</v>
+      </c>
+      <c r="W18">
+        <v>1.37</v>
+      </c>
+      <c r="X18">
+        <v>2.8</v>
+      </c>
+      <c r="Y18">
+        <v>2.75</v>
+      </c>
+      <c r="Z18">
+        <v>1.4</v>
+      </c>
+      <c r="AA18">
+        <v>6.5</v>
+      </c>
+      <c r="AB18">
+        <v>1.08</v>
+      </c>
+      <c r="AC18">
+        <v>1.7</v>
+      </c>
+      <c r="AD18">
+        <v>3.55</v>
+      </c>
+      <c r="AE18">
+        <v>4.3</v>
+      </c>
+      <c r="AF18">
+        <v>1.02</v>
+      </c>
+      <c r="AG18">
+        <v>9.5</v>
+      </c>
+      <c r="AH18">
+        <v>1.25</v>
+      </c>
+      <c r="AI18">
+        <v>3.5</v>
+      </c>
+      <c r="AJ18">
+        <v>2.08</v>
+      </c>
+      <c r="AK18">
+        <v>1.8</v>
+      </c>
+      <c r="AL18">
+        <v>1.75</v>
+      </c>
+      <c r="AM18">
+        <v>1.93</v>
+      </c>
+      <c r="AN18">
+        <v>1.17</v>
+      </c>
+      <c r="AO18">
+        <v>1.26</v>
+      </c>
+      <c r="AP18">
+        <v>2.17</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>3</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>1.49</v>
+      </c>
+      <c r="AY18">
+        <v>9.1</v>
+      </c>
+      <c r="AZ18">
+        <v>3.2</v>
+      </c>
+      <c r="BA18">
+        <v>1.36</v>
+      </c>
+      <c r="BB18">
+        <v>1.67</v>
+      </c>
+      <c r="BC18">
+        <v>2.15</v>
+      </c>
+      <c r="BD18">
+        <v>2.95</v>
+      </c>
+      <c r="BE18">
+        <v>4.1</v>
+      </c>
+      <c r="BF18">
+        <v>3</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>8</v>
+      </c>
+      <c r="BI18">
+        <v>4</v>
+      </c>
+      <c r="BJ18">
+        <v>11</v>
+      </c>
+      <c r="BK18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6651849</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45150.58333333334</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19">
+        <v>8</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>11</v>
+      </c>
+      <c r="T19">
+        <v>2.4</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <v>1.48</v>
+      </c>
+      <c r="X19">
+        <v>2.5</v>
+      </c>
+      <c r="Y19">
+        <v>3.25</v>
+      </c>
+      <c r="Z19">
+        <v>1.3</v>
+      </c>
+      <c r="AA19">
+        <v>8.9</v>
+      </c>
+      <c r="AB19">
+        <v>1.04</v>
+      </c>
+      <c r="AC19">
+        <v>1.74</v>
+      </c>
+      <c r="AD19">
+        <v>3.4</v>
+      </c>
+      <c r="AE19">
+        <v>4.4</v>
+      </c>
+      <c r="AF19">
+        <v>1.09</v>
+      </c>
+      <c r="AG19">
+        <v>8.4</v>
+      </c>
+      <c r="AH19">
+        <v>1.42</v>
+      </c>
+      <c r="AI19">
+        <v>2.75</v>
+      </c>
+      <c r="AJ19">
+        <v>2.2</v>
+      </c>
+      <c r="AK19">
+        <v>1.6</v>
+      </c>
+      <c r="AL19">
+        <v>2.1</v>
+      </c>
+      <c r="AM19">
+        <v>1.68</v>
+      </c>
+      <c r="AN19">
+        <v>1.12</v>
+      </c>
+      <c r="AO19">
+        <v>1.25</v>
+      </c>
+      <c r="AP19">
+        <v>2.05</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>1.64</v>
+      </c>
+      <c r="AY19">
+        <v>8.6</v>
+      </c>
+      <c r="AZ19">
+        <v>2.72</v>
+      </c>
+      <c r="BA19">
+        <v>1.45</v>
+      </c>
+      <c r="BB19">
+        <v>1.8</v>
+      </c>
+      <c r="BC19">
+        <v>2.4</v>
+      </c>
+      <c r="BD19">
+        <v>3.35</v>
+      </c>
+      <c r="BE19">
+        <v>4.8</v>
+      </c>
+      <c r="BF19">
+        <v>6</v>
+      </c>
+      <c r="BG19">
+        <v>4</v>
+      </c>
+      <c r="BH19">
+        <v>5</v>
+      </c>
+      <c r="BI19">
+        <v>2</v>
+      </c>
+      <c r="BJ19">
+        <v>11</v>
+      </c>
+      <c r="BK19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6651853</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45150.58333333334</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>11</v>
+      </c>
+      <c r="T20">
+        <v>2.38</v>
+      </c>
+      <c r="U20">
+        <v>2.05</v>
+      </c>
+      <c r="V20">
+        <v>4.75</v>
+      </c>
+      <c r="W20">
+        <v>1.4</v>
+      </c>
+      <c r="X20">
+        <v>2.75</v>
+      </c>
+      <c r="Y20">
+        <v>2.75</v>
+      </c>
+      <c r="Z20">
+        <v>1.4</v>
+      </c>
+      <c r="AA20">
+        <v>7</v>
+      </c>
+      <c r="AB20">
+        <v>1.08</v>
+      </c>
+      <c r="AC20">
+        <v>1.72</v>
+      </c>
+      <c r="AD20">
+        <v>3.5</v>
+      </c>
+      <c r="AE20">
+        <v>4.3</v>
+      </c>
+      <c r="AF20">
+        <v>1.07</v>
+      </c>
+      <c r="AG20">
+        <v>7.5</v>
+      </c>
+      <c r="AH20">
+        <v>1.36</v>
+      </c>
+      <c r="AI20">
+        <v>3</v>
+      </c>
+      <c r="AJ20">
+        <v>1.95</v>
+      </c>
+      <c r="AK20">
+        <v>1.75</v>
+      </c>
+      <c r="AL20">
+        <v>2</v>
+      </c>
+      <c r="AM20">
+        <v>1.73</v>
+      </c>
+      <c r="AN20">
+        <v>1.15</v>
+      </c>
+      <c r="AO20">
+        <v>1.29</v>
+      </c>
+      <c r="AP20">
+        <v>2.1</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>3</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>1.28</v>
+      </c>
+      <c r="AY20">
+        <v>10.25</v>
+      </c>
+      <c r="AZ20">
+        <v>4.65</v>
+      </c>
+      <c r="BA20">
+        <v>1.4</v>
+      </c>
+      <c r="BB20">
+        <v>1.74</v>
+      </c>
+      <c r="BC20">
+        <v>2.28</v>
+      </c>
+      <c r="BD20">
+        <v>3.1</v>
+      </c>
+      <c r="BE20">
+        <v>4.4</v>
+      </c>
+      <c r="BF20">
+        <v>5</v>
+      </c>
+      <c r="BG20">
+        <v>3</v>
+      </c>
+      <c r="BH20">
+        <v>9</v>
+      </c>
+      <c r="BI20">
+        <v>2</v>
+      </c>
+      <c r="BJ20">
+        <v>14</v>
+      </c>
+      <c r="BK20">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -3173,10 +3173,10 @@
         <v>5.65</v>
       </c>
       <c r="BF13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH13">
         <v>2</v>
@@ -3185,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="BJ13">
+        <v>5</v>
+      </c>
+      <c r="BK13">
         <v>4</v>
-      </c>
-      <c r="BK13">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:63">
@@ -3364,22 +3364,22 @@
         <v>5.1</v>
       </c>
       <c r="BF14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI14">
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BK14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:63">
@@ -3555,22 +3555,22 @@
         <v>4.1</v>
       </c>
       <c r="BF15">
+        <v>7</v>
+      </c>
+      <c r="BG15">
         <v>5</v>
       </c>
-      <c r="BG15">
-        <v>4</v>
-      </c>
       <c r="BH15">
         <v>2</v>
       </c>
       <c r="BI15">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BJ15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK15">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -3749,19 +3749,19 @@
         <v>4</v>
       </c>
       <c r="BG16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI16">
         <v>2</v>
       </c>
       <c r="BJ16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK16">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:63">
@@ -3937,22 +3937,22 @@
         <v>4.8</v>
       </c>
       <c r="BF17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI17">
         <v>1</v>
       </c>
       <c r="BJ17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BK17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:63">
@@ -4128,22 +4128,22 @@
         <v>4.1</v>
       </c>
       <c r="BF18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BI18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK18">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:63">
@@ -4319,22 +4319,22 @@
         <v>4.8</v>
       </c>
       <c r="BF19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH19">
+        <v>7</v>
+      </c>
+      <c r="BI19">
+        <v>2</v>
+      </c>
+      <c r="BJ19">
+        <v>9</v>
+      </c>
+      <c r="BK19">
         <v>5</v>
-      </c>
-      <c r="BI19">
-        <v>2</v>
-      </c>
-      <c r="BJ19">
-        <v>11</v>
-      </c>
-      <c r="BK19">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:63">
@@ -4510,22 +4510,22 @@
         <v>4.4</v>
       </c>
       <c r="BF20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BI20">
         <v>2</v>
       </c>
       <c r="BJ20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BK20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>['38', '45+3']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
   </si>
   <si>
     <t>['90+1']</t>
@@ -702,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK20"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,7 +949,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1328,7 +1331,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1519,7 +1522,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1710,7 +1713,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2092,7 +2095,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2283,7 +2286,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2856,7 +2859,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3047,7 +3050,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3429,7 +3432,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3620,7 +3623,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4002,7 +4005,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4526,6 +4529,197 @@
       </c>
       <c r="BK20">
         <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6651850</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45152.65625</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21">
+        <v>8</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <v>13</v>
+      </c>
+      <c r="T21">
+        <v>2.25</v>
+      </c>
+      <c r="U21">
+        <v>2.2</v>
+      </c>
+      <c r="V21">
+        <v>5.5</v>
+      </c>
+      <c r="W21">
+        <v>1.38</v>
+      </c>
+      <c r="X21">
+        <v>2.91</v>
+      </c>
+      <c r="Y21">
+        <v>2.78</v>
+      </c>
+      <c r="Z21">
+        <v>1.41</v>
+      </c>
+      <c r="AA21">
+        <v>7</v>
+      </c>
+      <c r="AB21">
+        <v>1.08</v>
+      </c>
+      <c r="AC21">
+        <v>1.67</v>
+      </c>
+      <c r="AD21">
+        <v>3.55</v>
+      </c>
+      <c r="AE21">
+        <v>4.9</v>
+      </c>
+      <c r="AF21">
+        <v>1.02</v>
+      </c>
+      <c r="AG21">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH21">
+        <v>1.27</v>
+      </c>
+      <c r="AI21">
+        <v>3.32</v>
+      </c>
+      <c r="AJ21">
+        <v>1.94</v>
+      </c>
+      <c r="AK21">
+        <v>1.85</v>
+      </c>
+      <c r="AL21">
+        <v>1.87</v>
+      </c>
+      <c r="AM21">
+        <v>1.89</v>
+      </c>
+      <c r="AN21">
+        <v>1.15</v>
+      </c>
+      <c r="AO21">
+        <v>1.25</v>
+      </c>
+      <c r="AP21">
+        <v>2.15</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>3</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>1.71</v>
+      </c>
+      <c r="AY21">
+        <v>8.4</v>
+      </c>
+      <c r="AZ21">
+        <v>2.57</v>
+      </c>
+      <c r="BA21">
+        <v>1.51</v>
+      </c>
+      <c r="BB21">
+        <v>1.92</v>
+      </c>
+      <c r="BC21">
+        <v>2.52</v>
+      </c>
+      <c r="BD21">
+        <v>3.48</v>
+      </c>
+      <c r="BE21">
+        <v>5.1</v>
+      </c>
+      <c r="BF21">
+        <v>6</v>
+      </c>
+      <c r="BG21">
+        <v>5</v>
+      </c>
+      <c r="BH21">
+        <v>11</v>
+      </c>
+      <c r="BI21">
+        <v>5</v>
+      </c>
+      <c r="BJ21">
+        <v>17</v>
+      </c>
+      <c r="BK21">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,9 @@
     <t>['90+8']</t>
   </si>
   <si>
+    <t>['45+1', '62']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -344,6 +347,9 @@
   </si>
   <si>
     <t>['47']</t>
+  </si>
+  <si>
+    <t>['17', '75']</t>
   </si>
 </sst>
 </file>
@@ -705,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK21"/>
+  <dimension ref="A1:BK22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +955,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1331,7 +1337,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1522,7 +1528,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1713,7 +1719,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1803,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2095,7 +2101,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2286,7 +2292,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2859,7 +2865,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3050,7 +3056,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3432,7 +3438,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3623,7 +3629,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4005,7 +4011,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4720,6 +4726,197 @@
       </c>
       <c r="BK21">
         <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6651863</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45157.41666666666</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <v>3.3</v>
+      </c>
+      <c r="U22">
+        <v>2.05</v>
+      </c>
+      <c r="V22">
+        <v>3.1</v>
+      </c>
+      <c r="W22">
+        <v>1.44</v>
+      </c>
+      <c r="X22">
+        <v>2.6</v>
+      </c>
+      <c r="Y22">
+        <v>2.95</v>
+      </c>
+      <c r="Z22">
+        <v>1.35</v>
+      </c>
+      <c r="AA22">
+        <v>7.4</v>
+      </c>
+      <c r="AB22">
+        <v>1.06</v>
+      </c>
+      <c r="AC22">
+        <v>2.7</v>
+      </c>
+      <c r="AD22">
+        <v>3.18</v>
+      </c>
+      <c r="AE22">
+        <v>2.27</v>
+      </c>
+      <c r="AF22">
+        <v>1.07</v>
+      </c>
+      <c r="AG22">
+        <v>7.5</v>
+      </c>
+      <c r="AH22">
+        <v>1.33</v>
+      </c>
+      <c r="AI22">
+        <v>3.1</v>
+      </c>
+      <c r="AJ22">
+        <v>2.04</v>
+      </c>
+      <c r="AK22">
+        <v>1.81</v>
+      </c>
+      <c r="AL22">
+        <v>1.8</v>
+      </c>
+      <c r="AM22">
+        <v>1.95</v>
+      </c>
+      <c r="AN22">
+        <v>1.44</v>
+      </c>
+      <c r="AO22">
+        <v>1.28</v>
+      </c>
+      <c r="AP22">
+        <v>1.45</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>3</v>
+      </c>
+      <c r="AS22">
+        <v>1</v>
+      </c>
+      <c r="AT22">
+        <v>2</v>
+      </c>
+      <c r="AU22">
+        <v>1.13</v>
+      </c>
+      <c r="AV22">
+        <v>1.83</v>
+      </c>
+      <c r="AW22">
+        <v>2.96</v>
+      </c>
+      <c r="AX22">
+        <v>2.05</v>
+      </c>
+      <c r="AY22">
+        <v>6.5</v>
+      </c>
+      <c r="AZ22">
+        <v>2.3</v>
+      </c>
+      <c r="BA22">
+        <v>1.32</v>
+      </c>
+      <c r="BB22">
+        <v>1.58</v>
+      </c>
+      <c r="BC22">
+        <v>2.02</v>
+      </c>
+      <c r="BD22">
+        <v>2.7</v>
+      </c>
+      <c r="BE22">
+        <v>3.8</v>
+      </c>
+      <c r="BF22">
+        <v>6</v>
+      </c>
+      <c r="BG22">
+        <v>6</v>
+      </c>
+      <c r="BH22">
+        <v>6</v>
+      </c>
+      <c r="BI22">
+        <v>5</v>
+      </c>
+      <c r="BJ22">
+        <v>12</v>
+      </c>
+      <c r="BK22">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="120">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -316,6 +316,21 @@
     <t>['45+1', '62']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['55', '59', '90+2']</t>
+  </si>
+  <si>
+    <t>['37', '63']</t>
+  </si>
+  <si>
+    <t>['36', '48']</t>
+  </si>
+  <si>
+    <t>['29', '45+1']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -350,6 +365,15 @@
   </si>
   <si>
     <t>['17', '75']</t>
+  </si>
+  <si>
+    <t>['54', '90+2']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -711,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK22"/>
+  <dimension ref="A1:BK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -955,7 +979,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1042,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
         <v>3</v>
@@ -1337,7 +1361,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1427,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1528,7 +1552,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1615,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1719,7 +1743,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1806,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT6">
         <v>2</v>
@@ -2101,7 +2125,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2292,7 +2316,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2570,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2865,7 +2889,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3056,7 +3080,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3334,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14">
         <v>0</v>
@@ -3438,7 +3462,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3629,7 +3653,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -3719,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="AT16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4011,7 +4035,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4775,7 +4799,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -4910,13 +4934,1541 @@
         <v>6</v>
       </c>
       <c r="BI22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ22">
         <v>12</v>
       </c>
       <c r="BK22">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6651865</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45157.58333333334</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>3.75</v>
+      </c>
+      <c r="U23">
+        <v>2.05</v>
+      </c>
+      <c r="V23">
+        <v>2.8</v>
+      </c>
+      <c r="W23">
+        <v>1.43</v>
+      </c>
+      <c r="X23">
+        <v>2.65</v>
+      </c>
+      <c r="Y23">
+        <v>2.95</v>
+      </c>
+      <c r="Z23">
+        <v>1.35</v>
+      </c>
+      <c r="AA23">
+        <v>7.4</v>
+      </c>
+      <c r="AB23">
+        <v>1.06</v>
+      </c>
+      <c r="AC23">
+        <v>3.18</v>
+      </c>
+      <c r="AD23">
+        <v>3.35</v>
+      </c>
+      <c r="AE23">
+        <v>2.12</v>
+      </c>
+      <c r="AF23">
+        <v>1.06</v>
+      </c>
+      <c r="AG23">
+        <v>8</v>
+      </c>
+      <c r="AH23">
+        <v>1.33</v>
+      </c>
+      <c r="AI23">
+        <v>3.1</v>
+      </c>
+      <c r="AJ23">
+        <v>1.93</v>
+      </c>
+      <c r="AK23">
+        <v>1.78</v>
+      </c>
+      <c r="AL23">
+        <v>1.83</v>
+      </c>
+      <c r="AM23">
+        <v>1.9</v>
+      </c>
+      <c r="AN23">
+        <v>1.7</v>
+      </c>
+      <c r="AO23">
+        <v>1.25</v>
+      </c>
+      <c r="AP23">
+        <v>1.3</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>3</v>
+      </c>
+      <c r="AS23">
+        <v>0.5</v>
+      </c>
+      <c r="AT23">
+        <v>2</v>
+      </c>
+      <c r="AU23">
+        <v>1.47</v>
+      </c>
+      <c r="AV23">
+        <v>1.86</v>
+      </c>
+      <c r="AW23">
+        <v>3.33</v>
+      </c>
+      <c r="AX23">
+        <v>2.05</v>
+      </c>
+      <c r="AY23">
+        <v>5.25</v>
+      </c>
+      <c r="AZ23">
+        <v>2.1</v>
+      </c>
+      <c r="BA23">
+        <v>1.54</v>
+      </c>
+      <c r="BB23">
+        <v>1.98</v>
+      </c>
+      <c r="BC23">
+        <v>2.7</v>
+      </c>
+      <c r="BD23">
+        <v>3.8</v>
+      </c>
+      <c r="BE23">
+        <v>4.9</v>
+      </c>
+      <c r="BF23">
+        <v>4</v>
+      </c>
+      <c r="BG23">
+        <v>4</v>
+      </c>
+      <c r="BH23">
+        <v>3</v>
+      </c>
+      <c r="BI23">
+        <v>2</v>
+      </c>
+      <c r="BJ23">
+        <v>7</v>
+      </c>
+      <c r="BK23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6651868</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45157.58333333334</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q24">
+        <v>14</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>19</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>3.6</v>
+      </c>
+      <c r="W24">
+        <v>1.45</v>
+      </c>
+      <c r="X24">
+        <v>2.55</v>
+      </c>
+      <c r="Y24">
+        <v>3.05</v>
+      </c>
+      <c r="Z24">
+        <v>1.33</v>
+      </c>
+      <c r="AA24">
+        <v>7.9</v>
+      </c>
+      <c r="AB24">
+        <v>1.05</v>
+      </c>
+      <c r="AC24">
+        <v>2.3</v>
+      </c>
+      <c r="AD24">
+        <v>3.35</v>
+      </c>
+      <c r="AE24">
+        <v>2.84</v>
+      </c>
+      <c r="AF24">
+        <v>1.08</v>
+      </c>
+      <c r="AG24">
+        <v>7</v>
+      </c>
+      <c r="AH24">
+        <v>1.36</v>
+      </c>
+      <c r="AI24">
+        <v>2.95</v>
+      </c>
+      <c r="AJ24">
+        <v>2.03</v>
+      </c>
+      <c r="AK24">
+        <v>1.7</v>
+      </c>
+      <c r="AL24">
+        <v>1.85</v>
+      </c>
+      <c r="AM24">
+        <v>1.9</v>
+      </c>
+      <c r="AN24">
+        <v>1.33</v>
+      </c>
+      <c r="AO24">
+        <v>1.28</v>
+      </c>
+      <c r="AP24">
+        <v>1.55</v>
+      </c>
+      <c r="AQ24">
+        <v>3</v>
+      </c>
+      <c r="AR24">
+        <v>1</v>
+      </c>
+      <c r="AS24">
+        <v>2</v>
+      </c>
+      <c r="AT24">
+        <v>1</v>
+      </c>
+      <c r="AU24">
+        <v>1.66</v>
+      </c>
+      <c r="AV24">
+        <v>1.56</v>
+      </c>
+      <c r="AW24">
+        <v>3.22</v>
+      </c>
+      <c r="AX24">
+        <v>1.91</v>
+      </c>
+      <c r="AY24">
+        <v>6.5</v>
+      </c>
+      <c r="AZ24">
+        <v>2.38</v>
+      </c>
+      <c r="BA24">
+        <v>1.41</v>
+      </c>
+      <c r="BB24">
+        <v>1.74</v>
+      </c>
+      <c r="BC24">
+        <v>2.28</v>
+      </c>
+      <c r="BD24">
+        <v>3.15</v>
+      </c>
+      <c r="BE24">
+        <v>4.5</v>
+      </c>
+      <c r="BF24">
+        <v>8</v>
+      </c>
+      <c r="BG24">
+        <v>2</v>
+      </c>
+      <c r="BH24">
+        <v>7</v>
+      </c>
+      <c r="BI24">
+        <v>3</v>
+      </c>
+      <c r="BJ24">
+        <v>15</v>
+      </c>
+      <c r="BK24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6651867</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45157.58333333334</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>3.6</v>
+      </c>
+      <c r="U25">
+        <v>2.05</v>
+      </c>
+      <c r="V25">
+        <v>2.9</v>
+      </c>
+      <c r="W25">
+        <v>1.43</v>
+      </c>
+      <c r="X25">
+        <v>2.65</v>
+      </c>
+      <c r="Y25">
+        <v>2.95</v>
+      </c>
+      <c r="Z25">
+        <v>1.35</v>
+      </c>
+      <c r="AA25">
+        <v>7.9</v>
+      </c>
+      <c r="AB25">
+        <v>1.05</v>
+      </c>
+      <c r="AC25">
+        <v>3.22</v>
+      </c>
+      <c r="AD25">
+        <v>3.4</v>
+      </c>
+      <c r="AE25">
+        <v>2.08</v>
+      </c>
+      <c r="AF25">
+        <v>1.07</v>
+      </c>
+      <c r="AG25">
+        <v>7.5</v>
+      </c>
+      <c r="AH25">
+        <v>1.36</v>
+      </c>
+      <c r="AI25">
+        <v>3</v>
+      </c>
+      <c r="AJ25">
+        <v>1.99</v>
+      </c>
+      <c r="AK25">
+        <v>1.73</v>
+      </c>
+      <c r="AL25">
+        <v>1.83</v>
+      </c>
+      <c r="AM25">
+        <v>1.9</v>
+      </c>
+      <c r="AN25">
+        <v>1.63</v>
+      </c>
+      <c r="AO25">
+        <v>1.25</v>
+      </c>
+      <c r="AP25">
+        <v>1.36</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>3</v>
+      </c>
+      <c r="AS25">
+        <v>0.5</v>
+      </c>
+      <c r="AT25">
+        <v>3</v>
+      </c>
+      <c r="AU25">
+        <v>1.31</v>
+      </c>
+      <c r="AV25">
+        <v>1.63</v>
+      </c>
+      <c r="AW25">
+        <v>2.94</v>
+      </c>
+      <c r="AX25">
+        <v>2.38</v>
+      </c>
+      <c r="AY25">
+        <v>6.5</v>
+      </c>
+      <c r="AZ25">
+        <v>1.91</v>
+      </c>
+      <c r="BA25">
+        <v>1.48</v>
+      </c>
+      <c r="BB25">
+        <v>1.9</v>
+      </c>
+      <c r="BC25">
+        <v>2.5</v>
+      </c>
+      <c r="BD25">
+        <v>3.5</v>
+      </c>
+      <c r="BE25">
+        <v>5.1</v>
+      </c>
+      <c r="BF25">
+        <v>5</v>
+      </c>
+      <c r="BG25">
+        <v>4</v>
+      </c>
+      <c r="BH25">
+        <v>8</v>
+      </c>
+      <c r="BI25">
+        <v>5</v>
+      </c>
+      <c r="BJ25">
+        <v>13</v>
+      </c>
+      <c r="BK25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6651866</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45157.58333333334</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>2.6</v>
+      </c>
+      <c r="U26">
+        <v>2.05</v>
+      </c>
+      <c r="V26">
+        <v>4.2</v>
+      </c>
+      <c r="W26">
+        <v>1.45</v>
+      </c>
+      <c r="X26">
+        <v>2.55</v>
+      </c>
+      <c r="Y26">
+        <v>3.05</v>
+      </c>
+      <c r="Z26">
+        <v>1.33</v>
+      </c>
+      <c r="AA26">
+        <v>7.9</v>
+      </c>
+      <c r="AB26">
+        <v>1.05</v>
+      </c>
+      <c r="AC26">
+        <v>1.93</v>
+      </c>
+      <c r="AD26">
+        <v>3.5</v>
+      </c>
+      <c r="AE26">
+        <v>3.56</v>
+      </c>
+      <c r="AF26">
+        <v>1.08</v>
+      </c>
+      <c r="AG26">
+        <v>7</v>
+      </c>
+      <c r="AH26">
+        <v>1.36</v>
+      </c>
+      <c r="AI26">
+        <v>2.95</v>
+      </c>
+      <c r="AJ26">
+        <v>2.12</v>
+      </c>
+      <c r="AK26">
+        <v>1.64</v>
+      </c>
+      <c r="AL26">
+        <v>1.9</v>
+      </c>
+      <c r="AM26">
+        <v>1.83</v>
+      </c>
+      <c r="AN26">
+        <v>1.2</v>
+      </c>
+      <c r="AO26">
+        <v>1.25</v>
+      </c>
+      <c r="AP26">
+        <v>1.83</v>
+      </c>
+      <c r="AQ26">
+        <v>3</v>
+      </c>
+      <c r="AR26">
+        <v>1</v>
+      </c>
+      <c r="AS26">
+        <v>3</v>
+      </c>
+      <c r="AT26">
+        <v>0.5</v>
+      </c>
+      <c r="AU26">
+        <v>1.36</v>
+      </c>
+      <c r="AV26">
+        <v>1.02</v>
+      </c>
+      <c r="AW26">
+        <v>2.38</v>
+      </c>
+      <c r="AX26">
+        <v>1.3</v>
+      </c>
+      <c r="AY26">
+        <v>6.75</v>
+      </c>
+      <c r="AZ26">
+        <v>4</v>
+      </c>
+      <c r="BA26">
+        <v>1.36</v>
+      </c>
+      <c r="BB26">
+        <v>1.67</v>
+      </c>
+      <c r="BC26">
+        <v>2.15</v>
+      </c>
+      <c r="BD26">
+        <v>2.95</v>
+      </c>
+      <c r="BE26">
+        <v>4.1</v>
+      </c>
+      <c r="BF26">
+        <v>5</v>
+      </c>
+      <c r="BG26">
+        <v>2</v>
+      </c>
+      <c r="BH26">
+        <v>4</v>
+      </c>
+      <c r="BI26">
+        <v>2</v>
+      </c>
+      <c r="BJ26">
+        <v>9</v>
+      </c>
+      <c r="BK26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6651861</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45157.58333333334</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>7</v>
+      </c>
+      <c r="T27">
+        <v>3.2</v>
+      </c>
+      <c r="U27">
+        <v>2.05</v>
+      </c>
+      <c r="V27">
+        <v>3.2</v>
+      </c>
+      <c r="W27">
+        <v>1.42</v>
+      </c>
+      <c r="X27">
+        <v>2.65</v>
+      </c>
+      <c r="Y27">
+        <v>2.95</v>
+      </c>
+      <c r="Z27">
+        <v>1.35</v>
+      </c>
+      <c r="AA27">
+        <v>7.4</v>
+      </c>
+      <c r="AB27">
+        <v>1.06</v>
+      </c>
+      <c r="AC27">
+        <v>2.68</v>
+      </c>
+      <c r="AD27">
+        <v>3.2</v>
+      </c>
+      <c r="AE27">
+        <v>2.5</v>
+      </c>
+      <c r="AF27">
+        <v>1.07</v>
+      </c>
+      <c r="AG27">
+        <v>7.5</v>
+      </c>
+      <c r="AH27">
+        <v>1.33</v>
+      </c>
+      <c r="AI27">
+        <v>3.1</v>
+      </c>
+      <c r="AJ27">
+        <v>2.03</v>
+      </c>
+      <c r="AK27">
+        <v>1.7</v>
+      </c>
+      <c r="AL27">
+        <v>1.78</v>
+      </c>
+      <c r="AM27">
+        <v>1.95</v>
+      </c>
+      <c r="AN27">
+        <v>1.47</v>
+      </c>
+      <c r="AO27">
+        <v>1.25</v>
+      </c>
+      <c r="AP27">
+        <v>1.47</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>3</v>
+      </c>
+      <c r="AS27">
+        <v>1.5</v>
+      </c>
+      <c r="AT27">
+        <v>1.5</v>
+      </c>
+      <c r="AU27">
+        <v>1.29</v>
+      </c>
+      <c r="AV27">
+        <v>1.38</v>
+      </c>
+      <c r="AW27">
+        <v>2.67</v>
+      </c>
+      <c r="AX27">
+        <v>2.05</v>
+      </c>
+      <c r="AY27">
+        <v>7</v>
+      </c>
+      <c r="AZ27">
+        <v>2.15</v>
+      </c>
+      <c r="BA27">
+        <v>1.45</v>
+      </c>
+      <c r="BB27">
+        <v>1.82</v>
+      </c>
+      <c r="BC27">
+        <v>2.4</v>
+      </c>
+      <c r="BD27">
+        <v>3.35</v>
+      </c>
+      <c r="BE27">
+        <v>4.8</v>
+      </c>
+      <c r="BF27">
+        <v>5</v>
+      </c>
+      <c r="BG27">
+        <v>3</v>
+      </c>
+      <c r="BH27">
+        <v>4</v>
+      </c>
+      <c r="BI27">
+        <v>1</v>
+      </c>
+      <c r="BJ27">
+        <v>9</v>
+      </c>
+      <c r="BK27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>6651862</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45157.58333333334</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>3.1</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>3.4</v>
+      </c>
+      <c r="W28">
+        <v>1.44</v>
+      </c>
+      <c r="X28">
+        <v>2.6</v>
+      </c>
+      <c r="Y28">
+        <v>2.95</v>
+      </c>
+      <c r="Z28">
+        <v>1.35</v>
+      </c>
+      <c r="AA28">
+        <v>7.4</v>
+      </c>
+      <c r="AB28">
+        <v>1.06</v>
+      </c>
+      <c r="AC28">
+        <v>2.5</v>
+      </c>
+      <c r="AD28">
+        <v>3.15</v>
+      </c>
+      <c r="AE28">
+        <v>2.72</v>
+      </c>
+      <c r="AF28">
+        <v>1.07</v>
+      </c>
+      <c r="AG28">
+        <v>7.5</v>
+      </c>
+      <c r="AH28">
+        <v>1.33</v>
+      </c>
+      <c r="AI28">
+        <v>3.1</v>
+      </c>
+      <c r="AJ28">
+        <v>2</v>
+      </c>
+      <c r="AK28">
+        <v>1.72</v>
+      </c>
+      <c r="AL28">
+        <v>1.78</v>
+      </c>
+      <c r="AM28">
+        <v>1.95</v>
+      </c>
+      <c r="AN28">
+        <v>1.35</v>
+      </c>
+      <c r="AO28">
+        <v>1.28</v>
+      </c>
+      <c r="AP28">
+        <v>1.53</v>
+      </c>
+      <c r="AQ28">
+        <v>3</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>3</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>1.25</v>
+      </c>
+      <c r="AV28">
+        <v>0.87</v>
+      </c>
+      <c r="AW28">
+        <v>2.12</v>
+      </c>
+      <c r="AX28">
+        <v>1.83</v>
+      </c>
+      <c r="AY28">
+        <v>5.25</v>
+      </c>
+      <c r="AZ28">
+        <v>2.3</v>
+      </c>
+      <c r="BA28">
+        <v>1.5</v>
+      </c>
+      <c r="BB28">
+        <v>1.95</v>
+      </c>
+      <c r="BC28">
+        <v>2.6</v>
+      </c>
+      <c r="BD28">
+        <v>3.65</v>
+      </c>
+      <c r="BE28">
+        <v>5.3</v>
+      </c>
+      <c r="BF28">
+        <v>4</v>
+      </c>
+      <c r="BG28">
+        <v>6</v>
+      </c>
+      <c r="BH28">
+        <v>5</v>
+      </c>
+      <c r="BI28">
+        <v>6</v>
+      </c>
+      <c r="BJ28">
+        <v>9</v>
+      </c>
+      <c r="BK28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6651859</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45157.58333333334</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>103</v>
+      </c>
+      <c r="P29" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29">
+        <v>12</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>14</v>
+      </c>
+      <c r="T29">
+        <v>3.1</v>
+      </c>
+      <c r="U29">
+        <v>2.05</v>
+      </c>
+      <c r="V29">
+        <v>3.3</v>
+      </c>
+      <c r="W29">
+        <v>1.43</v>
+      </c>
+      <c r="X29">
+        <v>2.65</v>
+      </c>
+      <c r="Y29">
+        <v>2.95</v>
+      </c>
+      <c r="Z29">
+        <v>1.35</v>
+      </c>
+      <c r="AA29">
+        <v>7.4</v>
+      </c>
+      <c r="AB29">
+        <v>1.06</v>
+      </c>
+      <c r="AC29">
+        <v>2.5</v>
+      </c>
+      <c r="AD29">
+        <v>3.15</v>
+      </c>
+      <c r="AE29">
+        <v>2.72</v>
+      </c>
+      <c r="AF29">
+        <v>1.07</v>
+      </c>
+      <c r="AG29">
+        <v>7.5</v>
+      </c>
+      <c r="AH29">
+        <v>1.33</v>
+      </c>
+      <c r="AI29">
+        <v>3.1</v>
+      </c>
+      <c r="AJ29">
+        <v>1.99</v>
+      </c>
+      <c r="AK29">
+        <v>1.73</v>
+      </c>
+      <c r="AL29">
+        <v>1.78</v>
+      </c>
+      <c r="AM29">
+        <v>1.95</v>
+      </c>
+      <c r="AN29">
+        <v>1.36</v>
+      </c>
+      <c r="AO29">
+        <v>1.28</v>
+      </c>
+      <c r="AP29">
+        <v>1.52</v>
+      </c>
+      <c r="AQ29">
+        <v>3</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
+      <c r="AS29">
+        <v>3</v>
+      </c>
+      <c r="AT29">
+        <v>0.5</v>
+      </c>
+      <c r="AU29">
+        <v>0.93</v>
+      </c>
+      <c r="AV29">
+        <v>1.01</v>
+      </c>
+      <c r="AW29">
+        <v>1.94</v>
+      </c>
+      <c r="AX29">
+        <v>2.15</v>
+      </c>
+      <c r="AY29">
+        <v>5.75</v>
+      </c>
+      <c r="AZ29">
+        <v>1.95</v>
+      </c>
+      <c r="BA29">
+        <v>1.43</v>
+      </c>
+      <c r="BB29">
+        <v>1.8</v>
+      </c>
+      <c r="BC29">
+        <v>2.33</v>
+      </c>
+      <c r="BD29">
+        <v>3.25</v>
+      </c>
+      <c r="BE29">
+        <v>4.6</v>
+      </c>
+      <c r="BF29">
+        <v>7</v>
+      </c>
+      <c r="BG29">
+        <v>5</v>
+      </c>
+      <c r="BH29">
+        <v>2</v>
+      </c>
+      <c r="BI29">
+        <v>5</v>
+      </c>
+      <c r="BJ29">
+        <v>9</v>
+      </c>
+      <c r="BK29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6651864</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45157.58333333334</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>8</v>
+      </c>
+      <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
+        <v>2.25</v>
+      </c>
+      <c r="V30">
+        <v>4.5</v>
+      </c>
+      <c r="W30">
+        <v>1.35</v>
+      </c>
+      <c r="X30">
+        <v>2.95</v>
+      </c>
+      <c r="Y30">
+        <v>2.6</v>
+      </c>
+      <c r="Z30">
+        <v>1.44</v>
+      </c>
+      <c r="AA30">
+        <v>6.45</v>
+      </c>
+      <c r="AB30">
+        <v>1.09</v>
+      </c>
+      <c r="AC30">
+        <v>1.68</v>
+      </c>
+      <c r="AD30">
+        <v>3.8</v>
+      </c>
+      <c r="AE30">
+        <v>4.41</v>
+      </c>
+      <c r="AF30">
+        <v>1.05</v>
+      </c>
+      <c r="AG30">
+        <v>9</v>
+      </c>
+      <c r="AH30">
+        <v>1.25</v>
+      </c>
+      <c r="AI30">
+        <v>3.75</v>
+      </c>
+      <c r="AJ30">
+        <v>1.76</v>
+      </c>
+      <c r="AK30">
+        <v>1.95</v>
+      </c>
+      <c r="AL30">
+        <v>1.75</v>
+      </c>
+      <c r="AM30">
+        <v>2</v>
+      </c>
+      <c r="AN30">
+        <v>1.15</v>
+      </c>
+      <c r="AO30">
+        <v>1.2</v>
+      </c>
+      <c r="AP30">
+        <v>2</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>1.5</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>2.17</v>
+      </c>
+      <c r="AV30">
+        <v>0.84</v>
+      </c>
+      <c r="AW30">
+        <v>3.01</v>
+      </c>
+      <c r="AX30">
+        <v>1.36</v>
+      </c>
+      <c r="AY30">
+        <v>6</v>
+      </c>
+      <c r="AZ30">
+        <v>3.75</v>
+      </c>
+      <c r="BA30">
+        <v>1.43</v>
+      </c>
+      <c r="BB30">
+        <v>1.8</v>
+      </c>
+      <c r="BC30">
+        <v>2.33</v>
+      </c>
+      <c r="BD30">
+        <v>3.25</v>
+      </c>
+      <c r="BE30">
+        <v>4.6</v>
+      </c>
+      <c r="BF30">
+        <v>3</v>
+      </c>
+      <c r="BG30">
+        <v>2</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>6</v>
+      </c>
+      <c r="BJ30">
+        <v>3</v>
+      </c>
+      <c r="BK30">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -735,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK30"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2788,7 +2788,7 @@
         <v>3</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -6469,6 +6469,197 @@
       </c>
       <c r="BK30">
         <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>6651860</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45159.65625</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="T31">
+        <v>3.5</v>
+      </c>
+      <c r="U31">
+        <v>1.95</v>
+      </c>
+      <c r="V31">
+        <v>3.6</v>
+      </c>
+      <c r="W31">
+        <v>1.53</v>
+      </c>
+      <c r="X31">
+        <v>2.38</v>
+      </c>
+      <c r="Y31">
+        <v>3.75</v>
+      </c>
+      <c r="Z31">
+        <v>1.25</v>
+      </c>
+      <c r="AA31">
+        <v>11</v>
+      </c>
+      <c r="AB31">
+        <v>1.05</v>
+      </c>
+      <c r="AC31">
+        <v>2.48</v>
+      </c>
+      <c r="AD31">
+        <v>3</v>
+      </c>
+      <c r="AE31">
+        <v>2.75</v>
+      </c>
+      <c r="AF31">
+        <v>1.07</v>
+      </c>
+      <c r="AG31">
+        <v>6.25</v>
+      </c>
+      <c r="AH31">
+        <v>1.52</v>
+      </c>
+      <c r="AI31">
+        <v>2.54</v>
+      </c>
+      <c r="AJ31">
+        <v>2.4</v>
+      </c>
+      <c r="AK31">
+        <v>1.5</v>
+      </c>
+      <c r="AL31">
+        <v>2</v>
+      </c>
+      <c r="AM31">
+        <v>1.73</v>
+      </c>
+      <c r="AN31">
+        <v>1.41</v>
+      </c>
+      <c r="AO31">
+        <v>1.4</v>
+      </c>
+      <c r="AP31">
+        <v>1.47</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>1</v>
+      </c>
+      <c r="AT31">
+        <v>0.5</v>
+      </c>
+      <c r="AU31">
+        <v>2.08</v>
+      </c>
+      <c r="AV31">
+        <v>2</v>
+      </c>
+      <c r="AW31">
+        <v>4.08</v>
+      </c>
+      <c r="AX31">
+        <v>1.98</v>
+      </c>
+      <c r="AY31">
+        <v>7.9</v>
+      </c>
+      <c r="AZ31">
+        <v>2.17</v>
+      </c>
+      <c r="BA31">
+        <v>1.57</v>
+      </c>
+      <c r="BB31">
+        <v>2.02</v>
+      </c>
+      <c r="BC31">
+        <v>2.75</v>
+      </c>
+      <c r="BD31">
+        <v>3.9</v>
+      </c>
+      <c r="BE31">
+        <v>6.7</v>
+      </c>
+      <c r="BF31">
+        <v>3</v>
+      </c>
+      <c r="BG31">
+        <v>5</v>
+      </c>
+      <c r="BH31">
+        <v>5</v>
+      </c>
+      <c r="BI31">
+        <v>6</v>
+      </c>
+      <c r="BJ31">
+        <v>8</v>
+      </c>
+      <c r="BK31">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,21 @@
     <t>['29', '45+1']</t>
   </si>
   <si>
+    <t>['47', '56']</t>
+  </si>
+  <si>
+    <t>['42', '75', '84']</t>
+  </si>
+  <si>
+    <t>['17', '38', '50', '89']</t>
+  </si>
+  <si>
+    <t>['47', '70', '80']</t>
+  </si>
+  <si>
+    <t>['36', '45', '63']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -374,6 +389,9 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['9', '29']</t>
   </si>
 </sst>
 </file>
@@ -735,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -979,7 +997,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1069,7 +1087,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1361,7 +1379,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1552,7 +1570,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1743,7 +1761,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2024,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2125,7 +2143,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2212,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT8">
         <v>3</v>
@@ -2316,7 +2334,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2403,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2889,7 +2907,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -2976,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT12">
         <v>0</v>
@@ -3080,7 +3098,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3167,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT13">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3462,7 +3480,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3552,7 +3570,7 @@
         <v>3</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3653,7 +3671,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -3740,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
         <v>1.5</v>
@@ -3934,7 +3952,7 @@
         <v>3</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4035,7 +4053,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4122,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4799,7 +4817,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5271,7 +5289,7 @@
         <v>2</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU24">
         <v>1.66</v>
@@ -5372,7 +5390,7 @@
         <v>85</v>
       </c>
       <c r="P25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6136,7 +6154,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q29">
         <v>12</v>
@@ -6327,7 +6345,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6660,6 +6678,1725 @@
       </c>
       <c r="BK31">
         <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>6651870</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45164.41666666666</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>105</v>
+      </c>
+      <c r="P32" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <v>2.38</v>
+      </c>
+      <c r="U32">
+        <v>2.15</v>
+      </c>
+      <c r="V32">
+        <v>4.33</v>
+      </c>
+      <c r="W32">
+        <v>1.4</v>
+      </c>
+      <c r="X32">
+        <v>2.75</v>
+      </c>
+      <c r="Y32">
+        <v>2.62</v>
+      </c>
+      <c r="Z32">
+        <v>1.44</v>
+      </c>
+      <c r="AA32">
+        <v>6.5</v>
+      </c>
+      <c r="AB32">
+        <v>1.1</v>
+      </c>
+      <c r="AC32">
+        <v>1.69</v>
+      </c>
+      <c r="AD32">
+        <v>3.6</v>
+      </c>
+      <c r="AE32">
+        <v>4.3</v>
+      </c>
+      <c r="AF32">
+        <v>1.05</v>
+      </c>
+      <c r="AG32">
+        <v>9</v>
+      </c>
+      <c r="AH32">
+        <v>1.29</v>
+      </c>
+      <c r="AI32">
+        <v>3.5</v>
+      </c>
+      <c r="AJ32">
+        <v>2.14</v>
+      </c>
+      <c r="AK32">
+        <v>1.75</v>
+      </c>
+      <c r="AL32">
+        <v>1.8</v>
+      </c>
+      <c r="AM32">
+        <v>1.91</v>
+      </c>
+      <c r="AN32">
+        <v>1.15</v>
+      </c>
+      <c r="AO32">
+        <v>1.29</v>
+      </c>
+      <c r="AP32">
+        <v>2.1</v>
+      </c>
+      <c r="AQ32">
+        <v>3</v>
+      </c>
+      <c r="AR32">
+        <v>3</v>
+      </c>
+      <c r="AS32">
+        <v>3</v>
+      </c>
+      <c r="AT32">
+        <v>1.5</v>
+      </c>
+      <c r="AU32">
+        <v>1.83</v>
+      </c>
+      <c r="AV32">
+        <v>0.99</v>
+      </c>
+      <c r="AW32">
+        <v>2.82</v>
+      </c>
+      <c r="AX32">
+        <v>1.45</v>
+      </c>
+      <c r="AY32">
+        <v>7.5</v>
+      </c>
+      <c r="AZ32">
+        <v>3.6</v>
+      </c>
+      <c r="BA32">
+        <v>1.34</v>
+      </c>
+      <c r="BB32">
+        <v>1.69</v>
+      </c>
+      <c r="BC32">
+        <v>2.09</v>
+      </c>
+      <c r="BD32">
+        <v>2.6</v>
+      </c>
+      <c r="BE32">
+        <v>3.84</v>
+      </c>
+      <c r="BF32">
+        <v>8</v>
+      </c>
+      <c r="BG32">
+        <v>4</v>
+      </c>
+      <c r="BH32">
+        <v>3</v>
+      </c>
+      <c r="BI32">
+        <v>5</v>
+      </c>
+      <c r="BJ32">
+        <v>11</v>
+      </c>
+      <c r="BK32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>6651878</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45164.58333333334</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q33">
+        <v>7</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>8</v>
+      </c>
+      <c r="T33">
+        <v>2.65</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>4.33</v>
+      </c>
+      <c r="W33">
+        <v>1.46</v>
+      </c>
+      <c r="X33">
+        <v>2.55</v>
+      </c>
+      <c r="Y33">
+        <v>3.15</v>
+      </c>
+      <c r="Z33">
+        <v>1.32</v>
+      </c>
+      <c r="AA33">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB33">
+        <v>1.04</v>
+      </c>
+      <c r="AC33">
+        <v>1.95</v>
+      </c>
+      <c r="AD33">
+        <v>3.15</v>
+      </c>
+      <c r="AE33">
+        <v>3.85</v>
+      </c>
+      <c r="AF33">
+        <v>1.08</v>
+      </c>
+      <c r="AG33">
+        <v>7</v>
+      </c>
+      <c r="AH33">
+        <v>1.38</v>
+      </c>
+      <c r="AI33">
+        <v>2.9</v>
+      </c>
+      <c r="AJ33">
+        <v>2.15</v>
+      </c>
+      <c r="AK33">
+        <v>1.6</v>
+      </c>
+      <c r="AL33">
+        <v>1.95</v>
+      </c>
+      <c r="AM33">
+        <v>1.8</v>
+      </c>
+      <c r="AN33">
+        <v>1.2</v>
+      </c>
+      <c r="AO33">
+        <v>1.25</v>
+      </c>
+      <c r="AP33">
+        <v>1.8</v>
+      </c>
+      <c r="AQ33">
+        <v>3</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>1.5</v>
+      </c>
+      <c r="AT33">
+        <v>1.5</v>
+      </c>
+      <c r="AU33">
+        <v>2.1</v>
+      </c>
+      <c r="AV33">
+        <v>0.7</v>
+      </c>
+      <c r="AW33">
+        <v>2.8</v>
+      </c>
+      <c r="AX33">
+        <v>1.55</v>
+      </c>
+      <c r="AY33">
+        <v>7</v>
+      </c>
+      <c r="AZ33">
+        <v>3.2</v>
+      </c>
+      <c r="BA33">
+        <v>1.43</v>
+      </c>
+      <c r="BB33">
+        <v>1.73</v>
+      </c>
+      <c r="BC33">
+        <v>2.14</v>
+      </c>
+      <c r="BD33">
+        <v>2.63</v>
+      </c>
+      <c r="BE33">
+        <v>3.98</v>
+      </c>
+      <c r="BF33">
+        <v>7</v>
+      </c>
+      <c r="BG33">
+        <v>4</v>
+      </c>
+      <c r="BH33">
+        <v>6</v>
+      </c>
+      <c r="BI33">
+        <v>4</v>
+      </c>
+      <c r="BJ33">
+        <v>13</v>
+      </c>
+      <c r="BK33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6651877</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45164.58333333334</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>85</v>
+      </c>
+      <c r="P34" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <v>2.95</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>3.6</v>
+      </c>
+      <c r="W34">
+        <v>1.44</v>
+      </c>
+      <c r="X34">
+        <v>2.6</v>
+      </c>
+      <c r="Y34">
+        <v>3.05</v>
+      </c>
+      <c r="Z34">
+        <v>1.33</v>
+      </c>
+      <c r="AA34">
+        <v>7.9</v>
+      </c>
+      <c r="AB34">
+        <v>1.05</v>
+      </c>
+      <c r="AC34">
+        <v>2.25</v>
+      </c>
+      <c r="AD34">
+        <v>3.1</v>
+      </c>
+      <c r="AE34">
+        <v>3.1</v>
+      </c>
+      <c r="AF34">
+        <v>1.08</v>
+      </c>
+      <c r="AG34">
+        <v>7</v>
+      </c>
+      <c r="AH34">
+        <v>1.36</v>
+      </c>
+      <c r="AI34">
+        <v>2.95</v>
+      </c>
+      <c r="AJ34">
+        <v>2.1</v>
+      </c>
+      <c r="AK34">
+        <v>1.61</v>
+      </c>
+      <c r="AL34">
+        <v>1.87</v>
+      </c>
+      <c r="AM34">
+        <v>1.87</v>
+      </c>
+      <c r="AN34">
+        <v>1.3</v>
+      </c>
+      <c r="AO34">
+        <v>1.25</v>
+      </c>
+      <c r="AP34">
+        <v>1.6</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0.5</v>
+      </c>
+      <c r="AT34">
+        <v>0.5</v>
+      </c>
+      <c r="AU34">
+        <v>1.15</v>
+      </c>
+      <c r="AV34">
+        <v>1.96</v>
+      </c>
+      <c r="AW34">
+        <v>3.11</v>
+      </c>
+      <c r="AX34">
+        <v>1.85</v>
+      </c>
+      <c r="AY34">
+        <v>7</v>
+      </c>
+      <c r="AZ34">
+        <v>2.4</v>
+      </c>
+      <c r="BA34">
+        <v>1.44</v>
+      </c>
+      <c r="BB34">
+        <v>1.79</v>
+      </c>
+      <c r="BC34">
+        <v>2.24</v>
+      </c>
+      <c r="BD34">
+        <v>3.28</v>
+      </c>
+      <c r="BE34">
+        <v>4.8</v>
+      </c>
+      <c r="BF34">
+        <v>3</v>
+      </c>
+      <c r="BG34">
+        <v>6</v>
+      </c>
+      <c r="BH34">
+        <v>2</v>
+      </c>
+      <c r="BI34">
+        <v>6</v>
+      </c>
+      <c r="BJ34">
+        <v>5</v>
+      </c>
+      <c r="BK34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6651876</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45164.58333333334</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>85</v>
+      </c>
+      <c r="P35" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35">
+        <v>7</v>
+      </c>
+      <c r="T35">
+        <v>3.2</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>3.2</v>
+      </c>
+      <c r="W35">
+        <v>1.4</v>
+      </c>
+      <c r="X35">
+        <v>2.75</v>
+      </c>
+      <c r="Y35">
+        <v>3</v>
+      </c>
+      <c r="Z35">
+        <v>1.36</v>
+      </c>
+      <c r="AA35">
+        <v>7.5</v>
+      </c>
+      <c r="AB35">
+        <v>1.07</v>
+      </c>
+      <c r="AC35">
+        <v>2.65</v>
+      </c>
+      <c r="AD35">
+        <v>3.1</v>
+      </c>
+      <c r="AE35">
+        <v>2.55</v>
+      </c>
+      <c r="AF35">
+        <v>1.07</v>
+      </c>
+      <c r="AG35">
+        <v>7.5</v>
+      </c>
+      <c r="AH35">
+        <v>1.36</v>
+      </c>
+      <c r="AI35">
+        <v>3</v>
+      </c>
+      <c r="AJ35">
+        <v>2.05</v>
+      </c>
+      <c r="AK35">
+        <v>1.61</v>
+      </c>
+      <c r="AL35">
+        <v>1.85</v>
+      </c>
+      <c r="AM35">
+        <v>1.85</v>
+      </c>
+      <c r="AN35">
+        <v>1.5</v>
+      </c>
+      <c r="AO35">
+        <v>1.3</v>
+      </c>
+      <c r="AP35">
+        <v>1.4</v>
+      </c>
+      <c r="AQ35">
+        <v>1</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0.5</v>
+      </c>
+      <c r="AT35">
+        <v>1.5</v>
+      </c>
+      <c r="AU35">
+        <v>1.76</v>
+      </c>
+      <c r="AV35">
+        <v>1.04</v>
+      </c>
+      <c r="AW35">
+        <v>2.8</v>
+      </c>
+      <c r="AX35">
+        <v>2.05</v>
+      </c>
+      <c r="AY35">
+        <v>7.5</v>
+      </c>
+      <c r="AZ35">
+        <v>2.1</v>
+      </c>
+      <c r="BA35">
+        <v>1.1</v>
+      </c>
+      <c r="BB35">
+        <v>1.23</v>
+      </c>
+      <c r="BC35">
+        <v>1.5</v>
+      </c>
+      <c r="BD35">
+        <v>1.72</v>
+      </c>
+      <c r="BE35">
+        <v>2.2</v>
+      </c>
+      <c r="BF35">
+        <v>12</v>
+      </c>
+      <c r="BG35">
+        <v>3</v>
+      </c>
+      <c r="BH35">
+        <v>2</v>
+      </c>
+      <c r="BI35">
+        <v>3</v>
+      </c>
+      <c r="BJ35">
+        <v>14</v>
+      </c>
+      <c r="BK35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>6651875</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45164.58333333334</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>106</v>
+      </c>
+      <c r="P36" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>8</v>
+      </c>
+      <c r="S36">
+        <v>11</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>2.05</v>
+      </c>
+      <c r="V36">
+        <v>3.5</v>
+      </c>
+      <c r="W36">
+        <v>1.44</v>
+      </c>
+      <c r="X36">
+        <v>2.6</v>
+      </c>
+      <c r="Y36">
+        <v>2.95</v>
+      </c>
+      <c r="Z36">
+        <v>1.35</v>
+      </c>
+      <c r="AA36">
+        <v>7.9</v>
+      </c>
+      <c r="AB36">
+        <v>1.05</v>
+      </c>
+      <c r="AC36">
+        <v>2.25</v>
+      </c>
+      <c r="AD36">
+        <v>3.15</v>
+      </c>
+      <c r="AE36">
+        <v>2.95</v>
+      </c>
+      <c r="AF36">
+        <v>1.07</v>
+      </c>
+      <c r="AG36">
+        <v>7.5</v>
+      </c>
+      <c r="AH36">
+        <v>1.36</v>
+      </c>
+      <c r="AI36">
+        <v>3</v>
+      </c>
+      <c r="AJ36">
+        <v>2.05</v>
+      </c>
+      <c r="AK36">
+        <v>1.61</v>
+      </c>
+      <c r="AL36">
+        <v>1.83</v>
+      </c>
+      <c r="AM36">
+        <v>1.9</v>
+      </c>
+      <c r="AN36">
+        <v>1.33</v>
+      </c>
+      <c r="AO36">
+        <v>1.25</v>
+      </c>
+      <c r="AP36">
+        <v>1.57</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>1.5</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0.44</v>
+      </c>
+      <c r="AV36">
+        <v>1.12</v>
+      </c>
+      <c r="AW36">
+        <v>1.56</v>
+      </c>
+      <c r="AX36">
+        <v>1.88</v>
+      </c>
+      <c r="AY36">
+        <v>6.5</v>
+      </c>
+      <c r="AZ36">
+        <v>2.4</v>
+      </c>
+      <c r="BA36">
+        <v>1.53</v>
+      </c>
+      <c r="BB36">
+        <v>1.88</v>
+      </c>
+      <c r="BC36">
+        <v>2.38</v>
+      </c>
+      <c r="BD36">
+        <v>3.34</v>
+      </c>
+      <c r="BE36">
+        <v>4.9</v>
+      </c>
+      <c r="BF36">
+        <v>4</v>
+      </c>
+      <c r="BG36">
+        <v>5</v>
+      </c>
+      <c r="BH36">
+        <v>2</v>
+      </c>
+      <c r="BI36">
+        <v>6</v>
+      </c>
+      <c r="BJ36">
+        <v>6</v>
+      </c>
+      <c r="BK36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>6651874</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45164.58333333334</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P37" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>8</v>
+      </c>
+      <c r="T37">
+        <v>2.35</v>
+      </c>
+      <c r="U37">
+        <v>2.1</v>
+      </c>
+      <c r="V37">
+        <v>4.75</v>
+      </c>
+      <c r="W37">
+        <v>1.43</v>
+      </c>
+      <c r="X37">
+        <v>2.65</v>
+      </c>
+      <c r="Y37">
+        <v>2.95</v>
+      </c>
+      <c r="Z37">
+        <v>1.35</v>
+      </c>
+      <c r="AA37">
+        <v>7.4</v>
+      </c>
+      <c r="AB37">
+        <v>1.06</v>
+      </c>
+      <c r="AC37">
+        <v>1.9</v>
+      </c>
+      <c r="AD37">
+        <v>3.25</v>
+      </c>
+      <c r="AE37">
+        <v>4</v>
+      </c>
+      <c r="AF37">
+        <v>1.07</v>
+      </c>
+      <c r="AG37">
+        <v>7.5</v>
+      </c>
+      <c r="AH37">
+        <v>1.33</v>
+      </c>
+      <c r="AI37">
+        <v>3.1</v>
+      </c>
+      <c r="AJ37">
+        <v>1.83</v>
+      </c>
+      <c r="AK37">
+        <v>1.89</v>
+      </c>
+      <c r="AL37">
+        <v>1.95</v>
+      </c>
+      <c r="AM37">
+        <v>1.8</v>
+      </c>
+      <c r="AN37">
+        <v>1.15</v>
+      </c>
+      <c r="AO37">
+        <v>1.22</v>
+      </c>
+      <c r="AP37">
+        <v>2</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>1.5</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>1.48</v>
+      </c>
+      <c r="AV37">
+        <v>1.02</v>
+      </c>
+      <c r="AW37">
+        <v>2.5</v>
+      </c>
+      <c r="AX37">
+        <v>1.67</v>
+      </c>
+      <c r="AY37">
+        <v>7</v>
+      </c>
+      <c r="AZ37">
+        <v>2.8</v>
+      </c>
+      <c r="BA37">
+        <v>1.54</v>
+      </c>
+      <c r="BB37">
+        <v>1.89</v>
+      </c>
+      <c r="BC37">
+        <v>2.36</v>
+      </c>
+      <c r="BD37">
+        <v>3.65</v>
+      </c>
+      <c r="BE37">
+        <v>5.35</v>
+      </c>
+      <c r="BF37">
+        <v>4</v>
+      </c>
+      <c r="BG37">
+        <v>6</v>
+      </c>
+      <c r="BH37">
+        <v>10</v>
+      </c>
+      <c r="BI37">
+        <v>4</v>
+      </c>
+      <c r="BJ37">
+        <v>14</v>
+      </c>
+      <c r="BK37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>6651872</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45164.58333333334</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>85</v>
+      </c>
+      <c r="P38" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>7</v>
+      </c>
+      <c r="T38">
+        <v>2.45</v>
+      </c>
+      <c r="U38">
+        <v>2.1</v>
+      </c>
+      <c r="V38">
+        <v>4.33</v>
+      </c>
+      <c r="W38">
+        <v>1.41</v>
+      </c>
+      <c r="X38">
+        <v>2.7</v>
+      </c>
+      <c r="Y38">
+        <v>2.95</v>
+      </c>
+      <c r="Z38">
+        <v>1.35</v>
+      </c>
+      <c r="AA38">
+        <v>7.4</v>
+      </c>
+      <c r="AB38">
+        <v>1.06</v>
+      </c>
+      <c r="AC38">
+        <v>1.85</v>
+      </c>
+      <c r="AD38">
+        <v>3.3</v>
+      </c>
+      <c r="AE38">
+        <v>4.1</v>
+      </c>
+      <c r="AF38">
+        <v>1.08</v>
+      </c>
+      <c r="AG38">
+        <v>7</v>
+      </c>
+      <c r="AH38">
+        <v>1.33</v>
+      </c>
+      <c r="AI38">
+        <v>3.2</v>
+      </c>
+      <c r="AJ38">
+        <v>2.05</v>
+      </c>
+      <c r="AK38">
+        <v>1.61</v>
+      </c>
+      <c r="AL38">
+        <v>1.87</v>
+      </c>
+      <c r="AM38">
+        <v>1.87</v>
+      </c>
+      <c r="AN38">
+        <v>1.18</v>
+      </c>
+      <c r="AO38">
+        <v>1.22</v>
+      </c>
+      <c r="AP38">
+        <v>1.9</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>3</v>
+      </c>
+      <c r="AS38">
+        <v>0.5</v>
+      </c>
+      <c r="AT38">
+        <v>2</v>
+      </c>
+      <c r="AU38">
+        <v>1.4</v>
+      </c>
+      <c r="AV38">
+        <v>1.84</v>
+      </c>
+      <c r="AW38">
+        <v>3.24</v>
+      </c>
+      <c r="AX38">
+        <v>1.5</v>
+      </c>
+      <c r="AY38">
+        <v>7.5</v>
+      </c>
+      <c r="AZ38">
+        <v>3.3</v>
+      </c>
+      <c r="BA38">
+        <v>1.4</v>
+      </c>
+      <c r="BB38">
+        <v>1.67</v>
+      </c>
+      <c r="BC38">
+        <v>2.1</v>
+      </c>
+      <c r="BD38">
+        <v>2.63</v>
+      </c>
+      <c r="BE38">
+        <v>3.92</v>
+      </c>
+      <c r="BF38">
+        <v>3</v>
+      </c>
+      <c r="BG38">
+        <v>4</v>
+      </c>
+      <c r="BH38">
+        <v>8</v>
+      </c>
+      <c r="BI38">
+        <v>1</v>
+      </c>
+      <c r="BJ38">
+        <v>11</v>
+      </c>
+      <c r="BK38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>6651871</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45164.58333333334</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>5</v>
+      </c>
+      <c r="O39" t="s">
+        <v>108</v>
+      </c>
+      <c r="P39" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>8</v>
+      </c>
+      <c r="T39">
+        <v>2.6</v>
+      </c>
+      <c r="U39">
+        <v>2.1</v>
+      </c>
+      <c r="V39">
+        <v>4</v>
+      </c>
+      <c r="W39">
+        <v>1.41</v>
+      </c>
+      <c r="X39">
+        <v>2.7</v>
+      </c>
+      <c r="Y39">
+        <v>2.85</v>
+      </c>
+      <c r="Z39">
+        <v>1.37</v>
+      </c>
+      <c r="AA39">
+        <v>7.4</v>
+      </c>
+      <c r="AB39">
+        <v>1.06</v>
+      </c>
+      <c r="AC39">
+        <v>2.05</v>
+      </c>
+      <c r="AD39">
+        <v>3.25</v>
+      </c>
+      <c r="AE39">
+        <v>3.45</v>
+      </c>
+      <c r="AF39">
+        <v>1.07</v>
+      </c>
+      <c r="AG39">
+        <v>7.5</v>
+      </c>
+      <c r="AH39">
+        <v>1.3</v>
+      </c>
+      <c r="AI39">
+        <v>3.3</v>
+      </c>
+      <c r="AJ39">
+        <v>2.05</v>
+      </c>
+      <c r="AK39">
+        <v>1.67</v>
+      </c>
+      <c r="AL39">
+        <v>1.8</v>
+      </c>
+      <c r="AM39">
+        <v>1.95</v>
+      </c>
+      <c r="AN39">
+        <v>1.2</v>
+      </c>
+      <c r="AO39">
+        <v>1.25</v>
+      </c>
+      <c r="AP39">
+        <v>1.8</v>
+      </c>
+      <c r="AQ39">
+        <v>3</v>
+      </c>
+      <c r="AR39">
+        <v>1</v>
+      </c>
+      <c r="AS39">
+        <v>3</v>
+      </c>
+      <c r="AT39">
+        <v>0.67</v>
+      </c>
+      <c r="AU39">
+        <v>1.86</v>
+      </c>
+      <c r="AV39">
+        <v>1.14</v>
+      </c>
+      <c r="AW39">
+        <v>3</v>
+      </c>
+      <c r="AX39">
+        <v>1.55</v>
+      </c>
+      <c r="AY39">
+        <v>7.5</v>
+      </c>
+      <c r="AZ39">
+        <v>3.1</v>
+      </c>
+      <c r="BA39">
+        <v>1.2</v>
+      </c>
+      <c r="BB39">
+        <v>1.43</v>
+      </c>
+      <c r="BC39">
+        <v>1.72</v>
+      </c>
+      <c r="BD39">
+        <v>2.1</v>
+      </c>
+      <c r="BE39">
+        <v>2.63</v>
+      </c>
+      <c r="BF39">
+        <v>7</v>
+      </c>
+      <c r="BG39">
+        <v>5</v>
+      </c>
+      <c r="BH39">
+        <v>8</v>
+      </c>
+      <c r="BI39">
+        <v>1</v>
+      </c>
+      <c r="BJ39">
+        <v>15</v>
+      </c>
+      <c r="BK39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:63">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>6651873</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45164.58333333334</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>109</v>
+      </c>
+      <c r="P40" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q40">
+        <v>7</v>
+      </c>
+      <c r="R40">
+        <v>4</v>
+      </c>
+      <c r="S40">
+        <v>11</v>
+      </c>
+      <c r="T40">
+        <v>2.5</v>
+      </c>
+      <c r="U40">
+        <v>1.95</v>
+      </c>
+      <c r="V40">
+        <v>5</v>
+      </c>
+      <c r="W40">
+        <v>1.52</v>
+      </c>
+      <c r="X40">
+        <v>2.39</v>
+      </c>
+      <c r="Y40">
+        <v>3.45</v>
+      </c>
+      <c r="Z40">
+        <v>1.27</v>
+      </c>
+      <c r="AA40">
+        <v>9.4</v>
+      </c>
+      <c r="AB40">
+        <v>1.03</v>
+      </c>
+      <c r="AC40">
+        <v>1.77</v>
+      </c>
+      <c r="AD40">
+        <v>3.15</v>
+      </c>
+      <c r="AE40">
+        <v>4.7</v>
+      </c>
+      <c r="AF40">
+        <v>1.09</v>
+      </c>
+      <c r="AG40">
+        <v>7</v>
+      </c>
+      <c r="AH40">
+        <v>1.49</v>
+      </c>
+      <c r="AI40">
+        <v>2.45</v>
+      </c>
+      <c r="AJ40">
+        <v>2.4</v>
+      </c>
+      <c r="AK40">
+        <v>1.44</v>
+      </c>
+      <c r="AL40">
+        <v>2.2</v>
+      </c>
+      <c r="AM40">
+        <v>1.63</v>
+      </c>
+      <c r="AN40">
+        <v>1.14</v>
+      </c>
+      <c r="AO40">
+        <v>1.25</v>
+      </c>
+      <c r="AP40">
+        <v>1.95</v>
+      </c>
+      <c r="AQ40">
+        <v>3</v>
+      </c>
+      <c r="AR40">
+        <v>3</v>
+      </c>
+      <c r="AS40">
+        <v>3</v>
+      </c>
+      <c r="AT40">
+        <v>1.5</v>
+      </c>
+      <c r="AU40">
+        <v>1.97</v>
+      </c>
+      <c r="AV40">
+        <v>0.8</v>
+      </c>
+      <c r="AW40">
+        <v>2.77</v>
+      </c>
+      <c r="AX40">
+        <v>1.48</v>
+      </c>
+      <c r="AY40">
+        <v>7</v>
+      </c>
+      <c r="AZ40">
+        <v>3.6</v>
+      </c>
+      <c r="BA40">
+        <v>1.72</v>
+      </c>
+      <c r="BB40">
+        <v>2.25</v>
+      </c>
+      <c r="BC40">
+        <v>2.7</v>
+      </c>
+      <c r="BD40">
+        <v>4.5</v>
+      </c>
+      <c r="BE40">
+        <v>7</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>3</v>
+      </c>
+      <c r="BH40">
+        <v>4</v>
+      </c>
+      <c r="BI40">
+        <v>2</v>
+      </c>
+      <c r="BJ40">
+        <v>4</v>
+      </c>
+      <c r="BK40">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,9 @@
     <t>['36', '45', '63']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -392,6 +395,9 @@
   </si>
   <si>
     <t>['9', '29']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK40"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1003,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1379,7 +1385,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1570,7 +1576,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1657,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
         <v>2</v>
@@ -1761,7 +1767,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2143,7 +2149,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2334,7 +2340,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2907,7 +2913,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -2997,7 +3003,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3098,7 +3104,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3480,7 +3486,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3671,7 +3677,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4053,7 +4059,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4817,7 +4823,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5390,7 +5396,7 @@
         <v>85</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5859,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
         <v>1.5</v>
@@ -6154,7 +6160,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q29">
         <v>12</v>
@@ -6345,7 +6351,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6918,7 +6924,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7044,22 +7050,22 @@
         <v>3.98</v>
       </c>
       <c r="BF33">
+        <v>8</v>
+      </c>
+      <c r="BG33">
+        <v>5</v>
+      </c>
+      <c r="BH33">
         <v>7</v>
-      </c>
-      <c r="BG33">
-        <v>4</v>
-      </c>
-      <c r="BH33">
-        <v>6</v>
       </c>
       <c r="BI33">
         <v>4</v>
       </c>
       <c r="BJ33">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BK33">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:63">
@@ -7238,19 +7244,19 @@
         <v>3</v>
       </c>
       <c r="BG34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH34">
         <v>2</v>
       </c>
       <c r="BI34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ34">
         <v>5</v>
       </c>
       <c r="BK34">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:63">
@@ -7300,7 +7306,7 @@
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7426,13 +7432,13 @@
         <v>2.2</v>
       </c>
       <c r="BF35">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BG35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI35">
         <v>3</v>
@@ -7441,7 +7447,7 @@
         <v>14</v>
       </c>
       <c r="BK35">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:63">
@@ -7617,19 +7623,19 @@
         <v>4.9</v>
       </c>
       <c r="BF36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG36">
         <v>5</v>
       </c>
       <c r="BH36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI36">
         <v>6</v>
       </c>
       <c r="BJ36">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BK36">
         <v>11</v>
@@ -7808,22 +7814,22 @@
         <v>5.35</v>
       </c>
       <c r="BF37">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BG37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ37">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BK37">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:63">
@@ -8002,16 +8008,16 @@
         <v>3</v>
       </c>
       <c r="BG38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BI38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ38">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BK38">
         <v>5</v>
@@ -8064,7 +8070,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8193,19 +8199,19 @@
         <v>7</v>
       </c>
       <c r="BG39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH39">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BI39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ39">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BK39">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:63">
@@ -8381,22 +8387,213 @@
         <v>7</v>
       </c>
       <c r="BF40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG40">
         <v>3</v>
       </c>
       <c r="BH40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI40">
         <v>2</v>
       </c>
       <c r="BJ40">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BK40">
         <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:63">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>6651869</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45166.65625</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>110</v>
+      </c>
+      <c r="P41" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>6</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>2.2</v>
+      </c>
+      <c r="V41">
+        <v>2.75</v>
+      </c>
+      <c r="W41">
+        <v>1.36</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>2.75</v>
+      </c>
+      <c r="Z41">
+        <v>1.4</v>
+      </c>
+      <c r="AA41">
+        <v>7</v>
+      </c>
+      <c r="AB41">
+        <v>1.1</v>
+      </c>
+      <c r="AC41">
+        <v>3.15</v>
+      </c>
+      <c r="AD41">
+        <v>3.5</v>
+      </c>
+      <c r="AE41">
+        <v>2.02</v>
+      </c>
+      <c r="AF41">
+        <v>1.04</v>
+      </c>
+      <c r="AG41">
+        <v>12.5</v>
+      </c>
+      <c r="AH41">
+        <v>1.23</v>
+      </c>
+      <c r="AI41">
+        <v>4</v>
+      </c>
+      <c r="AJ41">
+        <v>1.83</v>
+      </c>
+      <c r="AK41">
+        <v>1.97</v>
+      </c>
+      <c r="AL41">
+        <v>1.67</v>
+      </c>
+      <c r="AM41">
+        <v>2.1</v>
+      </c>
+      <c r="AN41">
+        <v>1.71</v>
+      </c>
+      <c r="AO41">
+        <v>1.26</v>
+      </c>
+      <c r="AP41">
+        <v>1.3</v>
+      </c>
+      <c r="AQ41">
+        <v>1.5</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>1.33</v>
+      </c>
+      <c r="AT41">
+        <v>0.5</v>
+      </c>
+      <c r="AU41">
+        <v>1.26</v>
+      </c>
+      <c r="AV41">
+        <v>1.85</v>
+      </c>
+      <c r="AW41">
+        <v>3.11</v>
+      </c>
+      <c r="AX41">
+        <v>2.4</v>
+      </c>
+      <c r="AY41">
+        <v>7</v>
+      </c>
+      <c r="AZ41">
+        <v>1.85</v>
+      </c>
+      <c r="BA41">
+        <v>1.33</v>
+      </c>
+      <c r="BB41">
+        <v>1.72</v>
+      </c>
+      <c r="BC41">
+        <v>2.09</v>
+      </c>
+      <c r="BD41">
+        <v>2.63</v>
+      </c>
+      <c r="BE41">
+        <v>3.74</v>
+      </c>
+      <c r="BF41">
+        <v>6</v>
+      </c>
+      <c r="BG41">
+        <v>5</v>
+      </c>
+      <c r="BH41">
+        <v>7</v>
+      </c>
+      <c r="BI41">
+        <v>5</v>
+      </c>
+      <c r="BJ41">
+        <v>13</v>
+      </c>
+      <c r="BK41">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,27 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['26', '83']</t>
+  </si>
+  <si>
+    <t>['90+2', '90+5']</t>
+  </si>
+  <si>
+    <t>['57', '77']</t>
+  </si>
+  <si>
+    <t>['29', '45+5']</t>
+  </si>
+  <si>
+    <t>['33', '90+4']</t>
+  </si>
+  <si>
+    <t>['50', '65']</t>
+  </si>
+  <si>
+    <t>['42', '77', '81', '90+1']</t>
+  </si>
+  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -398,6 +419,27 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['33', '36', '56', '59']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['4', '29']</t>
+  </si>
+  <si>
+    <t>['63', '90+7']</t>
+  </si>
+  <si>
+    <t>['19', '52']</t>
+  </si>
+  <si>
+    <t>['40']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1003,7 +1045,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1090,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT2">
         <v>2</v>
@@ -1284,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1385,7 +1427,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1475,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1576,7 +1618,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1666,7 +1708,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1767,7 +1809,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1857,7 +1899,7 @@
         <v>0.5</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2149,7 +2191,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2239,7 +2281,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2340,7 +2382,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2618,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT10">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2809,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT11">
         <v>0.5</v>
@@ -2913,7 +2955,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3104,7 +3146,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3382,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT14">
         <v>0</v>
@@ -3486,7 +3528,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3573,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT15">
         <v>0.5</v>
@@ -3677,7 +3719,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -3767,7 +3809,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3958,7 +4000,7 @@
         <v>3</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4059,7 +4101,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4337,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -4719,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>0</v>
@@ -4823,7 +4865,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -4910,10 +4952,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT22">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU22">
         <v>1.13</v>
@@ -5104,7 +5146,7 @@
         <v>0.5</v>
       </c>
       <c r="AT23">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>1.47</v>
@@ -5292,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT24">
         <v>0.67</v>
@@ -5396,7 +5438,7 @@
         <v>85</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5483,10 +5525,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU25">
         <v>1.31</v>
@@ -5677,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU26">
         <v>1.36</v>
@@ -5868,7 +5910,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU27">
         <v>1.29</v>
@@ -6056,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT28">
         <v>0</v>
@@ -6160,7 +6202,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="Q29">
         <v>12</v>
@@ -6250,7 +6292,7 @@
         <v>3</v>
       </c>
       <c r="AT29">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU29">
         <v>0.93</v>
@@ -6351,7 +6393,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6438,10 +6480,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU30">
         <v>2.17</v>
@@ -6820,7 +6862,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT32">
         <v>1.5</v>
@@ -6924,7 +6966,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7014,7 +7056,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU33">
         <v>2.1</v>
@@ -7306,7 +7348,7 @@
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8070,7 +8112,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8452,7 +8494,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8594,6 +8636,1916 @@
       </c>
       <c r="BK41">
         <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>6651883</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45171.41666666666</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>6</v>
+      </c>
+      <c r="O42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P42" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>11</v>
+      </c>
+      <c r="S42">
+        <v>14</v>
+      </c>
+      <c r="T42">
+        <v>2.65</v>
+      </c>
+      <c r="U42">
+        <v>2.05</v>
+      </c>
+      <c r="V42">
+        <v>4</v>
+      </c>
+      <c r="W42">
+        <v>1.42</v>
+      </c>
+      <c r="X42">
+        <v>2.65</v>
+      </c>
+      <c r="Y42">
+        <v>2.95</v>
+      </c>
+      <c r="Z42">
+        <v>1.35</v>
+      </c>
+      <c r="AA42">
+        <v>7.4</v>
+      </c>
+      <c r="AB42">
+        <v>1.06</v>
+      </c>
+      <c r="AC42">
+        <v>2.06</v>
+      </c>
+      <c r="AD42">
+        <v>3.11</v>
+      </c>
+      <c r="AE42">
+        <v>3.11</v>
+      </c>
+      <c r="AF42">
+        <v>1.02</v>
+      </c>
+      <c r="AG42">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH42">
+        <v>1.33</v>
+      </c>
+      <c r="AI42">
+        <v>3.1</v>
+      </c>
+      <c r="AJ42">
+        <v>2.08</v>
+      </c>
+      <c r="AK42">
+        <v>1.8</v>
+      </c>
+      <c r="AL42">
+        <v>1.83</v>
+      </c>
+      <c r="AM42">
+        <v>1.9</v>
+      </c>
+      <c r="AN42">
+        <v>1.25</v>
+      </c>
+      <c r="AO42">
+        <v>1.25</v>
+      </c>
+      <c r="AP42">
+        <v>1.75</v>
+      </c>
+      <c r="AQ42">
+        <v>3</v>
+      </c>
+      <c r="AR42">
+        <v>2</v>
+      </c>
+      <c r="AS42">
+        <v>2</v>
+      </c>
+      <c r="AT42">
+        <v>2.33</v>
+      </c>
+      <c r="AU42">
+        <v>1.7</v>
+      </c>
+      <c r="AV42">
+        <v>1.61</v>
+      </c>
+      <c r="AW42">
+        <v>3.31</v>
+      </c>
+      <c r="AX42">
+        <v>1.67</v>
+      </c>
+      <c r="AY42">
+        <v>7</v>
+      </c>
+      <c r="AZ42">
+        <v>2.8</v>
+      </c>
+      <c r="BA42">
+        <v>1.44</v>
+      </c>
+      <c r="BB42">
+        <v>1.83</v>
+      </c>
+      <c r="BC42">
+        <v>2.38</v>
+      </c>
+      <c r="BD42">
+        <v>3.3</v>
+      </c>
+      <c r="BE42">
+        <v>4.75</v>
+      </c>
+      <c r="BF42">
+        <v>10</v>
+      </c>
+      <c r="BG42">
+        <v>7</v>
+      </c>
+      <c r="BH42">
+        <v>8</v>
+      </c>
+      <c r="BI42">
+        <v>4</v>
+      </c>
+      <c r="BJ42">
+        <v>18</v>
+      </c>
+      <c r="BK42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>6651884</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45171.58333333334</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>85</v>
+      </c>
+      <c r="P43" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+      <c r="S43">
+        <v>8</v>
+      </c>
+      <c r="T43">
+        <v>2.1</v>
+      </c>
+      <c r="U43">
+        <v>2.3</v>
+      </c>
+      <c r="V43">
+        <v>5</v>
+      </c>
+      <c r="W43">
+        <v>1.34</v>
+      </c>
+      <c r="X43">
+        <v>3</v>
+      </c>
+      <c r="Y43">
+        <v>2.6</v>
+      </c>
+      <c r="Z43">
+        <v>1.44</v>
+      </c>
+      <c r="AA43">
+        <v>6</v>
+      </c>
+      <c r="AB43">
+        <v>1.1</v>
+      </c>
+      <c r="AC43">
+        <v>1.53</v>
+      </c>
+      <c r="AD43">
+        <v>4</v>
+      </c>
+      <c r="AE43">
+        <v>6.5</v>
+      </c>
+      <c r="AF43">
+        <v>1.05</v>
+      </c>
+      <c r="AG43">
+        <v>9</v>
+      </c>
+      <c r="AH43">
+        <v>1.25</v>
+      </c>
+      <c r="AI43">
+        <v>3.75</v>
+      </c>
+      <c r="AJ43">
+        <v>1.75</v>
+      </c>
+      <c r="AK43">
+        <v>2</v>
+      </c>
+      <c r="AL43">
+        <v>1.83</v>
+      </c>
+      <c r="AM43">
+        <v>1.9</v>
+      </c>
+      <c r="AN43">
+        <v>1.1</v>
+      </c>
+      <c r="AO43">
+        <v>1.18</v>
+      </c>
+      <c r="AP43">
+        <v>2.4</v>
+      </c>
+      <c r="AQ43">
+        <v>1.5</v>
+      </c>
+      <c r="AR43">
+        <v>1.5</v>
+      </c>
+      <c r="AS43">
+        <v>1.33</v>
+      </c>
+      <c r="AT43">
+        <v>1.33</v>
+      </c>
+      <c r="AU43">
+        <v>1.6</v>
+      </c>
+      <c r="AV43">
+        <v>0.91</v>
+      </c>
+      <c r="AW43">
+        <v>2.51</v>
+      </c>
+      <c r="AX43">
+        <v>1.3</v>
+      </c>
+      <c r="AY43">
+        <v>8</v>
+      </c>
+      <c r="AZ43">
+        <v>4.75</v>
+      </c>
+      <c r="BA43">
+        <v>1.36</v>
+      </c>
+      <c r="BB43">
+        <v>1.67</v>
+      </c>
+      <c r="BC43">
+        <v>2.15</v>
+      </c>
+      <c r="BD43">
+        <v>2.95</v>
+      </c>
+      <c r="BE43">
+        <v>4.1</v>
+      </c>
+      <c r="BF43">
+        <v>2</v>
+      </c>
+      <c r="BG43">
+        <v>3</v>
+      </c>
+      <c r="BH43">
+        <v>10</v>
+      </c>
+      <c r="BI43">
+        <v>5</v>
+      </c>
+      <c r="BJ43">
+        <v>12</v>
+      </c>
+      <c r="BK43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>6651888</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45171.58333333334</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>85</v>
+      </c>
+      <c r="P44" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q44">
+        <v>8</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>11</v>
+      </c>
+      <c r="T44">
+        <v>2.9</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44">
+        <v>3.75</v>
+      </c>
+      <c r="W44">
+        <v>1.47</v>
+      </c>
+      <c r="X44">
+        <v>2.5</v>
+      </c>
+      <c r="Y44">
+        <v>3.15</v>
+      </c>
+      <c r="Z44">
+        <v>1.32</v>
+      </c>
+      <c r="AA44">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB44">
+        <v>1.04</v>
+      </c>
+      <c r="AC44">
+        <v>2.3</v>
+      </c>
+      <c r="AD44">
+        <v>3.1</v>
+      </c>
+      <c r="AE44">
+        <v>3.4</v>
+      </c>
+      <c r="AF44">
+        <v>1.08</v>
+      </c>
+      <c r="AG44">
+        <v>7</v>
+      </c>
+      <c r="AH44">
+        <v>1.38</v>
+      </c>
+      <c r="AI44">
+        <v>2.9</v>
+      </c>
+      <c r="AJ44">
+        <v>2.2</v>
+      </c>
+      <c r="AK44">
+        <v>1.62</v>
+      </c>
+      <c r="AL44">
+        <v>1.9</v>
+      </c>
+      <c r="AM44">
+        <v>1.85</v>
+      </c>
+      <c r="AN44">
+        <v>1.33</v>
+      </c>
+      <c r="AO44">
+        <v>1.28</v>
+      </c>
+      <c r="AP44">
+        <v>1.63</v>
+      </c>
+      <c r="AQ44">
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <v>0.5</v>
+      </c>
+      <c r="AS44">
+        <v>1.67</v>
+      </c>
+      <c r="AT44">
+        <v>0.67</v>
+      </c>
+      <c r="AU44">
+        <v>1.83</v>
+      </c>
+      <c r="AV44">
+        <v>1.18</v>
+      </c>
+      <c r="AW44">
+        <v>3.01</v>
+      </c>
+      <c r="AX44">
+        <v>2.05</v>
+      </c>
+      <c r="AY44">
+        <v>7</v>
+      </c>
+      <c r="AZ44">
+        <v>2.15</v>
+      </c>
+      <c r="BA44">
+        <v>1.41</v>
+      </c>
+      <c r="BB44">
+        <v>1.74</v>
+      </c>
+      <c r="BC44">
+        <v>2.28</v>
+      </c>
+      <c r="BD44">
+        <v>3.15</v>
+      </c>
+      <c r="BE44">
+        <v>4.5</v>
+      </c>
+      <c r="BF44">
+        <v>4</v>
+      </c>
+      <c r="BG44">
+        <v>3</v>
+      </c>
+      <c r="BH44">
+        <v>17</v>
+      </c>
+      <c r="BI44">
+        <v>8</v>
+      </c>
+      <c r="BJ44">
+        <v>21</v>
+      </c>
+      <c r="BK44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>6651887</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45171.58333333334</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q45">
+        <v>4</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>5</v>
+      </c>
+      <c r="T45">
+        <v>2.9</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>3.75</v>
+      </c>
+      <c r="W45">
+        <v>1.47</v>
+      </c>
+      <c r="X45">
+        <v>2.5</v>
+      </c>
+      <c r="Y45">
+        <v>3.15</v>
+      </c>
+      <c r="Z45">
+        <v>1.32</v>
+      </c>
+      <c r="AA45">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB45">
+        <v>1.04</v>
+      </c>
+      <c r="AC45">
+        <v>2.2</v>
+      </c>
+      <c r="AD45">
+        <v>3.2</v>
+      </c>
+      <c r="AE45">
+        <v>3.5</v>
+      </c>
+      <c r="AF45">
+        <v>1.08</v>
+      </c>
+      <c r="AG45">
+        <v>7</v>
+      </c>
+      <c r="AH45">
+        <v>1.38</v>
+      </c>
+      <c r="AI45">
+        <v>2.9</v>
+      </c>
+      <c r="AJ45">
+        <v>2.15</v>
+      </c>
+      <c r="AK45">
+        <v>1.65</v>
+      </c>
+      <c r="AL45">
+        <v>1.9</v>
+      </c>
+      <c r="AM45">
+        <v>1.83</v>
+      </c>
+      <c r="AN45">
+        <v>1.3</v>
+      </c>
+      <c r="AO45">
+        <v>1.28</v>
+      </c>
+      <c r="AP45">
+        <v>1.66</v>
+      </c>
+      <c r="AQ45">
+        <v>0.5</v>
+      </c>
+      <c r="AR45">
+        <v>1</v>
+      </c>
+      <c r="AS45">
+        <v>0.67</v>
+      </c>
+      <c r="AT45">
+        <v>1</v>
+      </c>
+      <c r="AU45">
+        <v>1.48</v>
+      </c>
+      <c r="AV45">
+        <v>0.76</v>
+      </c>
+      <c r="AW45">
+        <v>2.24</v>
+      </c>
+      <c r="AX45">
+        <v>1.7</v>
+      </c>
+      <c r="AY45">
+        <v>7</v>
+      </c>
+      <c r="AZ45">
+        <v>2.7</v>
+      </c>
+      <c r="BA45">
+        <v>1.54</v>
+      </c>
+      <c r="BB45">
+        <v>2</v>
+      </c>
+      <c r="BC45">
+        <v>2.7</v>
+      </c>
+      <c r="BD45">
+        <v>3.8</v>
+      </c>
+      <c r="BE45">
+        <v>5</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <v>9</v>
+      </c>
+      <c r="BH45">
+        <v>6</v>
+      </c>
+      <c r="BI45">
+        <v>6</v>
+      </c>
+      <c r="BJ45">
+        <v>6</v>
+      </c>
+      <c r="BK45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:63">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>6651885</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45171.58333333334</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>112</v>
+      </c>
+      <c r="P46" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>3.6</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+      <c r="V46">
+        <v>2.95</v>
+      </c>
+      <c r="W46">
+        <v>1.44</v>
+      </c>
+      <c r="X46">
+        <v>2.6</v>
+      </c>
+      <c r="Y46">
+        <v>2.95</v>
+      </c>
+      <c r="Z46">
+        <v>1.35</v>
+      </c>
+      <c r="AA46">
+        <v>7.9</v>
+      </c>
+      <c r="AB46">
+        <v>1.05</v>
+      </c>
+      <c r="AC46">
+        <v>3.4</v>
+      </c>
+      <c r="AD46">
+        <v>3.13</v>
+      </c>
+      <c r="AE46">
+        <v>2.25</v>
+      </c>
+      <c r="AF46">
+        <v>1.08</v>
+      </c>
+      <c r="AG46">
+        <v>7</v>
+      </c>
+      <c r="AH46">
+        <v>1.36</v>
+      </c>
+      <c r="AI46">
+        <v>3</v>
+      </c>
+      <c r="AJ46">
+        <v>2.1</v>
+      </c>
+      <c r="AK46">
+        <v>1.67</v>
+      </c>
+      <c r="AL46">
+        <v>1.83</v>
+      </c>
+      <c r="AM46">
+        <v>1.9</v>
+      </c>
+      <c r="AN46">
+        <v>1.57</v>
+      </c>
+      <c r="AO46">
+        <v>1.25</v>
+      </c>
+      <c r="AP46">
+        <v>1.36</v>
+      </c>
+      <c r="AQ46">
+        <v>3</v>
+      </c>
+      <c r="AR46">
+        <v>3</v>
+      </c>
+      <c r="AS46">
+        <v>3</v>
+      </c>
+      <c r="AT46">
+        <v>2</v>
+      </c>
+      <c r="AU46">
+        <v>1.34</v>
+      </c>
+      <c r="AV46">
+        <v>1.39</v>
+      </c>
+      <c r="AW46">
+        <v>2.73</v>
+      </c>
+      <c r="AX46">
+        <v>2.05</v>
+      </c>
+      <c r="AY46">
+        <v>7</v>
+      </c>
+      <c r="AZ46">
+        <v>2.15</v>
+      </c>
+      <c r="BA46">
+        <v>1.45</v>
+      </c>
+      <c r="BB46">
+        <v>1.85</v>
+      </c>
+      <c r="BC46">
+        <v>2.4</v>
+      </c>
+      <c r="BD46">
+        <v>3.35</v>
+      </c>
+      <c r="BE46">
+        <v>4.8</v>
+      </c>
+      <c r="BF46">
+        <v>4</v>
+      </c>
+      <c r="BG46">
+        <v>3</v>
+      </c>
+      <c r="BH46">
+        <v>3</v>
+      </c>
+      <c r="BI46">
+        <v>1</v>
+      </c>
+      <c r="BJ46">
+        <v>7</v>
+      </c>
+      <c r="BK46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>6651886</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45171.58333333334</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47" t="s">
+        <v>113</v>
+      </c>
+      <c r="P47" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>7</v>
+      </c>
+      <c r="S47">
+        <v>12</v>
+      </c>
+      <c r="T47">
+        <v>2.7</v>
+      </c>
+      <c r="U47">
+        <v>2.05</v>
+      </c>
+      <c r="V47">
+        <v>3.7</v>
+      </c>
+      <c r="W47">
+        <v>1.4</v>
+      </c>
+      <c r="X47">
+        <v>2.75</v>
+      </c>
+      <c r="Y47">
+        <v>2.75</v>
+      </c>
+      <c r="Z47">
+        <v>1.4</v>
+      </c>
+      <c r="AA47">
+        <v>7</v>
+      </c>
+      <c r="AB47">
+        <v>1.08</v>
+      </c>
+      <c r="AC47">
+        <v>2.38</v>
+      </c>
+      <c r="AD47">
+        <v>3.2</v>
+      </c>
+      <c r="AE47">
+        <v>3.1</v>
+      </c>
+      <c r="AF47">
+        <v>1.07</v>
+      </c>
+      <c r="AG47">
+        <v>7.5</v>
+      </c>
+      <c r="AH47">
+        <v>1.33</v>
+      </c>
+      <c r="AI47">
+        <v>3.25</v>
+      </c>
+      <c r="AJ47">
+        <v>1.95</v>
+      </c>
+      <c r="AK47">
+        <v>1.78</v>
+      </c>
+      <c r="AL47">
+        <v>1.8</v>
+      </c>
+      <c r="AM47">
+        <v>1.91</v>
+      </c>
+      <c r="AN47">
+        <v>1.4</v>
+      </c>
+      <c r="AO47">
+        <v>1.33</v>
+      </c>
+      <c r="AP47">
+        <v>1.53</v>
+      </c>
+      <c r="AQ47">
+        <v>3</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>2</v>
+      </c>
+      <c r="AT47">
+        <v>0.33</v>
+      </c>
+      <c r="AU47">
+        <v>1.39</v>
+      </c>
+      <c r="AV47">
+        <v>1.17</v>
+      </c>
+      <c r="AW47">
+        <v>2.56</v>
+      </c>
+      <c r="AX47">
+        <v>1.85</v>
+      </c>
+      <c r="AY47">
+        <v>7</v>
+      </c>
+      <c r="AZ47">
+        <v>2.4</v>
+      </c>
+      <c r="BA47">
+        <v>1.41</v>
+      </c>
+      <c r="BB47">
+        <v>1.74</v>
+      </c>
+      <c r="BC47">
+        <v>2.28</v>
+      </c>
+      <c r="BD47">
+        <v>3.15</v>
+      </c>
+      <c r="BE47">
+        <v>4.5</v>
+      </c>
+      <c r="BF47">
+        <v>5</v>
+      </c>
+      <c r="BG47">
+        <v>2</v>
+      </c>
+      <c r="BH47">
+        <v>3</v>
+      </c>
+      <c r="BI47">
+        <v>4</v>
+      </c>
+      <c r="BJ47">
+        <v>8</v>
+      </c>
+      <c r="BK47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>6651881</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45171.58333333334</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>114</v>
+      </c>
+      <c r="P48" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q48">
+        <v>4</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+      <c r="S48">
+        <v>9</v>
+      </c>
+      <c r="T48">
+        <v>3.2</v>
+      </c>
+      <c r="U48">
+        <v>2.05</v>
+      </c>
+      <c r="V48">
+        <v>3.25</v>
+      </c>
+      <c r="W48">
+        <v>1.44</v>
+      </c>
+      <c r="X48">
+        <v>2.6</v>
+      </c>
+      <c r="Y48">
+        <v>2.95</v>
+      </c>
+      <c r="Z48">
+        <v>1.35</v>
+      </c>
+      <c r="AA48">
+        <v>7.4</v>
+      </c>
+      <c r="AB48">
+        <v>1.06</v>
+      </c>
+      <c r="AC48">
+        <v>2.8</v>
+      </c>
+      <c r="AD48">
+        <v>3.1</v>
+      </c>
+      <c r="AE48">
+        <v>2.7</v>
+      </c>
+      <c r="AF48">
+        <v>1.08</v>
+      </c>
+      <c r="AG48">
+        <v>7</v>
+      </c>
+      <c r="AH48">
+        <v>1.33</v>
+      </c>
+      <c r="AI48">
+        <v>3.1</v>
+      </c>
+      <c r="AJ48">
+        <v>2.15</v>
+      </c>
+      <c r="AK48">
+        <v>1.65</v>
+      </c>
+      <c r="AL48">
+        <v>1.8</v>
+      </c>
+      <c r="AM48">
+        <v>1.95</v>
+      </c>
+      <c r="AN48">
+        <v>1.4</v>
+      </c>
+      <c r="AO48">
+        <v>1.28</v>
+      </c>
+      <c r="AP48">
+        <v>1.47</v>
+      </c>
+      <c r="AQ48">
+        <v>3</v>
+      </c>
+      <c r="AR48">
+        <v>0.5</v>
+      </c>
+      <c r="AS48">
+        <v>2.33</v>
+      </c>
+      <c r="AT48">
+        <v>0.67</v>
+      </c>
+      <c r="AU48">
+        <v>1.2</v>
+      </c>
+      <c r="AV48">
+        <v>1.08</v>
+      </c>
+      <c r="AW48">
+        <v>2.28</v>
+      </c>
+      <c r="AX48">
+        <v>1.85</v>
+      </c>
+      <c r="AY48">
+        <v>7</v>
+      </c>
+      <c r="AZ48">
+        <v>2.4</v>
+      </c>
+      <c r="BA48">
+        <v>1.45</v>
+      </c>
+      <c r="BB48">
+        <v>1.85</v>
+      </c>
+      <c r="BC48">
+        <v>2.4</v>
+      </c>
+      <c r="BD48">
+        <v>3.35</v>
+      </c>
+      <c r="BE48">
+        <v>4.8</v>
+      </c>
+      <c r="BF48">
+        <v>4</v>
+      </c>
+      <c r="BG48">
+        <v>7</v>
+      </c>
+      <c r="BH48">
+        <v>7</v>
+      </c>
+      <c r="BI48">
+        <v>3</v>
+      </c>
+      <c r="BJ48">
+        <v>11</v>
+      </c>
+      <c r="BK48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>6651882</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45171.58333333334</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>115</v>
+      </c>
+      <c r="P49" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <v>9</v>
+      </c>
+      <c r="T49">
+        <v>2.6</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>4.33</v>
+      </c>
+      <c r="W49">
+        <v>1.45</v>
+      </c>
+      <c r="X49">
+        <v>2.55</v>
+      </c>
+      <c r="Y49">
+        <v>3.05</v>
+      </c>
+      <c r="Z49">
+        <v>1.33</v>
+      </c>
+      <c r="AA49">
+        <v>7.9</v>
+      </c>
+      <c r="AB49">
+        <v>1.05</v>
+      </c>
+      <c r="AC49">
+        <v>2</v>
+      </c>
+      <c r="AD49">
+        <v>3.3</v>
+      </c>
+      <c r="AE49">
+        <v>3.6</v>
+      </c>
+      <c r="AF49">
+        <v>1.07</v>
+      </c>
+      <c r="AG49">
+        <v>7.5</v>
+      </c>
+      <c r="AH49">
+        <v>1.36</v>
+      </c>
+      <c r="AI49">
+        <v>3</v>
+      </c>
+      <c r="AJ49">
+        <v>2.1</v>
+      </c>
+      <c r="AK49">
+        <v>1.61</v>
+      </c>
+      <c r="AL49">
+        <v>1.9</v>
+      </c>
+      <c r="AM49">
+        <v>1.85</v>
+      </c>
+      <c r="AN49">
+        <v>1.22</v>
+      </c>
+      <c r="AO49">
+        <v>1.25</v>
+      </c>
+      <c r="AP49">
+        <v>1.83</v>
+      </c>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>1.67</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>1.33</v>
+      </c>
+      <c r="AV49">
+        <v>1.28</v>
+      </c>
+      <c r="AW49">
+        <v>2.61</v>
+      </c>
+      <c r="AX49">
+        <v>1.6</v>
+      </c>
+      <c r="AY49">
+        <v>7</v>
+      </c>
+      <c r="AZ49">
+        <v>3</v>
+      </c>
+      <c r="BA49">
+        <v>1.41</v>
+      </c>
+      <c r="BB49">
+        <v>1.74</v>
+      </c>
+      <c r="BC49">
+        <v>2.28</v>
+      </c>
+      <c r="BD49">
+        <v>3.15</v>
+      </c>
+      <c r="BE49">
+        <v>4.5</v>
+      </c>
+      <c r="BF49">
+        <v>3</v>
+      </c>
+      <c r="BG49">
+        <v>4</v>
+      </c>
+      <c r="BH49">
+        <v>2</v>
+      </c>
+      <c r="BI49">
+        <v>4</v>
+      </c>
+      <c r="BJ49">
+        <v>5</v>
+      </c>
+      <c r="BK49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:63">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>6651880</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45171.58333333334</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>116</v>
+      </c>
+      <c r="P50" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+      <c r="R50">
+        <v>5</v>
+      </c>
+      <c r="S50">
+        <v>7</v>
+      </c>
+      <c r="T50">
+        <v>2.65</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
+        <v>4.33</v>
+      </c>
+      <c r="W50">
+        <v>1.51</v>
+      </c>
+      <c r="X50">
+        <v>2.4</v>
+      </c>
+      <c r="Y50">
+        <v>3.25</v>
+      </c>
+      <c r="Z50">
+        <v>1.3</v>
+      </c>
+      <c r="AA50">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB50">
+        <v>1.04</v>
+      </c>
+      <c r="AC50">
+        <v>2</v>
+      </c>
+      <c r="AD50">
+        <v>3.13</v>
+      </c>
+      <c r="AE50">
+        <v>4.2</v>
+      </c>
+      <c r="AF50">
+        <v>1.09</v>
+      </c>
+      <c r="AG50">
+        <v>7.5</v>
+      </c>
+      <c r="AH50">
+        <v>1.44</v>
+      </c>
+      <c r="AI50">
+        <v>2.4</v>
+      </c>
+      <c r="AJ50">
+        <v>2.38</v>
+      </c>
+      <c r="AK50">
+        <v>1.53</v>
+      </c>
+      <c r="AL50">
+        <v>2.05</v>
+      </c>
+      <c r="AM50">
+        <v>1.72</v>
+      </c>
+      <c r="AN50">
+        <v>1.2</v>
+      </c>
+      <c r="AO50">
+        <v>1.25</v>
+      </c>
+      <c r="AP50">
+        <v>1.8</v>
+      </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
+      <c r="AR50">
+        <v>1.5</v>
+      </c>
+      <c r="AS50">
+        <v>1</v>
+      </c>
+      <c r="AT50">
+        <v>1.33</v>
+      </c>
+      <c r="AU50">
+        <v>1.51</v>
+      </c>
+      <c r="AV50">
+        <v>1.02</v>
+      </c>
+      <c r="AW50">
+        <v>2.53</v>
+      </c>
+      <c r="AX50">
+        <v>1.5</v>
+      </c>
+      <c r="AY50">
+        <v>7.5</v>
+      </c>
+      <c r="AZ50">
+        <v>3.3</v>
+      </c>
+      <c r="BA50">
+        <v>1.32</v>
+      </c>
+      <c r="BB50">
+        <v>1.93</v>
+      </c>
+      <c r="BC50">
+        <v>2.02</v>
+      </c>
+      <c r="BD50">
+        <v>2.7</v>
+      </c>
+      <c r="BE50">
+        <v>3.75</v>
+      </c>
+      <c r="BF50">
+        <v>4</v>
+      </c>
+      <c r="BG50">
+        <v>3</v>
+      </c>
+      <c r="BH50">
+        <v>4</v>
+      </c>
+      <c r="BI50">
+        <v>4</v>
+      </c>
+      <c r="BJ50">
+        <v>8</v>
+      </c>
+      <c r="BK50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:63">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>6651879</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45171.58333333334</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>5</v>
+      </c>
+      <c r="O51" t="s">
+        <v>117</v>
+      </c>
+      <c r="P51" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>4</v>
+      </c>
+      <c r="S51">
+        <v>6</v>
+      </c>
+      <c r="T51">
+        <v>2.9</v>
+      </c>
+      <c r="U51">
+        <v>2.05</v>
+      </c>
+      <c r="V51">
+        <v>3.6</v>
+      </c>
+      <c r="W51">
+        <v>1.44</v>
+      </c>
+      <c r="X51">
+        <v>2.6</v>
+      </c>
+      <c r="Y51">
+        <v>2.95</v>
+      </c>
+      <c r="Z51">
+        <v>1.35</v>
+      </c>
+      <c r="AA51">
+        <v>7.9</v>
+      </c>
+      <c r="AB51">
+        <v>1.05</v>
+      </c>
+      <c r="AC51">
+        <v>2.3</v>
+      </c>
+      <c r="AD51">
+        <v>3.2</v>
+      </c>
+      <c r="AE51">
+        <v>3.25</v>
+      </c>
+      <c r="AF51">
+        <v>1.07</v>
+      </c>
+      <c r="AG51">
+        <v>7.5</v>
+      </c>
+      <c r="AH51">
+        <v>1.36</v>
+      </c>
+      <c r="AI51">
+        <v>3</v>
+      </c>
+      <c r="AJ51">
+        <v>2.05</v>
+      </c>
+      <c r="AK51">
+        <v>1.7</v>
+      </c>
+      <c r="AL51">
+        <v>1.83</v>
+      </c>
+      <c r="AM51">
+        <v>1.9</v>
+      </c>
+      <c r="AN51">
+        <v>1.36</v>
+      </c>
+      <c r="AO51">
+        <v>1.25</v>
+      </c>
+      <c r="AP51">
+        <v>1.62</v>
+      </c>
+      <c r="AQ51">
+        <v>3</v>
+      </c>
+      <c r="AR51">
+        <v>2</v>
+      </c>
+      <c r="AS51">
+        <v>3</v>
+      </c>
+      <c r="AT51">
+        <v>1.33</v>
+      </c>
+      <c r="AU51">
+        <v>1.29</v>
+      </c>
+      <c r="AV51">
+        <v>1.49</v>
+      </c>
+      <c r="AW51">
+        <v>2.78</v>
+      </c>
+      <c r="AX51">
+        <v>1.78</v>
+      </c>
+      <c r="AY51">
+        <v>6.5</v>
+      </c>
+      <c r="AZ51">
+        <v>2.6</v>
+      </c>
+      <c r="BA51">
+        <v>1.45</v>
+      </c>
+      <c r="BB51">
+        <v>1.85</v>
+      </c>
+      <c r="BC51">
+        <v>2.4</v>
+      </c>
+      <c r="BD51">
+        <v>3.35</v>
+      </c>
+      <c r="BE51">
+        <v>4.8</v>
+      </c>
+      <c r="BF51">
+        <v>4</v>
+      </c>
+      <c r="BG51">
+        <v>4</v>
+      </c>
+      <c r="BH51">
+        <v>3</v>
+      </c>
+      <c r="BI51">
+        <v>3</v>
+      </c>
+      <c r="BJ51">
+        <v>7</v>
+      </c>
+      <c r="BK51">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -9005,16 +9005,16 @@
         <v>2</v>
       </c>
       <c r="BG43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH43">
+        <v>8</v>
+      </c>
+      <c r="BI43">
+        <v>4</v>
+      </c>
+      <c r="BJ43">
         <v>10</v>
-      </c>
-      <c r="BI43">
-        <v>5</v>
-      </c>
-      <c r="BJ43">
-        <v>12</v>
       </c>
       <c r="BK43">
         <v>8</v>
@@ -9196,19 +9196,19 @@
         <v>4</v>
       </c>
       <c r="BG44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BI44">
+        <v>6</v>
+      </c>
+      <c r="BJ44">
+        <v>19</v>
+      </c>
+      <c r="BK44">
         <v>8</v>
-      </c>
-      <c r="BJ44">
-        <v>21</v>
-      </c>
-      <c r="BK44">
-        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:63">
@@ -9384,22 +9384,22 @@
         <v>5</v>
       </c>
       <c r="BF45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI45">
         <v>6</v>
       </c>
       <c r="BJ45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK45">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:63">
@@ -9769,19 +9769,19 @@
         <v>5</v>
       </c>
       <c r="BG47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK47">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:63">
@@ -9957,22 +9957,22 @@
         <v>4.8</v>
       </c>
       <c r="BF48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BH48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ48">
         <v>11</v>
       </c>
       <c r="BK48">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:63">
@@ -10148,22 +10148,22 @@
         <v>4.5</v>
       </c>
       <c r="BF49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG49">
         <v>4</v>
       </c>
       <c r="BH49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ49">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BK49">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:63">
@@ -10342,19 +10342,19 @@
         <v>4</v>
       </c>
       <c r="BG50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH50">
         <v>4</v>
       </c>
       <c r="BI50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ50">
         <v>8</v>
       </c>
       <c r="BK50">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:63">
@@ -10530,22 +10530,22 @@
         <v>4.8</v>
       </c>
       <c r="BF51">
+        <v>8</v>
+      </c>
+      <c r="BG51">
+        <v>5</v>
+      </c>
+      <c r="BH51">
         <v>4</v>
       </c>
-      <c r="BG51">
-        <v>4</v>
-      </c>
-      <c r="BH51">
-        <v>3</v>
-      </c>
       <c r="BI51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ51">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BK51">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -244,30 +244,30 @@
     <t>Rodez</t>
   </si>
   <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Grenoble Foot 38</t>
+  </si>
+  <si>
     <t>Quevilly Rouen</t>
   </si>
   <si>
-    <t>Grenoble Foot 38</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
     <t>Angers SCO</t>
   </si>
   <si>
-    <t>Caen</t>
-  </si>
-  <si>
     <t>Bordeaux</t>
   </si>
   <si>
@@ -298,18 +298,18 @@
     <t>['41', '90+5']</t>
   </si>
   <si>
+    <t>['40', '77', '90+5']</t>
+  </si>
+  <si>
+    <t>['38', '45+3']</t>
+  </si>
+  <si>
+    <t>['15', '20', '79']</t>
+  </si>
+  <si>
     <t>['63', '89']</t>
   </si>
   <si>
-    <t>['15', '20', '79']</t>
-  </si>
-  <si>
-    <t>['40', '77', '90+5']</t>
-  </si>
-  <si>
-    <t>['38', '45+3']</t>
-  </si>
-  <si>
     <t>['90+8']</t>
   </si>
   <si>
@@ -319,57 +319,57 @@
     <t>['81']</t>
   </si>
   <si>
+    <t>['29', '45+1']</t>
+  </si>
+  <si>
     <t>['55', '59', '90+2']</t>
   </si>
   <si>
+    <t>['36', '48']</t>
+  </si>
+  <si>
     <t>['37', '63']</t>
   </si>
   <si>
-    <t>['36', '48']</t>
-  </si>
-  <si>
-    <t>['29', '45+1']</t>
-  </si>
-  <si>
     <t>['47', '56']</t>
   </si>
   <si>
+    <t>['47', '70', '80']</t>
+  </si>
+  <si>
+    <t>['36', '45', '63']</t>
+  </si>
+  <si>
+    <t>['17', '38', '50', '89']</t>
+  </si>
+  <si>
     <t>['42', '75', '84']</t>
   </si>
   <si>
-    <t>['17', '38', '50', '89']</t>
-  </si>
-  <si>
-    <t>['47', '70', '80']</t>
-  </si>
-  <si>
-    <t>['36', '45', '63']</t>
-  </si>
-  <si>
     <t>['26']</t>
   </si>
   <si>
     <t>['26', '83']</t>
   </si>
   <si>
+    <t>['50', '65']</t>
+  </si>
+  <si>
+    <t>['57', '77']</t>
+  </si>
+  <si>
     <t>['90+2', '90+5']</t>
   </si>
   <si>
-    <t>['57', '77']</t>
+    <t>['42', '77', '81', '90+1']</t>
+  </si>
+  <si>
+    <t>['33', '90+4']</t>
   </si>
   <si>
     <t>['29', '45+5']</t>
   </si>
   <si>
-    <t>['33', '90+4']</t>
-  </si>
-  <si>
-    <t>['50', '65']</t>
-  </si>
-  <si>
-    <t>['42', '77', '81', '90+1']</t>
-  </si>
-  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -391,30 +391,30 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
     <t>['33']</t>
   </si>
   <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
-    <t>['82']</t>
-  </si>
-  <si>
-    <t>['47']</t>
-  </si>
-  <si>
     <t>['17', '75']</t>
   </si>
   <si>
     <t>['54', '90+2']</t>
   </si>
   <si>
+    <t>['54']</t>
+  </si>
+  <si>
     <t>['44']</t>
   </si>
   <si>
-    <t>['54']</t>
-  </si>
-  <si>
     <t>['9', '29']</t>
   </si>
   <si>
@@ -424,22 +424,22 @@
     <t>['33', '36', '56', '59']</t>
   </si>
   <si>
+    <t>['19', '52']</t>
+  </si>
+  <si>
     <t>['28']</t>
   </si>
   <si>
+    <t>['4', '29']</t>
+  </si>
+  <si>
     <t>['77']</t>
   </si>
   <si>
-    <t>['4', '29']</t>
+    <t>['40']</t>
   </si>
   <si>
     <t>['63', '90+7']</t>
-  </si>
-  <si>
-    <t>['19', '52']</t>
-  </si>
-  <si>
-    <t>['40']</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1976,7 +1976,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2549,7 +2549,7 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6651857</v>
+        <v>6651851</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -3122,172 +3122,172 @@
         <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" t="s">
         <v>85</v>
       </c>
-      <c r="P13" t="s">
-        <v>125</v>
-      </c>
       <c r="Q13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T13">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="V13">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="W13">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="X13">
+        <v>2.65</v>
+      </c>
+      <c r="Y13">
+        <v>2.95</v>
+      </c>
+      <c r="Z13">
+        <v>1.35</v>
+      </c>
+      <c r="AA13">
+        <v>7.9</v>
+      </c>
+      <c r="AB13">
+        <v>1.05</v>
+      </c>
+      <c r="AC13">
+        <v>1.84</v>
+      </c>
+      <c r="AD13">
+        <v>3.16</v>
+      </c>
+      <c r="AE13">
+        <v>3.78</v>
+      </c>
+      <c r="AF13">
+        <v>1.04</v>
+      </c>
+      <c r="AG13">
+        <v>7.8</v>
+      </c>
+      <c r="AH13">
+        <v>1.36</v>
+      </c>
+      <c r="AI13">
+        <v>3</v>
+      </c>
+      <c r="AJ13">
+        <v>2.1</v>
+      </c>
+      <c r="AK13">
+        <v>1.65</v>
+      </c>
+      <c r="AL13">
+        <v>1.95</v>
+      </c>
+      <c r="AM13">
+        <v>1.8</v>
+      </c>
+      <c r="AN13">
+        <v>1.12</v>
+      </c>
+      <c r="AO13">
+        <v>1.3</v>
+      </c>
+      <c r="AP13">
+        <v>1.97</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>1.33</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>1.4</v>
+      </c>
+      <c r="AY13">
+        <v>9.5</v>
+      </c>
+      <c r="AZ13">
+        <v>3.65</v>
+      </c>
+      <c r="BA13">
+        <v>1.45</v>
+      </c>
+      <c r="BB13">
+        <v>1.8</v>
+      </c>
+      <c r="BC13">
         <v>2.4</v>
       </c>
-      <c r="Y13">
-        <v>3.6</v>
-      </c>
-      <c r="Z13">
-        <v>1.25</v>
-      </c>
-      <c r="AA13">
-        <v>8.5</v>
-      </c>
-      <c r="AB13">
-        <v>1.04</v>
-      </c>
-      <c r="AC13">
-        <v>2.54</v>
-      </c>
-      <c r="AD13">
-        <v>2.93</v>
-      </c>
-      <c r="AE13">
-        <v>2.73</v>
-      </c>
-      <c r="AF13">
-        <v>1.07</v>
-      </c>
-      <c r="AG13">
-        <v>6.5</v>
-      </c>
-      <c r="AH13">
-        <v>1.42</v>
-      </c>
-      <c r="AI13">
-        <v>2.6</v>
-      </c>
-      <c r="AJ13">
-        <v>2.35</v>
-      </c>
-      <c r="AK13">
-        <v>1.53</v>
-      </c>
-      <c r="AL13">
-        <v>2</v>
-      </c>
-      <c r="AM13">
-        <v>1.7</v>
-      </c>
-      <c r="AN13">
-        <v>1.35</v>
-      </c>
-      <c r="AO13">
-        <v>1.4</v>
-      </c>
-      <c r="AP13">
-        <v>1.4</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0.5</v>
-      </c>
-      <c r="AT13">
-        <v>1.5</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>1.94</v>
-      </c>
-      <c r="AY13">
+      <c r="BD13">
+        <v>3.35</v>
+      </c>
+      <c r="BE13">
+        <v>4.8</v>
+      </c>
+      <c r="BF13">
         <v>8</v>
       </c>
-      <c r="AZ13">
-        <v>2.21</v>
-      </c>
-      <c r="BA13">
-        <v>1.57</v>
-      </c>
-      <c r="BB13">
-        <v>2.02</v>
-      </c>
-      <c r="BC13">
-        <v>2.75</v>
-      </c>
-      <c r="BD13">
-        <v>3.95</v>
-      </c>
-      <c r="BE13">
-        <v>5.65</v>
-      </c>
-      <c r="BF13">
-        <v>3</v>
-      </c>
       <c r="BG13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ13">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BK13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:63">
@@ -3295,7 +3295,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6651856</v>
+        <v>6651852</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -3313,7 +3313,7 @@
         <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3325,97 +3325,97 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
         <v>5</v>
-      </c>
-      <c r="R14">
-        <v>6</v>
       </c>
       <c r="S14">
         <v>11</v>
       </c>
       <c r="T14">
-        <v>3.18</v>
+        <v>2.24</v>
       </c>
       <c r="U14">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V14">
-        <v>3.74</v>
+        <v>5.45</v>
       </c>
       <c r="W14">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="X14">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Y14">
-        <v>3.26</v>
+        <v>2.75</v>
       </c>
       <c r="Z14">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AA14">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AB14">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AC14">
-        <v>2.37</v>
+        <v>1.7</v>
       </c>
       <c r="AD14">
-        <v>3.06</v>
+        <v>3.55</v>
       </c>
       <c r="AE14">
-        <v>2.61</v>
+        <v>4.3</v>
       </c>
       <c r="AF14">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AG14">
         <v>9.5</v>
       </c>
       <c r="AH14">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AI14">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AJ14">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="AK14">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AL14">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AM14">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AN14">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AO14">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AP14">
-        <v>1.55</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3424,61 +3424,61 @@
         <v>0</v>
       </c>
       <c r="AS14">
+        <v>0.5</v>
+      </c>
+      <c r="AT14">
+        <v>1.5</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>1.49</v>
+      </c>
+      <c r="AY14">
+        <v>9.1</v>
+      </c>
+      <c r="AZ14">
+        <v>3.2</v>
+      </c>
+      <c r="BA14">
+        <v>1.36</v>
+      </c>
+      <c r="BB14">
         <v>1.67</v>
       </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>1.88</v>
-      </c>
-      <c r="AY14">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AZ14">
-        <v>2.27</v>
-      </c>
-      <c r="BA14">
-        <v>1.48</v>
-      </c>
-      <c r="BB14">
-        <v>1.88</v>
-      </c>
       <c r="BC14">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="BD14">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="BE14">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="BF14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BG14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BI14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BJ14">
         <v>12</v>
       </c>
       <c r="BK14">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:63">
@@ -3486,7 +3486,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6651855</v>
+        <v>6651853</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -3504,7 +3504,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3516,37 +3516,37 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O15" t="s">
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U15">
         <v>2.05</v>
       </c>
       <c r="V15">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="W15">
         <v>1.4</v>
@@ -3567,13 +3567,13 @@
         <v>1.08</v>
       </c>
       <c r="AC15">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="AD15">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="AE15">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="AF15">
         <v>1.07</v>
@@ -3594,19 +3594,19 @@
         <v>1.75</v>
       </c>
       <c r="AL15">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AM15">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AN15">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AO15">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AP15">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3615,10 +3615,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3630,46 +3630,46 @@
         <v>0</v>
       </c>
       <c r="AX15">
-        <v>1.97</v>
+        <v>1.28</v>
       </c>
       <c r="AY15">
-        <v>8.4</v>
+        <v>10.25</v>
       </c>
       <c r="AZ15">
-        <v>2.14</v>
+        <v>4.65</v>
       </c>
       <c r="BA15">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BB15">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="BC15">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="BD15">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="BE15">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BF15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH15">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BI15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BJ15">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BK15">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -3719,7 +3719,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -3868,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>6651851</v>
+        <v>6651855</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -3886,82 +3886,82 @@
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>3</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O17" t="s">
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>5</v>
       </c>
       <c r="R17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
+        <v>2.05</v>
+      </c>
+      <c r="V17">
+        <v>4.2</v>
+      </c>
+      <c r="W17">
+        <v>1.4</v>
+      </c>
+      <c r="X17">
+        <v>2.75</v>
+      </c>
+      <c r="Y17">
+        <v>2.75</v>
+      </c>
+      <c r="Z17">
+        <v>1.4</v>
+      </c>
+      <c r="AA17">
+        <v>7</v>
+      </c>
+      <c r="AB17">
+        <v>1.08</v>
+      </c>
+      <c r="AC17">
         <v>2.1</v>
       </c>
-      <c r="V17">
-        <v>4.8</v>
-      </c>
-      <c r="W17">
-        <v>1.42</v>
-      </c>
-      <c r="X17">
-        <v>2.65</v>
-      </c>
-      <c r="Y17">
-        <v>2.95</v>
-      </c>
-      <c r="Z17">
-        <v>1.35</v>
-      </c>
-      <c r="AA17">
-        <v>7.9</v>
-      </c>
-      <c r="AB17">
-        <v>1.05</v>
-      </c>
-      <c r="AC17">
-        <v>1.84</v>
-      </c>
       <c r="AD17">
-        <v>3.16</v>
+        <v>3.35</v>
       </c>
       <c r="AE17">
-        <v>3.78</v>
+        <v>3.1</v>
       </c>
       <c r="AF17">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AG17">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AH17">
         <v>1.36</v>
@@ -3970,88 +3970,88 @@
         <v>3</v>
       </c>
       <c r="AJ17">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AK17">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AL17">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AM17">
         <v>1.8</v>
       </c>
       <c r="AN17">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AO17">
         <v>1.3</v>
       </c>
       <c r="AP17">
+        <v>1.73</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>2</v>
+      </c>
+      <c r="AT17">
+        <v>0.5</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
         <v>1.97</v>
       </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>3</v>
-      </c>
-      <c r="AT17">
-        <v>1.33</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>1.4</v>
-      </c>
       <c r="AY17">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
       <c r="AZ17">
-        <v>3.65</v>
+        <v>2.14</v>
       </c>
       <c r="BA17">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="BB17">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="BC17">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BD17">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="BE17">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="BF17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BI17">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BJ17">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BK17">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:63">
@@ -4059,7 +4059,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>6651852</v>
+        <v>6651856</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -4077,7 +4077,7 @@
         <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4089,160 +4089,160 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" t="s">
         <v>85</v>
       </c>
-      <c r="P18" t="s">
-        <v>128</v>
-      </c>
       <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
         <v>6</v>
-      </c>
-      <c r="R18">
-        <v>5</v>
       </c>
       <c r="S18">
         <v>11</v>
       </c>
       <c r="T18">
-        <v>2.24</v>
+        <v>3.18</v>
       </c>
       <c r="U18">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V18">
-        <v>5.45</v>
+        <v>3.74</v>
       </c>
       <c r="W18">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="X18">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Y18">
-        <v>2.75</v>
+        <v>3.26</v>
       </c>
       <c r="Z18">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AA18">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AB18">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC18">
-        <v>1.7</v>
+        <v>2.37</v>
       </c>
       <c r="AD18">
-        <v>3.55</v>
+        <v>3.06</v>
       </c>
       <c r="AE18">
-        <v>4.3</v>
+        <v>2.61</v>
       </c>
       <c r="AF18">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AG18">
         <v>9.5</v>
       </c>
       <c r="AH18">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AI18">
+        <v>3.1</v>
+      </c>
+      <c r="AJ18">
+        <v>2.1</v>
+      </c>
+      <c r="AK18">
+        <v>1.65</v>
+      </c>
+      <c r="AL18">
+        <v>1.85</v>
+      </c>
+      <c r="AM18">
+        <v>1.85</v>
+      </c>
+      <c r="AN18">
+        <v>1.4</v>
+      </c>
+      <c r="AO18">
+        <v>1.35</v>
+      </c>
+      <c r="AP18">
+        <v>1.55</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>1.67</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>1.88</v>
+      </c>
+      <c r="AY18">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ18">
+        <v>2.27</v>
+      </c>
+      <c r="BA18">
+        <v>1.48</v>
+      </c>
+      <c r="BB18">
+        <v>1.88</v>
+      </c>
+      <c r="BC18">
+        <v>2.5</v>
+      </c>
+      <c r="BD18">
         <v>3.5</v>
       </c>
-      <c r="AJ18">
-        <v>2.08</v>
-      </c>
-      <c r="AK18">
-        <v>1.8</v>
-      </c>
-      <c r="AL18">
-        <v>1.75</v>
-      </c>
-      <c r="AM18">
-        <v>1.93</v>
-      </c>
-      <c r="AN18">
-        <v>1.17</v>
-      </c>
-      <c r="AO18">
-        <v>1.26</v>
-      </c>
-      <c r="AP18">
-        <v>2.17</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0.5</v>
-      </c>
-      <c r="AT18">
-        <v>1.5</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>1.49</v>
-      </c>
-      <c r="AY18">
-        <v>9.1</v>
-      </c>
-      <c r="AZ18">
-        <v>3.2</v>
-      </c>
-      <c r="BA18">
-        <v>1.36</v>
-      </c>
-      <c r="BB18">
-        <v>1.67</v>
-      </c>
-      <c r="BC18">
-        <v>2.15</v>
-      </c>
-      <c r="BD18">
-        <v>2.95</v>
-      </c>
       <c r="BE18">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="BF18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BG18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH18">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BI18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BJ18">
         <v>12</v>
       </c>
       <c r="BK18">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:63">
@@ -4250,7 +4250,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6651849</v>
+        <v>6651857</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
@@ -4268,172 +4268,172 @@
         <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="s">
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="T19">
+        <v>3.2</v>
+      </c>
+      <c r="U19">
+        <v>1.83</v>
+      </c>
+      <c r="V19">
+        <v>3.7</v>
+      </c>
+      <c r="W19">
+        <v>1.5</v>
+      </c>
+      <c r="X19">
         <v>2.4</v>
       </c>
-      <c r="U19">
-        <v>2</v>
-      </c>
-      <c r="V19">
-        <v>5</v>
-      </c>
-      <c r="W19">
-        <v>1.48</v>
-      </c>
-      <c r="X19">
-        <v>2.5</v>
-      </c>
       <c r="Y19">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Z19">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AA19">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="AB19">
         <v>1.04</v>
       </c>
       <c r="AC19">
-        <v>1.74</v>
+        <v>2.54</v>
       </c>
       <c r="AD19">
-        <v>3.4</v>
+        <v>2.93</v>
       </c>
       <c r="AE19">
-        <v>4.4</v>
+        <v>2.73</v>
       </c>
       <c r="AF19">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AG19">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
       <c r="AH19">
         <v>1.42</v>
       </c>
       <c r="AI19">
+        <v>2.6</v>
+      </c>
+      <c r="AJ19">
+        <v>2.35</v>
+      </c>
+      <c r="AK19">
+        <v>1.53</v>
+      </c>
+      <c r="AL19">
+        <v>2</v>
+      </c>
+      <c r="AM19">
+        <v>1.7</v>
+      </c>
+      <c r="AN19">
+        <v>1.35</v>
+      </c>
+      <c r="AO19">
+        <v>1.4</v>
+      </c>
+      <c r="AP19">
+        <v>1.4</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0.5</v>
+      </c>
+      <c r="AT19">
+        <v>1.5</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>1.94</v>
+      </c>
+      <c r="AY19">
+        <v>8</v>
+      </c>
+      <c r="AZ19">
+        <v>2.21</v>
+      </c>
+      <c r="BA19">
+        <v>1.57</v>
+      </c>
+      <c r="BB19">
+        <v>2.02</v>
+      </c>
+      <c r="BC19">
         <v>2.75</v>
       </c>
-      <c r="AJ19">
-        <v>2.2</v>
-      </c>
-      <c r="AK19">
-        <v>1.6</v>
-      </c>
-      <c r="AL19">
-        <v>2.1</v>
-      </c>
-      <c r="AM19">
-        <v>1.68</v>
-      </c>
-      <c r="AN19">
-        <v>1.12</v>
-      </c>
-      <c r="AO19">
-        <v>1.25</v>
-      </c>
-      <c r="AP19">
-        <v>2.05</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>1.67</v>
-      </c>
-      <c r="AT19">
-        <v>1</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <v>1.64</v>
-      </c>
-      <c r="AY19">
-        <v>8.6</v>
-      </c>
-      <c r="AZ19">
-        <v>2.72</v>
-      </c>
-      <c r="BA19">
-        <v>1.45</v>
-      </c>
-      <c r="BB19">
-        <v>1.8</v>
-      </c>
-      <c r="BC19">
-        <v>2.4</v>
-      </c>
       <c r="BD19">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="BE19">
-        <v>4.8</v>
+        <v>5.65</v>
       </c>
       <c r="BF19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BI19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BK19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:63">
@@ -4441,7 +4441,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6651853</v>
+        <v>6651849</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -4459,28 +4459,28 @@
         <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="P20" t="s">
         <v>85</v>
@@ -4495,136 +4495,136 @@
         <v>11</v>
       </c>
       <c r="T20">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>1.48</v>
+      </c>
+      <c r="X20">
+        <v>2.5</v>
+      </c>
+      <c r="Y20">
+        <v>3.25</v>
+      </c>
+      <c r="Z20">
+        <v>1.3</v>
+      </c>
+      <c r="AA20">
+        <v>8.9</v>
+      </c>
+      <c r="AB20">
+        <v>1.04</v>
+      </c>
+      <c r="AC20">
+        <v>1.74</v>
+      </c>
+      <c r="AD20">
+        <v>3.4</v>
+      </c>
+      <c r="AE20">
+        <v>4.4</v>
+      </c>
+      <c r="AF20">
+        <v>1.09</v>
+      </c>
+      <c r="AG20">
+        <v>8.4</v>
+      </c>
+      <c r="AH20">
+        <v>1.42</v>
+      </c>
+      <c r="AI20">
+        <v>2.75</v>
+      </c>
+      <c r="AJ20">
+        <v>2.2</v>
+      </c>
+      <c r="AK20">
+        <v>1.6</v>
+      </c>
+      <c r="AL20">
+        <v>2.1</v>
+      </c>
+      <c r="AM20">
+        <v>1.68</v>
+      </c>
+      <c r="AN20">
+        <v>1.12</v>
+      </c>
+      <c r="AO20">
+        <v>1.25</v>
+      </c>
+      <c r="AP20">
         <v>2.05</v>
       </c>
-      <c r="V20">
-        <v>4.75</v>
-      </c>
-      <c r="W20">
-        <v>1.4</v>
-      </c>
-      <c r="X20">
-        <v>2.75</v>
-      </c>
-      <c r="Y20">
-        <v>2.75</v>
-      </c>
-      <c r="Z20">
-        <v>1.4</v>
-      </c>
-      <c r="AA20">
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>1.67</v>
+      </c>
+      <c r="AT20">
+        <v>1</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>1.64</v>
+      </c>
+      <c r="AY20">
+        <v>8.6</v>
+      </c>
+      <c r="AZ20">
+        <v>2.72</v>
+      </c>
+      <c r="BA20">
+        <v>1.45</v>
+      </c>
+      <c r="BB20">
+        <v>1.8</v>
+      </c>
+      <c r="BC20">
+        <v>2.4</v>
+      </c>
+      <c r="BD20">
+        <v>3.35</v>
+      </c>
+      <c r="BE20">
+        <v>4.8</v>
+      </c>
+      <c r="BF20">
+        <v>2</v>
+      </c>
+      <c r="BG20">
+        <v>3</v>
+      </c>
+      <c r="BH20">
         <v>7</v>
       </c>
-      <c r="AB20">
-        <v>1.08</v>
-      </c>
-      <c r="AC20">
-        <v>1.72</v>
-      </c>
-      <c r="AD20">
-        <v>3.5</v>
-      </c>
-      <c r="AE20">
-        <v>4.3</v>
-      </c>
-      <c r="AF20">
-        <v>1.07</v>
-      </c>
-      <c r="AG20">
-        <v>7.5</v>
-      </c>
-      <c r="AH20">
-        <v>1.36</v>
-      </c>
-      <c r="AI20">
-        <v>3</v>
-      </c>
-      <c r="AJ20">
-        <v>1.95</v>
-      </c>
-      <c r="AK20">
-        <v>1.75</v>
-      </c>
-      <c r="AL20">
-        <v>2</v>
-      </c>
-      <c r="AM20">
-        <v>1.73</v>
-      </c>
-      <c r="AN20">
-        <v>1.15</v>
-      </c>
-      <c r="AO20">
-        <v>1.29</v>
-      </c>
-      <c r="AP20">
-        <v>2.1</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>3</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>1.28</v>
-      </c>
-      <c r="AY20">
-        <v>10.25</v>
-      </c>
-      <c r="AZ20">
-        <v>4.65</v>
-      </c>
-      <c r="BA20">
-        <v>1.4</v>
-      </c>
-      <c r="BB20">
-        <v>1.74</v>
-      </c>
-      <c r="BC20">
-        <v>2.28</v>
-      </c>
-      <c r="BD20">
-        <v>3.1</v>
-      </c>
-      <c r="BE20">
-        <v>4.4</v>
-      </c>
-      <c r="BF20">
-        <v>6</v>
-      </c>
-      <c r="BG20">
-        <v>4</v>
-      </c>
-      <c r="BH20">
-        <v>10</v>
-      </c>
       <c r="BI20">
         <v>2</v>
       </c>
       <c r="BJ20">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BK20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:63">
@@ -4838,10 +4838,10 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5014,7 +5014,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>6651865</v>
+        <v>6651868</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
@@ -5029,10 +5029,10 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5059,145 +5059,145 @@
         <v>85</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="R23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="T23">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U23">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="W23">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X23">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="Y23">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="Z23">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AA23">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AB23">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC23">
-        <v>3.18</v>
+        <v>2.3</v>
       </c>
       <c r="AD23">
         <v>3.35</v>
       </c>
       <c r="AE23">
-        <v>2.12</v>
+        <v>2.84</v>
       </c>
       <c r="AF23">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AG23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH23">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AI23">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="AJ23">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="AK23">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AL23">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AM23">
         <v>1.9</v>
       </c>
       <c r="AN23">
-        <v>1.7</v>
+        <v>1.33</v>
       </c>
       <c r="AO23">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AP23">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS23">
-        <v>0.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT23">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AU23">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="AV23">
-        <v>1.86</v>
+        <v>1.56</v>
       </c>
       <c r="AW23">
-        <v>3.33</v>
+        <v>3.22</v>
       </c>
       <c r="AX23">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AY23">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="AZ23">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="BA23">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="BB23">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="BC23">
-        <v>2.7</v>
+        <v>2.28</v>
       </c>
       <c r="BD23">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="BE23">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="BF23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ23">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BK23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:63">
@@ -5205,7 +5205,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6651868</v>
+        <v>6651867</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -5220,7 +5220,7 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
         <v>78</v>
@@ -5238,46 +5238,46 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24" t="s">
         <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V24">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="W24">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X24">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="Y24">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="Z24">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AA24">
         <v>7.9</v>
@@ -5286,109 +5286,109 @@
         <v>1.05</v>
       </c>
       <c r="AC24">
-        <v>2.3</v>
+        <v>3.22</v>
       </c>
       <c r="AD24">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AE24">
-        <v>2.84</v>
+        <v>2.08</v>
       </c>
       <c r="AF24">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG24">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH24">
         <v>1.36</v>
       </c>
       <c r="AI24">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AJ24">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="AK24">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AL24">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AM24">
         <v>1.9</v>
       </c>
       <c r="AN24">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AO24">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP24">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AQ24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AT24">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AU24">
-        <v>1.66</v>
+        <v>1.31</v>
       </c>
       <c r="AV24">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AW24">
-        <v>3.22</v>
+        <v>2.94</v>
       </c>
       <c r="AX24">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="AY24">
         <v>6.5</v>
       </c>
       <c r="AZ24">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="BA24">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="BB24">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="BC24">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="BD24">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="BE24">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="BF24">
+        <v>5</v>
+      </c>
+      <c r="BG24">
+        <v>4</v>
+      </c>
+      <c r="BH24">
         <v>8</v>
       </c>
-      <c r="BG24">
-        <v>2</v>
-      </c>
-      <c r="BH24">
-        <v>7</v>
-      </c>
       <c r="BI24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BK24">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:63">
@@ -5396,7 +5396,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>6651867</v>
+        <v>6651866</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -5411,10 +5411,10 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5426,49 +5426,49 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" t="s">
         <v>85</v>
       </c>
-      <c r="P25" t="s">
-        <v>130</v>
-      </c>
       <c r="Q25">
         <v>2</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="U25">
         <v>2.05</v>
       </c>
       <c r="V25">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="W25">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X25">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="Y25">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="Z25">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AA25">
         <v>7.9</v>
@@ -5477,109 +5477,109 @@
         <v>1.05</v>
       </c>
       <c r="AC25">
-        <v>3.22</v>
+        <v>1.93</v>
       </c>
       <c r="AD25">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AE25">
-        <v>2.08</v>
+        <v>3.56</v>
       </c>
       <c r="AF25">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG25">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH25">
         <v>1.36</v>
       </c>
       <c r="AI25">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AJ25">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="AK25">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="AL25">
+        <v>1.9</v>
+      </c>
+      <c r="AM25">
         <v>1.83</v>
       </c>
-      <c r="AM25">
-        <v>1.9</v>
-      </c>
       <c r="AN25">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="AO25">
         <v>1.25</v>
       </c>
       <c r="AP25">
+        <v>1.83</v>
+      </c>
+      <c r="AQ25">
+        <v>3</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="AS25">
+        <v>3</v>
+      </c>
+      <c r="AT25">
+        <v>0.67</v>
+      </c>
+      <c r="AU25">
         <v>1.36</v>
       </c>
-      <c r="AQ25">
-        <v>1</v>
-      </c>
-      <c r="AR25">
-        <v>3</v>
-      </c>
-      <c r="AS25">
-        <v>0.67</v>
-      </c>
-      <c r="AT25">
-        <v>2</v>
-      </c>
-      <c r="AU25">
-        <v>1.31</v>
-      </c>
       <c r="AV25">
-        <v>1.63</v>
+        <v>1.02</v>
       </c>
       <c r="AW25">
-        <v>2.94</v>
+        <v>2.38</v>
       </c>
       <c r="AX25">
-        <v>2.38</v>
+        <v>1.3</v>
       </c>
       <c r="AY25">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="AZ25">
-        <v>1.91</v>
+        <v>4</v>
       </c>
       <c r="BA25">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="BB25">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="BC25">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="BD25">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="BE25">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="BF25">
         <v>5</v>
       </c>
       <c r="BG25">
+        <v>2</v>
+      </c>
+      <c r="BH25">
         <v>4</v>
       </c>
-      <c r="BH25">
-        <v>8</v>
-      </c>
       <c r="BI25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ25">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BK25">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:63">
@@ -5587,7 +5587,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>6651866</v>
+        <v>6651865</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -5602,10 +5602,10 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5617,160 +5617,160 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P26" t="s">
         <v>85</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T26">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="U26">
         <v>2.05</v>
       </c>
       <c r="V26">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="W26">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X26">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="Y26">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="Z26">
+        <v>1.35</v>
+      </c>
+      <c r="AA26">
+        <v>7.4</v>
+      </c>
+      <c r="AB26">
+        <v>1.06</v>
+      </c>
+      <c r="AC26">
+        <v>3.18</v>
+      </c>
+      <c r="AD26">
+        <v>3.35</v>
+      </c>
+      <c r="AE26">
+        <v>2.12</v>
+      </c>
+      <c r="AF26">
+        <v>1.06</v>
+      </c>
+      <c r="AG26">
+        <v>8</v>
+      </c>
+      <c r="AH26">
         <v>1.33</v>
       </c>
-      <c r="AA26">
-        <v>7.9</v>
-      </c>
-      <c r="AB26">
-        <v>1.05</v>
-      </c>
-      <c r="AC26">
+      <c r="AI26">
+        <v>3.1</v>
+      </c>
+      <c r="AJ26">
         <v>1.93</v>
       </c>
-      <c r="AD26">
-        <v>3.5</v>
-      </c>
-      <c r="AE26">
-        <v>3.56</v>
-      </c>
-      <c r="AF26">
-        <v>1.08</v>
-      </c>
-      <c r="AG26">
-        <v>7</v>
-      </c>
-      <c r="AH26">
-        <v>1.36</v>
-      </c>
-      <c r="AI26">
-        <v>2.95</v>
-      </c>
-      <c r="AJ26">
-        <v>2.12</v>
-      </c>
       <c r="AK26">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="AL26">
+        <v>1.83</v>
+      </c>
+      <c r="AM26">
         <v>1.9</v>
       </c>
-      <c r="AM26">
-        <v>1.83</v>
-      </c>
       <c r="AN26">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AO26">
         <v>1.25</v>
       </c>
       <c r="AP26">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="AQ26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS26">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AT26">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AU26">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AV26">
-        <v>1.02</v>
+        <v>1.86</v>
       </c>
       <c r="AW26">
-        <v>2.38</v>
+        <v>3.33</v>
       </c>
       <c r="AX26">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="AY26">
-        <v>6.75</v>
+        <v>5.25</v>
       </c>
       <c r="AZ26">
+        <v>2.1</v>
+      </c>
+      <c r="BA26">
+        <v>1.54</v>
+      </c>
+      <c r="BB26">
+        <v>1.98</v>
+      </c>
+      <c r="BC26">
+        <v>2.7</v>
+      </c>
+      <c r="BD26">
+        <v>3.8</v>
+      </c>
+      <c r="BE26">
+        <v>4.9</v>
+      </c>
+      <c r="BF26">
         <v>4</v>
       </c>
-      <c r="BA26">
-        <v>1.36</v>
-      </c>
-      <c r="BB26">
-        <v>1.67</v>
-      </c>
-      <c r="BC26">
-        <v>2.15</v>
-      </c>
-      <c r="BD26">
-        <v>2.95</v>
-      </c>
-      <c r="BE26">
-        <v>4.1</v>
-      </c>
-      <c r="BF26">
-        <v>5</v>
-      </c>
       <c r="BG26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI26">
         <v>2</v>
       </c>
       <c r="BJ26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BK26">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:63">
@@ -5778,7 +5778,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>6651861</v>
+        <v>6651864</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -5793,25 +5793,25 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>3</v>
@@ -5820,148 +5820,148 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="Q27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T27">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="V27">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="W27">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="X27">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="Y27">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="Z27">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AA27">
-        <v>7.4</v>
+        <v>6.45</v>
       </c>
       <c r="AB27">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AC27">
-        <v>2.68</v>
+        <v>1.68</v>
       </c>
       <c r="AD27">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="AE27">
-        <v>2.5</v>
+        <v>4.41</v>
       </c>
       <c r="AF27">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG27">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AH27">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AI27">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AJ27">
-        <v>2.03</v>
+        <v>1.76</v>
       </c>
       <c r="AK27">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AL27">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AM27">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AN27">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="AO27">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP27">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS27">
         <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AU27">
-        <v>1.29</v>
+        <v>2.17</v>
       </c>
       <c r="AV27">
-        <v>1.38</v>
+        <v>0.84</v>
       </c>
       <c r="AW27">
-        <v>2.67</v>
+        <v>3.01</v>
       </c>
       <c r="AX27">
-        <v>2.05</v>
+        <v>1.36</v>
       </c>
       <c r="AY27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ27">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="BA27">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="BB27">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="BC27">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="BD27">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="BE27">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="BF27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BI27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ27">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BK27">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:63">
@@ -5969,7 +5969,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>6651862</v>
+        <v>6651861</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -5984,28 +5984,28 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O28" t="s">
         <v>102</v>
@@ -6014,28 +6014,28 @@
         <v>85</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T28">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V28">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="W28">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X28">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Y28">
         <v>2.95</v>
@@ -6050,13 +6050,13 @@
         <v>1.06</v>
       </c>
       <c r="AC28">
+        <v>2.68</v>
+      </c>
+      <c r="AD28">
+        <v>3.2</v>
+      </c>
+      <c r="AE28">
         <v>2.5</v>
-      </c>
-      <c r="AD28">
-        <v>3.15</v>
-      </c>
-      <c r="AE28">
-        <v>2.72</v>
       </c>
       <c r="AF28">
         <v>1.07</v>
@@ -6071,10 +6071,10 @@
         <v>3.1</v>
       </c>
       <c r="AJ28">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AK28">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AL28">
         <v>1.78</v>
@@ -6083,76 +6083,76 @@
         <v>1.95</v>
       </c>
       <c r="AN28">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AO28">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP28">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AQ28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS28">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AV28">
-        <v>0.87</v>
+        <v>1.38</v>
       </c>
       <c r="AW28">
-        <v>2.12</v>
+        <v>2.67</v>
       </c>
       <c r="AX28">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="AY28">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="AZ28">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="BA28">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="BB28">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BC28">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="BD28">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="BE28">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="BF28">
+        <v>5</v>
+      </c>
+      <c r="BG28">
+        <v>3</v>
+      </c>
+      <c r="BH28">
         <v>4</v>
       </c>
-      <c r="BG28">
-        <v>6</v>
-      </c>
-      <c r="BH28">
-        <v>5</v>
-      </c>
       <c r="BI28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BJ28">
         <v>9</v>
       </c>
       <c r="BK28">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:63">
@@ -6178,7 +6178,7 @@
         <v>66</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -6202,7 +6202,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q29">
         <v>12</v>
@@ -6351,7 +6351,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6651864</v>
+        <v>6651862</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -6366,175 +6366,175 @@
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>2</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30" t="s">
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <v>3.1</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>3.4</v>
+      </c>
+      <c r="W30">
+        <v>1.44</v>
+      </c>
+      <c r="X30">
+        <v>2.6</v>
+      </c>
+      <c r="Y30">
+        <v>2.95</v>
+      </c>
+      <c r="Z30">
+        <v>1.35</v>
+      </c>
+      <c r="AA30">
+        <v>7.4</v>
+      </c>
+      <c r="AB30">
+        <v>1.06</v>
+      </c>
+      <c r="AC30">
+        <v>2.5</v>
+      </c>
+      <c r="AD30">
+        <v>3.15</v>
+      </c>
+      <c r="AE30">
+        <v>2.72</v>
+      </c>
+      <c r="AF30">
+        <v>1.07</v>
+      </c>
+      <c r="AG30">
+        <v>7.5</v>
+      </c>
+      <c r="AH30">
+        <v>1.33</v>
+      </c>
+      <c r="AI30">
+        <v>3.1</v>
+      </c>
+      <c r="AJ30">
+        <v>2</v>
+      </c>
+      <c r="AK30">
+        <v>1.72</v>
+      </c>
+      <c r="AL30">
+        <v>1.78</v>
+      </c>
+      <c r="AM30">
+        <v>1.95</v>
+      </c>
+      <c r="AN30">
+        <v>1.35</v>
+      </c>
+      <c r="AO30">
+        <v>1.28</v>
+      </c>
+      <c r="AP30">
+        <v>1.53</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>2.33</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>1.25</v>
+      </c>
+      <c r="AV30">
+        <v>0.87</v>
+      </c>
+      <c r="AW30">
+        <v>2.12</v>
+      </c>
+      <c r="AX30">
+        <v>1.83</v>
+      </c>
+      <c r="AY30">
+        <v>5.25</v>
+      </c>
+      <c r="AZ30">
+        <v>2.3</v>
+      </c>
+      <c r="BA30">
+        <v>1.5</v>
+      </c>
+      <c r="BB30">
+        <v>1.95</v>
+      </c>
+      <c r="BC30">
+        <v>2.6</v>
+      </c>
+      <c r="BD30">
+        <v>3.65</v>
+      </c>
+      <c r="BE30">
+        <v>5.3</v>
+      </c>
+      <c r="BF30">
+        <v>4</v>
+      </c>
+      <c r="BG30">
+        <v>6</v>
+      </c>
+      <c r="BH30">
         <v>5</v>
-      </c>
-      <c r="S30">
-        <v>8</v>
-      </c>
-      <c r="T30">
-        <v>2.25</v>
-      </c>
-      <c r="U30">
-        <v>2.25</v>
-      </c>
-      <c r="V30">
-        <v>4.5</v>
-      </c>
-      <c r="W30">
-        <v>1.35</v>
-      </c>
-      <c r="X30">
-        <v>2.95</v>
-      </c>
-      <c r="Y30">
-        <v>2.6</v>
-      </c>
-      <c r="Z30">
-        <v>1.44</v>
-      </c>
-      <c r="AA30">
-        <v>6.45</v>
-      </c>
-      <c r="AB30">
-        <v>1.09</v>
-      </c>
-      <c r="AC30">
-        <v>1.68</v>
-      </c>
-      <c r="AD30">
-        <v>3.8</v>
-      </c>
-      <c r="AE30">
-        <v>4.41</v>
-      </c>
-      <c r="AF30">
-        <v>1.05</v>
-      </c>
-      <c r="AG30">
-        <v>9</v>
-      </c>
-      <c r="AH30">
-        <v>1.25</v>
-      </c>
-      <c r="AI30">
-        <v>3.75</v>
-      </c>
-      <c r="AJ30">
-        <v>1.76</v>
-      </c>
-      <c r="AK30">
-        <v>1.95</v>
-      </c>
-      <c r="AL30">
-        <v>1.75</v>
-      </c>
-      <c r="AM30">
-        <v>2</v>
-      </c>
-      <c r="AN30">
-        <v>1.15</v>
-      </c>
-      <c r="AO30">
-        <v>1.2</v>
-      </c>
-      <c r="AP30">
-        <v>2</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AS30">
-        <v>1.33</v>
-      </c>
-      <c r="AT30">
-        <v>0.33</v>
-      </c>
-      <c r="AU30">
-        <v>2.17</v>
-      </c>
-      <c r="AV30">
-        <v>0.84</v>
-      </c>
-      <c r="AW30">
-        <v>3.01</v>
-      </c>
-      <c r="AX30">
-        <v>1.36</v>
-      </c>
-      <c r="AY30">
-        <v>6</v>
-      </c>
-      <c r="AZ30">
-        <v>3.75</v>
-      </c>
-      <c r="BA30">
-        <v>1.43</v>
-      </c>
-      <c r="BB30">
-        <v>1.8</v>
-      </c>
-      <c r="BC30">
-        <v>2.33</v>
-      </c>
-      <c r="BD30">
-        <v>3.25</v>
-      </c>
-      <c r="BE30">
-        <v>4.6</v>
-      </c>
-      <c r="BF30">
-        <v>3</v>
-      </c>
-      <c r="BG30">
-        <v>2</v>
-      </c>
-      <c r="BH30">
-        <v>0</v>
       </c>
       <c r="BI30">
         <v>6</v>
       </c>
       <c r="BJ30">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BK30">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:63">
@@ -6924,7 +6924,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>6651878</v>
+        <v>6651877</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -6939,79 +6939,79 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="s">
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="Q33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T33">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="U33">
         <v>2</v>
       </c>
       <c r="V33">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="W33">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X33">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Y33">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Z33">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AA33">
-        <v>8.449999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="AB33">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC33">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AD33">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AE33">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="AF33">
         <v>1.08</v>
@@ -7020,94 +7020,94 @@
         <v>7</v>
       </c>
       <c r="AH33">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AI33">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AJ33">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AK33">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AL33">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AM33">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AN33">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AO33">
         <v>1.25</v>
       </c>
       <c r="AP33">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR33">
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AT33">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU33">
-        <v>2.1</v>
+        <v>1.15</v>
       </c>
       <c r="AV33">
-        <v>0.7</v>
+        <v>1.96</v>
       </c>
       <c r="AW33">
-        <v>2.8</v>
+        <v>3.11</v>
       </c>
       <c r="AX33">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="AY33">
         <v>7</v>
       </c>
       <c r="AZ33">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="BA33">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="BB33">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="BC33">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="BD33">
-        <v>2.63</v>
+        <v>3.28</v>
       </c>
       <c r="BE33">
-        <v>3.98</v>
+        <v>4.8</v>
       </c>
       <c r="BF33">
+        <v>3</v>
+      </c>
+      <c r="BG33">
+        <v>3</v>
+      </c>
+      <c r="BH33">
+        <v>2</v>
+      </c>
+      <c r="BI33">
+        <v>5</v>
+      </c>
+      <c r="BJ33">
+        <v>5</v>
+      </c>
+      <c r="BK33">
         <v>8</v>
-      </c>
-      <c r="BG33">
-        <v>5</v>
-      </c>
-      <c r="BH33">
-        <v>7</v>
-      </c>
-      <c r="BI33">
-        <v>4</v>
-      </c>
-      <c r="BJ33">
-        <v>15</v>
-      </c>
-      <c r="BK33">
-        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:63">
@@ -7115,7 +7115,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>6651877</v>
+        <v>6651871</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -7133,172 +7133,172 @@
         <v>76</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O34" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>8</v>
+      </c>
+      <c r="T34">
+        <v>2.6</v>
+      </c>
+      <c r="U34">
+        <v>2.1</v>
+      </c>
+      <c r="V34">
         <v>4</v>
       </c>
-      <c r="R34">
-        <v>6</v>
-      </c>
-      <c r="S34">
-        <v>10</v>
-      </c>
-      <c r="T34">
-        <v>2.95</v>
-      </c>
-      <c r="U34">
-        <v>2</v>
-      </c>
-      <c r="V34">
-        <v>3.6</v>
-      </c>
       <c r="W34">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X34">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Y34">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="Z34">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AA34">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AB34">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC34">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AD34">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AE34">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="AF34">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG34">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH34">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AI34">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="AJ34">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AK34">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AL34">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AM34">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AN34">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AO34">
         <v>1.25</v>
       </c>
       <c r="AP34">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS34">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AT34">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU34">
-        <v>1.15</v>
+        <v>1.86</v>
       </c>
       <c r="AV34">
-        <v>1.96</v>
+        <v>1.14</v>
       </c>
       <c r="AW34">
-        <v>3.11</v>
+        <v>3</v>
       </c>
       <c r="AX34">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="AY34">
+        <v>7.5</v>
+      </c>
+      <c r="AZ34">
+        <v>3.1</v>
+      </c>
+      <c r="BA34">
+        <v>1.2</v>
+      </c>
+      <c r="BB34">
+        <v>1.43</v>
+      </c>
+      <c r="BC34">
+        <v>1.72</v>
+      </c>
+      <c r="BD34">
+        <v>2.1</v>
+      </c>
+      <c r="BE34">
+        <v>2.63</v>
+      </c>
+      <c r="BF34">
         <v>7</v>
       </c>
-      <c r="AZ34">
-        <v>2.4</v>
-      </c>
-      <c r="BA34">
-        <v>1.44</v>
-      </c>
-      <c r="BB34">
-        <v>1.79</v>
-      </c>
-      <c r="BC34">
-        <v>2.24</v>
-      </c>
-      <c r="BD34">
-        <v>3.28</v>
-      </c>
-      <c r="BE34">
-        <v>4.8</v>
-      </c>
-      <c r="BF34">
-        <v>3</v>
-      </c>
       <c r="BG34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH34">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BI34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ34">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="BK34">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:63">
@@ -7306,7 +7306,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>6651876</v>
+        <v>6651872</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -7321,10 +7321,10 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -7339,73 +7339,73 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S35">
         <v>7</v>
       </c>
       <c r="T35">
+        <v>2.45</v>
+      </c>
+      <c r="U35">
+        <v>2.1</v>
+      </c>
+      <c r="V35">
+        <v>4.33</v>
+      </c>
+      <c r="W35">
+        <v>1.41</v>
+      </c>
+      <c r="X35">
+        <v>2.7</v>
+      </c>
+      <c r="Y35">
+        <v>2.95</v>
+      </c>
+      <c r="Z35">
+        <v>1.35</v>
+      </c>
+      <c r="AA35">
+        <v>7.4</v>
+      </c>
+      <c r="AB35">
+        <v>1.06</v>
+      </c>
+      <c r="AC35">
+        <v>1.85</v>
+      </c>
+      <c r="AD35">
+        <v>3.3</v>
+      </c>
+      <c r="AE35">
+        <v>4.1</v>
+      </c>
+      <c r="AF35">
+        <v>1.08</v>
+      </c>
+      <c r="AG35">
+        <v>7</v>
+      </c>
+      <c r="AH35">
+        <v>1.33</v>
+      </c>
+      <c r="AI35">
         <v>3.2</v>
-      </c>
-      <c r="U35">
-        <v>2</v>
-      </c>
-      <c r="V35">
-        <v>3.2</v>
-      </c>
-      <c r="W35">
-        <v>1.4</v>
-      </c>
-      <c r="X35">
-        <v>2.75</v>
-      </c>
-      <c r="Y35">
-        <v>3</v>
-      </c>
-      <c r="Z35">
-        <v>1.36</v>
-      </c>
-      <c r="AA35">
-        <v>7.5</v>
-      </c>
-      <c r="AB35">
-        <v>1.07</v>
-      </c>
-      <c r="AC35">
-        <v>2.65</v>
-      </c>
-      <c r="AD35">
-        <v>3.1</v>
-      </c>
-      <c r="AE35">
-        <v>2.55</v>
-      </c>
-      <c r="AF35">
-        <v>1.07</v>
-      </c>
-      <c r="AG35">
-        <v>7.5</v>
-      </c>
-      <c r="AH35">
-        <v>1.36</v>
-      </c>
-      <c r="AI35">
-        <v>3</v>
       </c>
       <c r="AJ35">
         <v>2.05</v>
@@ -7414,82 +7414,82 @@
         <v>1.61</v>
       </c>
       <c r="AL35">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AM35">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AN35">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AO35">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AP35">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS35">
         <v>0.5</v>
       </c>
       <c r="AT35">
+        <v>2</v>
+      </c>
+      <c r="AU35">
+        <v>1.4</v>
+      </c>
+      <c r="AV35">
+        <v>1.84</v>
+      </c>
+      <c r="AW35">
+        <v>3.24</v>
+      </c>
+      <c r="AX35">
         <v>1.5</v>
-      </c>
-      <c r="AU35">
-        <v>1.76</v>
-      </c>
-      <c r="AV35">
-        <v>1.04</v>
-      </c>
-      <c r="AW35">
-        <v>2.8</v>
-      </c>
-      <c r="AX35">
-        <v>2.05</v>
       </c>
       <c r="AY35">
         <v>7.5</v>
       </c>
       <c r="AZ35">
+        <v>3.3</v>
+      </c>
+      <c r="BA35">
+        <v>1.4</v>
+      </c>
+      <c r="BB35">
+        <v>1.67</v>
+      </c>
+      <c r="BC35">
         <v>2.1</v>
       </c>
-      <c r="BA35">
-        <v>1.1</v>
-      </c>
-      <c r="BB35">
-        <v>1.23</v>
-      </c>
-      <c r="BC35">
-        <v>1.5</v>
-      </c>
       <c r="BD35">
-        <v>1.72</v>
+        <v>2.63</v>
       </c>
       <c r="BE35">
-        <v>2.2</v>
+        <v>3.92</v>
       </c>
       <c r="BF35">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BG35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH35">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BI35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ35">
         <v>14</v>
       </c>
       <c r="BK35">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:63">
@@ -7497,7 +7497,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>6651875</v>
+        <v>6651873</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -7512,19 +7512,19 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36">
         <v>3</v>
@@ -7536,151 +7536,151 @@
         <v>3</v>
       </c>
       <c r="O36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P36" t="s">
         <v>85</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S36">
         <v>11</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="W36">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="X36">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="Y36">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="Z36">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AA36">
-        <v>7.9</v>
+        <v>9.4</v>
       </c>
       <c r="AB36">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC36">
-        <v>2.25</v>
+        <v>1.77</v>
       </c>
       <c r="AD36">
         <v>3.15</v>
       </c>
       <c r="AE36">
-        <v>2.95</v>
+        <v>4.7</v>
       </c>
       <c r="AF36">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AG36">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH36">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="AI36">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="AJ36">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="AK36">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="AL36">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AM36">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AN36">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO36">
         <v>1.25</v>
       </c>
       <c r="AP36">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS36">
+        <v>3</v>
+      </c>
+      <c r="AT36">
         <v>1.5</v>
       </c>
-      <c r="AT36">
-        <v>0</v>
-      </c>
       <c r="AU36">
-        <v>0.44</v>
+        <v>1.97</v>
       </c>
       <c r="AV36">
-        <v>1.12</v>
+        <v>0.8</v>
       </c>
       <c r="AW36">
-        <v>1.56</v>
+        <v>2.77</v>
       </c>
       <c r="AX36">
-        <v>1.88</v>
+        <v>1.48</v>
       </c>
       <c r="AY36">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AZ36">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="BA36">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="BB36">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="BC36">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="BD36">
-        <v>3.34</v>
+        <v>4.5</v>
       </c>
       <c r="BE36">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="BF36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG36">
+        <v>3</v>
+      </c>
+      <c r="BH36">
+        <v>3</v>
+      </c>
+      <c r="BI36">
+        <v>2</v>
+      </c>
+      <c r="BJ36">
+        <v>9</v>
+      </c>
+      <c r="BK36">
         <v>5</v>
-      </c>
-      <c r="BH36">
-        <v>5</v>
-      </c>
-      <c r="BI36">
-        <v>6</v>
-      </c>
-      <c r="BJ36">
-        <v>13</v>
-      </c>
-      <c r="BK36">
-        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:63">
@@ -7727,7 +7727,7 @@
         <v>4</v>
       </c>
       <c r="O37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P37" t="s">
         <v>85</v>
@@ -7879,7 +7879,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6651872</v>
+        <v>6651875</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -7894,58 +7894,58 @@
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O38" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="P38" t="s">
         <v>85</v>
       </c>
       <c r="Q38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R38">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S38">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T38">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V38">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="W38">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X38">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Y38">
         <v>2.95</v>
@@ -7954,31 +7954,31 @@
         <v>1.35</v>
       </c>
       <c r="AA38">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AB38">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC38">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="AD38">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="AE38">
-        <v>4.1</v>
+        <v>2.95</v>
       </c>
       <c r="AF38">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG38">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH38">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AI38">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AJ38">
         <v>2.05</v>
@@ -7987,82 +7987,82 @@
         <v>1.61</v>
       </c>
       <c r="AL38">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AM38">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AN38">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AO38">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP38">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="AQ38">
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AT38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU38">
-        <v>1.4</v>
+        <v>0.44</v>
       </c>
       <c r="AV38">
-        <v>1.84</v>
+        <v>1.12</v>
       </c>
       <c r="AW38">
-        <v>3.24</v>
+        <v>1.56</v>
       </c>
       <c r="AX38">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AY38">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AZ38">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="BA38">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="BB38">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="BC38">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="BD38">
-        <v>2.63</v>
+        <v>3.34</v>
       </c>
       <c r="BE38">
-        <v>3.92</v>
+        <v>4.9</v>
       </c>
       <c r="BF38">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG38">
         <v>5</v>
       </c>
       <c r="BH38">
+        <v>5</v>
+      </c>
+      <c r="BI38">
+        <v>6</v>
+      </c>
+      <c r="BJ38">
+        <v>13</v>
+      </c>
+      <c r="BK38">
         <v>11</v>
-      </c>
-      <c r="BI38">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>14</v>
-      </c>
-      <c r="BK38">
-        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:63">
@@ -8070,7 +8070,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>6651871</v>
+        <v>6651876</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -8085,79 +8085,79 @@
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T39">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="U39">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="W39">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X39">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Y39">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="Z39">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AA39">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB39">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC39">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="AD39">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AE39">
-        <v>3.45</v>
+        <v>2.55</v>
       </c>
       <c r="AF39">
         <v>1.07</v>
@@ -8166,94 +8166,94 @@
         <v>7.5</v>
       </c>
       <c r="AH39">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AI39">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AJ39">
         <v>2.05</v>
       </c>
       <c r="AK39">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AL39">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AM39">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AN39">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO39">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AP39">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS39">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AT39">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU39">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="AV39">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="AW39">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AX39">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="AY39">
         <v>7.5</v>
       </c>
       <c r="AZ39">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="BA39">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="BB39">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="BC39">
+        <v>1.5</v>
+      </c>
+      <c r="BD39">
         <v>1.72</v>
       </c>
-      <c r="BD39">
-        <v>2.1</v>
-      </c>
       <c r="BE39">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="BF39">
+        <v>10</v>
+      </c>
+      <c r="BG39">
+        <v>4</v>
+      </c>
+      <c r="BH39">
+        <v>4</v>
+      </c>
+      <c r="BI39">
+        <v>3</v>
+      </c>
+      <c r="BJ39">
+        <v>14</v>
+      </c>
+      <c r="BK39">
         <v>7</v>
-      </c>
-      <c r="BG39">
-        <v>7</v>
-      </c>
-      <c r="BH39">
-        <v>11</v>
-      </c>
-      <c r="BI39">
-        <v>2</v>
-      </c>
-      <c r="BJ39">
-        <v>18</v>
-      </c>
-      <c r="BK39">
-        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:63">
@@ -8261,7 +8261,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>6651873</v>
+        <v>6651878</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
@@ -8276,175 +8276,175 @@
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="Q40">
         <v>7</v>
       </c>
       <c r="R40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S40">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>4.33</v>
+      </c>
+      <c r="W40">
+        <v>1.46</v>
+      </c>
+      <c r="X40">
+        <v>2.55</v>
+      </c>
+      <c r="Y40">
+        <v>3.15</v>
+      </c>
+      <c r="Z40">
+        <v>1.32</v>
+      </c>
+      <c r="AA40">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB40">
+        <v>1.04</v>
+      </c>
+      <c r="AC40">
         <v>1.95</v>
-      </c>
-      <c r="V40">
-        <v>5</v>
-      </c>
-      <c r="W40">
-        <v>1.52</v>
-      </c>
-      <c r="X40">
-        <v>2.39</v>
-      </c>
-      <c r="Y40">
-        <v>3.45</v>
-      </c>
-      <c r="Z40">
-        <v>1.27</v>
-      </c>
-      <c r="AA40">
-        <v>9.4</v>
-      </c>
-      <c r="AB40">
-        <v>1.03</v>
-      </c>
-      <c r="AC40">
-        <v>1.77</v>
       </c>
       <c r="AD40">
         <v>3.15</v>
       </c>
       <c r="AE40">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="AF40">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AG40">
         <v>7</v>
       </c>
       <c r="AH40">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AI40">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="AJ40">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="AK40">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AL40">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AM40">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AN40">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AO40">
         <v>1.25</v>
       </c>
       <c r="AP40">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
         <v>3</v>
       </c>
       <c r="AR40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS40">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT40">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU40">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="AV40">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AW40">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AX40">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AY40">
         <v>7</v>
       </c>
       <c r="AZ40">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="BA40">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="BB40">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="BC40">
-        <v>2.7</v>
+        <v>2.14</v>
       </c>
       <c r="BD40">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="BE40">
+        <v>3.98</v>
+      </c>
+      <c r="BF40">
+        <v>8</v>
+      </c>
+      <c r="BG40">
+        <v>5</v>
+      </c>
+      <c r="BH40">
         <v>7</v>
       </c>
-      <c r="BF40">
-        <v>6</v>
-      </c>
-      <c r="BG40">
-        <v>3</v>
-      </c>
-      <c r="BH40">
-        <v>3</v>
-      </c>
       <c r="BI40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ40">
+        <v>15</v>
+      </c>
+      <c r="BK40">
         <v>9</v>
-      </c>
-      <c r="BK40">
-        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:63">
@@ -8661,7 +8661,7 @@
         <v>84</v>
       </c>
       <c r="H42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -8834,7 +8834,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>6651884</v>
+        <v>6651880</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -8849,175 +8849,175 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O43" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="Q43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T43">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="U43">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="W43">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="X43">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y43">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Z43">
+        <v>1.3</v>
+      </c>
+      <c r="AA43">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB43">
+        <v>1.04</v>
+      </c>
+      <c r="AC43">
+        <v>2</v>
+      </c>
+      <c r="AD43">
+        <v>3.13</v>
+      </c>
+      <c r="AE43">
+        <v>4.2</v>
+      </c>
+      <c r="AF43">
+        <v>1.09</v>
+      </c>
+      <c r="AG43">
+        <v>7.5</v>
+      </c>
+      <c r="AH43">
         <v>1.44</v>
       </c>
-      <c r="AA43">
-        <v>6</v>
-      </c>
-      <c r="AB43">
-        <v>1.1</v>
-      </c>
-      <c r="AC43">
+      <c r="AI43">
+        <v>2.4</v>
+      </c>
+      <c r="AJ43">
+        <v>2.38</v>
+      </c>
+      <c r="AK43">
         <v>1.53</v>
       </c>
-      <c r="AD43">
-        <v>4</v>
-      </c>
-      <c r="AE43">
-        <v>6.5</v>
-      </c>
-      <c r="AF43">
-        <v>1.05</v>
-      </c>
-      <c r="AG43">
-        <v>9</v>
-      </c>
-      <c r="AH43">
+      <c r="AL43">
+        <v>2.05</v>
+      </c>
+      <c r="AM43">
+        <v>1.72</v>
+      </c>
+      <c r="AN43">
+        <v>1.2</v>
+      </c>
+      <c r="AO43">
         <v>1.25</v>
       </c>
-      <c r="AI43">
-        <v>3.75</v>
-      </c>
-      <c r="AJ43">
-        <v>1.75</v>
-      </c>
-      <c r="AK43">
-        <v>2</v>
-      </c>
-      <c r="AL43">
-        <v>1.83</v>
-      </c>
-      <c r="AM43">
-        <v>1.9</v>
-      </c>
-      <c r="AN43">
-        <v>1.1</v>
-      </c>
-      <c r="AO43">
-        <v>1.18</v>
-      </c>
       <c r="AP43">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT43">
         <v>1.33</v>
       </c>
       <c r="AU43">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="AV43">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="AW43">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="AX43">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AY43">
+        <v>7.5</v>
+      </c>
+      <c r="AZ43">
+        <v>3.3</v>
+      </c>
+      <c r="BA43">
+        <v>1.32</v>
+      </c>
+      <c r="BB43">
+        <v>1.93</v>
+      </c>
+      <c r="BC43">
+        <v>2.02</v>
+      </c>
+      <c r="BD43">
+        <v>2.7</v>
+      </c>
+      <c r="BE43">
+        <v>3.75</v>
+      </c>
+      <c r="BF43">
+        <v>4</v>
+      </c>
+      <c r="BG43">
+        <v>5</v>
+      </c>
+      <c r="BH43">
+        <v>4</v>
+      </c>
+      <c r="BI43">
+        <v>5</v>
+      </c>
+      <c r="BJ43">
         <v>8</v>
       </c>
-      <c r="AZ43">
-        <v>4.75</v>
-      </c>
-      <c r="BA43">
-        <v>1.36</v>
-      </c>
-      <c r="BB43">
-        <v>1.67</v>
-      </c>
-      <c r="BC43">
-        <v>2.15</v>
-      </c>
-      <c r="BD43">
-        <v>2.95</v>
-      </c>
-      <c r="BE43">
-        <v>4.1</v>
-      </c>
-      <c r="BF43">
-        <v>2</v>
-      </c>
-      <c r="BG43">
-        <v>4</v>
-      </c>
-      <c r="BH43">
-        <v>8</v>
-      </c>
-      <c r="BI43">
-        <v>4</v>
-      </c>
-      <c r="BJ43">
+      <c r="BK43">
         <v>10</v>
-      </c>
-      <c r="BK43">
-        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:63">
@@ -9040,10 +9040,10 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9407,7 +9407,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>6651885</v>
+        <v>6651886</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -9422,175 +9422,175 @@
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L46">
         <v>2</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S46">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T46">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V46">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="W46">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X46">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y46">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="Z46">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AA46">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AB46">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AC46">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="AD46">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="AE46">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="AF46">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG46">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH46">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AJ46">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AK46">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AL46">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AM46">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AN46">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AO46">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AQ46">
         <v>3</v>
       </c>
       <c r="AR46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT46">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AU46">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AV46">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AW46">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AX46">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AY46">
         <v>7</v>
       </c>
       <c r="AZ46">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BA46">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="BB46">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="BC46">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="BD46">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="BE46">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="BF46">
+        <v>5</v>
+      </c>
+      <c r="BG46">
         <v>4</v>
       </c>
-      <c r="BG46">
-        <v>3</v>
-      </c>
       <c r="BH46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BJ46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK46">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:63">
@@ -9598,7 +9598,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>6651886</v>
+        <v>6651885</v>
       </c>
       <c r="C47" t="s">
         <v>63</v>
@@ -9613,175 +9613,175 @@
         <v>5</v>
       </c>
       <c r="G47" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" t="s">
         <v>78</v>
       </c>
-      <c r="H47" t="s">
-        <v>76</v>
-      </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>2</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q47">
+        <v>3</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
         <v>5</v>
       </c>
-      <c r="R47">
+      <c r="T47">
+        <v>3.6</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>2.95</v>
+      </c>
+      <c r="W47">
+        <v>1.44</v>
+      </c>
+      <c r="X47">
+        <v>2.6</v>
+      </c>
+      <c r="Y47">
+        <v>2.95</v>
+      </c>
+      <c r="Z47">
+        <v>1.35</v>
+      </c>
+      <c r="AA47">
+        <v>7.9</v>
+      </c>
+      <c r="AB47">
+        <v>1.05</v>
+      </c>
+      <c r="AC47">
+        <v>3.4</v>
+      </c>
+      <c r="AD47">
+        <v>3.13</v>
+      </c>
+      <c r="AE47">
+        <v>2.25</v>
+      </c>
+      <c r="AF47">
+        <v>1.08</v>
+      </c>
+      <c r="AG47">
         <v>7</v>
       </c>
-      <c r="S47">
-        <v>12</v>
-      </c>
-      <c r="T47">
-        <v>2.7</v>
-      </c>
-      <c r="U47">
+      <c r="AH47">
+        <v>1.36</v>
+      </c>
+      <c r="AI47">
+        <v>3</v>
+      </c>
+      <c r="AJ47">
+        <v>2.1</v>
+      </c>
+      <c r="AK47">
+        <v>1.67</v>
+      </c>
+      <c r="AL47">
+        <v>1.83</v>
+      </c>
+      <c r="AM47">
+        <v>1.9</v>
+      </c>
+      <c r="AN47">
+        <v>1.57</v>
+      </c>
+      <c r="AO47">
+        <v>1.25</v>
+      </c>
+      <c r="AP47">
+        <v>1.36</v>
+      </c>
+      <c r="AQ47">
+        <v>3</v>
+      </c>
+      <c r="AR47">
+        <v>3</v>
+      </c>
+      <c r="AS47">
+        <v>3</v>
+      </c>
+      <c r="AT47">
+        <v>2</v>
+      </c>
+      <c r="AU47">
+        <v>1.34</v>
+      </c>
+      <c r="AV47">
+        <v>1.39</v>
+      </c>
+      <c r="AW47">
+        <v>2.73</v>
+      </c>
+      <c r="AX47">
         <v>2.05</v>
-      </c>
-      <c r="V47">
-        <v>3.7</v>
-      </c>
-      <c r="W47">
-        <v>1.4</v>
-      </c>
-      <c r="X47">
-        <v>2.75</v>
-      </c>
-      <c r="Y47">
-        <v>2.75</v>
-      </c>
-      <c r="Z47">
-        <v>1.4</v>
-      </c>
-      <c r="AA47">
-        <v>7</v>
-      </c>
-      <c r="AB47">
-        <v>1.08</v>
-      </c>
-      <c r="AC47">
-        <v>2.38</v>
-      </c>
-      <c r="AD47">
-        <v>3.2</v>
-      </c>
-      <c r="AE47">
-        <v>3.1</v>
-      </c>
-      <c r="AF47">
-        <v>1.07</v>
-      </c>
-      <c r="AG47">
-        <v>7.5</v>
-      </c>
-      <c r="AH47">
-        <v>1.33</v>
-      </c>
-      <c r="AI47">
-        <v>3.25</v>
-      </c>
-      <c r="AJ47">
-        <v>1.95</v>
-      </c>
-      <c r="AK47">
-        <v>1.78</v>
-      </c>
-      <c r="AL47">
-        <v>1.8</v>
-      </c>
-      <c r="AM47">
-        <v>1.91</v>
-      </c>
-      <c r="AN47">
-        <v>1.4</v>
-      </c>
-      <c r="AO47">
-        <v>1.33</v>
-      </c>
-      <c r="AP47">
-        <v>1.53</v>
-      </c>
-      <c r="AQ47">
-        <v>3</v>
-      </c>
-      <c r="AR47">
-        <v>0</v>
-      </c>
-      <c r="AS47">
-        <v>2</v>
-      </c>
-      <c r="AT47">
-        <v>0.33</v>
-      </c>
-      <c r="AU47">
-        <v>1.39</v>
-      </c>
-      <c r="AV47">
-        <v>1.17</v>
-      </c>
-      <c r="AW47">
-        <v>2.56</v>
-      </c>
-      <c r="AX47">
-        <v>1.85</v>
       </c>
       <c r="AY47">
         <v>7</v>
       </c>
       <c r="AZ47">
+        <v>2.15</v>
+      </c>
+      <c r="BA47">
+        <v>1.45</v>
+      </c>
+      <c r="BB47">
+        <v>1.85</v>
+      </c>
+      <c r="BC47">
         <v>2.4</v>
       </c>
-      <c r="BA47">
-        <v>1.41</v>
-      </c>
-      <c r="BB47">
-        <v>1.74</v>
-      </c>
-      <c r="BC47">
-        <v>2.28</v>
-      </c>
       <c r="BD47">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="BE47">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="BF47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG47">
+        <v>3</v>
+      </c>
+      <c r="BH47">
+        <v>3</v>
+      </c>
+      <c r="BI47">
+        <v>1</v>
+      </c>
+      <c r="BJ47">
+        <v>7</v>
+      </c>
+      <c r="BK47">
         <v>4</v>
-      </c>
-      <c r="BH47">
-        <v>4</v>
-      </c>
-      <c r="BI47">
-        <v>5</v>
-      </c>
-      <c r="BJ47">
-        <v>9</v>
-      </c>
-      <c r="BK47">
-        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:63">
@@ -9789,7 +9789,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>6651881</v>
+        <v>6651879</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -9804,52 +9804,52 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <v>2</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48" t="s">
+        <v>115</v>
+      </c>
+      <c r="P48" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q48">
+        <v>2</v>
+      </c>
+      <c r="R48">
         <v>4</v>
       </c>
-      <c r="O48" t="s">
-        <v>114</v>
-      </c>
-      <c r="P48" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q48">
-        <v>4</v>
-      </c>
-      <c r="R48">
-        <v>5</v>
-      </c>
       <c r="S48">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T48">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="U48">
         <v>2.05</v>
       </c>
       <c r="V48">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="W48">
         <v>1.44</v>
@@ -9864,82 +9864,82 @@
         <v>1.35</v>
       </c>
       <c r="AA48">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AB48">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC48">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="AD48">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AE48">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="AF48">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG48">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH48">
+        <v>1.36</v>
+      </c>
+      <c r="AI48">
+        <v>3</v>
+      </c>
+      <c r="AJ48">
+        <v>2.05</v>
+      </c>
+      <c r="AK48">
+        <v>1.7</v>
+      </c>
+      <c r="AL48">
+        <v>1.83</v>
+      </c>
+      <c r="AM48">
+        <v>1.9</v>
+      </c>
+      <c r="AN48">
+        <v>1.36</v>
+      </c>
+      <c r="AO48">
+        <v>1.25</v>
+      </c>
+      <c r="AP48">
+        <v>1.62</v>
+      </c>
+      <c r="AQ48">
+        <v>3</v>
+      </c>
+      <c r="AR48">
+        <v>2</v>
+      </c>
+      <c r="AS48">
+        <v>3</v>
+      </c>
+      <c r="AT48">
         <v>1.33</v>
       </c>
-      <c r="AI48">
-        <v>3.1</v>
-      </c>
-      <c r="AJ48">
-        <v>2.15</v>
-      </c>
-      <c r="AK48">
-        <v>1.65</v>
-      </c>
-      <c r="AL48">
-        <v>1.8</v>
-      </c>
-      <c r="AM48">
-        <v>1.95</v>
-      </c>
-      <c r="AN48">
-        <v>1.4</v>
-      </c>
-      <c r="AO48">
-        <v>1.28</v>
-      </c>
-      <c r="AP48">
-        <v>1.47</v>
-      </c>
-      <c r="AQ48">
-        <v>3</v>
-      </c>
-      <c r="AR48">
-        <v>0.5</v>
-      </c>
-      <c r="AS48">
-        <v>2.33</v>
-      </c>
-      <c r="AT48">
-        <v>0.67</v>
-      </c>
       <c r="AU48">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AV48">
-        <v>1.08</v>
+        <v>1.49</v>
       </c>
       <c r="AW48">
-        <v>2.28</v>
+        <v>2.78</v>
       </c>
       <c r="AX48">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AY48">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ48">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="BA48">
         <v>1.45</v>
@@ -9957,22 +9957,22 @@
         <v>4.8</v>
       </c>
       <c r="BF48">
+        <v>8</v>
+      </c>
+      <c r="BG48">
         <v>5</v>
       </c>
-      <c r="BG48">
-        <v>9</v>
-      </c>
       <c r="BH48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK48">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:63">
@@ -9995,7 +9995,7 @@
         <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s">
         <v>71</v>
@@ -10019,7 +10019,7 @@
         <v>2</v>
       </c>
       <c r="O49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P49" t="s">
         <v>85</v>
@@ -10171,7 +10171,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>6651880</v>
+        <v>6651881</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
@@ -10186,19 +10186,19 @@
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -10210,151 +10210,151 @@
         <v>4</v>
       </c>
       <c r="O50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R50">
         <v>5</v>
       </c>
       <c r="S50">
+        <v>9</v>
+      </c>
+      <c r="T50">
+        <v>3.2</v>
+      </c>
+      <c r="U50">
+        <v>2.05</v>
+      </c>
+      <c r="V50">
+        <v>3.25</v>
+      </c>
+      <c r="W50">
+        <v>1.44</v>
+      </c>
+      <c r="X50">
+        <v>2.6</v>
+      </c>
+      <c r="Y50">
+        <v>2.95</v>
+      </c>
+      <c r="Z50">
+        <v>1.35</v>
+      </c>
+      <c r="AA50">
+        <v>7.4</v>
+      </c>
+      <c r="AB50">
+        <v>1.06</v>
+      </c>
+      <c r="AC50">
+        <v>2.8</v>
+      </c>
+      <c r="AD50">
+        <v>3.1</v>
+      </c>
+      <c r="AE50">
+        <v>2.7</v>
+      </c>
+      <c r="AF50">
+        <v>1.08</v>
+      </c>
+      <c r="AG50">
         <v>7</v>
       </c>
-      <c r="T50">
-        <v>2.65</v>
-      </c>
-      <c r="U50">
-        <v>2</v>
-      </c>
-      <c r="V50">
-        <v>4.33</v>
-      </c>
-      <c r="W50">
-        <v>1.51</v>
-      </c>
-      <c r="X50">
+      <c r="AH50">
+        <v>1.33</v>
+      </c>
+      <c r="AI50">
+        <v>3.1</v>
+      </c>
+      <c r="AJ50">
+        <v>2.15</v>
+      </c>
+      <c r="AK50">
+        <v>1.65</v>
+      </c>
+      <c r="AL50">
+        <v>1.8</v>
+      </c>
+      <c r="AM50">
+        <v>1.95</v>
+      </c>
+      <c r="AN50">
+        <v>1.4</v>
+      </c>
+      <c r="AO50">
+        <v>1.28</v>
+      </c>
+      <c r="AP50">
+        <v>1.47</v>
+      </c>
+      <c r="AQ50">
+        <v>3</v>
+      </c>
+      <c r="AR50">
+        <v>0.5</v>
+      </c>
+      <c r="AS50">
+        <v>2.33</v>
+      </c>
+      <c r="AT50">
+        <v>0.67</v>
+      </c>
+      <c r="AU50">
+        <v>1.2</v>
+      </c>
+      <c r="AV50">
+        <v>1.08</v>
+      </c>
+      <c r="AW50">
+        <v>2.28</v>
+      </c>
+      <c r="AX50">
+        <v>1.85</v>
+      </c>
+      <c r="AY50">
+        <v>7</v>
+      </c>
+      <c r="AZ50">
         <v>2.4</v>
       </c>
-      <c r="Y50">
-        <v>3.25</v>
-      </c>
-      <c r="Z50">
-        <v>1.3</v>
-      </c>
-      <c r="AA50">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="AB50">
-        <v>1.04</v>
-      </c>
-      <c r="AC50">
-        <v>2</v>
-      </c>
-      <c r="AD50">
-        <v>3.13</v>
-      </c>
-      <c r="AE50">
-        <v>4.2</v>
-      </c>
-      <c r="AF50">
-        <v>1.09</v>
-      </c>
-      <c r="AG50">
-        <v>7.5</v>
-      </c>
-      <c r="AH50">
-        <v>1.44</v>
-      </c>
-      <c r="AI50">
+      <c r="BA50">
+        <v>1.45</v>
+      </c>
+      <c r="BB50">
+        <v>1.85</v>
+      </c>
+      <c r="BC50">
         <v>2.4</v>
       </c>
-      <c r="AJ50">
-        <v>2.38</v>
-      </c>
-      <c r="AK50">
-        <v>1.53</v>
-      </c>
-      <c r="AL50">
-        <v>2.05</v>
-      </c>
-      <c r="AM50">
-        <v>1.72</v>
-      </c>
-      <c r="AN50">
-        <v>1.2</v>
-      </c>
-      <c r="AO50">
-        <v>1.25</v>
-      </c>
-      <c r="AP50">
-        <v>1.8</v>
-      </c>
-      <c r="AQ50">
-        <v>1</v>
-      </c>
-      <c r="AR50">
-        <v>1.5</v>
-      </c>
-      <c r="AS50">
-        <v>1</v>
-      </c>
-      <c r="AT50">
-        <v>1.33</v>
-      </c>
-      <c r="AU50">
-        <v>1.51</v>
-      </c>
-      <c r="AV50">
-        <v>1.02</v>
-      </c>
-      <c r="AW50">
-        <v>2.53</v>
-      </c>
-      <c r="AX50">
-        <v>1.5</v>
-      </c>
-      <c r="AY50">
-        <v>7.5</v>
-      </c>
-      <c r="AZ50">
-        <v>3.3</v>
-      </c>
-      <c r="BA50">
-        <v>1.32</v>
-      </c>
-      <c r="BB50">
-        <v>1.93</v>
-      </c>
-      <c r="BC50">
-        <v>2.02</v>
-      </c>
       <c r="BD50">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="BE50">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="BF50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG50">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BH50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ50">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK50">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:63">
@@ -10362,7 +10362,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>6651879</v>
+        <v>6651884</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -10377,97 +10377,97 @@
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>85</v>
+      </c>
+      <c r="P51" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q51">
         <v>4</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>5</v>
-      </c>
-      <c r="O51" t="s">
-        <v>117</v>
-      </c>
-      <c r="P51" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q51">
-        <v>2</v>
       </c>
       <c r="R51">
         <v>4</v>
       </c>
       <c r="S51">
+        <v>8</v>
+      </c>
+      <c r="T51">
+        <v>2.1</v>
+      </c>
+      <c r="U51">
+        <v>2.3</v>
+      </c>
+      <c r="V51">
+        <v>5</v>
+      </c>
+      <c r="W51">
+        <v>1.34</v>
+      </c>
+      <c r="X51">
+        <v>3</v>
+      </c>
+      <c r="Y51">
+        <v>2.6</v>
+      </c>
+      <c r="Z51">
+        <v>1.44</v>
+      </c>
+      <c r="AA51">
         <v>6</v>
       </c>
-      <c r="T51">
-        <v>2.9</v>
-      </c>
-      <c r="U51">
-        <v>2.05</v>
-      </c>
-      <c r="V51">
-        <v>3.6</v>
-      </c>
-      <c r="W51">
-        <v>1.44</v>
-      </c>
-      <c r="X51">
-        <v>2.6</v>
-      </c>
-      <c r="Y51">
-        <v>2.95</v>
-      </c>
-      <c r="Z51">
-        <v>1.35</v>
-      </c>
-      <c r="AA51">
-        <v>7.9</v>
-      </c>
       <c r="AB51">
+        <v>1.1</v>
+      </c>
+      <c r="AC51">
+        <v>1.53</v>
+      </c>
+      <c r="AD51">
+        <v>4</v>
+      </c>
+      <c r="AE51">
+        <v>6.5</v>
+      </c>
+      <c r="AF51">
         <v>1.05</v>
       </c>
-      <c r="AC51">
-        <v>2.3</v>
-      </c>
-      <c r="AD51">
-        <v>3.2</v>
-      </c>
-      <c r="AE51">
-        <v>3.25</v>
-      </c>
-      <c r="AF51">
-        <v>1.07</v>
-      </c>
       <c r="AG51">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AH51">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AI51">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AJ51">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="AK51">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AL51">
         <v>1.83</v>
@@ -10476,76 +10476,76 @@
         <v>1.9</v>
       </c>
       <c r="AN51">
-        <v>1.36</v>
+        <v>1.1</v>
       </c>
       <c r="AO51">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AP51">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="AQ51">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AT51">
         <v>1.33</v>
       </c>
       <c r="AU51">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="AV51">
-        <v>1.49</v>
+        <v>0.91</v>
       </c>
       <c r="AW51">
-        <v>2.78</v>
+        <v>2.51</v>
       </c>
       <c r="AX51">
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="AY51">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AZ51">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="BA51">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="BB51">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="BC51">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BD51">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="BE51">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="BF51">
+        <v>2</v>
+      </c>
+      <c r="BG51">
+        <v>4</v>
+      </c>
+      <c r="BH51">
         <v>8</v>
       </c>
-      <c r="BG51">
-        <v>5</v>
-      </c>
-      <c r="BH51">
+      <c r="BI51">
         <v>4</v>
       </c>
-      <c r="BI51">
-        <v>5</v>
-      </c>
       <c r="BJ51">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK51">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK52"/>
+  <dimension ref="A1:BK61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT5" t="n">
         <v>1.33</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT6" t="n">
         <v>2.33</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.33</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>1.33</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>1.33</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>1.33</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU23" t="n">
         <v>1.66</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT26" t="n">
         <v>1.33</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT28" t="n">
         <v>1.33</v>
@@ -6790,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU31" t="n">
         <v>2.08</v>
@@ -6993,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU33" t="n">
         <v>1.15</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU34" t="n">
         <v>1.86</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU35" t="n">
         <v>1.4</v>
@@ -7805,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.97</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.48</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>0.44</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.76</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
         <v>1.33</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT41" t="n">
         <v>1.33</v>
@@ -10962,17 +10962,17 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>['30', '88']</t>
+          <t>['29', '88']</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R52" t="n">
         <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T52" t="n">
         <v>2.63</v>
@@ -11089,22 +11089,1849 @@
         <v>4.1</v>
       </c>
       <c r="BF52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG52" t="n">
         <v>4</v>
       </c>
       <c r="BH52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK52" t="n">
         <v>8</v>
       </c>
-      <c r="BI52" t="n">
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6651891</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45185.58333333334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['13', '84']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['22', '58']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>13</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>17</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V53" t="n">
+        <v>6</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG53" t="n">
         <v>5</v>
       </c>
-      <c r="BJ52" t="n">
-        <v>15</v>
-      </c>
-      <c r="BK52" t="n">
+      <c r="BH53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6651889</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45185.58333333334</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>10</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>14</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6651890</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45185.58333333334</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['27', '52', '55']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6</v>
+      </c>
+      <c r="S55" t="n">
+        <v>11</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V55" t="n">
+        <v>4</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG55" t="n">
         <v>9</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6651898</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45185.58333333334</v>
+      </c>
+      <c r="F56" t="n">
+        <v>6</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['46', '49', '86', '88']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>7</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6651893</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45185.58333333334</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['37', '88']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>8</v>
+      </c>
+      <c r="T57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6651895</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45185.58333333334</v>
+      </c>
+      <c r="F58" t="n">
+        <v>6</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['14', '43', '62']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>8</v>
+      </c>
+      <c r="S58" t="n">
+        <v>11</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6651896</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45185.58333333334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6</v>
+      </c>
+      <c r="S59" t="n">
+        <v>9</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6651897</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45185.58333333334</v>
+      </c>
+      <c r="F60" t="n">
+        <v>6</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['83', '90+2']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['28', '35', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>7</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>8</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6651894</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45187.65625</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['4', '32', '78']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6</v>
+      </c>
+      <c r="S61" t="n">
+        <v>9</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK61"/>
+  <dimension ref="A1:BK62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>0.33</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT17" t="n">
         <v>1.33</v>
@@ -4963,7 +4963,7 @@
         <v>1.67</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.13</v>
@@ -9023,7 +9023,7 @@
         <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.7</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT46" t="n">
         <v>0.33</v>
@@ -12932,6 +12932,209 @@
       </c>
       <c r="BK61" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6651905</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['21', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>14</v>
+      </c>
+      <c r="S62" t="n">
+        <v>17</v>
+      </c>
+      <c r="T62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK62"/>
+  <dimension ref="A1:BK70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.25</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT9" t="n">
         <v>0.75</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT11" t="n">
         <v>1.33</v>
@@ -2933,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT20" t="n">
         <v>1.67</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>2.5</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>0.75</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT24" t="n">
         <v>2</v>
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU25" t="n">
         <v>1.36</v>
@@ -5775,7 +5775,7 @@
         <v>0.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.47</v>
@@ -5978,7 +5978,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU27" t="n">
         <v>2.17</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU29" t="n">
         <v>0.93</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
         <v>1.33</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU40" t="n">
         <v>2.1</v>
@@ -8820,7 +8820,7 @@
         <v>1.25</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU41" t="n">
         <v>1.26</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
         <v>1.33</v>
@@ -9426,10 +9426,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.83</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU45" t="n">
         <v>1.48</v>
@@ -9835,7 +9835,7 @@
         <v>1.33</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU46" t="n">
         <v>1.39</v>
@@ -10238,10 +10238,10 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.29</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
         <v>0</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU50" t="n">
         <v>1.2</v>
@@ -10850,7 +10850,7 @@
         <v>1.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU51" t="n">
         <v>1.6</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU52" t="n">
         <v>1.67</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT59" t="n">
         <v>1.67</v>
@@ -13135,6 +13135,1630 @@
       </c>
       <c r="BK62" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6651907</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>9</v>
+      </c>
+      <c r="S63" t="n">
+        <v>14</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6651906</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['16', '67']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>6</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>8</v>
+      </c>
+      <c r="T64" t="n">
+        <v>3</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6651908</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['14', '54']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6651904</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F66" t="n">
+        <v>7</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['62', '89']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>6</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>9</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6651902</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['29', '90+7']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>9</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>12</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V67" t="n">
+        <v>4</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6651901</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['44', '45+4', '59']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>7</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>11</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6651900</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['56', '67']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>8</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6651899</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F70" t="n">
+        <v>7</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>9</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>5</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -12924,19 +12924,19 @@
         <v>3</v>
       </c>
       <c r="AV73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX73" t="n">
         <v>7</v>
       </c>
       <c r="AY73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
@@ -13097,13 +13097,13 @@
         <v>4</v>
       </c>
       <c r="AW74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX74" t="n">
         <v>4</v>
       </c>
       <c r="AY74" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ74" t="n">
         <v>8</v>
@@ -13507,7 +13507,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>['26', '54', '79', '82']</t>
+          <t>['27', '54', '79', '82']</t>
         </is>
       </c>
       <c r="Q77" t="n">
@@ -13607,13 +13607,13 @@
         <v>11</v>
       </c>
       <c r="AW77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX77" t="n">
         <v>4</v>
       </c>
       <c r="AY77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ77" t="n">
         <v>15</v>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ79"/>
+  <dimension ref="A1:AZ88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,7 +1009,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.6</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -2876,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.75</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.25</v>
@@ -4069,7 +4069,7 @@
         <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ22" t="n">
         <v>2.5</v>
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.6</v>
@@ -4749,7 +4749,7 @@
         <v>3</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>1.36</v>
@@ -4919,7 +4919,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR26" t="n">
         <v>1.47</v>
@@ -5089,7 +5089,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR27" t="n">
         <v>2.17</v>
@@ -5256,7 +5256,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.33</v>
@@ -5596,10 +5596,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR30" t="n">
         <v>1.25</v>
@@ -5769,7 +5769,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>2.08</v>
@@ -5939,7 +5939,7 @@
         <v>2</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR32" t="n">
         <v>1.83</v>
@@ -6446,7 +6446,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ35" t="n">
         <v>2</v>
@@ -6616,7 +6616,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -6959,7 +6959,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR38" t="n">
         <v>0.44</v>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.5</v>
@@ -7299,7 +7299,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR40" t="n">
         <v>2.1</v>
@@ -7466,10 +7466,10 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR41" t="n">
         <v>1.26</v>
@@ -7976,7 +7976,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.5</v>
@@ -8316,10 +8316,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR46" t="n">
         <v>1.39</v>
@@ -8659,7 +8659,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR49" t="n">
         <v>1.33</v>
@@ -8996,10 +8996,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR50" t="n">
         <v>1.2</v>
@@ -9169,7 +9169,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR51" t="n">
         <v>1.6</v>
@@ -9336,10 +9336,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR52" t="n">
         <v>1.67</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ53" t="n">
         <v>1</v>
@@ -9676,7 +9676,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.6</v>
@@ -10189,7 +10189,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.28</v>
@@ -10359,7 +10359,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR58" t="n">
         <v>1.08</v>
@@ -10526,7 +10526,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ59" t="n">
         <v>2</v>
@@ -10699,7 +10699,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -11036,7 +11036,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ62" t="n">
         <v>2.5</v>
@@ -11209,7 +11209,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -11376,10 +11376,10 @@
         <v>0.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR64" t="n">
         <v>1.61</v>
@@ -11546,10 +11546,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR65" t="n">
         <v>1.9</v>
@@ -11719,7 +11719,7 @@
         <v>3</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR66" t="n">
         <v>1.23</v>
@@ -11886,7 +11886,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.5</v>
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.25</v>
@@ -12229,7 +12229,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR69" t="n">
         <v>1.37</v>
@@ -12399,7 +12399,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR70" t="n">
         <v>1.4</v>
@@ -12909,7 +12909,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.75</v>
@@ -13079,7 +13079,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR74" t="n">
         <v>1.35</v>
@@ -13246,7 +13246,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ75" t="n">
         <v>2</v>
@@ -13926,7 +13926,7 @@
         <v>1.67</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.25</v>
@@ -13957,6 +13957,1536 @@
       </c>
       <c r="AZ79" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6651926</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45199.41666666666</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X80" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6651927</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45199.58333333334</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X81" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6651920</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45199.58333333334</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="n">
+        <v>4</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['18', '46']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['51', '62']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X82" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6651921</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45199.58333333334</v>
+      </c>
+      <c r="F83" t="n">
+        <v>9</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X83" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6651922</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45199.58333333334</v>
+      </c>
+      <c r="F84" t="n">
+        <v>9</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['77', '90+6']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X84" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6651923</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45199.58333333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>9</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>3</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>4</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['33', '72', '90+5']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X85" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6651924</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45199.58333333334</v>
+      </c>
+      <c r="F86" t="n">
+        <v>9</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X86" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6651925</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45199.58333333334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>9</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V87" t="n">
+        <v>3</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X87" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6651928</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45199.58333333334</v>
+      </c>
+      <c r="F88" t="n">
+        <v>9</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['15', '90+1']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V88" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14791,7 +14791,7 @@
         <v>2.89</v>
       </c>
       <c r="AU84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV84" t="n">
         <v>9</v>
@@ -14803,7 +14803,7 @@
         <v>3</v>
       </c>
       <c r="AY84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ84" t="n">
         <v>12</v>
@@ -14961,19 +14961,19 @@
         <v>3.04</v>
       </c>
       <c r="AU85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV85" t="n">
         <v>3</v>
       </c>
       <c r="AW85" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX85" t="n">
         <v>3</v>
       </c>
       <c r="AY85" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ85" t="n">
         <v>6</v>
@@ -15134,19 +15134,19 @@
         <v>2</v>
       </c>
       <c r="AV86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX86" t="n">
         <v>5</v>
       </c>
-      <c r="AW86" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX86" t="n">
-        <v>3</v>
-      </c>
       <c r="AY86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ86" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
@@ -15247,16 +15247,16 @@
         <v>5</v>
       </c>
       <c r="AC87" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AE87" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF87" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AG87" t="n">
         <v>2</v>
@@ -15271,13 +15271,13 @@
         <v>1.73</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AL87" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AM87" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AN87" t="n">
         <v>3</v>
@@ -15471,22 +15471,22 @@
         <v>3.4</v>
       </c>
       <c r="AU88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV88" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX88" t="n">
         <v>4</v>
       </c>
       <c r="AY88" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ88" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ88"/>
+  <dimension ref="A1:AZ89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -2199,7 +2199,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR29" t="n">
         <v>0.93</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -7806,7 +7806,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.33</v>
@@ -7979,7 +7979,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR44" t="n">
         <v>1.83</v>
@@ -11889,7 +11889,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR67" t="n">
         <v>1.42</v>
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.2</v>
@@ -14281,22 +14281,22 @@
         <v>2.94</v>
       </c>
       <c r="AU81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX81" t="n">
         <v>7</v>
       </c>
       <c r="AY81" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ81" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
@@ -14451,22 +14451,22 @@
         <v>2.5</v>
       </c>
       <c r="AU82" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV82" t="n">
         <v>3</v>
       </c>
       <c r="AW82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY82" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
@@ -14621,22 +14621,22 @@
         <v>2.43</v>
       </c>
       <c r="AU83" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV83" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY83" t="n">
         <v>12</v>
       </c>
       <c r="AZ83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -14794,19 +14794,19 @@
         <v>8</v>
       </c>
       <c r="AV84" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX84" t="n">
         <v>3</v>
       </c>
       <c r="AY84" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ84" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -14964,16 +14964,16 @@
         <v>5</v>
       </c>
       <c r="AV85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW85" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ85" t="n">
         <v>6</v>
@@ -15134,19 +15134,19 @@
         <v>2</v>
       </c>
       <c r="AV86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX86" t="n">
         <v>5</v>
       </c>
       <c r="AY86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ86" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
@@ -15301,22 +15301,22 @@
         <v>2.31</v>
       </c>
       <c r="AU87" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW87" t="n">
         <v>7</v>
       </c>
-      <c r="AV87" t="n">
+      <c r="AX87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ87" t="n">
         <v>5</v>
-      </c>
-      <c r="AW87" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY87" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ87" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -15471,22 +15471,192 @@
         <v>3.4</v>
       </c>
       <c r="AU88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV88" t="n">
         <v>5</v>
       </c>
-      <c r="AV88" t="n">
+      <c r="AW88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6651919</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45201.65625</v>
+      </c>
+      <c r="F89" t="n">
         <v>9</v>
       </c>
-      <c r="AW88" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX88" t="n">
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['59', '89']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X89" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU89" t="n">
         <v>4</v>
       </c>
-      <c r="AY88" t="n">
+      <c r="AV89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ89" t="n">
         <v>6</v>
-      </c>
-      <c r="AZ88" t="n">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ89"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -836,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
         <v>2</v>
@@ -867,6 +947,54 @@
       </c>
       <c r="AZ2" t="n">
         <v>12</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="3">
@@ -1038,6 +1166,54 @@
       <c r="AZ3" t="n">
         <v>6</v>
       </c>
+      <c r="BA3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1207,6 +1383,54 @@
       </c>
       <c r="AZ4" t="n">
         <v>7</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>16</v>
       </c>
+      <c r="BA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>14</v>
       </c>
+      <c r="BA6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>7</v>
       </c>
+      <c r="BA7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1859,7 +2227,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -1887,6 +2255,54 @@
       </c>
       <c r="AZ8" t="n">
         <v>11</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row r="9">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>11</v>
       </c>
+      <c r="BA9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>6</v>
       </c>
+      <c r="BA10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>14</v>
       </c>
+      <c r="BA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>14</v>
       </c>
+      <c r="BA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>3</v>
       </c>
+      <c r="BA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>7</v>
       </c>
+      <c r="BA14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>6</v>
       </c>
+      <c r="BA15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3219,7 +3971,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -3247,6 +3999,54 @@
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row r="17">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>17</v>
       </c>
+      <c r="BA17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>4</v>
       </c>
+      <c r="BA18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>4</v>
       </c>
+      <c r="BA19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.09</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>5</v>
       </c>
+      <c r="BA20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4066,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.2</v>
@@ -4097,6 +5089,54 @@
       </c>
       <c r="AZ21" t="n">
         <v>10</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="22">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>10</v>
       </c>
+      <c r="BA22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>5</v>
       </c>
+      <c r="BA23" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4579,7 +5715,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR24" t="n">
         <v>1.31</v>
@@ -4607,6 +5743,54 @@
       </c>
       <c r="AZ24" t="n">
         <v>9</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="25">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>4</v>
       </c>
+      <c r="BA25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>6</v>
       </c>
+      <c r="BA26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.12</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5086,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.8</v>
@@ -5117,6 +6397,54 @@
       </c>
       <c r="AZ27" t="n">
         <v>8</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.18</v>
       </c>
     </row>
     <row r="28">
@@ -5259,7 +6587,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>1.29</v>
@@ -5287,6 +6615,54 @@
       </c>
       <c r="AZ28" t="n">
         <v>4</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="29">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>10</v>
       </c>
+      <c r="BA29" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>12</v>
       </c>
+      <c r="BA30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>11</v>
       </c>
+      <c r="BA31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.09</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5936,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.75</v>
@@ -5967,6 +7487,54 @@
       </c>
       <c r="AZ32" t="n">
         <v>9</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="33">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>8</v>
       </c>
+      <c r="BA33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>9</v>
       </c>
+      <c r="BA34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>5</v>
       </c>
+      <c r="BA35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>5</v>
       </c>
+      <c r="BA36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>12</v>
       </c>
+      <c r="BA37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>11</v>
       </c>
+      <c r="BA38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>7</v>
       </c>
+      <c r="BA39" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>9</v>
       </c>
+      <c r="BA40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>10</v>
       </c>
+      <c r="BA41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42" t="n">
         <v>2.5</v>
@@ -7667,6 +9667,54 @@
       </c>
       <c r="AZ42" t="n">
         <v>11</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="43">
@@ -7809,7 +9857,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR43" t="n">
         <v>1.51</v>
@@ -7837,6 +9885,54 @@
       </c>
       <c r="AZ43" t="n">
         <v>10</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="44">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>8</v>
       </c>
+      <c r="BA44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>14</v>
       </c>
+      <c r="BA45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>9</v>
       </c>
+      <c r="BA46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8489,7 +10729,7 @@
         <v>3</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR47" t="n">
         <v>1.34</v>
@@ -8517,6 +10757,54 @@
       </c>
       <c r="AZ47" t="n">
         <v>4</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="48">
@@ -8688,6 +10976,54 @@
       <c r="AZ48" t="n">
         <v>10</v>
       </c>
+      <c r="BA48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8858,6 +11194,54 @@
       <c r="AZ49" t="n">
         <v>9</v>
       </c>
+      <c r="BA49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9028,6 +11412,54 @@
       <c r="AZ50" t="n">
         <v>11</v>
       </c>
+      <c r="BA50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9166,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51" t="n">
         <v>1</v>
@@ -9197,6 +11629,54 @@
       </c>
       <c r="AZ51" t="n">
         <v>8</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row r="52">
@@ -9368,6 +11848,54 @@
       <c r="AZ52" t="n">
         <v>8</v>
       </c>
+      <c r="BA52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9538,6 +12066,54 @@
       <c r="AZ53" t="n">
         <v>5</v>
       </c>
+      <c r="BA53" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9708,6 +12284,54 @@
       <c r="AZ54" t="n">
         <v>6</v>
       </c>
+      <c r="BA54" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9878,6 +12502,54 @@
       <c r="AZ55" t="n">
         <v>10</v>
       </c>
+      <c r="BA55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -10048,6 +12720,54 @@
       <c r="AZ56" t="n">
         <v>8</v>
       </c>
+      <c r="BA56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -10218,6 +12938,54 @@
       <c r="AZ57" t="n">
         <v>11</v>
       </c>
+      <c r="BA57" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -10388,6 +13156,54 @@
       <c r="AZ58" t="n">
         <v>10</v>
       </c>
+      <c r="BA58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -10558,6 +13374,54 @@
       <c r="AZ59" t="n">
         <v>18</v>
       </c>
+      <c r="BA59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -10728,6 +13592,54 @@
       <c r="AZ60" t="n">
         <v>8</v>
       </c>
+      <c r="BA60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -10898,6 +13810,54 @@
       <c r="AZ61" t="n">
         <v>13</v>
       </c>
+      <c r="BA61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -11068,6 +14028,54 @@
       <c r="AZ62" t="n">
         <v>17</v>
       </c>
+      <c r="BA62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -11238,6 +14246,54 @@
       <c r="AZ63" t="n">
         <v>12</v>
       </c>
+      <c r="BA63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -11408,6 +14464,54 @@
       <c r="AZ64" t="n">
         <v>13</v>
       </c>
+      <c r="BA64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -11578,6 +14682,54 @@
       <c r="AZ65" t="n">
         <v>11</v>
       </c>
+      <c r="BA65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -11748,6 +14900,54 @@
       <c r="AZ66" t="n">
         <v>9</v>
       </c>
+      <c r="BA66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -11918,6 +15118,54 @@
       <c r="AZ67" t="n">
         <v>10</v>
       </c>
+      <c r="BA67" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -12088,6 +15336,54 @@
       <c r="AZ68" t="n">
         <v>11</v>
       </c>
+      <c r="BA68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -12258,6 +15554,54 @@
       <c r="AZ69" t="n">
         <v>3</v>
       </c>
+      <c r="BA69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -12428,6 +15772,54 @@
       <c r="AZ70" t="n">
         <v>7</v>
       </c>
+      <c r="BA70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -12598,6 +15990,54 @@
       <c r="AZ71" t="n">
         <v>6</v>
       </c>
+      <c r="BA71" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -12768,6 +16208,54 @@
       <c r="AZ72" t="n">
         <v>6</v>
       </c>
+      <c r="BA72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -12938,6 +16426,54 @@
       <c r="AZ73" t="n">
         <v>11</v>
       </c>
+      <c r="BA73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.12</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -13108,6 +16644,54 @@
       <c r="AZ74" t="n">
         <v>8</v>
       </c>
+      <c r="BA74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -13278,6 +16862,54 @@
       <c r="AZ75" t="n">
         <v>8</v>
       </c>
+      <c r="BA75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -13448,6 +17080,54 @@
       <c r="AZ76" t="n">
         <v>4</v>
       </c>
+      <c r="BA76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -13618,6 +17298,54 @@
       <c r="AZ77" t="n">
         <v>15</v>
       </c>
+      <c r="BA77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -13788,6 +17516,54 @@
       <c r="AZ78" t="n">
         <v>6</v>
       </c>
+      <c r="BA78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -13958,6 +17734,54 @@
       <c r="AZ79" t="n">
         <v>4</v>
       </c>
+      <c r="BA79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -14128,6 +17952,54 @@
       <c r="AZ80" t="n">
         <v>10</v>
       </c>
+      <c r="BA80" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -14298,6 +18170,54 @@
       <c r="AZ81" t="n">
         <v>14</v>
       </c>
+      <c r="BA81" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -14468,6 +18388,54 @@
       <c r="AZ82" t="n">
         <v>8</v>
       </c>
+      <c r="BA82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -14638,6 +18606,54 @@
       <c r="AZ83" t="n">
         <v>13</v>
       </c>
+      <c r="BA83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -14808,6 +18824,54 @@
       <c r="AZ84" t="n">
         <v>10</v>
       </c>
+      <c r="BA84" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -14978,6 +19042,54 @@
       <c r="AZ85" t="n">
         <v>6</v>
       </c>
+      <c r="BA85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -15148,6 +19260,54 @@
       <c r="AZ86" t="n">
         <v>13</v>
       </c>
+      <c r="BA86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -15318,6 +19478,54 @@
       <c r="AZ87" t="n">
         <v>5</v>
       </c>
+      <c r="BA87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -15488,6 +19696,54 @@
       <c r="AZ88" t="n">
         <v>10</v>
       </c>
+      <c r="BA88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -15657,6 +19913,490 @@
       </c>
       <c r="AZ89" t="n">
         <v>6</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6651903</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45202.57291666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>7</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>2</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X90" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6651911</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45203.57291666666</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['83', '86']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X91" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.8</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>3</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.4</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ12" t="n">
         <v>2</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -4843,7 +4843,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.2</v>
@@ -5279,7 +5279,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR22" t="n">
         <v>1.13</v>
@@ -5497,7 +5497,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR23" t="n">
         <v>1.66</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR24" t="n">
         <v>1.31</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.4</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.8</v>
@@ -6587,7 +6587,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR28" t="n">
         <v>1.29</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.4</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.75</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR33" t="n">
         <v>1.15</v>
@@ -7892,10 +7892,10 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR34" t="n">
         <v>1.86</v>
@@ -8113,7 +8113,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR35" t="n">
         <v>1.4</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.2</v>
@@ -8985,7 +8985,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR39" t="n">
         <v>1.76</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ40" t="n">
         <v>1</v>
@@ -9636,10 +9636,10 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR42" t="n">
         <v>1.7</v>
@@ -9857,7 +9857,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR43" t="n">
         <v>1.51</v>
@@ -10290,10 +10290,10 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
         <v>1.48</v>
@@ -10729,7 +10729,7 @@
         <v>3</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR47" t="n">
         <v>1.34</v>
@@ -10944,7 +10944,7 @@
         <v>2</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.4</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ51" t="n">
         <v>1</v>
@@ -12255,7 +12255,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR54" t="n">
         <v>1.37</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR55" t="n">
         <v>1.96</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR56" t="n">
         <v>2.1</v>
@@ -12906,7 +12906,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13124,7 +13124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.75</v>
@@ -13345,7 +13345,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR59" t="n">
         <v>1.91</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.2</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ61" t="n">
         <v>1</v>
@@ -13999,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR62" t="n">
         <v>1.45</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ63" t="n">
         <v>2</v>
@@ -15307,7 +15307,7 @@
         <v>2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR68" t="n">
         <v>1.28</v>
@@ -15740,7 +15740,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ70" t="n">
         <v>1</v>
@@ -15958,10 +15958,10 @@
         <v>0.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR71" t="n">
         <v>1.97</v>
@@ -16176,10 +16176,10 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR72" t="n">
         <v>1.6</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -16612,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.2</v>
@@ -16833,7 +16833,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR75" t="n">
         <v>1.62</v>
@@ -17048,10 +17048,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ77" t="n">
         <v>1</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ78" t="n">
         <v>1</v>
@@ -17705,7 +17705,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.72</v>
@@ -20100,10 +20100,10 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR90" t="n">
         <v>1.84</v>
@@ -20318,10 +20318,10 @@
         <v>1.33</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR91" t="n">
         <v>1.43</v>
@@ -20339,16 +20339,16 @@
         <v>5</v>
       </c>
       <c r="AW91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX91" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY91" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA91" t="n">
         <v>9</v>
@@ -20397,6 +20397,2186 @@
       </c>
       <c r="BP91" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6651930</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45206.41666666666</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X92" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6651931</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>10</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['59', '70']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X93" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6651932</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X94" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6651933</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>10</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X95" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6651934</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F96" t="n">
+        <v>10</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>3</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="n">
+        <v>4</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['2', '45+2']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['23', '72']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X96" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6651935</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F97" t="n">
+        <v>10</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['22', '70']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S97" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X97" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6651936</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>3</v>
+      </c>
+      <c r="L98" t="n">
+        <v>4</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="n">
+        <v>7</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['8', '63', '78', '90+4']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['23', '41', '66']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X98" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6651937</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F99" t="n">
+        <v>10</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="n">
+        <v>4</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['38', '85']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['9', '67']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X99" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6651938</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3</v>
+      </c>
+      <c r="K100" t="n">
+        <v>5</v>
+      </c>
+      <c r="L100" t="n">
+        <v>5</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="n">
+        <v>8</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['4', '13', '71', '76', '90+2']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['42', '45+1', '45+4']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X100" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6651929</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2</v>
+      </c>
+      <c r="K101" t="n">
+        <v>3</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="n">
+        <v>5</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['22', '45+5', '71', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X101" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -20769,22 +20769,22 @@
         <v>2.79</v>
       </c>
       <c r="AU93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV93" t="n">
         <v>3</v>
       </c>
       <c r="AW93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY93" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AZ93" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA93" t="n">
         <v>4</v>
@@ -20987,22 +20987,22 @@
         <v>2.46</v>
       </c>
       <c r="AU94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY94" t="n">
         <v>4</v>
       </c>
-      <c r="AV94" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW94" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX94" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY94" t="n">
-        <v>7</v>
-      </c>
       <c r="AZ94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA94" t="n">
         <v>4</v>
@@ -21205,22 +21205,22 @@
         <v>2.55</v>
       </c>
       <c r="AU95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW95" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX95" t="n">
         <v>1</v>
       </c>
       <c r="AY95" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA95" t="n">
         <v>7</v>
@@ -21423,22 +21423,22 @@
         <v>3.14</v>
       </c>
       <c r="AU96" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW96" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX96" t="n">
         <v>4</v>
-      </c>
-      <c r="AX96" t="n">
-        <v>3</v>
       </c>
       <c r="AY96" t="n">
         <v>12</v>
       </c>
       <c r="AZ96" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA96" t="n">
         <v>6</v>
@@ -21644,19 +21644,19 @@
         <v>4</v>
       </c>
       <c r="AV97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW97" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY97" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ97" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA97" t="n">
         <v>10</v>
@@ -21859,22 +21859,22 @@
         <v>2.49</v>
       </c>
       <c r="AU98" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY98" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ98" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA98" t="n">
         <v>3</v>
@@ -22077,22 +22077,22 @@
         <v>2.94</v>
       </c>
       <c r="AU99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW99" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY99" t="n">
         <v>15</v>
       </c>
       <c r="AZ99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA99" t="n">
         <v>3</v>
@@ -22295,22 +22295,22 @@
         <v>3.04</v>
       </c>
       <c r="AU100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV100" t="n">
         <v>5</v>
       </c>
-      <c r="AV100" t="n">
-        <v>3</v>
-      </c>
       <c r="AW100" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX100" t="n">
         <v>5</v>
       </c>
-      <c r="AX100" t="n">
-        <v>3</v>
-      </c>
       <c r="AY100" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ100" t="n">
         <v>10</v>
-      </c>
-      <c r="AZ100" t="n">
-        <v>6</v>
       </c>
       <c r="BA100" t="n">
         <v>6</v>
@@ -22513,22 +22513,22 @@
         <v>2.4</v>
       </c>
       <c r="AU101" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV101" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW101" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX101" t="n">
         <v>5</v>
       </c>
       <c r="AY101" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ101" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA101" t="n">
         <v>11</v>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -20622,7 +20622,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>6651931</v>
+        <v>6651929</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -20642,56 +20642,56 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Amiens SC</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Angers SCO</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>['59', '70']</t>
+          <t>['14']</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>['89']</t>
+          <t>['22', '45+5', '71', '90+7']</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="R93" t="n">
         <v>2</v>
       </c>
       <c r="S93" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="T93" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U93" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="V93" t="n">
         <v>3.15</v>
@@ -20700,25 +20700,25 @@
         <v>1.32</v>
       </c>
       <c r="X93" t="n">
-        <v>8.449999999999999</v>
+        <v>8.35</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z93" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="AA93" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB93" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="AC93" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD93" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE93" t="n">
         <v>1.38</v>
@@ -20727,112 +20727,112 @@
         <v>2.9</v>
       </c>
       <c r="AG93" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AH93" t="n">
         <v>1.64</v>
       </c>
       <c r="AI93" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AJ93" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ93" t="n">
         <v>1.8</v>
       </c>
-      <c r="AK93" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AL93" t="n">
+      <c r="AR93" t="n">
         <v>1.25</v>
       </c>
-      <c r="AM93" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP93" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AQ93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR93" t="n">
-        <v>1.55</v>
-      </c>
       <c r="AS93" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.79</v>
+        <v>2.4</v>
       </c>
       <c r="AU93" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV93" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW93" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX93" t="n">
         <v>5</v>
       </c>
       <c r="AY93" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AZ93" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA93" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BB93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC93" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD93" t="n">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="BE93" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF93" t="n">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="BG93" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="BH93" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="BI93" t="n">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="BJ93" t="n">
-        <v>2.26</v>
+        <v>3.1</v>
       </c>
       <c r="BK93" t="n">
-        <v>2.03</v>
+        <v>1.6</v>
       </c>
       <c r="BL93" t="n">
-        <v>1.79</v>
+        <v>2.25</v>
       </c>
       <c r="BM93" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BN93" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="BO93" t="n">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
       <c r="BP93" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="94">
@@ -20840,7 +20840,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>6651932</v>
+        <v>6651931</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -20860,12 +20860,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Saint-Étienne</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Ajaccio</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -20878,44 +20878,44 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['59', '70']</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['89']</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="R94" t="n">
         <v>2</v>
       </c>
       <c r="S94" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T94" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="U94" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="V94" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="W94" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X94" t="n">
         <v>8.449999999999999</v>
@@ -20924,31 +20924,31 @@
         <v>1.04</v>
       </c>
       <c r="Z94" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA94" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AB94" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AC94" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD94" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE94" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF94" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AG94" t="n">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="AH94" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AI94" t="n">
         <v>1.95</v>
@@ -20957,100 +20957,100 @@
         <v>1.8</v>
       </c>
       <c r="AK94" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AL94" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM94" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AN94" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO94" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AQ94" t="n">
         <v>1</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.97</v>
+        <v>1.24</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.46</v>
+        <v>2.79</v>
       </c>
       <c r="AU94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV94" t="n">
         <v>3</v>
       </c>
       <c r="AW94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY94" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ94" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA94" t="n">
         <v>4</v>
       </c>
       <c r="BB94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD94" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="BE94" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="BF94" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="BG94" t="n">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="BH94" t="n">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="BI94" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="BJ94" t="n">
-        <v>1.72</v>
+        <v>2.26</v>
       </c>
       <c r="BK94" t="n">
-        <v>2.8</v>
+        <v>2.03</v>
       </c>
       <c r="BL94" t="n">
-        <v>1.4</v>
+        <v>1.79</v>
       </c>
       <c r="BM94" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="BN94" t="n">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="BO94" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="BP94" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="95">
@@ -21058,7 +21058,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>6651933</v>
+        <v>6651932</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -21078,197 +21078,197 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Saint-Étienne</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Ajaccio</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>['90+2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>['12']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R95" t="n">
         <v>2</v>
       </c>
       <c r="S95" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T95" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U95" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="V95" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="W95" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X95" t="n">
-        <v>7.9</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z95" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AA95" t="n">
         <v>3.2</v>
       </c>
       <c r="AB95" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="AC95" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD95" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE95" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AF95" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="AG95" t="n">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="AH95" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AI95" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AJ95" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AK95" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AL95" t="n">
         <v>1.28</v>
       </c>
       <c r="AM95" t="n">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="AN95" t="n">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO95" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.12</v>
+        <v>0.97</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
       <c r="AU95" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV95" t="n">
         <v>3</v>
       </c>
       <c r="AW95" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AX95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY95" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AZ95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA95" t="n">
         <v>4</v>
       </c>
-      <c r="BA95" t="n">
+      <c r="BB95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC95" t="n">
         <v>7</v>
       </c>
-      <c r="BB95" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC95" t="n">
+      <c r="BD95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE95" t="n">
         <v>9</v>
       </c>
-      <c r="BD95" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BE95" t="n">
-        <v>8.5</v>
-      </c>
       <c r="BF95" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="BG95" t="n">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="BH95" t="n">
-        <v>4.8</v>
+        <v>2.28</v>
       </c>
       <c r="BI95" t="n">
-        <v>1.3</v>
+        <v>2.06</v>
       </c>
       <c r="BJ95" t="n">
-        <v>3.25</v>
+        <v>1.72</v>
       </c>
       <c r="BK95" t="n">
-        <v>1.56</v>
+        <v>2.8</v>
       </c>
       <c r="BL95" t="n">
-        <v>2.33</v>
+        <v>1.4</v>
       </c>
       <c r="BM95" t="n">
-        <v>1.98</v>
+        <v>4</v>
       </c>
       <c r="BN95" t="n">
-        <v>1.83</v>
+        <v>1.22</v>
       </c>
       <c r="BO95" t="n">
-        <v>2.55</v>
+        <v>5.3</v>
       </c>
       <c r="BP95" t="n">
-        <v>1.47</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="96">
@@ -21276,7 +21276,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>6651934</v>
+        <v>6651933</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -21296,77 +21296,77 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Grenoble Foot 38</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>['2', '45+2']</t>
+          <t>['90+2']</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>['23', '72']</t>
+          <t>['12']</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="R96" t="n">
         <v>2</v>
       </c>
       <c r="S96" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T96" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="U96" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X96" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z96" t="n">
         <v>2.5</v>
       </c>
-      <c r="V96" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W96" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X96" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="Y96" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z96" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AA96" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AB96" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AC96" t="n">
         <v>1.07</v>
@@ -21375,118 +21375,118 @@
         <v>8.5</v>
       </c>
       <c r="AE96" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AF96" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="AG96" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="AH96" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AI96" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AJ96" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AK96" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AL96" t="n">
         <v>1.28</v>
       </c>
       <c r="AM96" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AN96" t="n">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="AO96" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR96" t="n">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.52</v>
+        <v>1.12</v>
       </c>
       <c r="AT96" t="n">
-        <v>3.14</v>
+        <v>2.55</v>
       </c>
       <c r="AU96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV96" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ96" t="n">
         <v>4</v>
       </c>
-      <c r="AW96" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX96" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY96" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ96" t="n">
-        <v>8</v>
-      </c>
       <c r="BA96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC96" t="n">
         <v>9</v>
       </c>
       <c r="BD96" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="BE96" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BF96" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="BG96" t="n">
-        <v>1.51</v>
+        <v>1.17</v>
       </c>
       <c r="BH96" t="n">
-        <v>2.52</v>
+        <v>4.8</v>
       </c>
       <c r="BI96" t="n">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="BJ96" t="n">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="BK96" t="n">
-        <v>2.32</v>
+        <v>1.56</v>
       </c>
       <c r="BL96" t="n">
-        <v>1.58</v>
+        <v>2.33</v>
       </c>
       <c r="BM96" t="n">
-        <v>3</v>
+        <v>1.98</v>
       </c>
       <c r="BN96" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="BO96" t="n">
-        <v>5.1</v>
+        <v>2.55</v>
       </c>
       <c r="BP96" t="n">
-        <v>1.12</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="97">
@@ -21494,7 +21494,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>6651935</v>
+        <v>6651934</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -21514,197 +21514,197 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Grenoble Foot 38</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
       </c>
       <c r="N97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2', '45+2']</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>['22', '70']</t>
+          <t>['23', '72']</t>
         </is>
       </c>
       <c r="Q97" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X97" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV97" t="n">
         <v>4</v>
       </c>
-      <c r="R97" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S97" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="T97" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U97" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="V97" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="W97" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X97" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z97" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AA97" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM97" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO97" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AP97" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AQ97" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AR97" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AS97" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AT97" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU97" t="n">
+      <c r="AW97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX97" t="n">
         <v>4</v>
       </c>
-      <c r="AV97" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW97" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX97" t="n">
-        <v>3</v>
-      </c>
       <c r="AY97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ97" t="n">
         <v>8</v>
       </c>
       <c r="BA97" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BB97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC97" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD97" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="BE97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF97" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="BG97" t="n">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="BH97" t="n">
-        <v>3.95</v>
+        <v>2.52</v>
       </c>
       <c r="BI97" t="n">
-        <v>1.43</v>
+        <v>1.85</v>
       </c>
       <c r="BJ97" t="n">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="BK97" t="n">
-        <v>1.75</v>
+        <v>2.32</v>
       </c>
       <c r="BL97" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="BM97" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="BN97" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="BO97" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="BP97" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="98">
@@ -21712,7 +21712,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>6651936</v>
+        <v>6651935</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -21732,197 +21732,197 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['22', '70']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
         <v>4</v>
       </c>
-      <c r="M98" t="n">
-        <v>3</v>
-      </c>
-      <c r="N98" t="n">
-        <v>7</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>['8', '63', '78', '90+4']</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>['23', '41', '66']</t>
-        </is>
-      </c>
-      <c r="Q98" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R98" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S98" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X98" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z98" t="n">
         <v>3.6</v>
       </c>
-      <c r="T98" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="U98" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="V98" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W98" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X98" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="Y98" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z98" t="n">
-        <v>2.4</v>
-      </c>
       <c r="AA98" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AB98" t="n">
-        <v>2.9</v>
+        <v>1.91</v>
       </c>
       <c r="AC98" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AD98" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ98" t="n">
         <v>8</v>
       </c>
-      <c r="AE98" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AG98" t="n">
+      <c r="BA98" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM98" t="n">
         <v>2.25</v>
       </c>
-      <c r="AH98" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AO98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ98" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AR98" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AS98" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AT98" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AU98" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV98" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW98" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX98" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY98" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ98" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA98" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB98" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC98" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD98" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BE98" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF98" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BG98" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BH98" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BI98" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="BJ98" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BK98" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BL98" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM98" t="n">
-        <v>2.33</v>
-      </c>
       <c r="BN98" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="BO98" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="BP98" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="99">
@@ -21930,7 +21930,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>6651937</v>
+        <v>6651936</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -21950,95 +21950,95 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N99" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['38', '85']</t>
+          <t>['8', '63', '78', '90+4']</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>['9', '67']</t>
+          <t>['23', '41', '66']</t>
         </is>
       </c>
       <c r="Q99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U99" t="n">
         <v>2.45</v>
       </c>
-      <c r="R99" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S99" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T99" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="U99" t="n">
-        <v>2.7</v>
-      </c>
       <c r="V99" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="W99" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="X99" t="n">
-        <v>7.4</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Y99" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z99" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="AA99" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AB99" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="AC99" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AD99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE99" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AF99" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AG99" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="AH99" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AI99" t="n">
         <v>1.9</v>
@@ -22047,100 +22047,100 @@
         <v>1.83</v>
       </c>
       <c r="AK99" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AL99" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM99" t="n">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="AN99" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO99" t="n">
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR99" t="n">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.94</v>
+        <v>2.49</v>
       </c>
       <c r="AU99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC99" t="n">
         <v>5</v>
       </c>
-      <c r="AV99" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW99" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY99" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ99" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA99" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC99" t="n">
-        <v>3</v>
-      </c>
       <c r="BD99" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BE99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF99" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="BG99" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="BH99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ99" t="n">
         <v>2.63</v>
       </c>
-      <c r="BI99" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BJ99" t="n">
-        <v>1.95</v>
-      </c>
       <c r="BK99" t="n">
-        <v>2.22</v>
+        <v>1.8</v>
       </c>
       <c r="BL99" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="BM99" t="n">
-        <v>2.8</v>
+        <v>2.33</v>
       </c>
       <c r="BN99" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="BO99" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="BP99" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="100">
@@ -22148,7 +22148,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>6651938</v>
+        <v>6651937</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -22168,167 +22168,167 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
+        <v>2</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="n">
+        <v>4</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['38', '85']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['9', '67']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X100" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU100" t="n">
         <v>5</v>
       </c>
-      <c r="L100" t="n">
-        <v>5</v>
-      </c>
-      <c r="M100" t="n">
-        <v>3</v>
-      </c>
-      <c r="N100" t="n">
+      <c r="AV100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE100" t="n">
         <v>8</v>
       </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>['4', '13', '71', '76', '90+2']</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>['42', '45+1', '45+4']</t>
-        </is>
-      </c>
-      <c r="Q100" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R100" t="n">
-        <v>2</v>
-      </c>
-      <c r="S100" t="n">
-        <v>3</v>
-      </c>
-      <c r="T100" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U100" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="V100" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="W100" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X100" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AC100" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD100" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF100" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM100" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AN100" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AO100" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AP100" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AQ100" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AR100" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AS100" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AT100" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AU100" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV100" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW100" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX100" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY100" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ100" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA100" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB100" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC100" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD100" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BE100" t="n">
-        <v>6.5</v>
-      </c>
       <c r="BF100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG100" t="n">
         <v>1.43</v>
@@ -22337,16 +22337,16 @@
         <v>2.63</v>
       </c>
       <c r="BI100" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="BJ100" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="BK100" t="n">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="BL100" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="BM100" t="n">
         <v>2.8</v>
@@ -22355,10 +22355,10 @@
         <v>1.38</v>
       </c>
       <c r="BO100" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BP100" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="101">
@@ -22366,7 +22366,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>6651929</v>
+        <v>6651938</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -22386,77 +22386,77 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Amiens SC</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Angers SCO</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N101" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['14']</t>
+          <t>['4', '13', '71', '76', '90+2']</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>['22', '45+5', '71', '90+7']</t>
+          <t>['42', '45+1', '45+4']</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="R101" t="n">
         <v>2</v>
       </c>
       <c r="S101" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T101" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="U101" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="V101" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="W101" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X101" t="n">
-        <v>8.35</v>
+        <v>7.9</v>
       </c>
       <c r="Y101" t="n">
         <v>1.05</v>
       </c>
       <c r="Z101" t="n">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="AA101" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB101" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="AC101" t="n">
         <v>1.08</v>
@@ -22465,118 +22465,118 @@
         <v>8</v>
       </c>
       <c r="AE101" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AF101" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AG101" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="AH101" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="AI101" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AJ101" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AK101" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="AL101" t="n">
         <v>1.28</v>
       </c>
       <c r="AM101" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="AN101" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AO101" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AR101" t="n">
-        <v>1.25</v>
+        <v>1.93</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.4</v>
+        <v>3.04</v>
       </c>
       <c r="AU101" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV101" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX101" t="n">
         <v>5</v>
       </c>
       <c r="AY101" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ101" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC101" t="n">
         <v>13</v>
       </c>
-      <c r="BA101" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB101" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC101" t="n">
-        <v>14</v>
-      </c>
       <c r="BD101" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="BE101" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="BF101" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="BG101" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP101" t="n">
         <v>1.18</v>
-      </c>
-      <c r="BH101" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BI101" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BJ101" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BK101" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BL101" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BM101" t="n">
-        <v>2</v>
-      </c>
-      <c r="BN101" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BO101" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="BP101" t="n">
-        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.4</v>
@@ -1791,7 +1791,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.67</v>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ12" t="n">
         <v>2</v>
@@ -3535,7 +3535,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.8</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR22" t="n">
         <v>1.13</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.67</v>
@@ -6369,7 +6369,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR27" t="n">
         <v>2.17</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.8</v>
@@ -6805,7 +6805,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR29" t="n">
         <v>0.93</v>
@@ -7023,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR30" t="n">
         <v>1.25</v>
@@ -7238,10 +7238,10 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR31" t="n">
         <v>2.08</v>
@@ -7459,7 +7459,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR32" t="n">
         <v>1.83</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR37" t="n">
         <v>1.48</v>
@@ -8767,7 +8767,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR38" t="n">
         <v>0.44</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.8</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ40" t="n">
         <v>1</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ41" t="n">
         <v>2</v>
@@ -9639,7 +9639,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR42" t="n">
         <v>1.7</v>
@@ -9854,7 +9854,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.8</v>
@@ -10072,10 +10072,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR44" t="n">
         <v>1.83</v>
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR46" t="n">
         <v>1.39</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR49" t="n">
         <v>1.33</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ52" t="n">
         <v>2</v>
@@ -12037,7 +12037,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR53" t="n">
         <v>1.55</v>
@@ -12252,7 +12252,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.67</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.8</v>
@@ -12909,7 +12909,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR57" t="n">
         <v>1.28</v>
@@ -13127,7 +13127,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR58" t="n">
         <v>1.08</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.8</v>
@@ -13563,7 +13563,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61" t="n">
         <v>1</v>
@@ -13999,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR62" t="n">
         <v>1.45</v>
@@ -14432,7 +14432,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -14650,10 +14650,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR65" t="n">
         <v>1.9</v>
@@ -15086,10 +15086,10 @@
         <v>0.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR67" t="n">
         <v>1.42</v>
@@ -15522,10 +15522,10 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR69" t="n">
         <v>1.37</v>
@@ -15958,7 +15958,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.67</v>
@@ -16394,10 +16394,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR73" t="n">
         <v>1.75</v>
@@ -16615,7 +16615,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR74" t="n">
         <v>1.35</v>
@@ -16830,7 +16830,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.8</v>
@@ -17269,7 +17269,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR77" t="n">
         <v>1.7</v>
@@ -18138,10 +18138,10 @@
         <v>0.25</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR81" t="n">
         <v>1.64</v>
@@ -18356,10 +18356,10 @@
         <v>0</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -18577,7 +18577,7 @@
         <v>2</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR83" t="n">
         <v>1.25</v>
@@ -18792,10 +18792,10 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR84" t="n">
         <v>1.55</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.4</v>
@@ -19664,10 +19664,10 @@
         <v>1.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR88" t="n">
         <v>1.75</v>
@@ -19882,10 +19882,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR89" t="n">
         <v>1.34</v>
@@ -21626,7 +21626,7 @@
         <v>2</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.8</v>
@@ -21847,7 +21847,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR98" t="n">
         <v>1.29</v>
@@ -22283,7 +22283,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR100" t="n">
         <v>1.55</v>
@@ -22498,7 +22498,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.4</v>
@@ -22577,6 +22577,1968 @@
       </c>
       <c r="BP101" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6651942</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F102" t="n">
+        <v>11</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X102" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6651946</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>11</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['11', '64', '77']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X103" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6651945</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>11</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X104" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6651944</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="n">
+        <v>4</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['16', '80']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['14', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X105" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6651939</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F106" t="n">
+        <v>11</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['52', '63']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X106" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6651941</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F107" t="n">
+        <v>11</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['33', '60']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X107" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6651940</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F108" t="n">
+        <v>11</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X108" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6651947</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>3</v>
+      </c>
+      <c r="L109" t="n">
+        <v>3</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="n">
+        <v>6</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['24', '33', '90+1']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['13', '58', '78']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X109" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6651948</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F110" t="n">
+        <v>11</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V110" t="n">
+        <v>3</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X110" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.8</v>
@@ -3099,7 +3099,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR41" t="n">
         <v>1.26</v>
@@ -10726,7 +10726,7 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.4</v>
@@ -11819,7 +11819,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR52" t="n">
         <v>1.67</v>
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14868,7 +14868,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.4</v>
@@ -17923,7 +17923,7 @@
         <v>1</v>
       </c>
       <c r="AQ80" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR80" t="n">
         <v>1.41</v>
@@ -19446,7 +19446,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ87" t="n">
         <v>1</v>
@@ -22952,19 +22952,19 @@
         <v>5</v>
       </c>
       <c r="AV103" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX103" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY103" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ103" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA103" t="n">
         <v>7</v>
@@ -23167,19 +23167,19 @@
         <v>2.86</v>
       </c>
       <c r="AU104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV104" t="n">
         <v>6</v>
       </c>
       <c r="AW104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX104" t="n">
         <v>8</v>
       </c>
       <c r="AY104" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ104" t="n">
         <v>14</v>
@@ -23385,19 +23385,19 @@
         <v>3.06</v>
       </c>
       <c r="AU105" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV105" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW105" t="n">
         <v>2</v>
       </c>
       <c r="AX105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY105" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ105" t="n">
         <v>11</v>
@@ -23603,10 +23603,10 @@
         <v>2.56</v>
       </c>
       <c r="AU106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW106" t="n">
         <v>4</v>
@@ -23615,10 +23615,10 @@
         <v>1</v>
       </c>
       <c r="AY106" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA106" t="n">
         <v>1</v>
@@ -23821,10 +23821,10 @@
         <v>3.31</v>
       </c>
       <c r="AU107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV107" t="n">
         <v>6</v>
-      </c>
-      <c r="AV107" t="n">
-        <v>12</v>
       </c>
       <c r="AW107" t="n">
         <v>2</v>
@@ -23833,10 +23833,10 @@
         <v>5</v>
       </c>
       <c r="AY107" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ107" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BA107" t="n">
         <v>2</v>
@@ -24039,22 +24039,22 @@
         <v>2.81</v>
       </c>
       <c r="AU108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY108" t="n">
         <v>8</v>
       </c>
       <c r="AZ108" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA108" t="n">
         <v>1</v>
@@ -24257,10 +24257,10 @@
         <v>2.66</v>
       </c>
       <c r="AU109" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV109" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW109" t="n">
         <v>5</v>
@@ -24269,10 +24269,10 @@
         <v>2</v>
       </c>
       <c r="AY109" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ109" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA109" t="n">
         <v>2</v>
@@ -24475,7 +24475,7 @@
         <v>3.11</v>
       </c>
       <c r="AU110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV110" t="n">
         <v>2</v>
@@ -24487,7 +24487,7 @@
         <v>2</v>
       </c>
       <c r="AY110" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ110" t="n">
         <v>4</v>
@@ -24539,6 +24539,224 @@
       </c>
       <c r="BP110" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6651943</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45222.65625</v>
+      </c>
+      <c r="F111" t="n">
+        <v>11</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V111" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X111" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.17</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.8</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42" t="n">
         <v>2.33</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.4</v>
@@ -20536,7 +20536,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92" t="n">
         <v>2</v>
@@ -24756,6 +24756,224 @@
         <v>4.1</v>
       </c>
       <c r="BP111" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6651951</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45227.41666666666</v>
+      </c>
+      <c r="F112" t="n">
+        <v>12</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>3</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" t="n">
+        <v>4</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['13', '18']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['33', '79']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X112" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP112" t="n">
         <v>1.21</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.83</v>
@@ -1573,7 +1573,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.33</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.5</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.83</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.8</v>
@@ -3971,7 +3971,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR23" t="n">
         <v>1.66</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR24" t="n">
         <v>1.31</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR26" t="n">
         <v>1.47</v>
@@ -6587,7 +6587,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR28" t="n">
         <v>1.29</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.5</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.67</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR33" t="n">
         <v>1.15</v>
@@ -7892,10 +7892,10 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR34" t="n">
         <v>1.86</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR35" t="n">
         <v>1.4</v>
@@ -8331,7 +8331,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR36" t="n">
         <v>1.97</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.17</v>
@@ -9857,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR43" t="n">
         <v>1.51</v>
@@ -10290,10 +10290,10 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR45" t="n">
         <v>1.48</v>
@@ -10729,7 +10729,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR47" t="n">
         <v>1.34</v>
@@ -10944,10 +10944,10 @@
         <v>2</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -11380,7 +11380,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.83</v>
@@ -12255,7 +12255,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR54" t="n">
         <v>1.37</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR55" t="n">
         <v>1.96</v>
@@ -12906,7 +12906,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.83</v>
@@ -13124,7 +13124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.8</v>
@@ -13345,7 +13345,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR59" t="n">
         <v>1.91</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.17</v>
@@ -13781,7 +13781,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR61" t="n">
         <v>1.87</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ63" t="n">
         <v>2.17</v>
@@ -14871,7 +14871,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR66" t="n">
         <v>1.23</v>
@@ -15304,10 +15304,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR68" t="n">
         <v>1.28</v>
@@ -15740,7 +15740,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ70" t="n">
         <v>1</v>
@@ -15961,7 +15961,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR71" t="n">
         <v>1.97</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.8</v>
@@ -16612,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.17</v>
@@ -16833,7 +16833,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR75" t="n">
         <v>1.62</v>
@@ -17048,10 +17048,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.83</v>
@@ -17484,10 +17484,10 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR78" t="n">
         <v>1.41</v>
@@ -17702,10 +17702,10 @@
         <v>1.67</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR79" t="n">
         <v>1.72</v>
@@ -18574,7 +18574,7 @@
         <v>1</v>
       </c>
       <c r="AP83" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.8</v>
@@ -19010,7 +19010,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85" t="n">
         <v>1</v>
@@ -19231,7 +19231,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -20103,7 +20103,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR90" t="n">
         <v>1.84</v>
@@ -20321,7 +20321,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR91" t="n">
         <v>1.43</v>
@@ -20539,7 +20539,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR92" t="n">
         <v>1.89</v>
@@ -20754,7 +20754,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.8</v>
@@ -20972,10 +20972,10 @@
         <v>1.25</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR94" t="n">
         <v>1.55</v>
@@ -21193,7 +21193,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR95" t="n">
         <v>1.49</v>
@@ -21408,10 +21408,10 @@
         <v>0.6</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR96" t="n">
         <v>1.43</v>
@@ -21629,7 +21629,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR97" t="n">
         <v>1.62</v>
@@ -21844,7 +21844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.33</v>
@@ -22062,10 +22062,10 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR99" t="n">
         <v>1.32</v>
@@ -22280,7 +22280,7 @@
         <v>1</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.83</v>
@@ -22501,7 +22501,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR101" t="n">
         <v>1.93</v>
@@ -24975,6 +24975,1750 @@
       </c>
       <c r="BP112" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6651950</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F113" t="n">
+        <v>12</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2</v>
+      </c>
+      <c r="L113" t="n">
+        <v>3</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="n">
+        <v>5</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['23', '82', '90+1']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['9', '59']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S113" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V113" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X113" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6651958</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F114" t="n">
+        <v>12</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>2</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['17', '49']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2</v>
+      </c>
+      <c r="S114" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X114" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6651957</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F115" t="n">
+        <v>12</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['76', '84']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S115" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X115" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6651956</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['60', '86']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['56', '72']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S116" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V116" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X116" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6651955</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2</v>
+      </c>
+      <c r="N117" t="n">
+        <v>4</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['8', '29']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['87', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2</v>
+      </c>
+      <c r="S117" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V117" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X117" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6651949</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F118" t="n">
+        <v>12</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S118" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X118" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6651952</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F119" t="n">
+        <v>12</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2</v>
+      </c>
+      <c r="S119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V119" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X119" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6651954</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F120" t="n">
+        <v>12</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S120" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U120" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X120" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.5</v>
@@ -2009,7 +2009,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.83</v>
@@ -8985,7 +8985,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR39" t="n">
         <v>1.76</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ51" t="n">
         <v>1</v>
@@ -12691,7 +12691,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR56" t="n">
         <v>2.1</v>
@@ -16179,7 +16179,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR72" t="n">
         <v>1.6</v>
@@ -20318,7 +20318,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.17</v>
@@ -20757,7 +20757,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR93" t="n">
         <v>1.25</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.83</v>
@@ -25129,22 +25129,22 @@
         <v>2.81</v>
       </c>
       <c r="AU113" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX113" t="n">
         <v>4</v>
       </c>
-      <c r="AV113" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW113" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX113" t="n">
-        <v>3</v>
-      </c>
       <c r="AY113" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ113" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ113" t="n">
-        <v>5</v>
       </c>
       <c r="BA113" t="n">
         <v>5</v>
@@ -25347,22 +25347,22 @@
         <v>2.84</v>
       </c>
       <c r="AU114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW114" t="n">
         <v>8</v>
       </c>
-      <c r="AV114" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW114" t="n">
-        <v>5</v>
-      </c>
       <c r="AX114" t="n">
         <v>2</v>
       </c>
       <c r="AY114" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ114" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA114" t="n">
         <v>6</v>
@@ -25565,22 +25565,22 @@
         <v>2.29</v>
       </c>
       <c r="AU115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV115" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX115" t="n">
         <v>5</v>
       </c>
-      <c r="AW115" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX115" t="n">
-        <v>3</v>
-      </c>
       <c r="AY115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ115" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA115" t="n">
         <v>5</v>
@@ -25783,22 +25783,22 @@
         <v>2.39</v>
       </c>
       <c r="AU116" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV116" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW116" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY116" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ116" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA116" t="n">
         <v>6</v>
@@ -26001,22 +26001,22 @@
         <v>2.75</v>
       </c>
       <c r="AU117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV117" t="n">
         <v>5</v>
       </c>
       <c r="AW117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX117" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY117" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA117" t="n">
         <v>5</v>
@@ -26219,19 +26219,19 @@
         <v>2.61</v>
       </c>
       <c r="AU118" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV118" t="n">
         <v>6</v>
       </c>
       <c r="AW118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX118" t="n">
         <v>3</v>
       </c>
       <c r="AY118" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ118" t="n">
         <v>9</v>
@@ -26437,19 +26437,19 @@
         <v>2.98</v>
       </c>
       <c r="AU119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV119" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW119" t="n">
         <v>2</v>
       </c>
       <c r="AX119" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ119" t="n">
         <v>10</v>
@@ -26658,19 +26658,19 @@
         <v>7</v>
       </c>
       <c r="AV120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW120" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AX120" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY120" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ120" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA120" t="n">
         <v>12</v>
@@ -26719,6 +26719,224 @@
       </c>
       <c r="BP120" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6651953</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45229.69791666666</v>
+      </c>
+      <c r="F121" t="n">
+        <v>12</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>2</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['51', '59']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S121" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X121" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.5</v>
@@ -4407,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.83</v>
@@ -7023,7 +7023,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
         <v>1.25</v>
@@ -11165,7 +11165,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR49" t="n">
         <v>1.33</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ51" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         <v>2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR69" t="n">
         <v>1.37</v>
@@ -18359,7 +18359,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -20318,7 +20318,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.17</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.83</v>
@@ -22937,7 +22937,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -26858,7 +26858,7 @@
         <v>1.8</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.5</v>
@@ -26937,6 +26937,224 @@
       </c>
       <c r="BP121" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6651962</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45234.45833333334</v>
+      </c>
+      <c r="F122" t="n">
+        <v>13</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S122" t="n">
+        <v>4</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V122" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X122" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.33</v>
@@ -1791,7 +1791,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.71</v>
@@ -2881,7 +2881,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.17</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.33</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>1.13</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.71</v>
@@ -5715,7 +5715,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR24" t="n">
         <v>1.31</v>
@@ -5933,7 +5933,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR25" t="n">
         <v>1.36</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.17</v>
@@ -7241,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR31" t="n">
         <v>2.08</v>
@@ -7459,7 +7459,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR32" t="n">
         <v>1.83</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR33" t="n">
         <v>1.15</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.71</v>
@@ -8331,7 +8331,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR36" t="n">
         <v>1.97</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.83</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.5</v>
@@ -9203,7 +9203,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR40" t="n">
         <v>2.1</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ41" t="n">
         <v>2.17</v>
@@ -9639,7 +9639,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR42" t="n">
         <v>1.7</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.5</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.83</v>
@@ -10729,7 +10729,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR47" t="n">
         <v>1.34</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
@@ -11383,7 +11383,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR50" t="n">
         <v>1.2</v>
@@ -11601,7 +11601,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR51" t="n">
         <v>1.6</v>
@@ -12252,7 +12252,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.71</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR55" t="n">
         <v>1.96</v>
@@ -12909,7 +12909,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR57" t="n">
         <v>1.28</v>
@@ -13127,7 +13127,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR58" t="n">
         <v>1.08</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.5</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.17</v>
@@ -13778,10 +13778,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR61" t="n">
         <v>1.87</v>
@@ -13996,10 +13996,10 @@
         <v>2.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR62" t="n">
         <v>1.45</v>
@@ -14432,10 +14432,10 @@
         <v>0.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR64" t="n">
         <v>1.61</v>
@@ -14650,7 +14650,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.83</v>
@@ -15086,7 +15086,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.5</v>
@@ -15743,7 +15743,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR70" t="n">
         <v>1.4</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.5</v>
@@ -16394,10 +16394,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR73" t="n">
         <v>1.75</v>
@@ -17051,7 +17051,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.83</v>
@@ -17487,7 +17487,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR78" t="n">
         <v>1.41</v>
@@ -17920,7 +17920,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80" t="n">
         <v>2.17</v>
@@ -18138,7 +18138,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.83</v>
@@ -18356,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ82" t="n">
         <v>1</v>
@@ -18577,7 +18577,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR83" t="n">
         <v>1.25</v>
@@ -18792,7 +18792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.17</v>
@@ -19013,7 +19013,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR85" t="n">
         <v>1.63</v>
@@ -19449,7 +19449,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR87" t="n">
         <v>1.35</v>
@@ -19664,10 +19664,10 @@
         <v>1.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR88" t="n">
         <v>1.75</v>
@@ -20103,7 +20103,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR90" t="n">
         <v>1.84</v>
@@ -20539,7 +20539,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR92" t="n">
         <v>1.89</v>
@@ -20972,7 +20972,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.33</v>
@@ -21193,7 +21193,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR95" t="n">
         <v>1.49</v>
@@ -21626,7 +21626,7 @@
         <v>2</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.5</v>
@@ -21847,7 +21847,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR98" t="n">
         <v>1.29</v>
@@ -22280,7 +22280,7 @@
         <v>1</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.83</v>
@@ -22501,7 +22501,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR101" t="n">
         <v>1.93</v>
@@ -22719,7 +22719,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ102" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR102" t="n">
         <v>1.39</v>
@@ -22934,7 +22934,7 @@
         <v>0.2</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -23152,7 +23152,7 @@
         <v>1.2</v>
       </c>
       <c r="AP104" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.17</v>
@@ -23370,7 +23370,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.83</v>
@@ -23806,10 +23806,10 @@
         <v>1</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR107" t="n">
         <v>1.66</v>
@@ -24024,10 +24024,10 @@
         <v>0.75</v>
       </c>
       <c r="AP108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ108" t="n">
         <v>1.17</v>
-      </c>
-      <c r="AQ108" t="n">
-        <v>0.8</v>
       </c>
       <c r="AR108" t="n">
         <v>1.41</v>
@@ -24242,10 +24242,10 @@
         <v>1</v>
       </c>
       <c r="AP109" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR109" t="n">
         <v>1.7</v>
@@ -24899,7 +24899,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR112" t="n">
         <v>1.88</v>
@@ -25332,7 +25332,7 @@
         <v>1</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.33</v>
@@ -25553,7 +25553,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR115" t="n">
         <v>1.37</v>
@@ -25989,7 +25989,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR117" t="n">
         <v>1.59</v>
@@ -26207,7 +26207,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR118" t="n">
         <v>1.35</v>
@@ -26422,7 +26422,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.33</v>
@@ -27091,13 +27091,13 @@
         <v>2.67</v>
       </c>
       <c r="AU122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV122" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW122" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX122" t="n">
         <v>8</v>
@@ -27106,16 +27106,16 @@
         <v>9</v>
       </c>
       <c r="AZ122" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA122" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB122" t="n">
         <v>8</v>
       </c>
       <c r="BC122" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD122" t="n">
         <v>1.52</v>
@@ -27155,6 +27155,1750 @@
       </c>
       <c r="BP122" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6651968</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F123" t="n">
+        <v>13</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>3</v>
+      </c>
+      <c r="L123" t="n">
+        <v>3</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="n">
+        <v>4</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['22', '40', '71']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>3</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2</v>
+      </c>
+      <c r="S123" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X123" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6651960</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F124" t="n">
+        <v>13</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['14', '29']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S124" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V124" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X124" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6651961</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F125" t="n">
+        <v>13</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2</v>
+      </c>
+      <c r="L125" t="n">
+        <v>3</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="n">
+        <v>4</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['9', '18', '68']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2</v>
+      </c>
+      <c r="S125" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V125" t="n">
+        <v>3</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X125" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6651964</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F126" t="n">
+        <v>13</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="n">
+        <v>3</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['17', '64']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S126" t="n">
+        <v>3</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X126" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6651965</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F127" t="n">
+        <v>13</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S127" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V127" t="n">
+        <v>3</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X127" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6651967</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F128" t="n">
+        <v>13</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>3</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['3', '26', '52']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R128" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S128" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V128" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X128" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6651959</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F129" t="n">
+        <v>13</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>3</v>
+      </c>
+      <c r="N129" t="n">
+        <v>4</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['8', '56', '77']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S129" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X129" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6651963</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45236.69791666666</v>
+      </c>
+      <c r="F130" t="n">
+        <v>13</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="n">
+        <v>3</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['51', '80']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S130" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X130" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.86</v>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.14</v>
@@ -2445,7 +2445,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.71</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.17</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.83</v>
@@ -3971,7 +3971,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR23" t="n">
         <v>1.66</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.86</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR26" t="n">
         <v>1.47</v>
@@ -6369,7 +6369,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR27" t="n">
         <v>2.17</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR28" t="n">
         <v>1.29</v>
@@ -6802,10 +6802,10 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR29" t="n">
         <v>0.93</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.71</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.17</v>
@@ -7895,7 +7895,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR34" t="n">
         <v>1.86</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR35" t="n">
         <v>1.4</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.14</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR38" t="n">
         <v>0.44</v>
@@ -8985,7 +8985,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR39" t="n">
         <v>1.76</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.86</v>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR41" t="n">
         <v>1.26</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ42" t="n">
         <v>2</v>
@@ -9854,10 +9854,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR43" t="n">
         <v>1.51</v>
@@ -10075,7 +10075,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR44" t="n">
         <v>1.83</v>
@@ -10293,7 +10293,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR45" t="n">
         <v>1.48</v>
@@ -10511,7 +10511,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR46" t="n">
         <v>1.39</v>
@@ -10726,7 +10726,7 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.14</v>
@@ -10944,10 +10944,10 @@
         <v>2</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -11380,7 +11380,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.86</v>
@@ -11816,10 +11816,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR52" t="n">
         <v>1.67</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.83</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR54" t="n">
         <v>1.37</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR56" t="n">
         <v>2.1</v>
@@ -12906,7 +12906,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.71</v>
@@ -13124,7 +13124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.17</v>
@@ -13345,7 +13345,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR59" t="n">
         <v>1.91</v>
@@ -13563,7 +13563,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -14217,7 +14217,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14653,7 +14653,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR65" t="n">
         <v>1.9</v>
@@ -14868,10 +14868,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR66" t="n">
         <v>1.23</v>
@@ -15089,7 +15089,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR67" t="n">
         <v>1.42</v>
@@ -15304,10 +15304,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR68" t="n">
         <v>1.28</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ69" t="n">
         <v>1</v>
@@ -15740,7 +15740,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.86</v>
@@ -15958,10 +15958,10 @@
         <v>0.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR71" t="n">
         <v>1.97</v>
@@ -16179,7 +16179,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR72" t="n">
         <v>1.6</v>
@@ -16612,10 +16612,10 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR74" t="n">
         <v>1.35</v>
@@ -16830,10 +16830,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR75" t="n">
         <v>1.62</v>
@@ -17048,7 +17048,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ76" t="n">
         <v>2</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.14</v>
@@ -17702,10 +17702,10 @@
         <v>1.67</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR79" t="n">
         <v>1.72</v>
@@ -17923,7 +17923,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ80" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR80" t="n">
         <v>1.41</v>
@@ -18141,7 +18141,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR81" t="n">
         <v>1.64</v>
@@ -18574,7 +18574,7 @@
         <v>1</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.17</v>
@@ -18795,7 +18795,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR84" t="n">
         <v>1.55</v>
@@ -19010,7 +19010,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.86</v>
@@ -19228,10 +19228,10 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -19446,7 +19446,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.86</v>
@@ -19882,10 +19882,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR89" t="n">
         <v>1.34</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.14</v>
@@ -20321,7 +20321,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR91" t="n">
         <v>1.43</v>
@@ -20536,7 +20536,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ92" t="n">
         <v>2</v>
@@ -20754,10 +20754,10 @@
         <v>1.5</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR93" t="n">
         <v>1.25</v>
@@ -20975,7 +20975,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR94" t="n">
         <v>1.55</v>
@@ -21408,10 +21408,10 @@
         <v>0.6</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR96" t="n">
         <v>1.43</v>
@@ -21629,7 +21629,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR97" t="n">
         <v>1.62</v>
@@ -21844,7 +21844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ98" t="n">
         <v>2</v>
@@ -22065,7 +22065,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR99" t="n">
         <v>1.32</v>
@@ -22498,7 +22498,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.14</v>
@@ -22716,7 +22716,7 @@
         <v>2.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ102" t="n">
         <v>2</v>
@@ -23155,7 +23155,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR104" t="n">
         <v>1.47</v>
@@ -23373,7 +23373,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR105" t="n">
         <v>1.66</v>
@@ -23456,7 +23456,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>6651939</v>
+        <v>6651948</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -23476,197 +23476,197 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Ajaccio</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N106" t="n">
         <v>2</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>['52', '63']</t>
+          <t>['67']</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="Q106" t="n">
         <v>2.5</v>
       </c>
       <c r="R106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X106" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG106" t="n">
         <v>2.05</v>
       </c>
-      <c r="S106" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T106" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U106" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V106" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W106" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X106" t="n">
+      <c r="AH106" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA106" t="n">
         <v>10</v>
       </c>
-      <c r="Y106" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z106" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA106" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AH106" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK106" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AL106" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AM106" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN106" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AO106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP106" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ106" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AR106" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AS106" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AT106" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AU106" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV106" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW106" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY106" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ106" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA106" t="n">
-        <v>1</v>
-      </c>
       <c r="BB106" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC106" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="BD106" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="BE106" t="n">
         <v>7.5</v>
       </c>
       <c r="BF106" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="BG106" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="BH106" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="BI106" t="n">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="BJ106" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="BK106" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="BL106" t="n">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="BM106" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="BN106" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="BO106" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="BP106" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="107">
@@ -24328,7 +24328,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>6651948</v>
+        <v>6651939</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -24348,197 +24348,197 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Ajaccio</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
         <v>2</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>['52', '63']</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q110" t="n">
         <v>2.5</v>
       </c>
       <c r="R110" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X110" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI110" t="n">
         <v>2.1</v>
       </c>
-      <c r="S110" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="T110" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U110" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V110" t="n">
-        <v>3</v>
-      </c>
-      <c r="W110" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X110" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y110" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z110" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AA110" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB110" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AC110" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD110" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE110" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF110" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AG110" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AH110" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AI110" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AJ110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN110" t="n">
         <v>1.8</v>
       </c>
-      <c r="AK110" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AL110" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AM110" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AN110" t="n">
-        <v>2.4</v>
-      </c>
       <c r="AO110" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AR110" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AT110" t="n">
-        <v>3.11</v>
+        <v>2.56</v>
       </c>
       <c r="AU110" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV110" t="n">
         <v>2</v>
       </c>
       <c r="AW110" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AX110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY110" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AZ110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB110" t="n">
         <v>4</v>
       </c>
-      <c r="BA110" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB110" t="n">
-        <v>6</v>
-      </c>
       <c r="BC110" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BD110" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="BE110" t="n">
         <v>7.5</v>
       </c>
       <c r="BF110" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="BG110" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="BH110" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="BI110" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="BJ110" t="n">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="BK110" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="BL110" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="BM110" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="BN110" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="BO110" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="BP110" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="111">
@@ -24678,10 +24678,10 @@
         <v>2</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ111" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR111" t="n">
         <v>1.53</v>
@@ -24896,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.86</v>
@@ -25114,10 +25114,10 @@
         <v>1.8</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR113" t="n">
         <v>1.37</v>
@@ -25200,7 +25200,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>6651958</v>
+        <v>6651949</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -25220,197 +25220,197 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Amiens SC</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>['23']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>['17', '49']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q114" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X114" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF114" t="n">
         <v>2.7</v>
       </c>
-      <c r="R114" t="n">
-        <v>2</v>
-      </c>
-      <c r="S114" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T114" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U114" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="V114" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W114" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X114" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="Y114" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z114" t="n">
+      <c r="AG114" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN114" t="n">
         <v>1.83</v>
       </c>
-      <c r="AA114" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AJ114" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AK114" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AL114" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM114" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN114" t="n">
-        <v>0.4</v>
-      </c>
       <c r="AO114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR114" t="n">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.84</v>
+        <v>2.61</v>
       </c>
       <c r="AU114" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC114" t="n">
         <v>7</v>
       </c>
-      <c r="AV114" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW114" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX114" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY114" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ114" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA114" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB114" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC114" t="n">
-        <v>14</v>
-      </c>
       <c r="BD114" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="BE114" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="BF114" t="n">
-        <v>2.83</v>
+        <v>2.41</v>
       </c>
       <c r="BG114" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="BH114" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="BI114" t="n">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="BJ114" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="BK114" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="BL114" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="BM114" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="BN114" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="BO114" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="BP114" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="115">
@@ -25768,10 +25768,10 @@
         <v>0.67</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR116" t="n">
         <v>1.35</v>
@@ -25986,7 +25986,7 @@
         <v>1.4</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.14</v>
@@ -26072,7 +26072,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>6651949</v>
+        <v>6651958</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -26092,197 +26092,197 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Amiens SC</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['23']</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['17', '49']</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="R118" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S118" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V118" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X118" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA118" t="n">
         <v>3.4</v>
       </c>
-      <c r="T118" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U118" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V118" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W118" t="n">
+      <c r="AB118" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL118" t="n">
         <v>1.3</v>
       </c>
-      <c r="X118" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="Y118" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z118" t="n">
+      <c r="AM118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK118" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA118" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD118" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE118" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF118" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AG118" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AH118" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ118" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK118" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AL118" t="n">
+      <c r="BL118" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN118" t="n">
         <v>1.28</v>
       </c>
-      <c r="AM118" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AN118" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AO118" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP118" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AQ118" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR118" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AS118" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AT118" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AU118" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV118" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW118" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX118" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY118" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ118" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA118" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB118" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC118" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD118" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BE118" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="BF118" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="BG118" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BH118" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI118" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BJ118" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BK118" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="BL118" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BM118" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BN118" t="n">
-        <v>1.38</v>
-      </c>
       <c r="BO118" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="BP118" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="119">
@@ -26425,7 +26425,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR119" t="n">
         <v>1.42</v>
@@ -26640,10 +26640,10 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR120" t="n">
         <v>1.64</v>
@@ -26861,7 +26861,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR121" t="n">
         <v>1.32</v>
@@ -27380,7 +27380,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>6651960</v>
+        <v>6651959</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -27400,197 +27400,197 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Angers SCO</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
         <v>2</v>
       </c>
       <c r="L124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N124" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>['14', '29']</t>
+          <t>['27']</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['8', '56', '77']</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>2.18</v>
+        <v>3.45</v>
       </c>
       <c r="R124" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="S124" t="n">
-        <v>5.97</v>
+        <v>3.2</v>
       </c>
       <c r="T124" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="U124" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="V124" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="W124" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="X124" t="n">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="Y124" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z124" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH124" t="n">
         <v>1.55</v>
       </c>
-      <c r="AA124" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AE124" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF124" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG124" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH124" t="n">
-        <v>1.73</v>
-      </c>
       <c r="AI124" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AJ124" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AK124" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AL124" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AM124" t="n">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="AN124" t="n">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO124" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP124" t="n">
         <v>1</v>
       </c>
-      <c r="AP124" t="n">
-        <v>2.43</v>
-      </c>
       <c r="AQ124" t="n">
-        <v>0.86</v>
+        <v>2</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="AU124" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW124" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX124" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY124" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ124" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB124" t="n">
         <v>8</v>
       </c>
-      <c r="BB124" t="n">
-        <v>1</v>
-      </c>
       <c r="BC124" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD124" t="n">
-        <v>1.34</v>
+        <v>1.9</v>
       </c>
       <c r="BE124" t="n">
-        <v>10.2</v>
+        <v>8.4</v>
       </c>
       <c r="BF124" t="n">
-        <v>4.14</v>
+        <v>2.23</v>
       </c>
       <c r="BG124" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="BH124" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="BI124" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="BJ124" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="BK124" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="BL124" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="BM124" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="BN124" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="BO124" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="BP124" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="125">
@@ -27598,7 +27598,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>6651961</v>
+        <v>6651960</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -27618,12 +27618,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Angers SCO</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -27636,179 +27636,179 @@
         <v>2</v>
       </c>
       <c r="L125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>['9', '18', '68']</t>
+          <t>['14', '29']</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>['78']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>3.8</v>
+        <v>2.18</v>
       </c>
       <c r="R125" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="S125" t="n">
-        <v>2.8</v>
+        <v>5.97</v>
       </c>
       <c r="T125" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="U125" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="V125" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="W125" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X125" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="Y125" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z125" t="n">
-        <v>3.37</v>
+        <v>1.55</v>
       </c>
       <c r="AA125" t="n">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="AB125" t="n">
-        <v>2.06</v>
+        <v>5.22</v>
       </c>
       <c r="AC125" t="n">
         <v>1.07</v>
       </c>
       <c r="AD125" t="n">
-        <v>8.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE125" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN125" t="n">
         <v>1.38</v>
       </c>
-      <c r="AF125" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AG125" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AH125" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AI125" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AJ125" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AK125" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL125" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AM125" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AN125" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AO125" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AP125" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AQ125" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AR125" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AS125" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AT125" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AU125" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV125" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW125" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX125" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY125" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ125" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA125" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB125" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC125" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD125" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BE125" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="BF125" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BG125" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BH125" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BI125" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BJ125" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="BK125" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BL125" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="BM125" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="BN125" t="n">
-        <v>1.33</v>
-      </c>
       <c r="BO125" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="BP125" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="126">
@@ -27816,7 +27816,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>6651964</v>
+        <v>6651961</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -27836,197 +27836,197 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
       <c r="N126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>['17', '64']</t>
+          <t>['9', '18', '68']</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>['61']</t>
+          <t>['78']</t>
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="R126" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S126" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="T126" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="U126" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="V126" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W126" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X126" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y126" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z126" t="n">
-        <v>2.91</v>
+        <v>3.37</v>
       </c>
       <c r="AA126" t="n">
-        <v>3.27</v>
+        <v>3.34</v>
       </c>
       <c r="AB126" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="AC126" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD126" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE126" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AF126" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AG126" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="AH126" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AI126" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AJ126" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AK126" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AL126" t="n">
         <v>1.29</v>
       </c>
       <c r="AM126" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AN126" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA126" t="n">
         <v>1</v>
       </c>
-      <c r="AO126" t="n">
+      <c r="BB126" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN126" t="n">
         <v>1.33</v>
       </c>
-      <c r="AP126" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AQ126" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AR126" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AS126" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AT126" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU126" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV126" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW126" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX126" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY126" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ126" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA126" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB126" t="n">
-        <v>11</v>
-      </c>
-      <c r="BC126" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD126" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="BE126" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="BF126" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BG126" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BH126" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BI126" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="BJ126" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BK126" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="BL126" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BM126" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BN126" t="n">
-        <v>1.43</v>
-      </c>
       <c r="BO126" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="BP126" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="127">
@@ -28034,7 +28034,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>6651965</v>
+        <v>6651964</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -28054,197 +28054,197 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Amiens SC</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
         <v>1</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
       <c r="N127" t="n">
+        <v>3</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['17', '64']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S127" t="n">
+        <v>3</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X127" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN127" t="n">
         <v>1</v>
       </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>['7']</t>
-        </is>
-      </c>
-      <c r="Q127" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R127" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S127" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T127" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U127" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="V127" t="n">
-        <v>3</v>
-      </c>
-      <c r="W127" t="n">
+      <c r="AO127" t="n">
         <v>1.33</v>
       </c>
-      <c r="X127" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AA127" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AC127" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE127" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AF127" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AG127" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH127" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AI127" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AJ127" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AK127" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AL127" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM127" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AN127" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AO127" t="n">
-        <v>0.8</v>
-      </c>
       <c r="AP127" t="n">
-        <v>0.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR127" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="AS127" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN127" t="n">
         <v>1.43</v>
       </c>
-      <c r="AT127" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AU127" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV127" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW127" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY127" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ127" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA127" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB127" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC127" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD127" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="BE127" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="BF127" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="BG127" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BH127" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="BI127" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="BJ127" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BK127" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BL127" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BM127" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BN127" t="n">
-        <v>1.48</v>
-      </c>
       <c r="BO127" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="BP127" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="128">
@@ -28252,7 +28252,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>6651967</v>
+        <v>6651965</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -28272,31 +28272,31 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Grenoble Foot 38</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Ajaccio</t>
+          <t>Amiens SC</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -28305,164 +28305,164 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>['3', '26', '52']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="R128" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S128" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="T128" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="U128" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="V128" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="W128" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="X128" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Y128" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="Z128" t="n">
-        <v>2.27</v>
+        <v>2.53</v>
       </c>
       <c r="AA128" t="n">
-        <v>2.9</v>
+        <v>3.02</v>
       </c>
       <c r="AB128" t="n">
-        <v>3.41</v>
+        <v>2.83</v>
       </c>
       <c r="AC128" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AD128" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE128" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AF128" t="n">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="AG128" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="AH128" t="n">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="AI128" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
       <c r="AJ128" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="AK128" t="n">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AL128" t="n">
         <v>1.3</v>
       </c>
       <c r="AM128" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="AN128" t="n">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AO128" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.71</v>
+        <v>0.29</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR128" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.76</v>
+        <v>2.99</v>
       </c>
       <c r="AU128" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV128" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW128" t="n">
         <v>5</v>
       </c>
       <c r="AX128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY128" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC128" t="n">
         <v>12</v>
       </c>
-      <c r="AZ128" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA128" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB128" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC128" t="n">
-        <v>5</v>
-      </c>
       <c r="BD128" t="n">
-        <v>1.69</v>
+        <v>1.97</v>
       </c>
       <c r="BE128" t="n">
-        <v>8.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="BF128" t="n">
-        <v>2.69</v>
+        <v>2.11</v>
       </c>
       <c r="BG128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN128" t="n">
         <v>1.48</v>
       </c>
-      <c r="BH128" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BI128" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BJ128" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BK128" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BL128" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="BM128" t="n">
+      <c r="BO128" t="n">
         <v>3.5</v>
       </c>
-      <c r="BN128" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="BO128" t="n">
-        <v>5.1</v>
-      </c>
       <c r="BP128" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="129">
@@ -28470,7 +28470,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>6651959</v>
+        <v>6651967</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -28490,197 +28490,197 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Grenoble Foot 38</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Ajaccio</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K129" t="n">
         <v>2</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M129" t="n">
         <v>3</v>
       </c>
       <c r="N129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>['8', '56', '77']</t>
+          <t>['3', '26', '52']</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="R129" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S129" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="T129" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U129" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="V129" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="W129" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="X129" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y129" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z129" t="n">
-        <v>2.8</v>
+        <v>2.27</v>
       </c>
       <c r="AA129" t="n">
-        <v>3.11</v>
+        <v>2.9</v>
       </c>
       <c r="AB129" t="n">
-        <v>2.49</v>
+        <v>3.41</v>
       </c>
       <c r="AC129" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AD129" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE129" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AF129" t="n">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="AG129" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AH129" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AI129" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AJ129" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AK129" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AL129" t="n">
         <v>1.3</v>
       </c>
       <c r="AM129" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="AN129" t="n">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO129" t="n">
-        <v>1.83</v>
+        <v>0.83</v>
       </c>
       <c r="AP129" t="n">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AQ129" t="n">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AR129" t="n">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="AT129" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="AU129" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV129" t="n">
         <v>4</v>
       </c>
       <c r="AW129" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX129" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY129" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ129" t="n">
         <v>6</v>
       </c>
-      <c r="AZ129" t="n">
-        <v>8</v>
-      </c>
       <c r="BA129" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB129" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BC129" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BD129" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI129" t="n">
         <v>1.9</v>
       </c>
-      <c r="BE129" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BF129" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="BG129" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BH129" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BI129" t="n">
-        <v>1.74</v>
-      </c>
       <c r="BJ129" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="BK129" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="BL129" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="BM129" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="BN129" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BO129" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="BP129" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="130">
@@ -28899,6 +28899,2186 @@
       </c>
       <c r="BP130" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6651972</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F131" t="n">
+        <v>14</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>2</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>3</v>
+      </c>
+      <c r="L131" t="n">
+        <v>3</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="n">
+        <v>4</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['15', '45+1', '58']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S131" t="n">
+        <v>5</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X131" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6651977</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F132" t="n">
+        <v>14</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S132" t="n">
+        <v>4</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V132" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X132" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6651975</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F133" t="n">
+        <v>14</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2</v>
+      </c>
+      <c r="S133" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X133" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6651978</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F134" t="n">
+        <v>14</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>3</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X134" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6651976</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F135" t="n">
+        <v>14</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>3</v>
+      </c>
+      <c r="N135" t="n">
+        <v>3</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['21', '53', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S135" t="n">
+        <v>5</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X135" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6651974</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F136" t="n">
+        <v>14</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2</v>
+      </c>
+      <c r="K136" t="n">
+        <v>4</v>
+      </c>
+      <c r="L136" t="n">
+        <v>3</v>
+      </c>
+      <c r="M136" t="n">
+        <v>3</v>
+      </c>
+      <c r="N136" t="n">
+        <v>6</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['12', '43', '90+6']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['20', '22', '58']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2</v>
+      </c>
+      <c r="S136" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V136" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X136" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6651971</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F137" t="n">
+        <v>14</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>3</v>
+      </c>
+      <c r="L137" t="n">
+        <v>4</v>
+      </c>
+      <c r="M137" t="n">
+        <v>4</v>
+      </c>
+      <c r="N137" t="n">
+        <v>8</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['2', '30', '62', '90+5']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['20', '47', '58', '88']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="R137" t="n">
+        <v>2</v>
+      </c>
+      <c r="S137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V137" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X137" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6651970</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F138" t="n">
+        <v>14</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R138" t="n">
+        <v>2</v>
+      </c>
+      <c r="S138" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X138" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6651969</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F139" t="n">
+        <v>14</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>2</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2</v>
+      </c>
+      <c r="N139" t="n">
+        <v>3</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['36', '88']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S139" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X139" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6651973</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F140" t="n">
+        <v>14</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>3</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>4</v>
+      </c>
+      <c r="L140" t="n">
+        <v>5</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2</v>
+      </c>
+      <c r="N140" t="n">
+        <v>7</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['3', '21', '36', '66', '82']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['31', '80']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S140" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V140" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X140" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.71</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.86</v>
@@ -1355,7 +1355,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.14</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.63</v>
@@ -2881,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR22" t="n">
         <v>1.13</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.63</v>
@@ -5933,7 +5933,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR25" t="n">
         <v>1.36</v>
@@ -6151,7 +6151,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR26" t="n">
         <v>1.47</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.86</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.43</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.43</v>
@@ -7241,7 +7241,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>2.08</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR33" t="n">
         <v>1.15</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.63</v>
@@ -8331,7 +8331,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR36" t="n">
         <v>1.97</v>
@@ -8549,7 +8549,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR37" t="n">
         <v>1.48</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR38" t="n">
         <v>0.44</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.43</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR40" t="n">
         <v>2.1</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.86</v>
@@ -9639,7 +9639,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR42" t="n">
         <v>1.7</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.43</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.86</v>
@@ -10944,10 +10944,10 @@
         <v>2</v>
       </c>
       <c r="AP48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ48" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>1.29</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -11383,7 +11383,7 @@
         <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR50" t="n">
         <v>1.2</v>
@@ -11598,10 +11598,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR51" t="n">
         <v>1.6</v>
@@ -12037,7 +12037,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR53" t="n">
         <v>1.55</v>
@@ -12252,7 +12252,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.63</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR55" t="n">
         <v>1.96</v>
@@ -12909,7 +12909,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.28</v>
@@ -13124,7 +13124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.17</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.71</v>
@@ -13560,10 +13560,10 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -13781,7 +13781,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR61" t="n">
         <v>1.87</v>
@@ -13996,10 +13996,10 @@
         <v>2.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR62" t="n">
         <v>1.45</v>
@@ -14432,10 +14432,10 @@
         <v>0.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR64" t="n">
         <v>1.61</v>
@@ -14650,7 +14650,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.86</v>
@@ -14871,7 +14871,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR66" t="n">
         <v>1.23</v>
@@ -15740,10 +15740,10 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR70" t="n">
         <v>1.4</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.43</v>
@@ -16397,7 +16397,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.75</v>
@@ -16615,7 +16615,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR74" t="n">
         <v>1.35</v>
@@ -17048,10 +17048,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -17266,10 +17266,10 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR77" t="n">
         <v>1.7</v>
@@ -17484,10 +17484,10 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR78" t="n">
         <v>1.41</v>
@@ -17920,7 +17920,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.86</v>
@@ -18138,7 +18138,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.86</v>
@@ -18356,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="AP82" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ82" t="n">
         <v>1</v>
@@ -18795,7 +18795,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR84" t="n">
         <v>1.55</v>
@@ -19013,7 +19013,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR85" t="n">
         <v>1.63</v>
@@ -19231,7 +19231,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -19449,7 +19449,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR87" t="n">
         <v>1.35</v>
@@ -19664,10 +19664,10 @@
         <v>1.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR88" t="n">
         <v>1.75</v>
@@ -20318,7 +20318,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.43</v>
@@ -20539,7 +20539,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR92" t="n">
         <v>1.89</v>
@@ -20754,7 +20754,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.43</v>
@@ -20972,7 +20972,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.14</v>
@@ -21190,10 +21190,10 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
         <v>1.49</v>
@@ -21844,10 +21844,10 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR98" t="n">
         <v>1.29</v>
@@ -22280,10 +22280,10 @@
         <v>1</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR100" t="n">
         <v>1.55</v>
@@ -22719,7 +22719,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ102" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR102" t="n">
         <v>1.39</v>
@@ -22934,7 +22934,7 @@
         <v>0.2</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -23152,10 +23152,10 @@
         <v>1.2</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR104" t="n">
         <v>1.47</v>
@@ -23809,7 +23809,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR107" t="n">
         <v>1.66</v>
@@ -24024,7 +24024,7 @@
         <v>0.75</v>
       </c>
       <c r="AP108" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.17</v>
@@ -24242,10 +24242,10 @@
         <v>1</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR109" t="n">
         <v>1.7</v>
@@ -24463,7 +24463,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR110" t="n">
         <v>1.3</v>
@@ -24899,7 +24899,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR112" t="n">
         <v>1.88</v>
@@ -25332,10 +25332,10 @@
         <v>2</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ114" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR114" t="n">
         <v>1.35</v>
@@ -25553,7 +25553,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR115" t="n">
         <v>1.37</v>
@@ -25768,7 +25768,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.63</v>
@@ -26204,7 +26204,7 @@
         <v>1</v>
       </c>
       <c r="AP118" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.14</v>
@@ -26422,10 +26422,10 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR119" t="n">
         <v>1.42</v>
@@ -26858,7 +26858,7 @@
         <v>1.8</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.43</v>
@@ -27076,7 +27076,7 @@
         <v>0.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ122" t="n">
         <v>1</v>
@@ -27294,10 +27294,10 @@
         <v>1</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR123" t="n">
         <v>1.69</v>
@@ -27512,10 +27512,10 @@
         <v>1.83</v>
       </c>
       <c r="AP124" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ124" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR124" t="n">
         <v>1.38</v>
@@ -27733,7 +27733,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR125" t="n">
         <v>1.62</v>
@@ -27948,10 +27948,10 @@
         <v>0.83</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR126" t="n">
         <v>1.32</v>
@@ -28166,7 +28166,7 @@
         <v>1.33</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.14</v>
@@ -28384,7 +28384,7 @@
         <v>0.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.17</v>
@@ -28602,10 +28602,10 @@
         <v>0.83</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR129" t="n">
         <v>1.72</v>
@@ -28823,7 +28823,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ130" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR130" t="n">
         <v>1.59</v>
@@ -29256,7 +29256,7 @@
         <v>0.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.43</v>
@@ -29695,7 +29695,7 @@
         <v>2</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR134" t="n">
         <v>2.09</v>
@@ -29913,7 +29913,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR135" t="n">
         <v>1.51</v>
@@ -30782,7 +30782,7 @@
         <v>1.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.71</v>
@@ -31079,6 +31079,1968 @@
       </c>
       <c r="BP140" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6651982</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45255.45833333334</v>
+      </c>
+      <c r="F141" t="n">
+        <v>15</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2</v>
+      </c>
+      <c r="N141" t="n">
+        <v>3</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['75', '78']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S141" t="n">
+        <v>5</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U141" t="n">
+        <v>3</v>
+      </c>
+      <c r="V141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X141" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6651983</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2</v>
+      </c>
+      <c r="N142" t="n">
+        <v>3</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['7', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S142" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X142" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6651979</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F143" t="n">
+        <v>15</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>2</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['45+3', '90+2']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X143" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6651981</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F144" t="n">
+        <v>15</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S144" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U144" t="n">
+        <v>3</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X144" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6651984</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F145" t="n">
+        <v>15</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S145" t="n">
+        <v>3</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X145" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6651985</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['15', '33']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>4</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2</v>
+      </c>
+      <c r="S146" t="n">
+        <v>3</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X146" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6652149</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F147" t="n">
+        <v>15</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2</v>
+      </c>
+      <c r="S147" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X147" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6651987</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F148" t="n">
+        <v>15</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['43', '84']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S148" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X148" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6651988</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F149" t="n">
+        <v>15</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S149" t="n">
+        <v>5</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V149" t="n">
+        <v>3</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X149" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -31233,13 +31233,13 @@
         <v>2.55</v>
       </c>
       <c r="AU141" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV141" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW141" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX141" t="n">
         <v>7</v>
@@ -31248,7 +31248,7 @@
         <v>9</v>
       </c>
       <c r="AZ141" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA141" t="n">
         <v>9</v>
@@ -31451,31 +31451,31 @@
         <v>3</v>
       </c>
       <c r="AU142" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV142" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW142" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX142" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY142" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ142" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA142" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB142" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC142" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD142" t="n">
         <v>2.25</v>
@@ -31570,7 +31570,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>['45+3', '90+2']</t>
+          <t>['45+4', '90+2']</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -31669,22 +31669,22 @@
         <v>2.31</v>
       </c>
       <c r="AU143" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW143" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX143" t="n">
         <v>3</v>
       </c>
       <c r="AY143" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ143" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA143" t="n">
         <v>6</v>
@@ -31887,31 +31887,31 @@
         <v>3.02</v>
       </c>
       <c r="AU144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV144" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY144" t="n">
         <v>5</v>
       </c>
-      <c r="AW144" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX144" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY144" t="n">
-        <v>4</v>
-      </c>
       <c r="AZ144" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA144" t="n">
         <v>1</v>
       </c>
       <c r="BB144" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC144" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD144" t="n">
         <v>2.62</v>
@@ -32108,19 +32108,19 @@
         <v>3</v>
       </c>
       <c r="AV145" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW145" t="n">
         <v>4</v>
       </c>
       <c r="AX145" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY145" t="n">
         <v>7</v>
       </c>
       <c r="AZ145" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA145" t="n">
         <v>4</v>
@@ -32326,28 +32326,28 @@
         <v>4</v>
       </c>
       <c r="AV146" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW146" t="n">
         <v>6</v>
       </c>
       <c r="AX146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY146" t="n">
         <v>10</v>
       </c>
       <c r="AZ146" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA146" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB146" t="n">
         <v>1</v>
       </c>
       <c r="BC146" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD146" t="n">
         <v>2.44</v>
@@ -32541,31 +32541,31 @@
         <v>2.8</v>
       </c>
       <c r="AU147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ147" t="n">
         <v>6</v>
       </c>
-      <c r="AV147" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW147" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX147" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY147" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ147" t="n">
+      <c r="BA147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC147" t="n">
         <v>5</v>
-      </c>
-      <c r="BA147" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB147" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC147" t="n">
-        <v>8</v>
       </c>
       <c r="BD147" t="n">
         <v>1.64</v>
@@ -32759,7 +32759,7 @@
         <v>2.95</v>
       </c>
       <c r="AU148" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV148" t="n">
         <v>5</v>
@@ -32768,13 +32768,13 @@
         <v>1</v>
       </c>
       <c r="AX148" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY148" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA148" t="n">
         <v>5</v>
@@ -32977,31 +32977,31 @@
         <v>2.64</v>
       </c>
       <c r="AU149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW149" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX149" t="n">
         <v>4</v>
       </c>
       <c r="AY149" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ149" t="n">
         <v>7</v>
       </c>
-      <c r="AZ149" t="n">
-        <v>4</v>
-      </c>
       <c r="BA149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB149" t="n">
         <v>1</v>
       </c>
       <c r="BC149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD149" t="n">
         <v>1.41</v>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.43</v>
@@ -3753,7 +3753,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.14</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.88</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR24" t="n">
         <v>1.31</v>
@@ -8549,7 +8549,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR37" t="n">
         <v>1.48</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.14</v>
@@ -10729,7 +10729,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR47" t="n">
         <v>1.34</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
@@ -12037,7 +12037,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR53" t="n">
         <v>1.55</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.86</v>
@@ -15086,7 +15086,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.43</v>
@@ -17269,7 +17269,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR77" t="n">
         <v>1.7</v>
@@ -18792,7 +18792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.38</v>
@@ -20103,7 +20103,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR90" t="n">
         <v>1.84</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.43</v>
@@ -22283,7 +22283,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR100" t="n">
         <v>1.55</v>
@@ -22501,7 +22501,7 @@
         <v>2</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR101" t="n">
         <v>1.93</v>
@@ -23806,7 +23806,7 @@
         <v>1</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ107" t="n">
         <v>1</v>
@@ -24463,7 +24463,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR110" t="n">
         <v>1.3</v>
@@ -25550,7 +25550,7 @@
         <v>1</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ115" t="n">
         <v>1</v>
@@ -25989,7 +25989,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR117" t="n">
         <v>1.59</v>
@@ -27730,7 +27730,7 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.88</v>
@@ -28169,7 +28169,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR127" t="n">
         <v>1.37</v>
@@ -31221,7 +31221,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR141" t="n">
         <v>1.39</v>
@@ -33041,6 +33041,442 @@
       </c>
       <c r="BP149" t="n">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6651980</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45257.69791666666</v>
+      </c>
+      <c r="F150" t="n">
+        <v>15</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>3</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>3</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['29', '87', '90+4']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>3</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S150" t="n">
+        <v>4</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X150" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6651966</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45258.625</v>
+      </c>
+      <c r="F151" t="n">
+        <v>13</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" t="n">
+        <v>3</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['30', '46']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2</v>
+      </c>
+      <c r="S151" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V151" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X151" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -33413,19 +33413,19 @@
         <v>2.45</v>
       </c>
       <c r="AU151" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV151" t="n">
         <v>4</v>
       </c>
       <c r="AW151" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX151" t="n">
         <v>6</v>
       </c>
       <c r="AY151" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ151" t="n">
         <v>10</v>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.75</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.88</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.17</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.38</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR23" t="n">
         <v>1.66</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.75</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.5</v>
@@ -6369,7 +6369,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR27" t="n">
         <v>2.17</v>
@@ -6587,7 +6587,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR28" t="n">
         <v>1.29</v>
@@ -6802,10 +6802,10 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR29" t="n">
         <v>0.93</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR30" t="n">
         <v>1.25</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.17</v>
@@ -7895,7 +7895,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR34" t="n">
         <v>1.86</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR35" t="n">
         <v>1.4</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.38</v>
@@ -8767,7 +8767,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR38" t="n">
         <v>0.44</v>
@@ -8985,7 +8985,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR39" t="n">
         <v>1.76</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.88</v>
@@ -9421,7 +9421,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR41" t="n">
         <v>1.26</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.88</v>
@@ -9854,10 +9854,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR43" t="n">
         <v>1.51</v>
@@ -10075,7 +10075,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR44" t="n">
         <v>1.83</v>
@@ -10293,7 +10293,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR45" t="n">
         <v>1.48</v>
@@ -10511,7 +10511,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR46" t="n">
         <v>1.39</v>
@@ -10726,7 +10726,7 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ47" t="n">
         <v>1</v>
@@ -10944,7 +10944,7 @@
         <v>2</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.5</v>
@@ -11165,7 +11165,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR49" t="n">
         <v>1.33</v>
@@ -11380,7 +11380,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.75</v>
@@ -11816,10 +11816,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR52" t="n">
         <v>1.67</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.38</v>
@@ -12255,7 +12255,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR54" t="n">
         <v>1.37</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR56" t="n">
         <v>2.1</v>
@@ -12906,7 +12906,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13345,7 +13345,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR59" t="n">
         <v>1.91</v>
@@ -13563,7 +13563,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61" t="n">
         <v>1</v>
@@ -14217,7 +14217,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14653,7 +14653,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR65" t="n">
         <v>1.9</v>
@@ -14868,7 +14868,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.5</v>
@@ -15089,7 +15089,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR67" t="n">
         <v>1.42</v>
@@ -15304,10 +15304,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR68" t="n">
         <v>1.28</v>
@@ -15522,10 +15522,10 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR69" t="n">
         <v>1.37</v>
@@ -15740,7 +15740,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.88</v>
@@ -15958,10 +15958,10 @@
         <v>0.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR71" t="n">
         <v>1.97</v>
@@ -16179,7 +16179,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR72" t="n">
         <v>1.6</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -16612,10 +16612,10 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR74" t="n">
         <v>1.35</v>
@@ -16830,10 +16830,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR75" t="n">
         <v>1.62</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78" t="n">
         <v>1</v>
@@ -17702,10 +17702,10 @@
         <v>1.67</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR79" t="n">
         <v>1.72</v>
@@ -17923,7 +17923,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR80" t="n">
         <v>1.41</v>
@@ -18141,7 +18141,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR81" t="n">
         <v>1.64</v>
@@ -18359,7 +18359,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -18574,7 +18574,7 @@
         <v>1</v>
       </c>
       <c r="AP83" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.17</v>
@@ -18795,7 +18795,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR84" t="n">
         <v>1.55</v>
@@ -19010,7 +19010,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.75</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.5</v>
@@ -19446,7 +19446,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.88</v>
@@ -19882,10 +19882,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR89" t="n">
         <v>1.34</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90" t="n">
         <v>1</v>
@@ -20321,7 +20321,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR91" t="n">
         <v>1.43</v>
@@ -20536,7 +20536,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ92" t="n">
         <v>2.13</v>
@@ -20754,10 +20754,10 @@
         <v>1.5</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR93" t="n">
         <v>1.25</v>
@@ -20975,7 +20975,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR94" t="n">
         <v>1.55</v>
@@ -21408,10 +21408,10 @@
         <v>0.6</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR96" t="n">
         <v>1.43</v>
@@ -21626,10 +21626,10 @@
         <v>2</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR97" t="n">
         <v>1.62</v>
@@ -22065,7 +22065,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR99" t="n">
         <v>1.32</v>
@@ -22498,7 +22498,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ101" t="n">
         <v>1</v>
@@ -22716,7 +22716,7 @@
         <v>2.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.88</v>
@@ -22937,7 +22937,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -23155,7 +23155,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR104" t="n">
         <v>1.47</v>
@@ -23370,10 +23370,10 @@
         <v>0.8</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR105" t="n">
         <v>1.66</v>
@@ -23588,10 +23588,10 @@
         <v>0.4</v>
       </c>
       <c r="AP106" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR106" t="n">
         <v>2</v>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.38</v>
@@ -24678,10 +24678,10 @@
         <v>2</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR111" t="n">
         <v>1.53</v>
@@ -24896,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.75</v>
@@ -25114,10 +25114,10 @@
         <v>1.8</v>
       </c>
       <c r="AP113" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR113" t="n">
         <v>1.37</v>
@@ -25332,7 +25332,7 @@
         <v>2</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ114" t="n">
         <v>2.13</v>
@@ -25771,7 +25771,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR116" t="n">
         <v>1.35</v>
@@ -25986,7 +25986,7 @@
         <v>1.4</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ117" t="n">
         <v>1</v>
@@ -26207,7 +26207,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR118" t="n">
         <v>1.63</v>
@@ -26640,10 +26640,10 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR120" t="n">
         <v>1.64</v>
@@ -26861,7 +26861,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR121" t="n">
         <v>1.32</v>
@@ -27079,7 +27079,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR122" t="n">
         <v>1.43</v>
@@ -28820,7 +28820,7 @@
         <v>2.33</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.88</v>
@@ -29038,10 +29038,10 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR131" t="n">
         <v>1.81</v>
@@ -29259,7 +29259,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR132" t="n">
         <v>1.39</v>
@@ -29474,10 +29474,10 @@
         <v>1.17</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR133" t="n">
         <v>1.57</v>
@@ -29692,7 +29692,7 @@
         <v>1.33</v>
       </c>
       <c r="AP134" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.5</v>
@@ -29910,10 +29910,10 @@
         <v>1.17</v>
       </c>
       <c r="AP135" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR135" t="n">
         <v>1.51</v>
@@ -30128,10 +30128,10 @@
         <v>0.83</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR136" t="n">
         <v>1.35</v>
@@ -30346,10 +30346,10 @@
         <v>1.5</v>
       </c>
       <c r="AP137" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR137" t="n">
         <v>1.44</v>
@@ -30564,10 +30564,10 @@
         <v>0.71</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR138" t="n">
         <v>1.27</v>
@@ -30782,10 +30782,10 @@
         <v>1.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR139" t="n">
         <v>1.3</v>
@@ -31000,10 +31000,10 @@
         <v>2.17</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR140" t="n">
         <v>1.81</v>
@@ -32526,10 +32526,10 @@
         <v>1.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR147" t="n">
         <v>1.32</v>
@@ -33477,6 +33477,2186 @@
       </c>
       <c r="BP151" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6651992</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45262.45833333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>16</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R152" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S152" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U152" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X152" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6651996</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S153" t="n">
+        <v>4</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V153" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X153" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6651998</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['15', '62']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X154" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6651997</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F155" t="n">
+        <v>16</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X155" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6651995</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S156" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X156" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6651993</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2</v>
+      </c>
+      <c r="K157" t="n">
+        <v>3</v>
+      </c>
+      <c r="L157" t="n">
+        <v>3</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" t="n">
+        <v>5</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['45+1', '55', '65']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['35', '40']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X157" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6651991</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F158" t="n">
+        <v>16</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2</v>
+      </c>
+      <c r="S158" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X158" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6651990</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F159" t="n">
+        <v>16</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S159" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X159" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6651989</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F160" t="n">
+        <v>16</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S160" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X160" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6651994</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S161" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X161" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.89</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.13</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>1.13</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
         <v>1</v>
@@ -5933,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR25" t="n">
         <v>1.36</v>
@@ -6151,7 +6151,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR26" t="n">
         <v>1.47</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.75</v>
@@ -6805,7 +6805,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR29" t="n">
         <v>0.93</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.25</v>
@@ -7238,10 +7238,10 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR31" t="n">
         <v>2.08</v>
@@ -7459,7 +7459,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>1.83</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR33" t="n">
         <v>1.15</v>
@@ -8113,7 +8113,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR35" t="n">
         <v>1.4</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.22</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.38</v>
@@ -9203,7 +9203,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR40" t="n">
         <v>2.1</v>
@@ -9639,7 +9639,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR42" t="n">
         <v>1.7</v>
@@ -9854,7 +9854,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.38</v>
@@ -10075,7 +10075,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR44" t="n">
         <v>1.83</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.13</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.75</v>
@@ -10947,7 +10947,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.25</v>
@@ -11380,10 +11380,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR50" t="n">
         <v>1.2</v>
@@ -11598,10 +11598,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR51" t="n">
         <v>1.6</v>
@@ -12473,7 +12473,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR55" t="n">
         <v>1.96</v>
@@ -12909,7 +12909,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR57" t="n">
         <v>1.28</v>
@@ -13124,10 +13124,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR58" t="n">
         <v>1.08</v>
@@ -13342,10 +13342,10 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR59" t="n">
         <v>1.91</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.22</v>
@@ -13996,10 +13996,10 @@
         <v>2.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR62" t="n">
         <v>1.45</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.63</v>
@@ -14432,10 +14432,10 @@
         <v>0.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR64" t="n">
         <v>1.61</v>
@@ -14871,7 +14871,7 @@
         <v>2</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR66" t="n">
         <v>1.23</v>
@@ -15086,10 +15086,10 @@
         <v>0.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR67" t="n">
         <v>1.42</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.13</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.25</v>
@@ -15743,7 +15743,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR70" t="n">
         <v>1.4</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.38</v>
@@ -16397,7 +16397,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR73" t="n">
         <v>1.75</v>
@@ -16833,7 +16833,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR75" t="n">
         <v>1.62</v>
@@ -17048,10 +17048,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -17920,7 +17920,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.63</v>
@@ -18138,7 +18138,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.75</v>
@@ -18574,10 +18574,10 @@
         <v>1</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR83" t="n">
         <v>1.25</v>
@@ -18792,7 +18792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.22</v>
@@ -19013,7 +19013,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR85" t="n">
         <v>1.63</v>
@@ -19231,7 +19231,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -19449,7 +19449,7 @@
         <v>2</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR87" t="n">
         <v>1.35</v>
@@ -19667,7 +19667,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR88" t="n">
         <v>1.75</v>
@@ -19882,10 +19882,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR89" t="n">
         <v>1.34</v>
@@ -20318,7 +20318,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.38</v>
@@ -20539,7 +20539,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR92" t="n">
         <v>1.89</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ95" t="n">
         <v>1</v>
@@ -21629,7 +21629,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR97" t="n">
         <v>1.62</v>
@@ -21844,10 +21844,10 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR98" t="n">
         <v>1.29</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.38</v>
@@ -22280,7 +22280,7 @@
         <v>1</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.38</v>
@@ -22719,7 +22719,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR102" t="n">
         <v>1.39</v>
@@ -22934,7 +22934,7 @@
         <v>0.2</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.25</v>
@@ -23152,7 +23152,7 @@
         <v>1.2</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.22</v>
@@ -23591,7 +23591,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR106" t="n">
         <v>2</v>
@@ -23806,10 +23806,10 @@
         <v>1</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR107" t="n">
         <v>1.66</v>
@@ -24027,7 +24027,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR108" t="n">
         <v>1.41</v>
@@ -24245,7 +24245,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR109" t="n">
         <v>1.7</v>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.38</v>
@@ -24899,7 +24899,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR112" t="n">
         <v>1.88</v>
@@ -25114,10 +25114,10 @@
         <v>1.8</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR113" t="n">
         <v>1.37</v>
@@ -25335,7 +25335,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ114" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR114" t="n">
         <v>1.35</v>
@@ -25550,7 +25550,7 @@
         <v>1</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ115" t="n">
         <v>1</v>
@@ -25768,7 +25768,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.89</v>
@@ -26204,7 +26204,7 @@
         <v>1</v>
       </c>
       <c r="AP118" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.13</v>
@@ -26425,7 +26425,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR119" t="n">
         <v>1.42</v>
@@ -26858,7 +26858,7 @@
         <v>1.8</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.38</v>
@@ -27076,7 +27076,7 @@
         <v>0.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.25</v>
@@ -27294,10 +27294,10 @@
         <v>1</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR123" t="n">
         <v>1.69</v>
@@ -27515,7 +27515,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ124" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR124" t="n">
         <v>1.38</v>
@@ -27730,10 +27730,10 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR125" t="n">
         <v>1.62</v>
@@ -27951,7 +27951,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR126" t="n">
         <v>1.32</v>
@@ -28166,7 +28166,7 @@
         <v>1.33</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ127" t="n">
         <v>1</v>
@@ -28384,10 +28384,10 @@
         <v>0.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR128" t="n">
         <v>1.56</v>
@@ -28823,7 +28823,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR130" t="n">
         <v>1.59</v>
@@ -29256,10 +29256,10 @@
         <v>0.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR132" t="n">
         <v>1.39</v>
@@ -29695,7 +29695,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR134" t="n">
         <v>2.09</v>
@@ -30346,7 +30346,7 @@
         <v>1.5</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.38</v>
@@ -30564,7 +30564,7 @@
         <v>0.71</v>
       </c>
       <c r="AP138" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.89</v>
@@ -30785,7 +30785,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR139" t="n">
         <v>1.3</v>
@@ -31218,7 +31218,7 @@
         <v>0.83</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.38</v>
@@ -31436,10 +31436,10 @@
         <v>0.71</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR142" t="n">
         <v>1.41</v>
@@ -31875,7 +31875,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR144" t="n">
         <v>1.38</v>
@@ -32090,10 +32090,10 @@
         <v>1.29</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR145" t="n">
         <v>1.33</v>
@@ -32308,10 +32308,10 @@
         <v>2</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ146" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR146" t="n">
         <v>1.56</v>
@@ -32747,7 +32747,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR148" t="n">
         <v>1.72</v>
@@ -32962,10 +32962,10 @@
         <v>0.86</v>
       </c>
       <c r="AP149" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR149" t="n">
         <v>1.63</v>
@@ -33180,7 +33180,7 @@
         <v>1.14</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ150" t="n">
         <v>1</v>
@@ -33398,7 +33398,7 @@
         <v>1.14</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.38</v>
@@ -33837,7 +33837,7 @@
         <v>2</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR153" t="n">
         <v>1.49</v>
@@ -34924,7 +34924,7 @@
         <v>1.43</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.38</v>
@@ -35142,7 +35142,7 @@
         <v>1.43</v>
       </c>
       <c r="AP159" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.38</v>
@@ -35581,7 +35581,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR161" t="n">
         <v>1.41</v>
@@ -35657,6 +35657,1968 @@
       </c>
       <c r="BP161" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6652004</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45265.69791666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>2</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['1', '23']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2</v>
+      </c>
+      <c r="S162" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X162" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6651999</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45265.69791666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['60', '90+5']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S163" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X163" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6652001</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45265.69791666666</v>
+      </c>
+      <c r="F164" t="n">
+        <v>17</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>3</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="n">
+        <v>4</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['45+3', '72', '90']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R164" t="n">
+        <v>2</v>
+      </c>
+      <c r="S164" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X164" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6652002</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45265.69791666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S165" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V165" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X165" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6652003</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45265.69791666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>17</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>2</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>3</v>
+      </c>
+      <c r="N166" t="n">
+        <v>4</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['42', '55', '87']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2</v>
+      </c>
+      <c r="S166" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V166" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X166" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP166" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6652005</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45265.69791666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>17</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>2</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2</v>
+      </c>
+      <c r="L167" t="n">
+        <v>2</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>2</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['21', '40']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S167" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X167" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6652006</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45265.69791666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>17</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>5</v>
+      </c>
+      <c r="N168" t="n">
+        <v>5</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['2', '13', '68', '89', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V168" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X168" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6652007</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45265.69791666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>17</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2</v>
+      </c>
+      <c r="K169" t="n">
+        <v>2</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>2</v>
+      </c>
+      <c r="N169" t="n">
+        <v>3</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['16', '38']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S169" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X169" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL169" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6652008</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45265.69791666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>3</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2</v>
+      </c>
+      <c r="N170" t="n">
+        <v>5</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['15', '19', '55']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['78', '88']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2</v>
+      </c>
+      <c r="S170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X170" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.67</v>
@@ -2227,7 +2227,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR24" t="n">
         <v>1.31</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.38</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.63</v>
@@ -10729,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR47" t="n">
         <v>1.34</v>
@@ -12252,7 +12252,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.89</v>
@@ -18356,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.25</v>
@@ -20103,7 +20103,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR90" t="n">
         <v>1.84</v>
@@ -22501,7 +22501,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR101" t="n">
         <v>1.93</v>
@@ -24024,7 +24024,7 @@
         <v>0.75</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ108" t="n">
         <v>1</v>
@@ -25989,7 +25989,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR117" t="n">
         <v>1.59</v>
@@ -27512,7 +27512,7 @@
         <v>1.83</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.89</v>
@@ -28169,7 +28169,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR127" t="n">
         <v>1.37</v>
@@ -31654,7 +31654,7 @@
         <v>1.14</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ143" t="n">
         <v>1</v>
@@ -33183,7 +33183,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR150" t="n">
         <v>1.59</v>
@@ -36904,7 +36904,7 @@
         <v>4</v>
       </c>
       <c r="AV167" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW167" t="n">
         <v>5</v>
@@ -36916,7 +36916,7 @@
         <v>9</v>
       </c>
       <c r="AZ167" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA167" t="n">
         <v>5</v>
@@ -37619,6 +37619,224 @@
       </c>
       <c r="BP170" t="n">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6652000</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45266.625</v>
+      </c>
+      <c r="F171" t="n">
+        <v>17</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['77', '80']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2</v>
+      </c>
+      <c r="S171" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V171" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X171" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL171" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BP171" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -37773,22 +37773,22 @@
         <v>2.69</v>
       </c>
       <c r="AU171" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW171" t="n">
         <v>7</v>
       </c>
-      <c r="AV171" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW171" t="n">
-        <v>5</v>
-      </c>
       <c r="AX171" t="n">
         <v>2</v>
       </c>
       <c r="AY171" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ171" t="n">
         <v>12</v>
-      </c>
-      <c r="AZ171" t="n">
-        <v>10</v>
       </c>
       <c r="BA171" t="n">
         <v>5</v>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.78</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.89</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.89</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.67</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.67</v>
@@ -6369,7 +6369,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR27" t="n">
         <v>2.17</v>
@@ -6587,7 +6587,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR28" t="n">
         <v>1.29</v>
@@ -7023,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR30" t="n">
         <v>1.25</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.89</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.44</v>
@@ -8328,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR36" t="n">
         <v>1.97</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR37" t="n">
         <v>1.48</v>
@@ -8767,7 +8767,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR38" t="n">
         <v>0.44</v>
@@ -8985,7 +8985,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR39" t="n">
         <v>1.76</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.78</v>
@@ -9421,7 +9421,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR41" t="n">
         <v>1.26</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42" t="n">
         <v>2</v>
@@ -9857,7 +9857,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR43" t="n">
         <v>1.51</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.67</v>
@@ -10293,7 +10293,7 @@
         <v>1</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
         <v>1.48</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR46" t="n">
         <v>1.39</v>
@@ -10726,7 +10726,7 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.22</v>
@@ -11165,7 +11165,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR49" t="n">
         <v>1.33</v>
@@ -11816,10 +11816,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR52" t="n">
         <v>1.67</v>
@@ -12034,10 +12034,10 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR53" t="n">
         <v>1.55</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.89</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR56" t="n">
         <v>2.1</v>
@@ -12906,7 +12906,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.89</v>
@@ -13563,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -13778,10 +13778,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR61" t="n">
         <v>1.87</v>
@@ -13996,7 +13996,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ62" t="n">
         <v>2</v>
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14650,10 +14650,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR65" t="n">
         <v>1.9</v>
@@ -14868,7 +14868,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.67</v>
@@ -15307,7 +15307,7 @@
         <v>2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR68" t="n">
         <v>1.28</v>
@@ -15525,7 +15525,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR69" t="n">
         <v>1.37</v>
@@ -15958,7 +15958,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.89</v>
@@ -16179,7 +16179,7 @@
         <v>1</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR72" t="n">
         <v>1.6</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.89</v>
@@ -16612,10 +16612,10 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR74" t="n">
         <v>1.35</v>
@@ -16830,7 +16830,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.44</v>
@@ -17266,10 +17266,10 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR77" t="n">
         <v>1.7</v>
@@ -17487,7 +17487,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR78" t="n">
         <v>1.41</v>
@@ -17702,10 +17702,10 @@
         <v>1.67</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.72</v>
@@ -17920,10 +17920,10 @@
         <v>1.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR80" t="n">
         <v>1.41</v>
@@ -18141,7 +18141,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR81" t="n">
         <v>1.64</v>
@@ -18359,7 +18359,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -18795,7 +18795,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR84" t="n">
         <v>1.55</v>
@@ -19010,7 +19010,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.67</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.67</v>
@@ -19446,7 +19446,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.78</v>
@@ -19664,7 +19664,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.89</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.22</v>
@@ -20321,7 +20321,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR91" t="n">
         <v>1.43</v>
@@ -20536,7 +20536,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.89</v>
@@ -20757,7 +20757,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR93" t="n">
         <v>1.25</v>
@@ -20972,10 +20972,10 @@
         <v>1.25</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR94" t="n">
         <v>1.55</v>
@@ -21193,7 +21193,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR95" t="n">
         <v>1.49</v>
@@ -21408,7 +21408,7 @@
         <v>0.6</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.89</v>
@@ -21626,7 +21626,7 @@
         <v>2</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.44</v>
@@ -22065,7 +22065,7 @@
         <v>1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR99" t="n">
         <v>1.32</v>
@@ -22283,7 +22283,7 @@
         <v>1</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR100" t="n">
         <v>1.55</v>
@@ -22498,7 +22498,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.22</v>
@@ -22716,7 +22716,7 @@
         <v>2.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ102" t="n">
         <v>2</v>
@@ -22937,7 +22937,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -23152,10 +23152,10 @@
         <v>1.2</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR104" t="n">
         <v>1.47</v>
@@ -23370,10 +23370,10 @@
         <v>0.8</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR105" t="n">
         <v>1.66</v>
@@ -23588,7 +23588,7 @@
         <v>0.4</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.67</v>
@@ -24242,7 +24242,7 @@
         <v>1</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.78</v>
@@ -24463,7 +24463,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR110" t="n">
         <v>1.3</v>
@@ -24678,10 +24678,10 @@
         <v>2</v>
       </c>
       <c r="AP111" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR111" t="n">
         <v>1.53</v>
@@ -24896,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.67</v>
@@ -25553,7 +25553,7 @@
         <v>1</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR115" t="n">
         <v>1.37</v>
@@ -25986,7 +25986,7 @@
         <v>1.4</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.22</v>
@@ -26207,7 +26207,7 @@
         <v>1</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR118" t="n">
         <v>1.63</v>
@@ -26422,7 +26422,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.67</v>
@@ -26640,10 +26640,10 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR120" t="n">
         <v>1.64</v>
@@ -26861,7 +26861,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR121" t="n">
         <v>1.32</v>
@@ -27079,7 +27079,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR122" t="n">
         <v>1.43</v>
@@ -27948,7 +27948,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.89</v>
@@ -28166,7 +28166,7 @@
         <v>1.33</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.22</v>
@@ -28602,10 +28602,10 @@
         <v>0.83</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR129" t="n">
         <v>1.72</v>
@@ -28820,7 +28820,7 @@
         <v>2.33</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ130" t="n">
         <v>2</v>
@@ -29038,10 +29038,10 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR131" t="n">
         <v>1.81</v>
@@ -29474,10 +29474,10 @@
         <v>1.17</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR133" t="n">
         <v>1.57</v>
@@ -29692,7 +29692,7 @@
         <v>1.33</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.67</v>
@@ -29910,10 +29910,10 @@
         <v>1.17</v>
       </c>
       <c r="AP135" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR135" t="n">
         <v>1.51</v>
@@ -30128,10 +30128,10 @@
         <v>0.83</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR136" t="n">
         <v>1.35</v>
@@ -30349,7 +30349,7 @@
         <v>2</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR137" t="n">
         <v>1.44</v>
@@ -31000,10 +31000,10 @@
         <v>2.17</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR140" t="n">
         <v>1.81</v>
@@ -31221,7 +31221,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR141" t="n">
         <v>1.39</v>
@@ -31657,7 +31657,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR143" t="n">
         <v>1.3</v>
@@ -31872,7 +31872,7 @@
         <v>2</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ144" t="n">
         <v>2</v>
@@ -32090,7 +32090,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.67</v>
@@ -32529,7 +32529,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR147" t="n">
         <v>1.32</v>
@@ -32744,7 +32744,7 @@
         <v>0.86</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.67</v>
@@ -33401,7 +33401,7 @@
         <v>1</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR151" t="n">
         <v>1.26</v>
@@ -33616,7 +33616,7 @@
         <v>0.63</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.89</v>
@@ -33834,7 +33834,7 @@
         <v>1.71</v>
       </c>
       <c r="AP153" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.44</v>
@@ -34052,10 +34052,10 @@
         <v>1.38</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR154" t="n">
         <v>1.9</v>
@@ -34270,10 +34270,10 @@
         <v>1</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR155" t="n">
         <v>1.47</v>
@@ -34488,10 +34488,10 @@
         <v>1.14</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR156" t="n">
         <v>1.53</v>
@@ -34706,10 +34706,10 @@
         <v>0.86</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR157" t="n">
         <v>1.8</v>
@@ -34927,7 +34927,7 @@
         <v>2</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR158" t="n">
         <v>1.45</v>
@@ -35145,7 +35145,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR159" t="n">
         <v>1.22</v>
@@ -35363,7 +35363,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR160" t="n">
         <v>1.4</v>
@@ -35578,7 +35578,7 @@
         <v>0.43</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.67</v>
@@ -36886,7 +36886,7 @@
         <v>1.17</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ167" t="n">
         <v>1</v>
@@ -37837,6 +37837,2186 @@
       </c>
       <c r="BP171" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6652009</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45276.45833333334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S172" t="n">
+        <v>4</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X172" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL172" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP172" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6652011</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45276.45833333334</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>2</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2</v>
+      </c>
+      <c r="L173" t="n">
+        <v>2</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>2</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['18', '29']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S173" t="n">
+        <v>6</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X173" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL173" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP173" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6652016</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>3</v>
+      </c>
+      <c r="K174" t="n">
+        <v>4</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>4</v>
+      </c>
+      <c r="N174" t="n">
+        <v>5</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['31', '33', '34', '55']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R174" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V174" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X174" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL174" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP174" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6652017</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F175" t="n">
+        <v>18</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R175" t="n">
+        <v>2</v>
+      </c>
+      <c r="S175" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V175" t="n">
+        <v>3</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X175" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL175" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6652015</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R176" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S176" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V176" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X176" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL176" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP176" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>6652018</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>2</v>
+      </c>
+      <c r="M177" t="n">
+        <v>2</v>
+      </c>
+      <c r="N177" t="n">
+        <v>4</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['48', '57']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['26', '73']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R177" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S177" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V177" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X177" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL177" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN177" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP177" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>6652013</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F178" t="n">
+        <v>18</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S178" t="n">
+        <v>3</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X178" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL178" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN178" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO178" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP178" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>6652012</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F179" t="n">
+        <v>18</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S179" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V179" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X179" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL179" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN179" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO179" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP179" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6652010</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F180" t="n">
+        <v>18</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R180" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S180" t="n">
+        <v>3</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X180" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL180" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN180" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO180" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP180" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6652014</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F181" t="n">
+        <v>18</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R181" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S181" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V181" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X181" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL181" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM181" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN181" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO181" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP181" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.56</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR22" t="n">
         <v>1.13</v>
@@ -5497,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR23" t="n">
         <v>1.66</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR24" t="n">
         <v>1.31</v>
@@ -5930,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR25" t="n">
         <v>1.36</v>
@@ -6151,7 +6151,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR26" t="n">
         <v>1.47</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR27" t="n">
         <v>2.17</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.22</v>
@@ -6802,10 +6802,10 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR29" t="n">
         <v>0.93</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.44</v>
@@ -7238,10 +7238,10 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR31" t="n">
         <v>2.08</v>
@@ -7895,7 +7895,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR34" t="n">
         <v>1.86</v>
@@ -8113,7 +8113,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR35" t="n">
         <v>1.4</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.4</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.56</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR40" t="n">
         <v>2.1</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.56</v>
@@ -9639,7 +9639,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR42" t="n">
         <v>1.7</v>
@@ -9854,7 +9854,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.22</v>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR44" t="n">
         <v>1.83</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -10511,7 +10511,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR46" t="n">
         <v>1.39</v>
@@ -10726,10 +10726,10 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR47" t="n">
         <v>1.34</v>
@@ -10944,10 +10944,10 @@
         <v>2</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.44</v>
@@ -11380,10 +11380,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR50" t="n">
         <v>1.2</v>
@@ -11598,10 +11598,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR51" t="n">
         <v>1.6</v>
@@ -12252,10 +12252,10 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR54" t="n">
         <v>1.37</v>
@@ -12909,7 +12909,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.28</v>
@@ -13124,7 +13124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ58" t="n">
         <v>1</v>
@@ -13342,10 +13342,10 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR59" t="n">
         <v>1.91</v>
@@ -13999,7 +13999,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR62" t="n">
         <v>1.45</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.56</v>
@@ -14432,10 +14432,10 @@
         <v>0.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR64" t="n">
         <v>1.61</v>
@@ -14653,7 +14653,7 @@
         <v>2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR65" t="n">
         <v>1.9</v>
@@ -14868,10 +14868,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR66" t="n">
         <v>1.23</v>
@@ -15086,10 +15086,10 @@
         <v>0.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR67" t="n">
         <v>1.42</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ68" t="n">
         <v>1</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.44</v>
@@ -15740,10 +15740,10 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR70" t="n">
         <v>1.4</v>
@@ -15961,7 +15961,7 @@
         <v>2</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR71" t="n">
         <v>1.97</v>
@@ -16397,7 +16397,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.75</v>
@@ -16833,7 +16833,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR75" t="n">
         <v>1.62</v>
@@ -17048,7 +17048,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.89</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.89</v>
@@ -18138,10 +18138,10 @@
         <v>0.25</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR81" t="n">
         <v>1.64</v>
@@ -18356,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.44</v>
@@ -18574,7 +18574,7 @@
         <v>1</v>
       </c>
       <c r="AP83" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ83" t="n">
         <v>1</v>
@@ -18792,7 +18792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.4</v>
@@ -19013,7 +19013,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR85" t="n">
         <v>1.63</v>
@@ -19231,7 +19231,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -19446,10 +19446,10 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR87" t="n">
         <v>1.35</v>
@@ -19667,7 +19667,7 @@
         <v>2</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR88" t="n">
         <v>1.75</v>
@@ -19882,10 +19882,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR89" t="n">
         <v>1.34</v>
@@ -20103,7 +20103,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR90" t="n">
         <v>1.84</v>
@@ -20318,7 +20318,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.22</v>
@@ -20754,7 +20754,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.56</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.89</v>
@@ -21411,7 +21411,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR96" t="n">
         <v>1.43</v>
@@ -21629,7 +21629,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR97" t="n">
         <v>1.62</v>
@@ -21844,10 +21844,10 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR98" t="n">
         <v>1.29</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.22</v>
@@ -22501,7 +22501,7 @@
         <v>2</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR101" t="n">
         <v>1.93</v>
@@ -22719,7 +22719,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ102" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR102" t="n">
         <v>1.39</v>
@@ -22934,7 +22934,7 @@
         <v>0.2</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.44</v>
@@ -23373,7 +23373,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR105" t="n">
         <v>1.66</v>
@@ -23591,7 +23591,7 @@
         <v>2</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR106" t="n">
         <v>2</v>
@@ -23806,10 +23806,10 @@
         <v>1</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR107" t="n">
         <v>1.66</v>
@@ -24024,7 +24024,7 @@
         <v>0.75</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ108" t="n">
         <v>1</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR109" t="n">
         <v>1.7</v>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.33</v>
@@ -24678,7 +24678,7 @@
         <v>2</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.56</v>
@@ -24899,7 +24899,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR112" t="n">
         <v>1.88</v>
@@ -25114,10 +25114,10 @@
         <v>1.8</v>
       </c>
       <c r="AP113" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR113" t="n">
         <v>1.37</v>
@@ -25332,7 +25332,7 @@
         <v>2</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.89</v>
@@ -25550,7 +25550,7 @@
         <v>1</v>
       </c>
       <c r="AP115" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.89</v>
@@ -25768,10 +25768,10 @@
         <v>0.67</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR116" t="n">
         <v>1.35</v>
@@ -25989,7 +25989,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR117" t="n">
         <v>1.59</v>
@@ -26425,7 +26425,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR119" t="n">
         <v>1.42</v>
@@ -26858,7 +26858,7 @@
         <v>1.8</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.56</v>
@@ -27076,7 +27076,7 @@
         <v>0.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.44</v>
@@ -27297,7 +27297,7 @@
         <v>1</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR123" t="n">
         <v>1.69</v>
@@ -27512,7 +27512,7 @@
         <v>1.83</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.89</v>
@@ -27730,10 +27730,10 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR125" t="n">
         <v>1.62</v>
@@ -27951,7 +27951,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR126" t="n">
         <v>1.32</v>
@@ -28169,7 +28169,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR127" t="n">
         <v>1.37</v>
@@ -28384,7 +28384,7 @@
         <v>0.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ128" t="n">
         <v>1</v>
@@ -28823,7 +28823,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ130" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR130" t="n">
         <v>1.59</v>
@@ -29256,10 +29256,10 @@
         <v>0.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR132" t="n">
         <v>1.39</v>
@@ -29695,7 +29695,7 @@
         <v>2</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR134" t="n">
         <v>2.09</v>
@@ -29910,7 +29910,7 @@
         <v>1.17</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.4</v>
@@ -30131,7 +30131,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR136" t="n">
         <v>1.35</v>
@@ -30346,7 +30346,7 @@
         <v>1.5</v>
       </c>
       <c r="AP137" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.56</v>
@@ -30564,10 +30564,10 @@
         <v>0.71</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR138" t="n">
         <v>1.27</v>
@@ -30782,10 +30782,10 @@
         <v>1.5</v>
       </c>
       <c r="AP139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ139" t="n">
         <v>1.6</v>
-      </c>
-      <c r="AQ139" t="n">
-        <v>1.44</v>
       </c>
       <c r="AR139" t="n">
         <v>1.3</v>
@@ -31218,7 +31218,7 @@
         <v>0.83</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.33</v>
@@ -31436,10 +31436,10 @@
         <v>0.71</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR142" t="n">
         <v>1.41</v>
@@ -31654,7 +31654,7 @@
         <v>1.14</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.89</v>
@@ -31875,7 +31875,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ144" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR144" t="n">
         <v>1.38</v>
@@ -32093,7 +32093,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR145" t="n">
         <v>1.33</v>
@@ -32308,7 +32308,7 @@
         <v>2</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.89</v>
@@ -32526,7 +32526,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.4</v>
@@ -32747,7 +32747,7 @@
         <v>2</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR148" t="n">
         <v>1.72</v>
@@ -32965,7 +32965,7 @@
         <v>1</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR149" t="n">
         <v>1.63</v>
@@ -33180,10 +33180,10 @@
         <v>1.14</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR150" t="n">
         <v>1.59</v>
@@ -33398,7 +33398,7 @@
         <v>1.14</v>
       </c>
       <c r="AP151" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.33</v>
@@ -33619,7 +33619,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR152" t="n">
         <v>1.77</v>
@@ -33834,10 +33834,10 @@
         <v>1.71</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR153" t="n">
         <v>1.49</v>
@@ -34709,7 +34709,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR157" t="n">
         <v>1.8</v>
@@ -34924,7 +34924,7 @@
         <v>1.43</v>
       </c>
       <c r="AP158" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.22</v>
@@ -35142,7 +35142,7 @@
         <v>1.43</v>
       </c>
       <c r="AP159" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.56</v>
@@ -35360,7 +35360,7 @@
         <v>1.86</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.56</v>
@@ -35581,7 +35581,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR161" t="n">
         <v>1.41</v>
@@ -35796,10 +35796,10 @@
         <v>0.75</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR162" t="n">
         <v>1.4</v>
@@ -36014,7 +36014,7 @@
         <v>2.13</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.89</v>
@@ -36232,10 +36232,10 @@
         <v>0.88</v>
       </c>
       <c r="AP164" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR164" t="n">
         <v>1.45</v>
@@ -36450,10 +36450,10 @@
         <v>1.63</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR165" t="n">
         <v>1.61</v>
@@ -36668,10 +36668,10 @@
         <v>1.5</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR166" t="n">
         <v>1.37</v>
@@ -37104,10 +37104,10 @@
         <v>0.38</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR168" t="n">
         <v>1.56</v>
@@ -37322,10 +37322,10 @@
         <v>1.88</v>
       </c>
       <c r="AP169" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ169" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR169" t="n">
         <v>1.33</v>
@@ -37543,7 +37543,7 @@
         <v>1</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR170" t="n">
         <v>1.66</v>
@@ -37758,10 +37758,10 @@
         <v>1</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR171" t="n">
         <v>1.35</v>
@@ -39723,7 +39723,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR180" t="n">
         <v>1.31</v>
@@ -39938,7 +39938,7 @@
         <v>1.38</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.33</v>
@@ -40017,6 +40017,2186 @@
       </c>
       <c r="BP181" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6652026</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45279.69791666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>2</v>
+      </c>
+      <c r="L182" t="n">
+        <v>2</v>
+      </c>
+      <c r="M182" t="n">
+        <v>2</v>
+      </c>
+      <c r="N182" t="n">
+        <v>4</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['19', '47']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['24', '67']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R182" t="n">
+        <v>2</v>
+      </c>
+      <c r="S182" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V182" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X182" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL182" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM182" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BN182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO182" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP182" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6652025</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45279.69791666666</v>
+      </c>
+      <c r="F183" t="n">
+        <v>19</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="n">
+        <v>2</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>3</v>
+      </c>
+      <c r="N183" t="n">
+        <v>4</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['32', '59', '69']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R183" t="n">
+        <v>2</v>
+      </c>
+      <c r="S183" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="T183" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V183" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X183" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL183" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM183" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN183" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO183" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP183" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6652027</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45279.69791666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2</v>
+      </c>
+      <c r="N184" t="n">
+        <v>2</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['4', '70']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R184" t="n">
+        <v>2</v>
+      </c>
+      <c r="S184" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T184" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V184" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X184" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL184" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM184" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN184" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO184" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP184" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6652024</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45279.69791666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>19</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>2</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2</v>
+      </c>
+      <c r="L185" t="n">
+        <v>3</v>
+      </c>
+      <c r="M185" t="n">
+        <v>2</v>
+      </c>
+      <c r="N185" t="n">
+        <v>5</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['5', '9', '63']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['71', '76']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="R185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S185" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="T185" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X185" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL185" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM185" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN185" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO185" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP185" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6652028</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45279.69791666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>19</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>3</v>
+      </c>
+      <c r="N186" t="n">
+        <v>3</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['37', '46', '85']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R186" t="n">
+        <v>2</v>
+      </c>
+      <c r="S186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X186" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL186" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM186" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN186" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO186" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BP186" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>6652022</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45279.69791666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R187" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S187" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T187" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V187" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X187" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL187" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM187" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BN187" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO187" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP187" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>6652021</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45279.69791666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" t="n">
+        <v>3</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['8', '66']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R188" t="n">
+        <v>2</v>
+      </c>
+      <c r="S188" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X188" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM188" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN188" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO188" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP188" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6652020</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45279.69791666666</v>
+      </c>
+      <c r="F189" t="n">
+        <v>19</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>2</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>3</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>3</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['8', '42']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R189" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S189" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X189" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BL189" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM189" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BN189" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO189" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BP189" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>6652019</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45279.69791666666</v>
+      </c>
+      <c r="F190" t="n">
+        <v>19</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R190" t="n">
+        <v>2</v>
+      </c>
+      <c r="S190" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V190" t="n">
+        <v>3</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X190" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL190" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM190" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN190" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO190" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP190" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>6652023</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45279.69791666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S191" t="n">
+        <v>4</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V191" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X191" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL191" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM191" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN191" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO191" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP191" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP191"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.6</v>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.1</v>
@@ -2009,7 +2009,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.2</v>
@@ -2881,7 +2881,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.56</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.7</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.44</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.9</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR26" t="n">
         <v>1.47</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.8</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.29</v>
@@ -7241,7 +7241,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>2.08</v>
@@ -7459,7 +7459,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR32" t="n">
         <v>1.83</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR33" t="n">
         <v>1.15</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.9</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.6</v>
@@ -8328,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR36" t="n">
         <v>1.97</v>
@@ -8549,7 +8549,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR37" t="n">
         <v>1.48</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR38" t="n">
         <v>0.44</v>
@@ -8985,7 +8985,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR39" t="n">
         <v>1.76</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.7</v>
@@ -9857,7 +9857,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.51</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.6</v>
@@ -10293,7 +10293,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR45" t="n">
         <v>1.48</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.8</v>
@@ -10947,7 +10947,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.7</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.56</v>
@@ -12034,10 +12034,10 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR53" t="n">
         <v>1.55</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR55" t="n">
         <v>1.96</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR56" t="n">
         <v>2.1</v>
@@ -12906,10 +12906,10 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.28</v>
@@ -13124,10 +13124,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR58" t="n">
         <v>1.08</v>
@@ -13560,10 +13560,10 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -13781,7 +13781,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR61" t="n">
         <v>1.87</v>
@@ -13996,7 +13996,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ62" t="n">
         <v>2.1</v>
@@ -14650,7 +14650,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.8</v>
@@ -14871,7 +14871,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR66" t="n">
         <v>1.23</v>
@@ -15307,7 +15307,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR68" t="n">
         <v>1.28</v>
@@ -15958,7 +15958,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.9</v>
@@ -16176,10 +16176,10 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR72" t="n">
         <v>1.6</v>
@@ -16397,7 +16397,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.75</v>
@@ -16612,10 +16612,10 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR74" t="n">
         <v>1.35</v>
@@ -16830,7 +16830,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.6</v>
@@ -17048,10 +17048,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -17266,10 +17266,10 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR77" t="n">
         <v>1.7</v>
@@ -17487,7 +17487,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR78" t="n">
         <v>1.41</v>
@@ -17702,10 +17702,10 @@
         <v>1.67</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR79" t="n">
         <v>1.72</v>
@@ -17920,7 +17920,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.56</v>
@@ -18577,7 +18577,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR83" t="n">
         <v>1.25</v>
@@ -18795,7 +18795,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR84" t="n">
         <v>1.55</v>
@@ -19010,7 +19010,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.9</v>
@@ -19228,10 +19228,10 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -19664,10 +19664,10 @@
         <v>1.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR88" t="n">
         <v>1.75</v>
@@ -20318,10 +20318,10 @@
         <v>1.33</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR91" t="n">
         <v>1.43</v>
@@ -20539,7 +20539,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR92" t="n">
         <v>1.89</v>
@@ -20757,7 +20757,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR93" t="n">
         <v>1.25</v>
@@ -20972,10 +20972,10 @@
         <v>1.25</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR94" t="n">
         <v>1.55</v>
@@ -21190,10 +21190,10 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR95" t="n">
         <v>1.49</v>
@@ -21408,7 +21408,7 @@
         <v>0.6</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.9</v>
@@ -21844,7 +21844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.1</v>
@@ -22065,7 +22065,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR99" t="n">
         <v>1.32</v>
@@ -22280,10 +22280,10 @@
         <v>1</v>
       </c>
       <c r="AP100" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR100" t="n">
         <v>1.55</v>
@@ -22498,7 +22498,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.2</v>
@@ -22716,7 +22716,7 @@
         <v>2.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ102" t="n">
         <v>2.1</v>
@@ -23152,10 +23152,10 @@
         <v>1.2</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR104" t="n">
         <v>1.47</v>
@@ -23588,7 +23588,7 @@
         <v>0.4</v>
       </c>
       <c r="AP106" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.6</v>
@@ -23809,7 +23809,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR107" t="n">
         <v>1.66</v>
@@ -24027,7 +24027,7 @@
         <v>1</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR108" t="n">
         <v>1.41</v>
@@ -24242,7 +24242,7 @@
         <v>1</v>
       </c>
       <c r="AP109" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.7</v>
@@ -24463,7 +24463,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR110" t="n">
         <v>1.3</v>
@@ -25335,7 +25335,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR114" t="n">
         <v>1.35</v>
@@ -25553,7 +25553,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR115" t="n">
         <v>1.37</v>
@@ -25768,7 +25768,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.9</v>
@@ -25986,7 +25986,7 @@
         <v>1.4</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.2</v>
@@ -26204,10 +26204,10 @@
         <v>1</v>
       </c>
       <c r="AP118" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR118" t="n">
         <v>1.63</v>
@@ -26422,10 +26422,10 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR119" t="n">
         <v>1.42</v>
@@ -26640,10 +26640,10 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR120" t="n">
         <v>1.64</v>
@@ -26858,10 +26858,10 @@
         <v>1.8</v>
       </c>
       <c r="AP121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ121" t="n">
         <v>1.4</v>
-      </c>
-      <c r="AQ121" t="n">
-        <v>1.56</v>
       </c>
       <c r="AR121" t="n">
         <v>1.32</v>
@@ -27076,7 +27076,7 @@
         <v>0.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.44</v>
@@ -27294,7 +27294,7 @@
         <v>1</v>
       </c>
       <c r="AP123" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.9</v>
@@ -27515,7 +27515,7 @@
         <v>1</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR124" t="n">
         <v>1.38</v>
@@ -27948,10 +27948,10 @@
         <v>0.83</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR126" t="n">
         <v>1.32</v>
@@ -28166,7 +28166,7 @@
         <v>1.33</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.2</v>
@@ -28387,7 +28387,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR128" t="n">
         <v>1.56</v>
@@ -28602,10 +28602,10 @@
         <v>0.83</v>
       </c>
       <c r="AP129" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR129" t="n">
         <v>1.72</v>
@@ -29041,7 +29041,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR131" t="n">
         <v>1.81</v>
@@ -29256,7 +29256,7 @@
         <v>0.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.6</v>
@@ -29474,10 +29474,10 @@
         <v>1.17</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR133" t="n">
         <v>1.57</v>
@@ -29692,10 +29692,10 @@
         <v>1.33</v>
       </c>
       <c r="AP134" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR134" t="n">
         <v>2.09</v>
@@ -29913,7 +29913,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR135" t="n">
         <v>1.51</v>
@@ -30128,7 +30128,7 @@
         <v>0.83</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.8</v>
@@ -30349,7 +30349,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR137" t="n">
         <v>1.44</v>
@@ -31000,7 +31000,7 @@
         <v>2.17</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.56</v>
@@ -31218,10 +31218,10 @@
         <v>0.83</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR141" t="n">
         <v>1.39</v>
@@ -31436,10 +31436,10 @@
         <v>0.71</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR142" t="n">
         <v>1.41</v>
@@ -31657,7 +31657,7 @@
         <v>1</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR143" t="n">
         <v>1.3</v>
@@ -31872,7 +31872,7 @@
         <v>2</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ144" t="n">
         <v>2.1</v>
@@ -32090,10 +32090,10 @@
         <v>1.29</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR145" t="n">
         <v>1.33</v>
@@ -32311,7 +32311,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR146" t="n">
         <v>1.56</v>
@@ -32529,7 +32529,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR147" t="n">
         <v>1.32</v>
@@ -32744,7 +32744,7 @@
         <v>0.86</v>
       </c>
       <c r="AP148" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.9</v>
@@ -32962,7 +32962,7 @@
         <v>0.86</v>
       </c>
       <c r="AP149" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.7</v>
@@ -33401,7 +33401,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR151" t="n">
         <v>1.26</v>
@@ -34052,10 +34052,10 @@
         <v>1.38</v>
       </c>
       <c r="AP154" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR154" t="n">
         <v>1.9</v>
@@ -34488,10 +34488,10 @@
         <v>1.14</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR156" t="n">
         <v>1.53</v>
@@ -34706,7 +34706,7 @@
         <v>0.86</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ157" t="n">
         <v>0.8</v>
@@ -34927,7 +34927,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR158" t="n">
         <v>1.45</v>
@@ -35145,7 +35145,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR159" t="n">
         <v>1.22</v>
@@ -35578,7 +35578,7 @@
         <v>0.43</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.6</v>
@@ -35796,7 +35796,7 @@
         <v>0.75</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.9</v>
@@ -36017,7 +36017,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR163" t="n">
         <v>1.25</v>
@@ -36668,10 +36668,10 @@
         <v>1.5</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR166" t="n">
         <v>1.37</v>
@@ -36886,10 +36886,10 @@
         <v>1.17</v>
       </c>
       <c r="AP167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ167" t="n">
         <v>1.22</v>
-      </c>
-      <c r="AQ167" t="n">
-        <v>1</v>
       </c>
       <c r="AR167" t="n">
         <v>1.3</v>
@@ -37540,10 +37540,10 @@
         <v>1</v>
       </c>
       <c r="AP170" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR170" t="n">
         <v>1.66</v>
@@ -38194,10 +38194,10 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR173" t="n">
         <v>1.77</v>
@@ -38412,10 +38412,10 @@
         <v>1.38</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR174" t="n">
         <v>1.29</v>
@@ -38630,10 +38630,10 @@
         <v>1.13</v>
       </c>
       <c r="AP175" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR175" t="n">
         <v>1.69</v>
@@ -38851,7 +38851,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR176" t="n">
         <v>1.45</v>
@@ -39066,10 +39066,10 @@
         <v>1</v>
       </c>
       <c r="AP177" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR177" t="n">
         <v>1.85</v>
@@ -39284,7 +39284,7 @@
         <v>1.25</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.44</v>
@@ -39502,10 +39502,10 @@
         <v>1.38</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR179" t="n">
         <v>1.37</v>
@@ -39720,7 +39720,7 @@
         <v>0.75</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.8</v>
@@ -39941,7 +39941,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR181" t="n">
         <v>1.49</v>
@@ -40156,7 +40156,7 @@
         <v>0.78</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.8</v>
@@ -40595,7 +40595,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR184" t="n">
         <v>1.51</v>
@@ -40810,7 +40810,7 @@
         <v>0.67</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.6</v>
@@ -42121,7 +42121,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR191" t="n">
         <v>1.52</v>
@@ -42197,6 +42197,2186 @@
       </c>
       <c r="BP191" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>6652030</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45304.45833333334</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S192" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X192" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL192" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM192" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP192" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>6652037</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45304.625</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S193" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X193" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL193" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM193" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO193" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP193" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>6652036</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45304.625</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2</v>
+      </c>
+      <c r="N194" t="n">
+        <v>4</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['28', '64']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['77', '81']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S194" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X194" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL194" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM194" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN194" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO194" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP194" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6652035</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45304.625</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="n">
+        <v>2</v>
+      </c>
+      <c r="L195" t="n">
+        <v>3</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>4</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['33', '48', '71']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R195" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X195" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL195" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM195" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN195" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO195" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP195" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6652034</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45304.625</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>2</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>3</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['51', '76']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S196" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X196" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL196" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM196" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN196" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO196" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP196" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6652038</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45304.625</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>3</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['53', '90+5']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S197" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U197" t="n">
+        <v>3</v>
+      </c>
+      <c r="V197" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X197" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL197" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM197" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP197" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>6652032</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45304.625</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S198" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X198" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL198" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM198" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN198" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO198" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP198" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>6652029</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45304.625</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>2</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['29', '60']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>4</v>
+      </c>
+      <c r="R199" t="n">
+        <v>2</v>
+      </c>
+      <c r="S199" t="n">
+        <v>3</v>
+      </c>
+      <c r="T199" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X199" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM199" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN199" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP199" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>6652033</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45304.625</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>4</v>
+      </c>
+      <c r="R200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T200" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X200" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM200" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN200" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO200" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP200" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>6652031</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45306.69791666666</v>
+      </c>
+      <c r="F201" t="n">
+        <v>20</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2</v>
+      </c>
+      <c r="L201" t="n">
+        <v>3</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>4</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['25', '47', '88']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R201" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S201" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U201" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V201" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X201" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL201" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM201" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN201" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO201" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP201" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -42422,7 +42422,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>6652037</v>
+        <v>6652038</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -42442,12 +42442,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="I193" t="n">
@@ -42460,179 +42460,179 @@
         <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
       <c r="N193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['53', '90+5']</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>['89']</t>
+          <t>['88']</t>
         </is>
       </c>
       <c r="Q193" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S193" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U193" t="n">
+        <v>3</v>
+      </c>
+      <c r="V193" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X193" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL193" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM193" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO193" t="n">
         <v>3.4</v>
       </c>
-      <c r="R193" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S193" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T193" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U193" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V193" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W193" t="n">
+      <c r="BP193" t="n">
         <v>1.29</v>
-      </c>
-      <c r="X193" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y193" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z193" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AA193" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AB193" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AC193" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD193" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE193" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF193" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AG193" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AH193" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI193" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ193" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AK193" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AL193" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM193" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AN193" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO193" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP193" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AQ193" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AR193" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AS193" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AT193" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU193" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV193" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW193" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX193" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY193" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ193" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA193" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB193" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC193" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD193" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="BE193" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BF193" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BG193" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BH193" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BI193" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BJ193" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="BK193" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BL193" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="BM193" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BN193" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BO193" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BP193" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="194">
@@ -42640,7 +42640,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>6652036</v>
+        <v>6652037</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -42660,95 +42660,95 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Grenoble Foot 38</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N194" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>['28', '64']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>['77', '81']</t>
+          <t>['89']</t>
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="R194" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="S194" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="T194" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="U194" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X194" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB194" t="n">
         <v>2.75</v>
       </c>
-      <c r="V194" t="n">
-        <v>3</v>
-      </c>
-      <c r="W194" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X194" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y194" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z194" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AA194" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AB194" t="n">
-        <v>4.9</v>
-      </c>
       <c r="AC194" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AD194" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE194" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AF194" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AG194" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="AH194" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AI194" t="n">
         <v>2</v>
@@ -42757,100 +42757,100 @@
         <v>1.73</v>
       </c>
       <c r="AK194" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AL194" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AM194" t="n">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="AN194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO194" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AR194" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="AT194" t="n">
-        <v>2.91</v>
+        <v>3.3</v>
       </c>
       <c r="AU194" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV194" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW194" t="n">
         <v>4</v>
       </c>
       <c r="AX194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY194" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ194" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ194" t="n">
-        <v>10</v>
       </c>
       <c r="BA194" t="n">
         <v>6</v>
       </c>
       <c r="BB194" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC194" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD194" t="n">
-        <v>1.47</v>
+        <v>1.89</v>
       </c>
       <c r="BE194" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF194" t="n">
-        <v>3.34</v>
+        <v>2.28</v>
       </c>
       <c r="BG194" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="BH194" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="BI194" t="n">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="BJ194" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="BK194" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="BL194" t="n">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="BM194" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="BN194" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="BO194" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="BP194" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="195">
@@ -42858,7 +42858,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>6652035</v>
+        <v>6652036</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -42878,197 +42878,197 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Grenoble Foot 38</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Ajaccio</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="I195" t="n">
         <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N195" t="n">
         <v>4</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>['33', '48', '71']</t>
+          <t>['28', '64']</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>['41']</t>
+          <t>['77', '81']</t>
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="R195" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S195" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="T195" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="U195" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V195" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="W195" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="X195" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y195" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="Z195" t="n">
-        <v>2.9</v>
+        <v>1.69</v>
       </c>
       <c r="AA195" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AB195" t="n">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="AC195" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AD195" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE195" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AF195" t="n">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="AG195" t="n">
-        <v>2.39</v>
+        <v>2.05</v>
       </c>
       <c r="AH195" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="AI195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM195" t="n">
         <v>2.1</v>
       </c>
-      <c r="AJ195" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK195" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AL195" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM195" t="n">
-        <v>1.39</v>
-      </c>
       <c r="AN195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO195" t="n">
         <v>1.22</v>
       </c>
-      <c r="AO195" t="n">
-        <v>0.89</v>
-      </c>
       <c r="AP195" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR195" t="n">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.92</v>
+        <v>1.22</v>
       </c>
       <c r="AT195" t="n">
-        <v>2.17</v>
+        <v>2.91</v>
       </c>
       <c r="AU195" t="n">
         <v>5</v>
       </c>
       <c r="AV195" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW195" t="n">
         <v>4</v>
       </c>
-      <c r="AW195" t="n">
-        <v>5</v>
-      </c>
       <c r="AX195" t="n">
         <v>2</v>
       </c>
       <c r="AY195" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ195" t="n">
         <v>10</v>
       </c>
-      <c r="AZ195" t="n">
+      <c r="BA195" t="n">
         <v>6</v>
       </c>
-      <c r="BA195" t="n">
-        <v>3</v>
-      </c>
       <c r="BB195" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC195" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD195" t="n">
-        <v>2.2</v>
+        <v>1.47</v>
       </c>
       <c r="BE195" t="n">
-        <v>8.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="BF195" t="n">
-        <v>1.93</v>
+        <v>3.34</v>
       </c>
       <c r="BG195" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="BH195" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="BI195" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="BJ195" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="BK195" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="BL195" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="BM195" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BN195" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="BO195" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="BP195" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="196">
@@ -43076,7 +43076,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>6652034</v>
+        <v>6652035</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -43096,134 +43096,134 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Ajaccio</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
       <c r="N196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>['51', '76']</t>
+          <t>['33', '48', '71']</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>['80']</t>
+          <t>['41']</t>
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="R196" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S196" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="T196" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="U196" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="V196" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="W196" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X196" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y196" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z196" t="n">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="AA196" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AB196" t="n">
-        <v>3.85</v>
+        <v>2.5</v>
       </c>
       <c r="AC196" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AD196" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE196" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AF196" t="n">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="AG196" t="n">
-        <v>2.2</v>
+        <v>2.39</v>
       </c>
       <c r="AH196" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="AI196" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ196" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK196" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR196" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL196" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM196" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN196" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO196" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP196" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AQ196" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AR196" t="n">
-        <v>1.37</v>
-      </c>
       <c r="AS196" t="n">
-        <v>1.16</v>
+        <v>0.92</v>
       </c>
       <c r="AT196" t="n">
-        <v>2.53</v>
+        <v>2.17</v>
       </c>
       <c r="AU196" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV196" t="n">
         <v>4</v>
@@ -43235,58 +43235,58 @@
         <v>2</v>
       </c>
       <c r="AY196" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ196" t="n">
         <v>6</v>
       </c>
       <c r="BA196" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB196" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC196" t="n">
         <v>4</v>
       </c>
-      <c r="BC196" t="n">
-        <v>10</v>
-      </c>
       <c r="BD196" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="BE196" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF196" t="n">
-        <v>2.13</v>
+        <v>1.93</v>
       </c>
       <c r="BG196" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BH196" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BI196" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="BJ196" t="n">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="BK196" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="BL196" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="BM196" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="BN196" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="BO196" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="BP196" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="197">
@@ -43294,7 +43294,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>6652038</v>
+        <v>6652033</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -43314,134 +43314,134 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Amiens SC</t>
         </is>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
       <c r="N197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>['53', '90+5']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>['88']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="Q197" t="n">
+        <v>4</v>
+      </c>
+      <c r="R197" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X197" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG197" t="n">
         <v>2.4</v>
       </c>
-      <c r="R197" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S197" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T197" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U197" t="n">
-        <v>3</v>
-      </c>
-      <c r="V197" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W197" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X197" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y197" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z197" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AA197" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AB197" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AC197" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD197" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE197" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF197" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AG197" t="n">
-        <v>1.88</v>
-      </c>
       <c r="AH197" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="AI197" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AJ197" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AK197" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ197" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL197" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AM197" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN197" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO197" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP197" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AQ197" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AR197" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AT197" t="n">
-        <v>3.05</v>
+        <v>2.83</v>
       </c>
       <c r="AU197" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV197" t="n">
         <v>5</v>
@@ -43450,61 +43450,61 @@
         <v>5</v>
       </c>
       <c r="AX197" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY197" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ197" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA197" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB197" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC197" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD197" t="n">
-        <v>1.47</v>
+        <v>2.17</v>
       </c>
       <c r="BE197" t="n">
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
       <c r="BF197" t="n">
-        <v>3.32</v>
+        <v>1.94</v>
       </c>
       <c r="BG197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM197" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN197" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO197" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP197" t="n">
         <v>1.27</v>
-      </c>
-      <c r="BH197" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BI197" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ197" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="BK197" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BL197" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BM197" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="BN197" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BO197" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="BP197" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="198">
@@ -43948,7 +43948,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>6652033</v>
+        <v>6652034</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -43968,197 +43968,197 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Amiens SC</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
       <c r="N200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['51', '76']</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['80']</t>
         </is>
       </c>
       <c r="Q200" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S200" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X200" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV200" t="n">
         <v>4</v>
-      </c>
-      <c r="R200" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S200" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T200" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U200" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V200" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W200" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X200" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y200" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z200" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AA200" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB200" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AC200" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD200" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE200" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AF200" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AG200" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AH200" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI200" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ200" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK200" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL200" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM200" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AN200" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AO200" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP200" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AQ200" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AR200" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AS200" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AT200" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AU200" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV200" t="n">
-        <v>5</v>
       </c>
       <c r="AW200" t="n">
         <v>5</v>
       </c>
       <c r="AX200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB200" t="n">
         <v>4</v>
       </c>
-      <c r="AY200" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ200" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA200" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB200" t="n">
-        <v>5</v>
-      </c>
       <c r="BC200" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD200" t="n">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="BE200" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="BF200" t="n">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="BG200" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BH200" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BI200" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="BJ200" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BK200" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BL200" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="BM200" t="n">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="BN200" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="BO200" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="BP200" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="201">
@@ -44313,31 +44313,31 @@
         <v>3.29</v>
       </c>
       <c r="AU201" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV201" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW201" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY201" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ201" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA201" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB201" t="n">
         <v>5</v>
       </c>
       <c r="BC201" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD201" t="n">
         <v>1.48</v>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.4</v>
@@ -2227,7 +2227,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.6</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.2</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.27</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>1.13</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR23" t="n">
         <v>1.66</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR24" t="n">
         <v>1.31</v>
@@ -5930,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR25" t="n">
         <v>1.36</v>
@@ -6369,7 +6369,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR27" t="n">
         <v>2.17</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.6</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR30" t="n">
         <v>1.25</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.22</v>
@@ -7892,10 +7892,10 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR34" t="n">
         <v>1.86</v>
@@ -8331,7 +8331,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR36" t="n">
         <v>1.97</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.2</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.4</v>
@@ -9203,7 +9203,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR40" t="n">
         <v>2.1</v>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR41" t="n">
         <v>1.26</v>
@@ -9636,10 +9636,10 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR42" t="n">
         <v>1.7</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.6</v>
@@ -10290,10 +10290,10 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR45" t="n">
         <v>1.48</v>
@@ -10511,7 +10511,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR46" t="n">
         <v>1.39</v>
@@ -10726,10 +10726,10 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR47" t="n">
         <v>1.34</v>
@@ -10944,7 +10944,7 @@
         <v>2</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.64</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR49" t="n">
         <v>1.33</v>
@@ -11380,10 +11380,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR50" t="n">
         <v>1.2</v>
@@ -11601,7 +11601,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR51" t="n">
         <v>1.6</v>
@@ -11819,7 +11819,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR52" t="n">
         <v>1.67</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR54" t="n">
         <v>1.37</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.8</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.6</v>
@@ -13778,10 +13778,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR61" t="n">
         <v>1.87</v>
@@ -13999,7 +13999,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR62" t="n">
         <v>1.45</v>
@@ -14214,10 +14214,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14432,10 +14432,10 @@
         <v>0.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR64" t="n">
         <v>1.61</v>
@@ -14650,10 +14650,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR65" t="n">
         <v>1.9</v>
@@ -14868,7 +14868,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.64</v>
@@ -15086,7 +15086,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.6</v>
@@ -15304,10 +15304,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR68" t="n">
         <v>1.28</v>
@@ -15525,7 +15525,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR69" t="n">
         <v>1.37</v>
@@ -15740,10 +15740,10 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR70" t="n">
         <v>1.4</v>
@@ -15961,7 +15961,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR71" t="n">
         <v>1.97</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.2</v>
@@ -17484,10 +17484,10 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR78" t="n">
         <v>1.41</v>
@@ -17705,7 +17705,7 @@
         <v>2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR79" t="n">
         <v>1.72</v>
@@ -17923,7 +17923,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR80" t="n">
         <v>1.41</v>
@@ -18138,10 +18138,10 @@
         <v>0.25</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR81" t="n">
         <v>1.64</v>
@@ -18359,7 +18359,7 @@
         <v>1</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -18574,7 +18574,7 @@
         <v>1</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.22</v>
@@ -18792,7 +18792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.27</v>
@@ -19013,7 +19013,7 @@
         <v>2</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR85" t="n">
         <v>1.63</v>
@@ -19446,10 +19446,10 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR87" t="n">
         <v>1.35</v>
@@ -19664,7 +19664,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ88" t="n">
         <v>1</v>
@@ -20100,10 +20100,10 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR90" t="n">
         <v>1.84</v>
@@ -20536,7 +20536,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.8</v>
@@ -20754,7 +20754,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.4</v>
@@ -20972,10 +20972,10 @@
         <v>1.25</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR94" t="n">
         <v>1.55</v>
@@ -21193,7 +21193,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR95" t="n">
         <v>1.49</v>
@@ -21411,7 +21411,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR96" t="n">
         <v>1.43</v>
@@ -21626,7 +21626,7 @@
         <v>2</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.6</v>
@@ -21847,7 +21847,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR98" t="n">
         <v>1.29</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.2</v>
@@ -22501,7 +22501,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR101" t="n">
         <v>1.93</v>
@@ -22719,7 +22719,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ102" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR102" t="n">
         <v>1.39</v>
@@ -22934,10 +22934,10 @@
         <v>0.2</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -23370,10 +23370,10 @@
         <v>0.8</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR105" t="n">
         <v>1.66</v>
@@ -23806,7 +23806,7 @@
         <v>1</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ107" t="n">
         <v>1</v>
@@ -24242,10 +24242,10 @@
         <v>1</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR109" t="n">
         <v>1.7</v>
@@ -24678,10 +24678,10 @@
         <v>2</v>
       </c>
       <c r="AP111" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ111" t="n">
         <v>1.7</v>
-      </c>
-      <c r="AQ111" t="n">
-        <v>1.56</v>
       </c>
       <c r="AR111" t="n">
         <v>1.53</v>
@@ -24896,10 +24896,10 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR112" t="n">
         <v>1.88</v>
@@ -25114,7 +25114,7 @@
         <v>1.8</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.6</v>
@@ -25332,7 +25332,7 @@
         <v>2</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.8</v>
@@ -25550,10 +25550,10 @@
         <v>1</v>
       </c>
       <c r="AP115" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR115" t="n">
         <v>1.37</v>
@@ -25771,7 +25771,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR116" t="n">
         <v>1.35</v>
@@ -25989,7 +25989,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR117" t="n">
         <v>1.59</v>
@@ -26207,7 +26207,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR118" t="n">
         <v>1.63</v>
@@ -26422,7 +26422,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.64</v>
@@ -27079,7 +27079,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR122" t="n">
         <v>1.43</v>
@@ -27297,7 +27297,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR123" t="n">
         <v>1.69</v>
@@ -27730,10 +27730,10 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR125" t="n">
         <v>1.62</v>
@@ -27948,7 +27948,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ126" t="n">
         <v>1</v>
@@ -28169,7 +28169,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR127" t="n">
         <v>1.37</v>
@@ -28384,7 +28384,7 @@
         <v>0.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.22</v>
@@ -28602,10 +28602,10 @@
         <v>0.83</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR129" t="n">
         <v>1.72</v>
@@ -28820,10 +28820,10 @@
         <v>2.33</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ130" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR130" t="n">
         <v>1.59</v>
@@ -29038,10 +29038,10 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR131" t="n">
         <v>1.81</v>
@@ -29910,7 +29910,7 @@
         <v>1.17</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.27</v>
@@ -30131,7 +30131,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR136" t="n">
         <v>1.35</v>
@@ -30346,7 +30346,7 @@
         <v>1.5</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.4</v>
@@ -30567,7 +30567,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR138" t="n">
         <v>1.27</v>
@@ -30782,7 +30782,7 @@
         <v>1.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.6</v>
@@ -31003,7 +31003,7 @@
         <v>2</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR140" t="n">
         <v>1.81</v>
@@ -31657,7 +31657,7 @@
         <v>1</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR143" t="n">
         <v>1.3</v>
@@ -31872,10 +31872,10 @@
         <v>2</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ144" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR144" t="n">
         <v>1.38</v>
@@ -32308,7 +32308,7 @@
         <v>2</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.8</v>
@@ -32526,7 +32526,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.27</v>
@@ -32744,10 +32744,10 @@
         <v>0.86</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR148" t="n">
         <v>1.72</v>
@@ -32965,7 +32965,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR149" t="n">
         <v>1.63</v>
@@ -33180,10 +33180,10 @@
         <v>1.14</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR150" t="n">
         <v>1.59</v>
@@ -33398,7 +33398,7 @@
         <v>1.14</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.2</v>
@@ -33616,10 +33616,10 @@
         <v>0.63</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR152" t="n">
         <v>1.77</v>
@@ -33834,7 +33834,7 @@
         <v>1.71</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.6</v>
@@ -34270,10 +34270,10 @@
         <v>1</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR155" t="n">
         <v>1.47</v>
@@ -34491,7 +34491,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR156" t="n">
         <v>1.53</v>
@@ -34709,7 +34709,7 @@
         <v>2</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR157" t="n">
         <v>1.8</v>
@@ -34924,7 +34924,7 @@
         <v>1.43</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.2</v>
@@ -35360,10 +35360,10 @@
         <v>1.86</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR160" t="n">
         <v>1.4</v>
@@ -35799,7 +35799,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR162" t="n">
         <v>1.4</v>
@@ -36232,10 +36232,10 @@
         <v>0.88</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR164" t="n">
         <v>1.45</v>
@@ -36450,7 +36450,7 @@
         <v>1.63</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.6</v>
@@ -37104,7 +37104,7 @@
         <v>0.38</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AQ168" t="n">
         <v>0.6</v>
@@ -37322,10 +37322,10 @@
         <v>1.88</v>
       </c>
       <c r="AP169" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ169" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR169" t="n">
         <v>1.33</v>
@@ -37761,7 +37761,7 @@
         <v>1</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR171" t="n">
         <v>1.35</v>
@@ -37976,10 +37976,10 @@
         <v>1.63</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR172" t="n">
         <v>1.8</v>
@@ -38197,7 +38197,7 @@
         <v>2</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR173" t="n">
         <v>1.77</v>
@@ -38630,10 +38630,10 @@
         <v>1.13</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR175" t="n">
         <v>1.69</v>
@@ -38848,7 +38848,7 @@
         <v>1.22</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.27</v>
@@ -39287,7 +39287,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR178" t="n">
         <v>1.54</v>
@@ -39720,10 +39720,10 @@
         <v>0.75</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR180" t="n">
         <v>1.31</v>
@@ -39938,7 +39938,7 @@
         <v>1.38</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.2</v>
@@ -40159,7 +40159,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR182" t="n">
         <v>1.36</v>
@@ -40374,10 +40374,10 @@
         <v>2</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ183" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR183" t="n">
         <v>1.5</v>
@@ -40592,7 +40592,7 @@
         <v>0.89</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AQ184" t="n">
         <v>1</v>
@@ -41028,7 +41028,7 @@
         <v>1.44</v>
       </c>
       <c r="AP186" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.6</v>
@@ -41246,10 +41246,10 @@
         <v>0.89</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR187" t="n">
         <v>1.5</v>
@@ -41467,7 +41467,7 @@
         <v>1</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR188" t="n">
         <v>1.37</v>
@@ -41685,7 +41685,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR189" t="n">
         <v>1.22</v>
@@ -41900,10 +41900,10 @@
         <v>1.22</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR190" t="n">
         <v>1.35</v>
@@ -42118,7 +42118,7 @@
         <v>1.67</v>
       </c>
       <c r="AP191" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.64</v>
@@ -42990,7 +42990,7 @@
         <v>1.22</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.2</v>
@@ -43211,7 +43211,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR196" t="n">
         <v>1.25</v>
@@ -43862,7 +43862,7 @@
         <v>1.56</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.4</v>
@@ -44083,7 +44083,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ200" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR200" t="n">
         <v>1.37</v>
@@ -44377,6 +44377,2186 @@
       </c>
       <c r="BP201" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>6652045</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45314.69791666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>3</v>
+      </c>
+      <c r="J202" t="n">
+        <v>3</v>
+      </c>
+      <c r="K202" t="n">
+        <v>6</v>
+      </c>
+      <c r="L202" t="n">
+        <v>3</v>
+      </c>
+      <c r="M202" t="n">
+        <v>3</v>
+      </c>
+      <c r="N202" t="n">
+        <v>6</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['1', '26', '31']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['3', '8', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S202" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X202" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL202" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN202" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO202" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BP202" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>6652048</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45314.69791666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>21</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>2</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S203" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X203" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN203" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO203" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP203" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>6652047</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45314.69791666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V204" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X204" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL204" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN204" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO204" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP204" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>6652044</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45314.69791666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>21</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>2</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S205" t="n">
+        <v>4</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V205" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X205" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>6652046</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45314.69791666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>21</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="n">
+        <v>2</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>2</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['45', '52']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R206" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S206" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V206" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X206" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>6652042</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45314.69791666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>21</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>3</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="n">
+        <v>4</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['57', '65', '86']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S207" t="n">
+        <v>6</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V207" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X207" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>6652041</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45314.69791666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>21</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>3</v>
+      </c>
+      <c r="L208" t="n">
+        <v>3</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2</v>
+      </c>
+      <c r="N208" t="n">
+        <v>5</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['25', '41', '90+3']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['19', '67']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2</v>
+      </c>
+      <c r="S208" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X208" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BL208" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>6652040</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45314.69791666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>21</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S209" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X209" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL209" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>6652039</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45314.69791666666</v>
+      </c>
+      <c r="F210" t="n">
+        <v>21</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2</v>
+      </c>
+      <c r="S210" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V210" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X210" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>6652043</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45314.69791666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>21</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="n">
+        <v>2</v>
+      </c>
+      <c r="N211" t="n">
+        <v>3</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['60', '83']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2</v>
+      </c>
+      <c r="S211" t="n">
+        <v>4</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X211" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL211" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.91</v>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.36</v>
@@ -2445,7 +2445,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.7</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.73</v>
@@ -5061,7 +5061,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR23" t="n">
         <v>1.66</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR26" t="n">
         <v>1.47</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.73</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR28" t="n">
         <v>1.29</v>
@@ -6805,7 +6805,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR29" t="n">
         <v>0.93</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -7459,7 +7459,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR32" t="n">
         <v>1.83</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR33" t="n">
         <v>1.15</v>
@@ -7895,7 +7895,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR34" t="n">
         <v>1.86</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR35" t="n">
         <v>1.4</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.73</v>
@@ -8549,7 +8549,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR37" t="n">
         <v>1.48</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR38" t="n">
         <v>0.44</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.64</v>
@@ -9854,10 +9854,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR43" t="n">
         <v>1.51</v>
@@ -10075,7 +10075,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR44" t="n">
         <v>1.83</v>
@@ -10947,7 +10947,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.64</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.7</v>
@@ -12034,10 +12034,10 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR53" t="n">
         <v>1.55</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR54" t="n">
         <v>1.37</v>
@@ -12473,7 +12473,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR55" t="n">
         <v>1.96</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.4</v>
@@ -12906,7 +12906,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13124,10 +13124,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR58" t="n">
         <v>1.08</v>
@@ -13345,7 +13345,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR59" t="n">
         <v>1.91</v>
@@ -13560,10 +13560,10 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -14871,7 +14871,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR66" t="n">
         <v>1.23</v>
@@ -15089,7 +15089,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR67" t="n">
         <v>1.42</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.4</v>
@@ -15958,10 +15958,10 @@
         <v>0.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR71" t="n">
         <v>1.97</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.4</v>
@@ -16612,10 +16612,10 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR74" t="n">
         <v>1.35</v>
@@ -16830,10 +16830,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR75" t="n">
         <v>1.62</v>
@@ -17048,10 +17048,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -17269,7 +17269,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR77" t="n">
         <v>1.7</v>
@@ -17702,7 +17702,7 @@
         <v>1.67</v>
       </c>
       <c r="AP79" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.82</v>
@@ -18577,7 +18577,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR83" t="n">
         <v>1.25</v>
@@ -18795,7 +18795,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR84" t="n">
         <v>1.55</v>
@@ -19010,7 +19010,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.91</v>
@@ -19228,10 +19228,10 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -19882,10 +19882,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR89" t="n">
         <v>1.34</v>
@@ -20318,10 +20318,10 @@
         <v>1.33</v>
       </c>
       <c r="AP91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ91" t="n">
         <v>1.36</v>
-      </c>
-      <c r="AQ91" t="n">
-        <v>1.2</v>
       </c>
       <c r="AR91" t="n">
         <v>1.43</v>
@@ -20539,7 +20539,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR92" t="n">
         <v>1.89</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.73</v>
@@ -21408,10 +21408,10 @@
         <v>0.6</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR96" t="n">
         <v>1.43</v>
@@ -21629,7 +21629,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR97" t="n">
         <v>1.62</v>
@@ -21844,7 +21844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ98" t="n">
         <v>2</v>
@@ -22065,7 +22065,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR99" t="n">
         <v>1.32</v>
@@ -22280,10 +22280,10 @@
         <v>1</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR100" t="n">
         <v>1.55</v>
@@ -22498,7 +22498,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.36</v>
@@ -22716,7 +22716,7 @@
         <v>2.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ102" t="n">
         <v>2</v>
@@ -23155,7 +23155,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR104" t="n">
         <v>1.47</v>
@@ -23588,10 +23588,10 @@
         <v>0.4</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR106" t="n">
         <v>2</v>
@@ -24027,7 +24027,7 @@
         <v>1</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR108" t="n">
         <v>1.41</v>
@@ -24460,10 +24460,10 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR110" t="n">
         <v>1.3</v>
@@ -25117,7 +25117,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR113" t="n">
         <v>1.37</v>
@@ -25335,7 +25335,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR114" t="n">
         <v>1.35</v>
@@ -25768,10 +25768,10 @@
         <v>0.67</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR116" t="n">
         <v>1.35</v>
@@ -25986,7 +25986,7 @@
         <v>1.4</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.36</v>
@@ -26204,7 +26204,7 @@
         <v>1</v>
       </c>
       <c r="AP118" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.82</v>
@@ -26425,7 +26425,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR119" t="n">
         <v>1.42</v>
@@ -26640,10 +26640,10 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR120" t="n">
         <v>1.64</v>
@@ -26858,7 +26858,7 @@
         <v>1.8</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.4</v>
@@ -27076,7 +27076,7 @@
         <v>0.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.4</v>
@@ -27294,7 +27294,7 @@
         <v>1</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.91</v>
@@ -27515,7 +27515,7 @@
         <v>1</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR124" t="n">
         <v>1.38</v>
@@ -28387,7 +28387,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR128" t="n">
         <v>1.56</v>
@@ -29256,10 +29256,10 @@
         <v>0.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR132" t="n">
         <v>1.39</v>
@@ -29474,10 +29474,10 @@
         <v>1.17</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR133" t="n">
         <v>1.57</v>
@@ -29692,10 +29692,10 @@
         <v>1.33</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR134" t="n">
         <v>2.09</v>
@@ -29913,7 +29913,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR135" t="n">
         <v>1.51</v>
@@ -30128,7 +30128,7 @@
         <v>0.83</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.73</v>
@@ -30564,10 +30564,10 @@
         <v>0.71</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR138" t="n">
         <v>1.27</v>
@@ -30785,7 +30785,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR139" t="n">
         <v>1.3</v>
@@ -31000,7 +31000,7 @@
         <v>2.17</v>
       </c>
       <c r="AP140" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.7</v>
@@ -31218,10 +31218,10 @@
         <v>0.83</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR141" t="n">
         <v>1.39</v>
@@ -31436,7 +31436,7 @@
         <v>0.71</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ142" t="n">
         <v>1</v>
@@ -32093,7 +32093,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR145" t="n">
         <v>1.33</v>
@@ -32311,7 +32311,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR146" t="n">
         <v>1.56</v>
@@ -32529,7 +32529,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR147" t="n">
         <v>1.32</v>
@@ -32962,7 +32962,7 @@
         <v>0.86</v>
       </c>
       <c r="AP149" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.64</v>
@@ -33401,7 +33401,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR151" t="n">
         <v>1.26</v>
@@ -33619,7 +33619,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR152" t="n">
         <v>1.77</v>
@@ -33837,7 +33837,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR153" t="n">
         <v>1.49</v>
@@ -34052,10 +34052,10 @@
         <v>1.38</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR154" t="n">
         <v>1.9</v>
@@ -34488,7 +34488,7 @@
         <v>1.14</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.82</v>
@@ -34706,7 +34706,7 @@
         <v>0.86</v>
       </c>
       <c r="AP157" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ157" t="n">
         <v>0.73</v>
@@ -34927,7 +34927,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR158" t="n">
         <v>1.45</v>
@@ -35142,7 +35142,7 @@
         <v>1.43</v>
       </c>
       <c r="AP159" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.4</v>
@@ -35578,10 +35578,10 @@
         <v>0.43</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR161" t="n">
         <v>1.41</v>
@@ -35796,7 +35796,7 @@
         <v>0.75</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.91</v>
@@ -36014,10 +36014,10 @@
         <v>2.13</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR163" t="n">
         <v>1.25</v>
@@ -36453,7 +36453,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR165" t="n">
         <v>1.61</v>
@@ -36668,10 +36668,10 @@
         <v>1.5</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR166" t="n">
         <v>1.37</v>
@@ -36889,7 +36889,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR167" t="n">
         <v>1.3</v>
@@ -37107,7 +37107,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR168" t="n">
         <v>1.56</v>
@@ -37540,7 +37540,7 @@
         <v>1</v>
       </c>
       <c r="AP170" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ170" t="n">
         <v>1</v>
@@ -38194,7 +38194,7 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ173" t="n">
         <v>0.73</v>
@@ -38851,7 +38851,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR176" t="n">
         <v>1.45</v>
@@ -39066,10 +39066,10 @@
         <v>1</v>
       </c>
       <c r="AP177" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR177" t="n">
         <v>1.85</v>
@@ -39284,7 +39284,7 @@
         <v>1.25</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.4</v>
@@ -39502,10 +39502,10 @@
         <v>1.38</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR179" t="n">
         <v>1.37</v>
@@ -39941,7 +39941,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR181" t="n">
         <v>1.49</v>
@@ -40156,7 +40156,7 @@
         <v>0.78</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.73</v>
@@ -40810,10 +40810,10 @@
         <v>0.67</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR185" t="n">
         <v>1.34</v>
@@ -41031,7 +41031,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR186" t="n">
         <v>1.35</v>
@@ -41249,7 +41249,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR187" t="n">
         <v>1.5</v>
@@ -41682,7 +41682,7 @@
         <v>0.78</v>
       </c>
       <c r="AP189" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.64</v>
@@ -42121,7 +42121,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR191" t="n">
         <v>1.52</v>
@@ -42336,10 +42336,10 @@
         <v>1.89</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR192" t="n">
         <v>1.33</v>
@@ -42554,10 +42554,10 @@
         <v>1.33</v>
       </c>
       <c r="AP193" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR193" t="n">
         <v>1.85</v>
@@ -42772,10 +42772,10 @@
         <v>1.5</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR194" t="n">
         <v>1.73</v>
@@ -42993,7 +42993,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR195" t="n">
         <v>1.69</v>
@@ -43426,10 +43426,10 @@
         <v>1</v>
       </c>
       <c r="AP197" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR197" t="n">
         <v>1.48</v>
@@ -43644,10 +43644,10 @@
         <v>1.4</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR198" t="n">
         <v>1.39</v>
@@ -44080,7 +44080,7 @@
         <v>1</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ200" t="n">
         <v>0.82</v>
@@ -44298,7 +44298,7 @@
         <v>1.1</v>
       </c>
       <c r="AP201" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ201" t="n">
         <v>1</v>
@@ -44955,7 +44955,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR204" t="n">
         <v>1.4</v>
@@ -46557,6 +46557,1968 @@
       </c>
       <c r="BP211" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>6652052</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45318.45833333334</v>
+      </c>
+      <c r="F212" t="n">
+        <v>22</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S212" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V212" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X212" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>6652058</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45318.625</v>
+      </c>
+      <c r="F213" t="n">
+        <v>22</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="n">
+        <v>2</v>
+      </c>
+      <c r="N213" t="n">
+        <v>3</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['59', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R213" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S213" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X213" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>6652057</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45318.625</v>
+      </c>
+      <c r="F214" t="n">
+        <v>22</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="n">
+        <v>2</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R214" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S214" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X214" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL214" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>6652055</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45318.625</v>
+      </c>
+      <c r="F215" t="n">
+        <v>22</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="n">
+        <v>2</v>
+      </c>
+      <c r="L215" t="n">
+        <v>3</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="n">
+        <v>4</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['27', '53', '61']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="R215" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S215" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V215" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X215" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL215" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BN215" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>6652054</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45318.625</v>
+      </c>
+      <c r="F216" t="n">
+        <v>22</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R216" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S216" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V216" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X216" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN216" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>6652056</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45318.625</v>
+      </c>
+      <c r="F217" t="n">
+        <v>22</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="n">
+        <v>2</v>
+      </c>
+      <c r="N217" t="n">
+        <v>3</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['41', '67']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R217" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S217" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="V217" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X217" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL217" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN217" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>6652050</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45318.625</v>
+      </c>
+      <c r="F218" t="n">
+        <v>22</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="R218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S218" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V218" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X218" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>6652049</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45318.625</v>
+      </c>
+      <c r="F219" t="n">
+        <v>22</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R219" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S219" t="n">
+        <v>5</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V219" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X219" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BL219" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BN219" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO219" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>6652053</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45318.625</v>
+      </c>
+      <c r="F220" t="n">
+        <v>22</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>2</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>2</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S220" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V220" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X220" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP220" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.17</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.4</v>
@@ -8985,7 +8985,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR39" t="n">
         <v>1.76</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ42" t="n">
         <v>2</v>
@@ -12691,7 +12691,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR56" t="n">
         <v>2.1</v>
@@ -16179,7 +16179,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR72" t="n">
         <v>1.6</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.36</v>
@@ -20536,7 +20536,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.91</v>
@@ -20757,7 +20757,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR93" t="n">
         <v>1.25</v>
@@ -24896,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.91</v>
@@ -26861,7 +26861,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR121" t="n">
         <v>1.32</v>
@@ -29038,7 +29038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.82</v>
@@ -30349,7 +30349,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR137" t="n">
         <v>1.44</v>
@@ -33616,7 +33616,7 @@
         <v>0.63</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.83</v>
@@ -35145,7 +35145,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR159" t="n">
         <v>1.22</v>
@@ -37976,7 +37976,7 @@
         <v>1.63</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.7</v>
@@ -38415,7 +38415,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR174" t="n">
         <v>1.29</v>
@@ -43865,7 +43865,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR199" t="n">
         <v>1.24</v>
@@ -45606,7 +45606,7 @@
         <v>0.7</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.64</v>
@@ -48518,6 +48518,224 @@
         <v>3.48</v>
       </c>
       <c r="BP220" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>6652051</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45320.69791666666</v>
+      </c>
+      <c r="F221" t="n">
+        <v>22</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S221" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V221" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X221" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP221" t="n">
         <v>1.24</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP221"/>
+  <dimension ref="A1:BP230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.27</v>
@@ -2227,7 +2227,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.83</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.55</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.36</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.91</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR22" t="n">
         <v>1.13</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.83</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR24" t="n">
         <v>1.31</v>
@@ -5930,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR25" t="n">
         <v>1.36</v>
@@ -6369,7 +6369,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR27" t="n">
         <v>2.17</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.55</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR30" t="n">
         <v>1.25</v>
@@ -7241,7 +7241,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR31" t="n">
         <v>2.08</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.18</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.27</v>
@@ -9203,7 +9203,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR40" t="n">
         <v>2.1</v>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR41" t="n">
         <v>1.26</v>
@@ -9639,7 +9639,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR42" t="n">
         <v>1.7</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.55</v>
@@ -10290,10 +10290,10 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
         <v>1.48</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR46" t="n">
         <v>1.39</v>
@@ -10726,10 +10726,10 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR47" t="n">
         <v>1.34</v>
@@ -10944,7 +10944,7 @@
         <v>2</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.58</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR49" t="n">
         <v>1.33</v>
@@ -11380,10 +11380,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR50" t="n">
         <v>1.2</v>
@@ -11601,7 +11601,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR51" t="n">
         <v>1.6</v>
@@ -11819,7 +11819,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR52" t="n">
         <v>1.67</v>
@@ -12909,7 +12909,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR57" t="n">
         <v>1.28</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.55</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.73</v>
@@ -13996,10 +13996,10 @@
         <v>2.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR62" t="n">
         <v>1.45</v>
@@ -14214,10 +14214,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14432,10 +14432,10 @@
         <v>0.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR64" t="n">
         <v>1.61</v>
@@ -14650,10 +14650,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR65" t="n">
         <v>1.9</v>
@@ -14868,7 +14868,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.58</v>
@@ -15086,7 +15086,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.55</v>
@@ -15304,10 +15304,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR68" t="n">
         <v>1.28</v>
@@ -15525,7 +15525,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR69" t="n">
         <v>1.37</v>
@@ -15740,10 +15740,10 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR70" t="n">
         <v>1.4</v>
@@ -16394,10 +16394,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR73" t="n">
         <v>1.75</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.73</v>
@@ -17705,7 +17705,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.72</v>
@@ -17920,10 +17920,10 @@
         <v>1.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR80" t="n">
         <v>1.41</v>
@@ -18138,10 +18138,10 @@
         <v>0.25</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR81" t="n">
         <v>1.64</v>
@@ -18359,7 +18359,7 @@
         <v>1</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -18574,7 +18574,7 @@
         <v>1</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.4</v>
@@ -18792,7 +18792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.17</v>
@@ -19013,7 +19013,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR85" t="n">
         <v>1.63</v>
@@ -19446,10 +19446,10 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR87" t="n">
         <v>1.35</v>
@@ -19664,10 +19664,10 @@
         <v>1.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR88" t="n">
         <v>1.75</v>
@@ -20103,7 +20103,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR90" t="n">
         <v>1.84</v>
@@ -20754,7 +20754,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.27</v>
@@ -20975,7 +20975,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR94" t="n">
         <v>1.55</v>
@@ -21626,7 +21626,7 @@
         <v>2</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.55</v>
@@ -21847,7 +21847,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR98" t="n">
         <v>1.29</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.36</v>
@@ -22501,7 +22501,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR101" t="n">
         <v>1.93</v>
@@ -22719,7 +22719,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ102" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR102" t="n">
         <v>1.39</v>
@@ -22934,10 +22934,10 @@
         <v>0.2</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -23152,7 +23152,7 @@
         <v>1.2</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.17</v>
@@ -23370,10 +23370,10 @@
         <v>0.8</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR105" t="n">
         <v>1.66</v>
@@ -23806,10 +23806,10 @@
         <v>1</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR107" t="n">
         <v>1.66</v>
@@ -24242,10 +24242,10 @@
         <v>1</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR109" t="n">
         <v>1.7</v>
@@ -24678,10 +24678,10 @@
         <v>2</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR111" t="n">
         <v>1.53</v>
@@ -24899,7 +24899,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR112" t="n">
         <v>1.88</v>
@@ -25114,7 +25114,7 @@
         <v>1.8</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.55</v>
@@ -25332,7 +25332,7 @@
         <v>2</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.91</v>
@@ -25550,7 +25550,7 @@
         <v>1</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.73</v>
@@ -25989,7 +25989,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR117" t="n">
         <v>1.59</v>
@@ -26207,7 +26207,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR118" t="n">
         <v>1.63</v>
@@ -27079,7 +27079,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR122" t="n">
         <v>1.43</v>
@@ -27297,7 +27297,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR123" t="n">
         <v>1.69</v>
@@ -27730,10 +27730,10 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR125" t="n">
         <v>1.62</v>
@@ -27951,7 +27951,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR126" t="n">
         <v>1.32</v>
@@ -28166,10 +28166,10 @@
         <v>1.33</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR127" t="n">
         <v>1.37</v>
@@ -28384,7 +28384,7 @@
         <v>0.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.4</v>
@@ -28602,7 +28602,7 @@
         <v>0.83</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.73</v>
@@ -28820,10 +28820,10 @@
         <v>2.33</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ130" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR130" t="n">
         <v>1.59</v>
@@ -29041,7 +29041,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR131" t="n">
         <v>1.81</v>
@@ -29910,7 +29910,7 @@
         <v>1.17</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.17</v>
@@ -30131,7 +30131,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR136" t="n">
         <v>1.35</v>
@@ -30346,7 +30346,7 @@
         <v>1.5</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.27</v>
@@ -30782,7 +30782,7 @@
         <v>1.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.55</v>
@@ -31003,7 +31003,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR140" t="n">
         <v>1.81</v>
@@ -31439,7 +31439,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR142" t="n">
         <v>1.41</v>
@@ -31875,7 +31875,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ144" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR144" t="n">
         <v>1.38</v>
@@ -32090,7 +32090,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.58</v>
@@ -32308,7 +32308,7 @@
         <v>2</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.91</v>
@@ -32526,7 +32526,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.17</v>
@@ -32744,10 +32744,10 @@
         <v>0.86</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR148" t="n">
         <v>1.72</v>
@@ -32965,7 +32965,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR149" t="n">
         <v>1.63</v>
@@ -33180,10 +33180,10 @@
         <v>1.14</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR150" t="n">
         <v>1.59</v>
@@ -33398,7 +33398,7 @@
         <v>1.14</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.18</v>
@@ -33834,7 +33834,7 @@
         <v>1.71</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.55</v>
@@ -34270,10 +34270,10 @@
         <v>1</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR155" t="n">
         <v>1.47</v>
@@ -34491,7 +34491,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR156" t="n">
         <v>1.53</v>
@@ -34709,7 +34709,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR157" t="n">
         <v>1.8</v>
@@ -34924,7 +34924,7 @@
         <v>1.43</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.36</v>
@@ -35360,10 +35360,10 @@
         <v>1.86</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR160" t="n">
         <v>1.4</v>
@@ -35799,7 +35799,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR162" t="n">
         <v>1.4</v>
@@ -36232,10 +36232,10 @@
         <v>0.88</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR164" t="n">
         <v>1.45</v>
@@ -36450,7 +36450,7 @@
         <v>1.63</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.55</v>
@@ -36886,7 +36886,7 @@
         <v>1.17</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.4</v>
@@ -37104,7 +37104,7 @@
         <v>0.38</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ168" t="n">
         <v>0.55</v>
@@ -37322,10 +37322,10 @@
         <v>1.88</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ169" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR169" t="n">
         <v>1.33</v>
@@ -37543,7 +37543,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR170" t="n">
         <v>1.66</v>
@@ -37761,7 +37761,7 @@
         <v>1</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR171" t="n">
         <v>1.35</v>
@@ -37979,7 +37979,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR172" t="n">
         <v>1.8</v>
@@ -38412,7 +38412,7 @@
         <v>1.38</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.27</v>
@@ -38630,10 +38630,10 @@
         <v>1.13</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR175" t="n">
         <v>1.69</v>
@@ -38848,7 +38848,7 @@
         <v>1.22</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.17</v>
@@ -39287,7 +39287,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR178" t="n">
         <v>1.54</v>
@@ -39723,7 +39723,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR180" t="n">
         <v>1.31</v>
@@ -39938,7 +39938,7 @@
         <v>1.38</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.18</v>
@@ -40159,7 +40159,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR182" t="n">
         <v>1.36</v>
@@ -40374,10 +40374,10 @@
         <v>2</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ183" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR183" t="n">
         <v>1.5</v>
@@ -40592,10 +40592,10 @@
         <v>0.89</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR184" t="n">
         <v>1.51</v>
@@ -41028,7 +41028,7 @@
         <v>1.44</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.55</v>
@@ -41246,7 +41246,7 @@
         <v>0.89</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.83</v>
@@ -41467,7 +41467,7 @@
         <v>1</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR188" t="n">
         <v>1.37</v>
@@ -41685,7 +41685,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR189" t="n">
         <v>1.22</v>
@@ -41900,10 +41900,10 @@
         <v>1.22</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR190" t="n">
         <v>1.35</v>
@@ -42118,7 +42118,7 @@
         <v>1.67</v>
       </c>
       <c r="AP191" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.58</v>
@@ -42990,7 +42990,7 @@
         <v>1.22</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.36</v>
@@ -43208,7 +43208,7 @@
         <v>0.89</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.73</v>
@@ -44083,7 +44083,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ200" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR200" t="n">
         <v>1.37</v>
@@ -44301,7 +44301,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR201" t="n">
         <v>1.71</v>
@@ -44516,10 +44516,10 @@
         <v>0.9</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ202" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR202" t="n">
         <v>1.48</v>
@@ -44734,10 +44734,10 @@
         <v>2.1</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ203" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR203" t="n">
         <v>1.66</v>
@@ -44952,7 +44952,7 @@
         <v>0.9</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ204" t="n">
         <v>0.83</v>
@@ -45170,10 +45170,10 @@
         <v>1.44</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR205" t="n">
         <v>1.45</v>
@@ -45388,7 +45388,7 @@
         <v>0.8</v>
       </c>
       <c r="AP206" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.73</v>
@@ -45609,7 +45609,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR207" t="n">
         <v>1.79</v>
@@ -45824,10 +45824,10 @@
         <v>0.8</v>
       </c>
       <c r="AP208" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR208" t="n">
         <v>1.47</v>
@@ -46042,10 +46042,10 @@
         <v>1.56</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR209" t="n">
         <v>1.55</v>
@@ -46260,10 +46260,10 @@
         <v>0.9</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR210" t="n">
         <v>1.34</v>
@@ -46481,7 +46481,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR211" t="n">
         <v>1.28</v>
@@ -48737,6 +48737,1968 @@
       </c>
       <c r="BP221" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>6652066</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45325.45833333334</v>
+      </c>
+      <c r="F222" t="n">
+        <v>23</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R222" t="n">
+        <v>2</v>
+      </c>
+      <c r="S222" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V222" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X222" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL222" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN222" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>6652067</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45325.625</v>
+      </c>
+      <c r="F223" t="n">
+        <v>23</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>3</v>
+      </c>
+      <c r="R223" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S223" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V223" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X223" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>6652059</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45325.625</v>
+      </c>
+      <c r="F224" t="n">
+        <v>23</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="n">
+        <v>2</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R224" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S224" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V224" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X224" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>6652060</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45325.625</v>
+      </c>
+      <c r="F225" t="n">
+        <v>23</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="n">
+        <v>2</v>
+      </c>
+      <c r="L225" t="n">
+        <v>2</v>
+      </c>
+      <c r="M225" t="n">
+        <v>2</v>
+      </c>
+      <c r="N225" t="n">
+        <v>4</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['40', '49']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['2', '64']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R225" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V225" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X225" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>6652061</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45325.625</v>
+      </c>
+      <c r="F226" t="n">
+        <v>23</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2</v>
+      </c>
+      <c r="L226" t="n">
+        <v>2</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="n">
+        <v>3</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['45+2', '52']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R226" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S226" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V226" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X226" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>6652063</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45325.625</v>
+      </c>
+      <c r="F227" t="n">
+        <v>23</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>2</v>
+      </c>
+      <c r="K227" t="n">
+        <v>2</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2</v>
+      </c>
+      <c r="M227" t="n">
+        <v>4</v>
+      </c>
+      <c r="N227" t="n">
+        <v>6</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['59', '66']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['4', '20', '86', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>3</v>
+      </c>
+      <c r="R227" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S227" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V227" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X227" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>6652064</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45325.625</v>
+      </c>
+      <c r="F228" t="n">
+        <v>23</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2</v>
+      </c>
+      <c r="K228" t="n">
+        <v>3</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="n">
+        <v>4</v>
+      </c>
+      <c r="N228" t="n">
+        <v>5</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['18', '31', '74', '87']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S228" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X228" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>6652065</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45325.625</v>
+      </c>
+      <c r="F229" t="n">
+        <v>23</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2</v>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="n">
+        <v>3</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['65', '90+3']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S229" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V229" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X229" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>6652068</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45325.625</v>
+      </c>
+      <c r="F230" t="n">
+        <v>23</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>2</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>2</v>
+      </c>
+      <c r="L230" t="n">
+        <v>5</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>6</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['36', '45+2', '55', '66', '90+5']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2</v>
+      </c>
+      <c r="S230" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP230" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP230"/>
+  <dimension ref="A1:BP231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.58</v>
@@ -4625,7 +4625,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.83</v>
@@ -8331,7 +8331,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR36" t="n">
         <v>1.97</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.91</v>
@@ -13781,7 +13781,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR61" t="n">
         <v>1.87</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.18</v>
@@ -17487,7 +17487,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR78" t="n">
         <v>1.41</v>
@@ -20972,7 +20972,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ94" t="n">
         <v>1</v>
@@ -21193,7 +21193,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR95" t="n">
         <v>1.49</v>
@@ -25553,7 +25553,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR115" t="n">
         <v>1.37</v>
@@ -26422,7 +26422,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.58</v>
@@ -27948,7 +27948,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.92</v>
@@ -28605,7 +28605,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR129" t="n">
         <v>1.72</v>
@@ -31657,7 +31657,7 @@
         <v>1</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR143" t="n">
         <v>1.3</v>
@@ -31872,7 +31872,7 @@
         <v>2</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.92</v>
@@ -38197,7 +38197,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR173" t="n">
         <v>1.77</v>
@@ -39720,7 +39720,7 @@
         <v>0.75</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.92</v>
@@ -43211,7 +43211,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR196" t="n">
         <v>1.25</v>
@@ -43862,7 +43862,7 @@
         <v>1.56</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.27</v>
@@ -45391,7 +45391,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR206" t="n">
         <v>1.49</v>
@@ -46478,7 +46478,7 @@
         <v>1.2</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ211" t="n">
         <v>1.25</v>
@@ -49109,7 +49109,7 @@
         <v>2.44</v>
       </c>
       <c r="AU223" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV223" t="n">
         <v>2</v>
@@ -49121,7 +49121,7 @@
         <v>3</v>
       </c>
       <c r="AY223" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ223" t="n">
         <v>5</v>
@@ -49327,22 +49327,22 @@
         <v>2.53</v>
       </c>
       <c r="AU224" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV224" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW224" t="n">
         <v>6</v>
       </c>
       <c r="AX224" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY224" t="n">
         <v>9</v>
       </c>
-      <c r="AY224" t="n">
-        <v>6</v>
-      </c>
       <c r="AZ224" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA224" t="n">
         <v>0</v>
@@ -49545,22 +49545,22 @@
         <v>3.14</v>
       </c>
       <c r="AU225" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV225" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX225" t="n">
         <v>4</v>
       </c>
       <c r="AY225" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ225" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA225" t="n">
         <v>3</v>
@@ -49763,22 +49763,22 @@
         <v>2.82</v>
       </c>
       <c r="AU226" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV226" t="n">
         <v>5</v>
       </c>
       <c r="AW226" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX226" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY226" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ226" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA226" t="n">
         <v>6</v>
@@ -49981,22 +49981,22 @@
         <v>2.86</v>
       </c>
       <c r="AU227" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV227" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AW227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX227" t="n">
         <v>1</v>
       </c>
       <c r="AY227" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ227" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA227" t="n">
         <v>3</v>
@@ -50199,22 +50199,22 @@
         <v>2.61</v>
       </c>
       <c r="AU228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW228" t="n">
         <v>6</v>
       </c>
-      <c r="AV228" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW228" t="n">
+      <c r="AX228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ228" t="n">
         <v>8</v>
-      </c>
-      <c r="AX228" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY228" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ228" t="n">
-        <v>5</v>
       </c>
       <c r="BA228" t="n">
         <v>3</v>
@@ -50420,7 +50420,7 @@
         <v>4</v>
       </c>
       <c r="AV229" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW229" t="n">
         <v>7</v>
@@ -50432,7 +50432,7 @@
         <v>11</v>
       </c>
       <c r="AZ229" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA229" t="n">
         <v>3</v>
@@ -50635,22 +50635,22 @@
         <v>3.03</v>
       </c>
       <c r="AU230" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV230" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW230" t="n">
         <v>1</v>
       </c>
       <c r="AX230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY230" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ230" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA230" t="n">
         <v>2</v>
@@ -50699,6 +50699,224 @@
       </c>
       <c r="BP230" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>6652062</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45327.69791666666</v>
+      </c>
+      <c r="F231" t="n">
+        <v>23</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R231" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S231" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V231" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X231" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL231" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN231" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO231" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP231" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -50856,19 +50856,19 @@
         <v>2</v>
       </c>
       <c r="AV231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX231" t="n">
         <v>5</v>
       </c>
       <c r="AY231" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ231" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA231" t="n">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP231"/>
+  <dimension ref="A1:BP240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.83</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.92</v>
@@ -2009,7 +2009,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.25</v>
@@ -2663,7 +2663,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.55</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.67</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR26" t="n">
         <v>1.47</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR28" t="n">
         <v>1.29</v>
@@ -6805,7 +6805,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR29" t="n">
         <v>0.93</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.92</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR32" t="n">
         <v>1.83</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR33" t="n">
         <v>1.15</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR35" t="n">
         <v>1.4</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.67</v>
@@ -8549,7 +8549,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR37" t="n">
         <v>1.48</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR38" t="n">
         <v>0.44</v>
@@ -8985,7 +8985,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR39" t="n">
         <v>1.76</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.58</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.55</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.92</v>
@@ -9854,10 +9854,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR43" t="n">
         <v>1.51</v>
@@ -10075,7 +10075,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR44" t="n">
         <v>1.83</v>
@@ -10947,7 +10947,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR48" t="n">
         <v>1.29</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.55</v>
@@ -12034,10 +12034,10 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR53" t="n">
         <v>1.55</v>
@@ -12252,7 +12252,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.83</v>
@@ -12473,7 +12473,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR55" t="n">
         <v>1.96</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR56" t="n">
         <v>2.1</v>
@@ -12906,7 +12906,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.92</v>
@@ -13124,10 +13124,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR58" t="n">
         <v>1.08</v>
@@ -13345,7 +13345,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR59" t="n">
         <v>1.91</v>
@@ -13560,10 +13560,10 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -14871,7 +14871,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR66" t="n">
         <v>1.23</v>
@@ -15089,7 +15089,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR67" t="n">
         <v>1.42</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.36</v>
@@ -15958,7 +15958,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.83</v>
@@ -16176,10 +16176,10 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR72" t="n">
         <v>1.6</v>
@@ -16612,10 +16612,10 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR74" t="n">
         <v>1.35</v>
@@ -16830,10 +16830,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR75" t="n">
         <v>1.62</v>
@@ -17048,10 +17048,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -17269,7 +17269,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR77" t="n">
         <v>1.7</v>
@@ -17702,7 +17702,7 @@
         <v>1.67</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -18356,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="AP82" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.36</v>
@@ -18577,7 +18577,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR83" t="n">
         <v>1.25</v>
@@ -18795,7 +18795,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR84" t="n">
         <v>1.55</v>
@@ -19010,7 +19010,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.83</v>
@@ -19228,10 +19228,10 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -19882,10 +19882,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR89" t="n">
         <v>1.34</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.25</v>
@@ -20321,7 +20321,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR91" t="n">
         <v>1.43</v>
@@ -20536,10 +20536,10 @@
         <v>1.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR92" t="n">
         <v>1.89</v>
@@ -20757,7 +20757,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR93" t="n">
         <v>1.25</v>
@@ -21408,7 +21408,7 @@
         <v>0.6</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.83</v>
@@ -21629,7 +21629,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR97" t="n">
         <v>1.62</v>
@@ -21844,7 +21844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.92</v>
@@ -22065,7 +22065,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR99" t="n">
         <v>1.32</v>
@@ -22280,10 +22280,10 @@
         <v>1</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR100" t="n">
         <v>1.55</v>
@@ -22498,7 +22498,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.25</v>
@@ -22716,7 +22716,7 @@
         <v>2.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.92</v>
@@ -23155,7 +23155,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR104" t="n">
         <v>1.47</v>
@@ -23588,10 +23588,10 @@
         <v>0.4</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR106" t="n">
         <v>2</v>
@@ -24024,10 +24024,10 @@
         <v>0.75</v>
       </c>
       <c r="AP108" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR108" t="n">
         <v>1.41</v>
@@ -24460,10 +24460,10 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR110" t="n">
         <v>1.3</v>
@@ -24896,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.83</v>
@@ -25117,7 +25117,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR113" t="n">
         <v>1.37</v>
@@ -25335,7 +25335,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR114" t="n">
         <v>1.35</v>
@@ -25768,7 +25768,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.83</v>
@@ -25986,7 +25986,7 @@
         <v>1.4</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.25</v>
@@ -26204,7 +26204,7 @@
         <v>1</v>
       </c>
       <c r="AP118" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ118" t="n">
         <v>1</v>
@@ -26425,7 +26425,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR119" t="n">
         <v>1.42</v>
@@ -26640,10 +26640,10 @@
         <v>0.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR120" t="n">
         <v>1.64</v>
@@ -26861,7 +26861,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR121" t="n">
         <v>1.32</v>
@@ -27294,7 +27294,7 @@
         <v>1</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.83</v>
@@ -27512,10 +27512,10 @@
         <v>1.83</v>
       </c>
       <c r="AP124" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR124" t="n">
         <v>1.38</v>
@@ -28387,7 +28387,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR128" t="n">
         <v>1.56</v>
@@ -29038,7 +29038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ131" t="n">
         <v>1</v>
@@ -29256,10 +29256,10 @@
         <v>0.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR132" t="n">
         <v>1.39</v>
@@ -29474,10 +29474,10 @@
         <v>1.17</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR133" t="n">
         <v>1.57</v>
@@ -29692,10 +29692,10 @@
         <v>1.33</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR134" t="n">
         <v>2.09</v>
@@ -29913,7 +29913,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR135" t="n">
         <v>1.51</v>
@@ -30128,7 +30128,7 @@
         <v>0.83</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.92</v>
@@ -30349,7 +30349,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR137" t="n">
         <v>1.44</v>
@@ -30564,7 +30564,7 @@
         <v>0.71</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.83</v>
@@ -30785,7 +30785,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR139" t="n">
         <v>1.3</v>
@@ -31000,7 +31000,7 @@
         <v>2.17</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.55</v>
@@ -31221,7 +31221,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR141" t="n">
         <v>1.39</v>
@@ -31436,7 +31436,7 @@
         <v>0.71</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.92</v>
@@ -31654,7 +31654,7 @@
         <v>1.14</v>
       </c>
       <c r="AP143" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.67</v>
@@ -32093,7 +32093,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR145" t="n">
         <v>1.33</v>
@@ -32311,7 +32311,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR146" t="n">
         <v>1.56</v>
@@ -32529,7 +32529,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR147" t="n">
         <v>1.32</v>
@@ -32962,7 +32962,7 @@
         <v>0.86</v>
       </c>
       <c r="AP149" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.58</v>
@@ -33401,7 +33401,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR151" t="n">
         <v>1.26</v>
@@ -33616,7 +33616,7 @@
         <v>0.63</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.83</v>
@@ -33837,7 +33837,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR153" t="n">
         <v>1.49</v>
@@ -34052,10 +34052,10 @@
         <v>1.38</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR154" t="n">
         <v>1.9</v>
@@ -34488,7 +34488,7 @@
         <v>1.14</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ156" t="n">
         <v>1</v>
@@ -34706,7 +34706,7 @@
         <v>0.86</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ157" t="n">
         <v>0.92</v>
@@ -34927,7 +34927,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR158" t="n">
         <v>1.45</v>
@@ -35142,10 +35142,10 @@
         <v>1.43</v>
       </c>
       <c r="AP159" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR159" t="n">
         <v>1.22</v>
@@ -35578,10 +35578,10 @@
         <v>0.43</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR161" t="n">
         <v>1.41</v>
@@ -35796,7 +35796,7 @@
         <v>0.75</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.83</v>
@@ -36014,10 +36014,10 @@
         <v>2.13</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR163" t="n">
         <v>1.25</v>
@@ -36453,7 +36453,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR165" t="n">
         <v>1.61</v>
@@ -36671,7 +36671,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR166" t="n">
         <v>1.37</v>
@@ -36889,7 +36889,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR167" t="n">
         <v>1.3</v>
@@ -37107,7 +37107,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR168" t="n">
         <v>1.56</v>
@@ -37540,7 +37540,7 @@
         <v>1</v>
       </c>
       <c r="AP170" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.92</v>
@@ -37758,7 +37758,7 @@
         <v>1</v>
       </c>
       <c r="AP171" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.25</v>
@@ -37976,7 +37976,7 @@
         <v>1.63</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.55</v>
@@ -38194,7 +38194,7 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ173" t="n">
         <v>0.67</v>
@@ -38415,7 +38415,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR174" t="n">
         <v>1.29</v>
@@ -38851,7 +38851,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR176" t="n">
         <v>1.45</v>
@@ -39066,10 +39066,10 @@
         <v>1</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR177" t="n">
         <v>1.85</v>
@@ -39284,7 +39284,7 @@
         <v>1.25</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.36</v>
@@ -39502,10 +39502,10 @@
         <v>1.38</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR179" t="n">
         <v>1.37</v>
@@ -39941,7 +39941,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR181" t="n">
         <v>1.49</v>
@@ -40156,7 +40156,7 @@
         <v>0.78</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.92</v>
@@ -40813,7 +40813,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR185" t="n">
         <v>1.34</v>
@@ -41031,7 +41031,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR186" t="n">
         <v>1.35</v>
@@ -41464,7 +41464,7 @@
         <v>0.67</v>
       </c>
       <c r="AP188" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ188" t="n">
         <v>0.83</v>
@@ -41682,7 +41682,7 @@
         <v>0.78</v>
       </c>
       <c r="AP189" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.58</v>
@@ -42121,7 +42121,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR191" t="n">
         <v>1.52</v>
@@ -42339,7 +42339,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR192" t="n">
         <v>1.33</v>
@@ -42554,10 +42554,10 @@
         <v>1.33</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR193" t="n">
         <v>1.85</v>
@@ -42772,10 +42772,10 @@
         <v>1.5</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR194" t="n">
         <v>1.73</v>
@@ -42993,7 +42993,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR195" t="n">
         <v>1.69</v>
@@ -43426,10 +43426,10 @@
         <v>1</v>
       </c>
       <c r="AP197" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR197" t="n">
         <v>1.48</v>
@@ -43644,10 +43644,10 @@
         <v>1.4</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR198" t="n">
         <v>1.39</v>
@@ -43865,7 +43865,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR199" t="n">
         <v>1.24</v>
@@ -44080,7 +44080,7 @@
         <v>1</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ200" t="n">
         <v>1</v>
@@ -44298,7 +44298,7 @@
         <v>1.1</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.92</v>
@@ -45606,7 +45606,7 @@
         <v>0.7</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.58</v>
@@ -46699,7 +46699,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR212" t="n">
         <v>1.33</v>
@@ -46914,10 +46914,10 @@
         <v>1.8</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR213" t="n">
         <v>1.81</v>
@@ -47132,10 +47132,10 @@
         <v>1.6</v>
       </c>
       <c r="AP214" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR214" t="n">
         <v>1.67</v>
@@ -47350,10 +47350,10 @@
         <v>0.6</v>
       </c>
       <c r="AP215" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ215" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR215" t="n">
         <v>1.45</v>
@@ -47568,7 +47568,7 @@
         <v>0.82</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.83</v>
@@ -47786,10 +47786,10 @@
         <v>1.2</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR217" t="n">
         <v>1.38</v>
@@ -48004,10 +48004,10 @@
         <v>1.2</v>
       </c>
       <c r="AP218" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR218" t="n">
         <v>1.42</v>
@@ -48222,10 +48222,10 @@
         <v>1.27</v>
       </c>
       <c r="AP219" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR219" t="n">
         <v>1.18</v>
@@ -48440,10 +48440,10 @@
         <v>1.64</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR220" t="n">
         <v>1.78</v>
@@ -48658,10 +48658,10 @@
         <v>1.4</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR221" t="n">
         <v>1.82</v>
@@ -50917,6 +50917,1968 @@
       </c>
       <c r="BP231" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>6652073</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F232" t="n">
+        <v>24</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S232" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V232" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X232" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL232" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN232" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO232" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP232" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>6652070</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45332.625</v>
+      </c>
+      <c r="F233" t="n">
+        <v>24</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>3</v>
+      </c>
+      <c r="N233" t="n">
+        <v>3</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['76', '86', '87']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R233" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S233" t="n">
+        <v>4</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X233" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL233" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM233" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN233" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO233" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP233" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>6652071</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45332.625</v>
+      </c>
+      <c r="F234" t="n">
+        <v>24</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R234" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S234" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T234" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U234" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V234" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X234" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL234" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM234" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN234" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO234" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP234" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>6652069</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45332.625</v>
+      </c>
+      <c r="F235" t="n">
+        <v>24</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="n">
+        <v>3</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>3</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['27', '65', '76']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S235" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V235" t="n">
+        <v>4</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X235" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL235" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM235" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BN235" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO235" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP235" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>6652074</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45332.625</v>
+      </c>
+      <c r="F236" t="n">
+        <v>24</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>2</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['81', '84']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R236" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S236" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V236" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X236" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL236" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM236" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN236" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO236" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP236" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>6652075</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45332.625</v>
+      </c>
+      <c r="F237" t="n">
+        <v>24</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>2</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="R237" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T237" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V237" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X237" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL237" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM237" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN237" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO237" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP237" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>6652076</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45332.625</v>
+      </c>
+      <c r="F238" t="n">
+        <v>24</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="n">
+        <v>2</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S238" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T238" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V238" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X238" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL238" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN238" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO238" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BP238" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>6652077</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45332.625</v>
+      </c>
+      <c r="F239" t="n">
+        <v>24</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R239" t="n">
+        <v>2</v>
+      </c>
+      <c r="S239" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T239" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X239" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL239" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN239" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO239" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP239" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>6652078</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45332.625</v>
+      </c>
+      <c r="F240" t="n">
+        <v>24</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R240" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S240" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T240" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V240" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X240" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL240" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM240" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO240" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP240" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP240"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.42</v>
@@ -2445,7 +2445,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR23" t="n">
         <v>1.66</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.92</v>
@@ -7895,7 +7895,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR34" t="n">
         <v>1.86</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.58</v>
@@ -12255,7 +12255,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR54" t="n">
         <v>1.37</v>
@@ -15961,7 +15961,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR71" t="n">
         <v>1.97</v>
@@ -20318,7 +20318,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.33</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.67</v>
@@ -21411,7 +21411,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR96" t="n">
         <v>1.43</v>
@@ -25771,7 +25771,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR116" t="n">
         <v>1.35</v>
@@ -26858,7 +26858,7 @@
         <v>1.8</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.17</v>
@@ -27076,7 +27076,7 @@
         <v>0.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.36</v>
@@ -30567,7 +30567,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR138" t="n">
         <v>1.27</v>
@@ -31218,7 +31218,7 @@
         <v>0.83</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.17</v>
@@ -33619,7 +33619,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR152" t="n">
         <v>1.77</v>
@@ -36668,7 +36668,7 @@
         <v>1.5</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.46</v>
@@ -40810,7 +40810,7 @@
         <v>0.67</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.75</v>
@@ -41249,7 +41249,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR187" t="n">
         <v>1.5</v>
@@ -42336,7 +42336,7 @@
         <v>1.89</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.83</v>
@@ -44955,7 +44955,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR204" t="n">
         <v>1.4</v>
@@ -46696,7 +46696,7 @@
         <v>1.22</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.27</v>
@@ -47571,7 +47571,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR216" t="n">
         <v>1.36</v>
@@ -51074,13 +51074,13 @@
         <v>3</v>
       </c>
       <c r="AV232" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW232" t="n">
         <v>3</v>
       </c>
       <c r="AX232" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY232" t="n">
         <v>6</v>
@@ -51292,7 +51292,7 @@
         <v>2</v>
       </c>
       <c r="AV233" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW233" t="n">
         <v>5</v>
@@ -51304,7 +51304,7 @@
         <v>7</v>
       </c>
       <c r="AZ233" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA233" t="n">
         <v>4</v>
@@ -51507,22 +51507,22 @@
         <v>3.09</v>
       </c>
       <c r="AU234" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV234" t="n">
         <v>7</v>
       </c>
       <c r="AW234" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX234" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY234" t="n">
         <v>10</v>
       </c>
       <c r="AZ234" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA234" t="n">
         <v>9</v>
@@ -51725,7 +51725,7 @@
         <v>2.67</v>
       </c>
       <c r="AU235" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV235" t="n">
         <v>0</v>
@@ -51734,13 +51734,13 @@
         <v>2</v>
       </c>
       <c r="AX235" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY235" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ235" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA235" t="n">
         <v>2</v>
@@ -51943,22 +51943,22 @@
         <v>2.72</v>
       </c>
       <c r="AU236" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV236" t="n">
         <v>0</v>
       </c>
       <c r="AW236" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX236" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY236" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ236" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA236" t="n">
         <v>2</v>
@@ -52164,19 +52164,19 @@
         <v>4</v>
       </c>
       <c r="AV237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX237" t="n">
         <v>4</v>
       </c>
       <c r="AY237" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ237" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA237" t="n">
         <v>4</v>
@@ -52382,19 +52382,19 @@
         <v>7</v>
       </c>
       <c r="AV238" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW238" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX238" t="n">
         <v>4</v>
       </c>
       <c r="AY238" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ238" t="n">
         <v>10</v>
-      </c>
-      <c r="AZ238" t="n">
-        <v>9</v>
       </c>
       <c r="BA238" t="n">
         <v>7</v>
@@ -52600,19 +52600,19 @@
         <v>4</v>
       </c>
       <c r="AV239" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW239" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX239" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY239" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ239" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA239" t="n">
         <v>7</v>
@@ -52815,22 +52815,22 @@
         <v>2.98</v>
       </c>
       <c r="AU240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW240" t="n">
         <v>4</v>
       </c>
-      <c r="AV240" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW240" t="n">
-        <v>3</v>
-      </c>
       <c r="AX240" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY240" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ240" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA240" t="n">
         <v>5</v>
@@ -52879,6 +52879,224 @@
       </c>
       <c r="BP240" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>6652072</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45334.69791666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>24</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>2</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>2</v>
+      </c>
+      <c r="L241" t="n">
+        <v>5</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>5</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['16', '38', '51', '63', '78']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R241" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S241" t="n">
+        <v>5</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X241" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL241" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BM241" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BN241" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO241" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BP241" t="n">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3099,7 +3099,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.92</v>
@@ -9421,7 +9421,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR41" t="n">
         <v>1.26</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.36</v>
@@ -11819,7 +11819,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR52" t="n">
         <v>1.67</v>
@@ -14217,7 +14217,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -15086,7 +15086,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.75</v>
@@ -17923,7 +17923,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR80" t="n">
         <v>1.41</v>
@@ -18792,7 +18792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.31</v>
@@ -23806,7 +23806,7 @@
         <v>1</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.92</v>
@@ -24681,7 +24681,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR111" t="n">
         <v>1.53</v>
@@ -27730,7 +27730,7 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.58</v>
@@ -31003,7 +31003,7 @@
         <v>2</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR140" t="n">
         <v>1.81</v>
@@ -33180,7 +33180,7 @@
         <v>1.14</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.25</v>
@@ -35363,7 +35363,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR160" t="n">
         <v>1.4</v>
@@ -36450,7 +36450,7 @@
         <v>1.63</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.42</v>
@@ -37979,7 +37979,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR172" t="n">
         <v>1.8</v>
@@ -42118,7 +42118,7 @@
         <v>1.67</v>
       </c>
       <c r="AP191" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.46</v>
@@ -45824,7 +45824,7 @@
         <v>0.8</v>
       </c>
       <c r="AP208" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AQ208" t="n">
         <v>0.92</v>
@@ -46045,7 +46045,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR209" t="n">
         <v>1.55</v>
@@ -48879,7 +48879,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR222" t="n">
         <v>1.47</v>
@@ -49748,7 +49748,7 @@
         <v>0.91</v>
       </c>
       <c r="AP226" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AQ226" t="n">
         <v>0.83</v>
@@ -53097,6 +53097,224 @@
       </c>
       <c r="BP241" t="n">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>6652082</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F242" t="n">
+        <v>25</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>2</v>
+      </c>
+      <c r="K242" t="n">
+        <v>2</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>3</v>
+      </c>
+      <c r="N242" t="n">
+        <v>3</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['42', '44', '64']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R242" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S242" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T242" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V242" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X242" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL242" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM242" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN242" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BO242" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BP242" t="n">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="373">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -790,6 +790,18 @@
     <t>['28', '87', '90+4']</t>
   </si>
   <si>
+    <t>['66', '86']</t>
+  </si>
+  <si>
+    <t>['10', '89']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['54', '72', '74', '90']</t>
   </si>
   <si>
@@ -979,9 +991,6 @@
     <t>['15', '33']</t>
   </si>
   <si>
-    <t>['45+2']</t>
-  </si>
-  <si>
     <t>['30', '46']</t>
   </si>
   <si>
@@ -1115,6 +1124,15 @@
   </si>
   <si>
     <t>['31', '69', '85']</t>
+  </si>
+  <si>
+    <t>['1', '58', '90+1']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['45+6', '54', '62']</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1813,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ2">
         <v>1.21</v>
@@ -2019,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ3">
         <v>1.07</v>
@@ -2225,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AQ4">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2353,7 +2371,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2434,7 +2452,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ5">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2559,7 +2577,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2637,10 +2655,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2846,7 +2864,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ7">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2971,7 +2989,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3177,7 +3195,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3255,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>0.79</v>
@@ -3461,10 +3479,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ10">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3795,7 +3813,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4491,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4619,7 +4637,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4903,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ17">
         <v>1.92</v>
@@ -5112,7 +5130,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ18">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5524,7 +5542,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5727,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ21">
         <v>1.29</v>
@@ -5855,7 +5873,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5936,7 +5954,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR22">
         <v>1.13</v>
@@ -6267,7 +6285,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6345,7 +6363,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ24">
         <v>1.29</v>
@@ -6554,7 +6572,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ25">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR25">
         <v>1.36</v>
@@ -6757,10 +6775,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AQ26">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR26">
         <v>1.47</v>
@@ -6963,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27">
         <v>1.07</v>
@@ -7297,7 +7315,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7375,10 +7393,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ29">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR29">
         <v>0.93</v>
@@ -7584,7 +7602,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ30">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR30">
         <v>1.25</v>
@@ -7787,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AQ31">
         <v>0.93</v>
@@ -7993,7 +8011,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ32">
         <v>1.23</v>
@@ -8327,7 +8345,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8817,7 +8835,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ36">
         <v>0.64</v>
@@ -9026,7 +9044,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ37">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR37">
         <v>1.48</v>
@@ -9435,10 +9453,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR39">
         <v>1.76</v>
@@ -9769,7 +9787,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9975,7 +9993,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q42">
         <v>2.65</v>
@@ -10053,10 +10071,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR42">
         <v>1.7</v>
@@ -10181,7 +10199,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q43">
         <v>2.65</v>
@@ -10259,7 +10277,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AQ43">
         <v>1.46</v>
@@ -10468,7 +10486,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ44">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR44">
         <v>1.83</v>
@@ -10671,10 +10689,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ45">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR45">
         <v>1.48</v>
@@ -10799,7 +10817,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q46">
         <v>2.7</v>
@@ -10877,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ46">
         <v>1.07</v>
@@ -11005,7 +11023,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -11289,10 +11307,10 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ48">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR48">
         <v>1.29</v>
@@ -11498,7 +11516,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ49">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR49">
         <v>1.33</v>
@@ -11623,7 +11641,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11704,7 +11722,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ50">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -11907,7 +11925,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ51">
         <v>0.57</v>
@@ -12035,7 +12053,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12113,7 +12131,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ52">
         <v>1.62</v>
@@ -12241,7 +12259,7 @@
         <v>124</v>
       </c>
       <c r="P53" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q53">
         <v>2.1</v>
@@ -12322,7 +12340,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ53">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR53">
         <v>1.55</v>
@@ -12653,7 +12671,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12859,7 +12877,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12940,7 +12958,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ56">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR56">
         <v>2.1</v>
@@ -13065,7 +13083,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q57">
         <v>4.5</v>
@@ -13143,7 +13161,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AQ57">
         <v>0.93</v>
@@ -13555,7 +13573,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>1.21</v>
@@ -13683,7 +13701,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -14095,7 +14113,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -14173,10 +14191,10 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR62">
         <v>1.45</v>
@@ -14301,7 +14319,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14379,7 +14397,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ63">
         <v>1.62</v>
@@ -14507,7 +14525,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14585,10 +14603,10 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
         <v>1.61</v>
@@ -14919,7 +14937,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -15000,7 +15018,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ66">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -15206,7 +15224,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ67">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR67">
         <v>1.42</v>
@@ -15331,7 +15349,7 @@
         <v>90</v>
       </c>
       <c r="P68" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q68">
         <v>3.4</v>
@@ -15412,7 +15430,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ68">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR68">
         <v>1.28</v>
@@ -15537,7 +15555,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q69">
         <v>2.65</v>
@@ -15615,10 +15633,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AQ69">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR69">
         <v>1.37</v>
@@ -15821,7 +15839,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ70">
         <v>0.57</v>
@@ -16236,7 +16254,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ72">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR72">
         <v>1.6</v>
@@ -16645,7 +16663,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AQ74">
         <v>1.29</v>
@@ -16773,7 +16791,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q75">
         <v>2.55</v>
@@ -16851,7 +16869,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
         <v>1.21</v>
@@ -17185,7 +17203,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17266,7 +17284,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ77">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR77">
         <v>1.7</v>
@@ -17469,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ78">
         <v>0.64</v>
@@ -17678,7 +17696,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ79">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR79">
         <v>1.72</v>
@@ -17881,7 +17899,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ80">
         <v>1.62</v>
@@ -18009,7 +18027,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -18087,7 +18105,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
         <v>1.07</v>
@@ -18215,7 +18233,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18296,7 +18314,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ82">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR82">
         <v>1.38</v>
@@ -18914,7 +18932,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ85">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR85">
         <v>1.63</v>
@@ -19039,7 +19057,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19117,10 +19135,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ86">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR86">
         <v>1.49</v>
@@ -19735,10 +19753,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AQ89">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR89">
         <v>1.34</v>
@@ -19863,7 +19881,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q90">
         <v>2.81</v>
@@ -19941,7 +19959,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ90">
         <v>1.29</v>
@@ -20147,7 +20165,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ91">
         <v>1.46</v>
@@ -20353,7 +20371,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ92">
         <v>1.92</v>
@@ -20481,7 +20499,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20559,10 +20577,10 @@
         <v>1.5</v>
       </c>
       <c r="AP93">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ93">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR93">
         <v>1.25</v>
@@ -20768,7 +20786,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR94">
         <v>1.55</v>
@@ -20971,7 +20989,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ95">
         <v>0.64</v>
@@ -21177,7 +21195,7 @@
         <v>0.6</v>
       </c>
       <c r="AP96">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AQ96">
         <v>0.79</v>
@@ -21305,7 +21323,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q97">
         <v>2.9</v>
@@ -21511,7 +21529,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21592,7 +21610,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ98">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR98">
         <v>1.29</v>
@@ -21717,7 +21735,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21795,7 +21813,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ99">
         <v>1.46</v>
@@ -21923,7 +21941,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q100">
         <v>2.45</v>
@@ -22004,7 +22022,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ100">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -22129,7 +22147,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22413,10 +22431,10 @@
         <v>2.6</v>
       </c>
       <c r="AP102">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR102">
         <v>1.39</v>
@@ -22541,7 +22559,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22619,10 +22637,10 @@
         <v>0.2</v>
       </c>
       <c r="AP103">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR103">
         <v>1.59</v>
@@ -22825,7 +22843,7 @@
         <v>1.2</v>
       </c>
       <c r="AP104">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ104">
         <v>1.29</v>
@@ -22953,7 +22971,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q105">
         <v>2.6</v>
@@ -23159,7 +23177,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q106">
         <v>2.5</v>
@@ -23240,7 +23258,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ106">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR106">
         <v>2</v>
@@ -23571,7 +23589,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23777,7 +23795,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q109">
         <v>2.5</v>
@@ -24061,10 +24079,10 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AQ110">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR110">
         <v>1.3</v>
@@ -24189,7 +24207,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24395,7 +24413,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q112">
         <v>2.27</v>
@@ -24473,10 +24491,10 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ112">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR112">
         <v>1.88</v>
@@ -24601,7 +24619,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24885,7 +24903,7 @@
         <v>2</v>
       </c>
       <c r="AP114">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ114">
         <v>1.92</v>
@@ -25013,7 +25031,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -25091,7 +25109,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ115">
         <v>0.64</v>
@@ -25219,7 +25237,7 @@
         <v>167</v>
       </c>
       <c r="P116" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q116">
         <v>2.55</v>
@@ -25425,7 +25443,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25503,7 +25521,7 @@
         <v>1.4</v>
       </c>
       <c r="AP117">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AQ117">
         <v>1.29</v>
@@ -25631,7 +25649,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q118">
         <v>2.7</v>
@@ -25712,7 +25730,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ118">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR118">
         <v>1.63</v>
@@ -25918,7 +25936,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ119">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR119">
         <v>1.42</v>
@@ -26043,7 +26061,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q120">
         <v>1.9</v>
@@ -26327,10 +26345,10 @@
         <v>1.8</v>
       </c>
       <c r="AP121">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ121">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR121">
         <v>1.32</v>
@@ -26533,10 +26551,10 @@
         <v>0.67</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ122">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR122">
         <v>1.43</v>
@@ -26742,7 +26760,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ123">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR123">
         <v>1.69</v>
@@ -26867,7 +26885,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q124">
         <v>3.45</v>
@@ -27279,7 +27297,7 @@
         <v>174</v>
       </c>
       <c r="P126" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q126">
         <v>3.8</v>
@@ -27485,7 +27503,7 @@
         <v>175</v>
       </c>
       <c r="P127" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q127">
         <v>3.35</v>
@@ -27563,7 +27581,7 @@
         <v>1.33</v>
       </c>
       <c r="AP127">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ127">
         <v>1.29</v>
@@ -27769,7 +27787,7 @@
         <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ128">
         <v>1.23</v>
@@ -27897,7 +27915,7 @@
         <v>90</v>
       </c>
       <c r="P129" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q129">
         <v>2.95</v>
@@ -28184,7 +28202,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ130">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR130">
         <v>1.59</v>
@@ -28309,7 +28327,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q131">
         <v>2.2</v>
@@ -28387,10 +28405,10 @@
         <v>1.33</v>
       </c>
       <c r="AP131">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ131">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR131">
         <v>1.81</v>
@@ -28596,7 +28614,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ132">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR132">
         <v>1.39</v>
@@ -28799,7 +28817,7 @@
         <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AQ133">
         <v>1.46</v>
@@ -29008,7 +29026,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ134">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR134">
         <v>2.09</v>
@@ -29133,7 +29151,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q135">
         <v>2.35</v>
@@ -29339,7 +29357,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q136">
         <v>2.9</v>
@@ -29417,7 +29435,7 @@
         <v>0.83</v>
       </c>
       <c r="AP136">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ136">
         <v>1.07</v>
@@ -29545,7 +29563,7 @@
         <v>179</v>
       </c>
       <c r="P137" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q137">
         <v>3.85</v>
@@ -29626,7 +29644,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ137">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR137">
         <v>1.44</v>
@@ -29829,7 +29847,7 @@
         <v>0.71</v>
       </c>
       <c r="AP138">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AQ138">
         <v>0.79</v>
@@ -29957,7 +29975,7 @@
         <v>115</v>
       </c>
       <c r="P139" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q139">
         <v>3.1</v>
@@ -30035,7 +30053,7 @@
         <v>1.5</v>
       </c>
       <c r="AP139">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ139">
         <v>1.21</v>
@@ -30163,7 +30181,7 @@
         <v>180</v>
       </c>
       <c r="P140" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q140">
         <v>2.35</v>
@@ -30369,7 +30387,7 @@
         <v>181</v>
       </c>
       <c r="P141" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q141">
         <v>2.2</v>
@@ -30447,10 +30465,10 @@
         <v>0.83</v>
       </c>
       <c r="AP141">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ141">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR141">
         <v>1.39</v>
@@ -30575,7 +30593,7 @@
         <v>182</v>
       </c>
       <c r="P142" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q142">
         <v>3.4</v>
@@ -31068,7 +31086,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ144">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR144">
         <v>1.38</v>
@@ -31271,10 +31289,10 @@
         <v>1.29</v>
       </c>
       <c r="AP145">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ145">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR145">
         <v>1.33</v>
@@ -31399,7 +31417,7 @@
         <v>90</v>
       </c>
       <c r="P146" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31477,7 +31495,7 @@
         <v>2</v>
       </c>
       <c r="AP146">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ146">
         <v>1.92</v>
@@ -31683,7 +31701,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ147">
         <v>1.29</v>
@@ -31811,7 +31829,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="Q148">
         <v>2.63</v>
@@ -31892,7 +31910,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ148">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR148">
         <v>1.72</v>
@@ -32429,7 +32447,7 @@
         <v>138</v>
       </c>
       <c r="P151" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q151">
         <v>2.9</v>
@@ -32507,10 +32525,10 @@
         <v>1.14</v>
       </c>
       <c r="AP151">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ151">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR151">
         <v>1.26</v>
@@ -32713,7 +32731,7 @@
         <v>0.63</v>
       </c>
       <c r="AP152">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ152">
         <v>0.79</v>
@@ -32841,7 +32859,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q153">
         <v>2.9</v>
@@ -33334,7 +33352,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ155">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR155">
         <v>1.47</v>
@@ -33537,10 +33555,10 @@
         <v>1.14</v>
       </c>
       <c r="AP156">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AQ156">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR156">
         <v>1.53</v>
@@ -33665,7 +33683,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -33871,7 +33889,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q158">
         <v>2.85</v>
@@ -34155,10 +34173,10 @@
         <v>1.43</v>
       </c>
       <c r="AP159">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AQ159">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR159">
         <v>1.22</v>
@@ -34361,7 +34379,7 @@
         <v>1.86</v>
       </c>
       <c r="AP160">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ160">
         <v>1.62</v>
@@ -34567,10 +34585,10 @@
         <v>0.43</v>
       </c>
       <c r="AP161">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ161">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR161">
         <v>1.41</v>
@@ -34776,7 +34794,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ162">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR162">
         <v>1.4</v>
@@ -34979,7 +34997,7 @@
         <v>2.13</v>
       </c>
       <c r="AP163">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AQ163">
         <v>1.92</v>
@@ -35107,7 +35125,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q164">
         <v>2.7</v>
@@ -35519,7 +35537,7 @@
         <v>141</v>
       </c>
       <c r="P166" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q166">
         <v>2.7</v>
@@ -35597,10 +35615,10 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ166">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR166">
         <v>1.37</v>
@@ -35803,7 +35821,7 @@
         <v>1.17</v>
       </c>
       <c r="AP167">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ167">
         <v>1.23</v>
@@ -35931,7 +35949,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -36009,10 +36027,10 @@
         <v>0.38</v>
       </c>
       <c r="AP168">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ168">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR168">
         <v>1.56</v>
@@ -36137,7 +36155,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q169">
         <v>4.4</v>
@@ -36215,10 +36233,10 @@
         <v>1.88</v>
       </c>
       <c r="AP169">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ169">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR169">
         <v>1.33</v>
@@ -36343,7 +36361,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q170">
         <v>3.3</v>
@@ -36549,7 +36567,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q171">
         <v>3.3</v>
@@ -36833,7 +36851,7 @@
         <v>1.63</v>
       </c>
       <c r="AP172">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ172">
         <v>1.62</v>
@@ -37167,7 +37185,7 @@
         <v>161</v>
       </c>
       <c r="P174" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q174">
         <v>4.2</v>
@@ -37245,10 +37263,10 @@
         <v>1.38</v>
       </c>
       <c r="AP174">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ174">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR174">
         <v>1.29</v>
@@ -37454,7 +37472,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ175">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR175">
         <v>1.69</v>
@@ -37785,7 +37803,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q177">
         <v>2.9</v>
@@ -38069,10 +38087,10 @@
         <v>1.25</v>
       </c>
       <c r="AP178">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AQ178">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR178">
         <v>1.54</v>
@@ -38275,7 +38293,7 @@
         <v>1.38</v>
       </c>
       <c r="AP179">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ179">
         <v>1.46</v>
@@ -38609,7 +38627,7 @@
         <v>203</v>
       </c>
       <c r="P181" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q181">
         <v>2.45</v>
@@ -38690,7 +38708,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ181">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR181">
         <v>1.49</v>
@@ -38815,7 +38833,7 @@
         <v>204</v>
       </c>
       <c r="P182" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -39021,7 +39039,7 @@
         <v>191</v>
       </c>
       <c r="P183" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q183">
         <v>3.5</v>
@@ -39102,7 +39120,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ183">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR183">
         <v>1.5</v>
@@ -39227,7 +39245,7 @@
         <v>90</v>
       </c>
       <c r="P184" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q184">
         <v>3.7</v>
@@ -39305,7 +39323,7 @@
         <v>0.89</v>
       </c>
       <c r="AP184">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ184">
         <v>0.93</v>
@@ -39433,7 +39451,7 @@
         <v>205</v>
       </c>
       <c r="P185" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q185">
         <v>2.49</v>
@@ -39511,10 +39529,10 @@
         <v>0.67</v>
       </c>
       <c r="AP185">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ185">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR185">
         <v>1.34</v>
@@ -39639,7 +39657,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39717,7 +39735,7 @@
         <v>1.44</v>
       </c>
       <c r="AP186">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ186">
         <v>1.21</v>
@@ -40051,7 +40069,7 @@
         <v>131</v>
       </c>
       <c r="P188" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40132,7 +40150,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ188">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR188">
         <v>1.37</v>
@@ -40335,7 +40353,7 @@
         <v>0.78</v>
       </c>
       <c r="AP189">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AQ189">
         <v>0.57</v>
@@ -40541,7 +40559,7 @@
         <v>1.22</v>
       </c>
       <c r="AP190">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ190">
         <v>1.29</v>
@@ -40750,7 +40768,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ191">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR191">
         <v>1.52</v>
@@ -40953,7 +40971,7 @@
         <v>1.89</v>
       </c>
       <c r="AP192">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ192">
         <v>1.92</v>
@@ -41162,7 +41180,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ193">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR193">
         <v>1.85</v>
@@ -41368,7 +41386,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ194">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR194">
         <v>1.73</v>
@@ -41493,7 +41511,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -41699,7 +41717,7 @@
         <v>210</v>
       </c>
       <c r="P196" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q196">
         <v>3.75</v>
@@ -41777,7 +41795,7 @@
         <v>0.89</v>
       </c>
       <c r="AP196">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ196">
         <v>0.64</v>
@@ -41905,7 +41923,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -41983,7 +42001,7 @@
         <v>1</v>
       </c>
       <c r="AP197">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AQ197">
         <v>1.23</v>
@@ -42189,7 +42207,7 @@
         <v>1.4</v>
       </c>
       <c r="AP198">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ198">
         <v>1.29</v>
@@ -42398,7 +42416,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ199">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR199">
         <v>1.24</v>
@@ -42604,7 +42622,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ200">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR200">
         <v>1.37</v>
@@ -42935,7 +42953,7 @@
         <v>214</v>
       </c>
       <c r="P202" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q202">
         <v>2.75</v>
@@ -43016,7 +43034,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ202">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR202">
         <v>1.48</v>
@@ -43141,7 +43159,7 @@
         <v>215</v>
       </c>
       <c r="P203" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q203">
         <v>3.75</v>
@@ -43222,7 +43240,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ203">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR203">
         <v>1.66</v>
@@ -43425,7 +43443,7 @@
         <v>0.9</v>
       </c>
       <c r="AP204">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ204">
         <v>0.79</v>
@@ -43553,7 +43571,7 @@
         <v>217</v>
       </c>
       <c r="P205" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q205">
         <v>3.25</v>
@@ -43634,7 +43652,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ205">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR205">
         <v>1.45</v>
@@ -43837,7 +43855,7 @@
         <v>0.8</v>
       </c>
       <c r="AP206">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ206">
         <v>0.64</v>
@@ -44043,7 +44061,7 @@
         <v>0.7</v>
       </c>
       <c r="AP207">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ207">
         <v>0.57</v>
@@ -44171,7 +44189,7 @@
         <v>220</v>
       </c>
       <c r="P208" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q208">
         <v>2.88</v>
@@ -44661,10 +44679,10 @@
         <v>0.9</v>
       </c>
       <c r="AP210">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ210">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR210">
         <v>1.34</v>
@@ -44789,7 +44807,7 @@
         <v>222</v>
       </c>
       <c r="P211" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -44995,7 +45013,7 @@
         <v>90</v>
       </c>
       <c r="P212" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q212">
         <v>2.69</v>
@@ -45073,7 +45091,7 @@
         <v>1.22</v>
       </c>
       <c r="AP212">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ212">
         <v>1.23</v>
@@ -45201,7 +45219,7 @@
         <v>95</v>
       </c>
       <c r="P213" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q213">
         <v>2.87</v>
@@ -45407,7 +45425,7 @@
         <v>223</v>
       </c>
       <c r="P214" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q214">
         <v>3.1</v>
@@ -45691,10 +45709,10 @@
         <v>0.6</v>
       </c>
       <c r="AP215">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AQ215">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR215">
         <v>1.45</v>
@@ -45897,7 +45915,7 @@
         <v>0.82</v>
       </c>
       <c r="AP216">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ216">
         <v>0.79</v>
@@ -46025,7 +46043,7 @@
         <v>225</v>
       </c>
       <c r="P217" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q217">
         <v>2.34</v>
@@ -46312,7 +46330,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ218">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR218">
         <v>1.42</v>
@@ -46515,7 +46533,7 @@
         <v>1.27</v>
       </c>
       <c r="AP219">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AQ219">
         <v>1.29</v>
@@ -46724,7 +46742,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ220">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR220">
         <v>1.78</v>
@@ -46927,10 +46945,10 @@
         <v>1.4</v>
       </c>
       <c r="AP221">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ221">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR221">
         <v>1.82</v>
@@ -47133,7 +47151,7 @@
         <v>1.7</v>
       </c>
       <c r="AP222">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ222">
         <v>1.62</v>
@@ -47339,7 +47357,7 @@
         <v>0.64</v>
       </c>
       <c r="AP223">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ223">
         <v>0.57</v>
@@ -47467,7 +47485,7 @@
         <v>131</v>
       </c>
       <c r="P224" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -47545,10 +47563,10 @@
         <v>1.4</v>
       </c>
       <c r="AP224">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ224">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR224">
         <v>1.33</v>
@@ -47673,7 +47691,7 @@
         <v>229</v>
       </c>
       <c r="P225" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q225">
         <v>4.33</v>
@@ -47754,7 +47772,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ225">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR225">
         <v>1.47</v>
@@ -47960,7 +47978,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ226">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR226">
         <v>1.47</v>
@@ -48085,7 +48103,7 @@
         <v>231</v>
       </c>
       <c r="P227" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -48291,7 +48309,7 @@
         <v>226</v>
       </c>
       <c r="P228" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q228">
         <v>2.15</v>
@@ -48372,7 +48390,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ228">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR228">
         <v>1.5</v>
@@ -48497,7 +48515,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q229">
         <v>4.33</v>
@@ -48575,7 +48593,7 @@
         <v>1</v>
       </c>
       <c r="AP229">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ229">
         <v>0.93</v>
@@ -49196,7 +49214,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ232">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR232">
         <v>1.7</v>
@@ -49321,7 +49339,7 @@
         <v>90</v>
       </c>
       <c r="P233" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q233">
         <v>2.8</v>
@@ -49605,7 +49623,7 @@
         <v>1.55</v>
       </c>
       <c r="AP234">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ234">
         <v>1.21</v>
@@ -49811,10 +49829,10 @@
         <v>1.58</v>
       </c>
       <c r="AP235">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AQ235">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR235">
         <v>1.17</v>
@@ -50017,7 +50035,7 @@
         <v>1.4</v>
       </c>
       <c r="AP236">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ236">
         <v>1.23</v>
@@ -50223,7 +50241,7 @@
         <v>1.91</v>
       </c>
       <c r="AP237">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AQ237">
         <v>1.92</v>
@@ -50351,7 +50369,7 @@
         <v>240</v>
       </c>
       <c r="P238" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q238">
         <v>2.5</v>
@@ -50432,7 +50450,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ238">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR238">
         <v>1.4</v>
@@ -50638,7 +50656,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ239">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR239">
         <v>1.7</v>
@@ -51047,7 +51065,7 @@
         <v>0.83</v>
       </c>
       <c r="AP241">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ241">
         <v>0.79</v>
@@ -51175,7 +51193,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q242">
         <v>2.85</v>
@@ -51381,7 +51399,7 @@
         <v>242</v>
       </c>
       <c r="P243" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q243">
         <v>3.6</v>
@@ -51459,10 +51477,10 @@
         <v>1.36</v>
       </c>
       <c r="AP243">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ243">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR243">
         <v>1.36</v>
@@ -51587,7 +51605,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q244">
         <v>2.8</v>
@@ -51665,7 +51683,7 @@
         <v>0.58</v>
       </c>
       <c r="AP244">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ244">
         <v>0.57</v>
@@ -51793,7 +51811,7 @@
         <v>244</v>
       </c>
       <c r="P245" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q245">
         <v>4</v>
@@ -51871,7 +51889,7 @@
         <v>1.42</v>
       </c>
       <c r="AP245">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ245">
         <v>1.21</v>
@@ -52205,7 +52223,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q247">
         <v>3.3</v>
@@ -52411,7 +52429,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q248">
         <v>3</v>
@@ -52492,7 +52510,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ248">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR248">
         <v>1.23</v>
@@ -52617,7 +52635,7 @@
         <v>90</v>
       </c>
       <c r="P249" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q249">
         <v>4.5</v>
@@ -52698,7 +52716,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ249">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR249">
         <v>1.33</v>
@@ -52823,7 +52841,7 @@
         <v>245</v>
       </c>
       <c r="P250" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q250">
         <v>3.2</v>
@@ -53107,7 +53125,7 @@
         <v>0.92</v>
       </c>
       <c r="AP251">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ251">
         <v>0.93</v>
@@ -53235,7 +53253,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q252">
         <v>2.2</v>
@@ -53313,10 +53331,10 @@
         <v>1</v>
       </c>
       <c r="AP252">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ252">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR252">
         <v>1.42</v>
@@ -53441,7 +53459,7 @@
         <v>248</v>
       </c>
       <c r="P253" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q253">
         <v>2.71</v>
@@ -53519,7 +53537,7 @@
         <v>1.33</v>
       </c>
       <c r="AP253">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ253">
         <v>1.46</v>
@@ -53728,7 +53746,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ254">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR254">
         <v>1.65</v>
@@ -53934,7 +53952,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ255">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR255">
         <v>1.66</v>
@@ -54137,10 +54155,10 @@
         <v>1</v>
       </c>
       <c r="AP256">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AQ256">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR256">
         <v>1.42</v>
@@ -54265,7 +54283,7 @@
         <v>249</v>
       </c>
       <c r="P257" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q257">
         <v>3.7</v>
@@ -54343,7 +54361,7 @@
         <v>1.83</v>
       </c>
       <c r="AP257">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ257">
         <v>1.92</v>
@@ -54552,7 +54570,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ258">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR258">
         <v>1.65</v>
@@ -54755,10 +54773,10 @@
         <v>1.46</v>
       </c>
       <c r="AP259">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ259">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR259">
         <v>1.72</v>
@@ -54961,7 +54979,7 @@
         <v>1.27</v>
       </c>
       <c r="AP260">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AQ260">
         <v>1.23</v>
@@ -55167,10 +55185,10 @@
         <v>1.17</v>
       </c>
       <c r="AP261">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ261">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR261">
         <v>1.42</v>
@@ -55501,7 +55519,7 @@
         <v>253</v>
       </c>
       <c r="P263" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q263">
         <v>3.1</v>
@@ -55707,7 +55725,7 @@
         <v>254</v>
       </c>
       <c r="P264" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q264">
         <v>3</v>
@@ -55785,7 +55803,7 @@
         <v>1.31</v>
       </c>
       <c r="AP264">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ264">
         <v>1.29</v>
@@ -56119,7 +56137,7 @@
         <v>250</v>
       </c>
       <c r="P266" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -56531,7 +56549,7 @@
         <v>256</v>
       </c>
       <c r="P268" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -57306,6 +57324,1860 @@
       </c>
       <c r="BP271">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>6652112</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F272">
+        <v>28</v>
+      </c>
+      <c r="G272" t="s">
+        <v>70</v>
+      </c>
+      <c r="H272" t="s">
+        <v>82</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>1</v>
+      </c>
+      <c r="O272" t="s">
+        <v>131</v>
+      </c>
+      <c r="P272" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q272">
+        <v>3.3</v>
+      </c>
+      <c r="R272">
+        <v>2.1</v>
+      </c>
+      <c r="S272">
+        <v>3</v>
+      </c>
+      <c r="T272">
+        <v>1.37</v>
+      </c>
+      <c r="U272">
+        <v>2.85</v>
+      </c>
+      <c r="V272">
+        <v>2.7</v>
+      </c>
+      <c r="W272">
+        <v>1.41</v>
+      </c>
+      <c r="X272">
+        <v>6.45</v>
+      </c>
+      <c r="Y272">
+        <v>1.09</v>
+      </c>
+      <c r="Z272">
+        <v>2.88</v>
+      </c>
+      <c r="AA272">
+        <v>3.2</v>
+      </c>
+      <c r="AB272">
+        <v>2.4</v>
+      </c>
+      <c r="AC272">
+        <v>1.03</v>
+      </c>
+      <c r="AD272">
+        <v>8.5</v>
+      </c>
+      <c r="AE272">
+        <v>1.28</v>
+      </c>
+      <c r="AF272">
+        <v>3.5</v>
+      </c>
+      <c r="AG272">
+        <v>1.87</v>
+      </c>
+      <c r="AH272">
+        <v>1.85</v>
+      </c>
+      <c r="AI272">
+        <v>1.68</v>
+      </c>
+      <c r="AJ272">
+        <v>2.1</v>
+      </c>
+      <c r="AK272">
+        <v>1.5</v>
+      </c>
+      <c r="AL272">
+        <v>1.3</v>
+      </c>
+      <c r="AM272">
+        <v>1.44</v>
+      </c>
+      <c r="AN272">
+        <v>1.5</v>
+      </c>
+      <c r="AO272">
+        <v>2</v>
+      </c>
+      <c r="AP272">
+        <v>1.6</v>
+      </c>
+      <c r="AQ272">
+        <v>1.86</v>
+      </c>
+      <c r="AR272">
+        <v>1.39</v>
+      </c>
+      <c r="AS272">
+        <v>1.61</v>
+      </c>
+      <c r="AT272">
+        <v>3</v>
+      </c>
+      <c r="AU272">
+        <v>7</v>
+      </c>
+      <c r="AV272">
+        <v>4</v>
+      </c>
+      <c r="AW272">
+        <v>5</v>
+      </c>
+      <c r="AX272">
+        <v>4</v>
+      </c>
+      <c r="AY272">
+        <v>12</v>
+      </c>
+      <c r="AZ272">
+        <v>8</v>
+      </c>
+      <c r="BA272">
+        <v>6</v>
+      </c>
+      <c r="BB272">
+        <v>9</v>
+      </c>
+      <c r="BC272">
+        <v>15</v>
+      </c>
+      <c r="BD272">
+        <v>2.2</v>
+      </c>
+      <c r="BE272">
+        <v>8</v>
+      </c>
+      <c r="BF272">
+        <v>1.91</v>
+      </c>
+      <c r="BG272">
+        <v>1.27</v>
+      </c>
+      <c r="BH272">
+        <v>3.55</v>
+      </c>
+      <c r="BI272">
+        <v>1.5</v>
+      </c>
+      <c r="BJ272">
+        <v>2.48</v>
+      </c>
+      <c r="BK272">
+        <v>1.9</v>
+      </c>
+      <c r="BL272">
+        <v>1.9</v>
+      </c>
+      <c r="BM272">
+        <v>2.45</v>
+      </c>
+      <c r="BN272">
+        <v>1.5</v>
+      </c>
+      <c r="BO272">
+        <v>3.4</v>
+      </c>
+      <c r="BP272">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>6652117</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F273">
+        <v>28</v>
+      </c>
+      <c r="G273" t="s">
+        <v>78</v>
+      </c>
+      <c r="H273" t="s">
+        <v>84</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273">
+        <v>2</v>
+      </c>
+      <c r="M273">
+        <v>3</v>
+      </c>
+      <c r="N273">
+        <v>5</v>
+      </c>
+      <c r="O273" t="s">
+        <v>258</v>
+      </c>
+      <c r="P273" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q273">
+        <v>3.75</v>
+      </c>
+      <c r="R273">
+        <v>1.95</v>
+      </c>
+      <c r="S273">
+        <v>2.95</v>
+      </c>
+      <c r="T273">
+        <v>1.51</v>
+      </c>
+      <c r="U273">
+        <v>2.4</v>
+      </c>
+      <c r="V273">
+        <v>3.45</v>
+      </c>
+      <c r="W273">
+        <v>1.27</v>
+      </c>
+      <c r="X273">
+        <v>9.4</v>
+      </c>
+      <c r="Y273">
+        <v>1.03</v>
+      </c>
+      <c r="Z273">
+        <v>4.13</v>
+      </c>
+      <c r="AA273">
+        <v>3.35</v>
+      </c>
+      <c r="AB273">
+        <v>1.92</v>
+      </c>
+      <c r="AC273">
+        <v>1.06</v>
+      </c>
+      <c r="AD273">
+        <v>7</v>
+      </c>
+      <c r="AE273">
+        <v>1.45</v>
+      </c>
+      <c r="AF273">
+        <v>2.65</v>
+      </c>
+      <c r="AG273">
+        <v>2.19</v>
+      </c>
+      <c r="AH273">
+        <v>1.6</v>
+      </c>
+      <c r="AI273">
+        <v>2</v>
+      </c>
+      <c r="AJ273">
+        <v>1.75</v>
+      </c>
+      <c r="AK273">
+        <v>1.6</v>
+      </c>
+      <c r="AL273">
+        <v>1.35</v>
+      </c>
+      <c r="AM273">
+        <v>1.3</v>
+      </c>
+      <c r="AN273">
+        <v>1.15</v>
+      </c>
+      <c r="AO273">
+        <v>1.36</v>
+      </c>
+      <c r="AP273">
+        <v>1.07</v>
+      </c>
+      <c r="AQ273">
+        <v>1.47</v>
+      </c>
+      <c r="AR273">
+        <v>1.34</v>
+      </c>
+      <c r="AS273">
+        <v>1.41</v>
+      </c>
+      <c r="AT273">
+        <v>2.75</v>
+      </c>
+      <c r="AU273">
+        <v>7</v>
+      </c>
+      <c r="AV273">
+        <v>8</v>
+      </c>
+      <c r="AW273">
+        <v>1</v>
+      </c>
+      <c r="AX273">
+        <v>5</v>
+      </c>
+      <c r="AY273">
+        <v>8</v>
+      </c>
+      <c r="AZ273">
+        <v>13</v>
+      </c>
+      <c r="BA273">
+        <v>3</v>
+      </c>
+      <c r="BB273">
+        <v>6</v>
+      </c>
+      <c r="BC273">
+        <v>9</v>
+      </c>
+      <c r="BD273">
+        <v>2</v>
+      </c>
+      <c r="BE273">
+        <v>7.5</v>
+      </c>
+      <c r="BF273">
+        <v>2.1</v>
+      </c>
+      <c r="BG273">
+        <v>1.47</v>
+      </c>
+      <c r="BH273">
+        <v>2.6</v>
+      </c>
+      <c r="BI273">
+        <v>1.88</v>
+      </c>
+      <c r="BJ273">
+        <v>1.92</v>
+      </c>
+      <c r="BK273">
+        <v>2.45</v>
+      </c>
+      <c r="BL273">
+        <v>1.5</v>
+      </c>
+      <c r="BM273">
+        <v>3.4</v>
+      </c>
+      <c r="BN273">
+        <v>1.29</v>
+      </c>
+      <c r="BO273">
+        <v>5</v>
+      </c>
+      <c r="BP273">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>6652116</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F274">
+        <v>28</v>
+      </c>
+      <c r="G274" t="s">
+        <v>77</v>
+      </c>
+      <c r="H274" t="s">
+        <v>79</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>1</v>
+      </c>
+      <c r="O274" t="s">
+        <v>144</v>
+      </c>
+      <c r="P274" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q274">
+        <v>2.9</v>
+      </c>
+      <c r="R274">
+        <v>2.05</v>
+      </c>
+      <c r="S274">
+        <v>3.6</v>
+      </c>
+      <c r="T274">
+        <v>1.43</v>
+      </c>
+      <c r="U274">
+        <v>2.65</v>
+      </c>
+      <c r="V274">
+        <v>2.95</v>
+      </c>
+      <c r="W274">
+        <v>1.35</v>
+      </c>
+      <c r="X274">
+        <v>7.4</v>
+      </c>
+      <c r="Y274">
+        <v>1.06</v>
+      </c>
+      <c r="Z274">
+        <v>2.31</v>
+      </c>
+      <c r="AA274">
+        <v>3.25</v>
+      </c>
+      <c r="AB274">
+        <v>3.13</v>
+      </c>
+      <c r="AC274">
+        <v>1.04</v>
+      </c>
+      <c r="AD274">
+        <v>7.8</v>
+      </c>
+      <c r="AE274">
+        <v>1.33</v>
+      </c>
+      <c r="AF274">
+        <v>3.2</v>
+      </c>
+      <c r="AG274">
+        <v>2</v>
+      </c>
+      <c r="AH274">
+        <v>1.72</v>
+      </c>
+      <c r="AI274">
+        <v>1.78</v>
+      </c>
+      <c r="AJ274">
+        <v>1.95</v>
+      </c>
+      <c r="AK274">
+        <v>1.35</v>
+      </c>
+      <c r="AL274">
+        <v>1.3</v>
+      </c>
+      <c r="AM274">
+        <v>1.6</v>
+      </c>
+      <c r="AN274">
+        <v>0.86</v>
+      </c>
+      <c r="AO274">
+        <v>1.31</v>
+      </c>
+      <c r="AP274">
+        <v>1</v>
+      </c>
+      <c r="AQ274">
+        <v>1.21</v>
+      </c>
+      <c r="AR274">
+        <v>1.46</v>
+      </c>
+      <c r="AS274">
+        <v>1.21</v>
+      </c>
+      <c r="AT274">
+        <v>2.67</v>
+      </c>
+      <c r="AU274">
+        <v>7</v>
+      </c>
+      <c r="AV274">
+        <v>3</v>
+      </c>
+      <c r="AW274">
+        <v>3</v>
+      </c>
+      <c r="AX274">
+        <v>3</v>
+      </c>
+      <c r="AY274">
+        <v>10</v>
+      </c>
+      <c r="AZ274">
+        <v>6</v>
+      </c>
+      <c r="BA274">
+        <v>7</v>
+      </c>
+      <c r="BB274">
+        <v>2</v>
+      </c>
+      <c r="BC274">
+        <v>9</v>
+      </c>
+      <c r="BD274">
+        <v>1.55</v>
+      </c>
+      <c r="BE274">
+        <v>8</v>
+      </c>
+      <c r="BF274">
+        <v>2.92</v>
+      </c>
+      <c r="BG274">
+        <v>1.3</v>
+      </c>
+      <c r="BH274">
+        <v>3.3</v>
+      </c>
+      <c r="BI274">
+        <v>1.56</v>
+      </c>
+      <c r="BJ274">
+        <v>2.33</v>
+      </c>
+      <c r="BK274">
+        <v>2</v>
+      </c>
+      <c r="BL274">
+        <v>1.8</v>
+      </c>
+      <c r="BM274">
+        <v>2.63</v>
+      </c>
+      <c r="BN274">
+        <v>1.45</v>
+      </c>
+      <c r="BO274">
+        <v>3.65</v>
+      </c>
+      <c r="BP274">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>6652115</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F275">
+        <v>28</v>
+      </c>
+      <c r="G275" t="s">
+        <v>85</v>
+      </c>
+      <c r="H275" t="s">
+        <v>81</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>2</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>2</v>
+      </c>
+      <c r="O275" t="s">
+        <v>259</v>
+      </c>
+      <c r="P275" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q275">
+        <v>3.3</v>
+      </c>
+      <c r="R275">
+        <v>2</v>
+      </c>
+      <c r="S275">
+        <v>3.3</v>
+      </c>
+      <c r="T275">
+        <v>1.47</v>
+      </c>
+      <c r="U275">
+        <v>2.5</v>
+      </c>
+      <c r="V275">
+        <v>3.25</v>
+      </c>
+      <c r="W275">
+        <v>1.3</v>
+      </c>
+      <c r="X275">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y275">
+        <v>1.04</v>
+      </c>
+      <c r="Z275">
+        <v>2.61</v>
+      </c>
+      <c r="AA275">
+        <v>3.05</v>
+      </c>
+      <c r="AB275">
+        <v>2.86</v>
+      </c>
+      <c r="AC275">
+        <v>1.04</v>
+      </c>
+      <c r="AD275">
+        <v>7.8</v>
+      </c>
+      <c r="AE275">
+        <v>1.4</v>
+      </c>
+      <c r="AF275">
+        <v>2.8</v>
+      </c>
+      <c r="AG275">
+        <v>2.14</v>
+      </c>
+      <c r="AH275">
+        <v>1.63</v>
+      </c>
+      <c r="AI275">
+        <v>1.9</v>
+      </c>
+      <c r="AJ275">
+        <v>1.83</v>
+      </c>
+      <c r="AK275">
+        <v>1.44</v>
+      </c>
+      <c r="AL275">
+        <v>1.33</v>
+      </c>
+      <c r="AM275">
+        <v>1.5</v>
+      </c>
+      <c r="AN275">
+        <v>1.54</v>
+      </c>
+      <c r="AO275">
+        <v>0.77</v>
+      </c>
+      <c r="AP275">
+        <v>1.64</v>
+      </c>
+      <c r="AQ275">
+        <v>0.71</v>
+      </c>
+      <c r="AR275">
+        <v>1.28</v>
+      </c>
+      <c r="AS275">
+        <v>1.24</v>
+      </c>
+      <c r="AT275">
+        <v>2.52</v>
+      </c>
+      <c r="AU275">
+        <v>6</v>
+      </c>
+      <c r="AV275">
+        <v>4</v>
+      </c>
+      <c r="AW275">
+        <v>2</v>
+      </c>
+      <c r="AX275">
+        <v>7</v>
+      </c>
+      <c r="AY275">
+        <v>8</v>
+      </c>
+      <c r="AZ275">
+        <v>11</v>
+      </c>
+      <c r="BA275">
+        <v>2</v>
+      </c>
+      <c r="BB275">
+        <v>3</v>
+      </c>
+      <c r="BC275">
+        <v>5</v>
+      </c>
+      <c r="BD275">
+        <v>2.44</v>
+      </c>
+      <c r="BE275">
+        <v>8</v>
+      </c>
+      <c r="BF275">
+        <v>1.75</v>
+      </c>
+      <c r="BG275">
+        <v>1.29</v>
+      </c>
+      <c r="BH275">
+        <v>3.4</v>
+      </c>
+      <c r="BI275">
+        <v>1.53</v>
+      </c>
+      <c r="BJ275">
+        <v>2.4</v>
+      </c>
+      <c r="BK275">
+        <v>1.95</v>
+      </c>
+      <c r="BL275">
+        <v>1.85</v>
+      </c>
+      <c r="BM275">
+        <v>2.55</v>
+      </c>
+      <c r="BN275">
+        <v>1.48</v>
+      </c>
+      <c r="BO275">
+        <v>3.5</v>
+      </c>
+      <c r="BP275">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>6652114</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F276">
+        <v>28</v>
+      </c>
+      <c r="G276" t="s">
+        <v>74</v>
+      </c>
+      <c r="H276" t="s">
+        <v>88</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>0</v>
+      </c>
+      <c r="O276" t="s">
+        <v>90</v>
+      </c>
+      <c r="P276" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q276">
+        <v>4.55</v>
+      </c>
+      <c r="R276">
+        <v>1.99</v>
+      </c>
+      <c r="S276">
+        <v>2.7</v>
+      </c>
+      <c r="T276">
+        <v>1.5</v>
+      </c>
+      <c r="U276">
+        <v>2.49</v>
+      </c>
+      <c r="V276">
+        <v>3.34</v>
+      </c>
+      <c r="W276">
+        <v>1.3</v>
+      </c>
+      <c r="X276">
+        <v>9.1</v>
+      </c>
+      <c r="Y276">
+        <v>1.04</v>
+      </c>
+      <c r="Z276">
+        <v>2.97</v>
+      </c>
+      <c r="AA276">
+        <v>3.13</v>
+      </c>
+      <c r="AB276">
+        <v>2.47</v>
+      </c>
+      <c r="AC276">
+        <v>1.05</v>
+      </c>
+      <c r="AD276">
+        <v>7.1</v>
+      </c>
+      <c r="AE276">
+        <v>1.41</v>
+      </c>
+      <c r="AF276">
+        <v>2.61</v>
+      </c>
+      <c r="AG276">
+        <v>2.11</v>
+      </c>
+      <c r="AH276">
+        <v>1.65</v>
+      </c>
+      <c r="AI276">
+        <v>2.04</v>
+      </c>
+      <c r="AJ276">
+        <v>1.73</v>
+      </c>
+      <c r="AK276">
+        <v>1.77</v>
+      </c>
+      <c r="AL276">
+        <v>1.33</v>
+      </c>
+      <c r="AM276">
+        <v>1.27</v>
+      </c>
+      <c r="AN276">
+        <v>0.62</v>
+      </c>
+      <c r="AO276">
+        <v>1.08</v>
+      </c>
+      <c r="AP276">
+        <v>0.64</v>
+      </c>
+      <c r="AQ276">
+        <v>1.07</v>
+      </c>
+      <c r="AR276">
+        <v>1.4</v>
+      </c>
+      <c r="AS276">
+        <v>1.27</v>
+      </c>
+      <c r="AT276">
+        <v>2.67</v>
+      </c>
+      <c r="AU276">
+        <v>3</v>
+      </c>
+      <c r="AV276">
+        <v>6</v>
+      </c>
+      <c r="AW276">
+        <v>3</v>
+      </c>
+      <c r="AX276">
+        <v>6</v>
+      </c>
+      <c r="AY276">
+        <v>6</v>
+      </c>
+      <c r="AZ276">
+        <v>12</v>
+      </c>
+      <c r="BA276">
+        <v>1</v>
+      </c>
+      <c r="BB276">
+        <v>6</v>
+      </c>
+      <c r="BC276">
+        <v>7</v>
+      </c>
+      <c r="BD276">
+        <v>2.62</v>
+      </c>
+      <c r="BE276">
+        <v>8</v>
+      </c>
+      <c r="BF276">
+        <v>1.69</v>
+      </c>
+      <c r="BG276">
+        <v>1.32</v>
+      </c>
+      <c r="BH276">
+        <v>3.2</v>
+      </c>
+      <c r="BI276">
+        <v>1.58</v>
+      </c>
+      <c r="BJ276">
+        <v>2.28</v>
+      </c>
+      <c r="BK276">
+        <v>2.02</v>
+      </c>
+      <c r="BL276">
+        <v>1.74</v>
+      </c>
+      <c r="BM276">
+        <v>2.7</v>
+      </c>
+      <c r="BN276">
+        <v>1.43</v>
+      </c>
+      <c r="BO276">
+        <v>3.8</v>
+      </c>
+      <c r="BP276">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>6652109</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F277">
+        <v>28</v>
+      </c>
+      <c r="G277" t="s">
+        <v>71</v>
+      </c>
+      <c r="H277" t="s">
+        <v>80</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>2</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+      <c r="M277">
+        <v>1</v>
+      </c>
+      <c r="N277">
+        <v>2</v>
+      </c>
+      <c r="O277" t="s">
+        <v>260</v>
+      </c>
+      <c r="P277" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q277">
+        <v>3</v>
+      </c>
+      <c r="R277">
+        <v>2</v>
+      </c>
+      <c r="S277">
+        <v>3.6</v>
+      </c>
+      <c r="T277">
+        <v>1.46</v>
+      </c>
+      <c r="U277">
+        <v>2.55</v>
+      </c>
+      <c r="V277">
+        <v>3.15</v>
+      </c>
+      <c r="W277">
+        <v>1.32</v>
+      </c>
+      <c r="X277">
+        <v>8.35</v>
+      </c>
+      <c r="Y277">
+        <v>1.05</v>
+      </c>
+      <c r="Z277">
+        <v>2.38</v>
+      </c>
+      <c r="AA277">
+        <v>3.17</v>
+      </c>
+      <c r="AB277">
+        <v>3.07</v>
+      </c>
+      <c r="AC277">
+        <v>1.03</v>
+      </c>
+      <c r="AD277">
+        <v>7.9</v>
+      </c>
+      <c r="AE277">
+        <v>1.38</v>
+      </c>
+      <c r="AF277">
+        <v>2.9</v>
+      </c>
+      <c r="AG277">
+        <v>2.15</v>
+      </c>
+      <c r="AH277">
+        <v>1.62</v>
+      </c>
+      <c r="AI277">
+        <v>1.9</v>
+      </c>
+      <c r="AJ277">
+        <v>1.85</v>
+      </c>
+      <c r="AK277">
+        <v>1.4</v>
+      </c>
+      <c r="AL277">
+        <v>1.33</v>
+      </c>
+      <c r="AM277">
+        <v>1.5</v>
+      </c>
+      <c r="AN277">
+        <v>1.57</v>
+      </c>
+      <c r="AO277">
+        <v>1.14</v>
+      </c>
+      <c r="AP277">
+        <v>1.53</v>
+      </c>
+      <c r="AQ277">
+        <v>1.13</v>
+      </c>
+      <c r="AR277">
+        <v>1.35</v>
+      </c>
+      <c r="AS277">
+        <v>1.42</v>
+      </c>
+      <c r="AT277">
+        <v>2.77</v>
+      </c>
+      <c r="AU277">
+        <v>4</v>
+      </c>
+      <c r="AV277">
+        <v>3</v>
+      </c>
+      <c r="AW277">
+        <v>7</v>
+      </c>
+      <c r="AX277">
+        <v>6</v>
+      </c>
+      <c r="AY277">
+        <v>11</v>
+      </c>
+      <c r="AZ277">
+        <v>9</v>
+      </c>
+      <c r="BA277">
+        <v>7</v>
+      </c>
+      <c r="BB277">
+        <v>4</v>
+      </c>
+      <c r="BC277">
+        <v>11</v>
+      </c>
+      <c r="BD277">
+        <v>1.95</v>
+      </c>
+      <c r="BE277">
+        <v>7.5</v>
+      </c>
+      <c r="BF277">
+        <v>2.1</v>
+      </c>
+      <c r="BG277">
+        <v>1.36</v>
+      </c>
+      <c r="BH277">
+        <v>3</v>
+      </c>
+      <c r="BI277">
+        <v>1.66</v>
+      </c>
+      <c r="BJ277">
+        <v>2.15</v>
+      </c>
+      <c r="BK277">
+        <v>2.12</v>
+      </c>
+      <c r="BL277">
+        <v>1.66</v>
+      </c>
+      <c r="BM277">
+        <v>2.9</v>
+      </c>
+      <c r="BN277">
+        <v>1.38</v>
+      </c>
+      <c r="BO277">
+        <v>4.1</v>
+      </c>
+      <c r="BP277">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>6652111</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F278">
+        <v>28</v>
+      </c>
+      <c r="G278" t="s">
+        <v>89</v>
+      </c>
+      <c r="H278" t="s">
+        <v>87</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+      <c r="O278" t="s">
+        <v>90</v>
+      </c>
+      <c r="P278" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q278">
+        <v>2.55</v>
+      </c>
+      <c r="R278">
+        <v>2.05</v>
+      </c>
+      <c r="S278">
+        <v>4.33</v>
+      </c>
+      <c r="T278">
+        <v>1.43</v>
+      </c>
+      <c r="U278">
+        <v>2.65</v>
+      </c>
+      <c r="V278">
+        <v>2.95</v>
+      </c>
+      <c r="W278">
+        <v>1.35</v>
+      </c>
+      <c r="X278">
+        <v>7.4</v>
+      </c>
+      <c r="Y278">
+        <v>1.06</v>
+      </c>
+      <c r="Z278">
+        <v>1.93</v>
+      </c>
+      <c r="AA278">
+        <v>3.45</v>
+      </c>
+      <c r="AB278">
+        <v>3.95</v>
+      </c>
+      <c r="AC278">
+        <v>1.03</v>
+      </c>
+      <c r="AD278">
+        <v>8.4</v>
+      </c>
+      <c r="AE278">
+        <v>1.33</v>
+      </c>
+      <c r="AF278">
+        <v>3.1</v>
+      </c>
+      <c r="AG278">
+        <v>1.95</v>
+      </c>
+      <c r="AH278">
+        <v>1.76</v>
+      </c>
+      <c r="AI278">
+        <v>1.87</v>
+      </c>
+      <c r="AJ278">
+        <v>1.87</v>
+      </c>
+      <c r="AK278">
+        <v>1.22</v>
+      </c>
+      <c r="AL278">
+        <v>1.3</v>
+      </c>
+      <c r="AM278">
+        <v>1.85</v>
+      </c>
+      <c r="AN278">
+        <v>1.85</v>
+      </c>
+      <c r="AO278">
+        <v>1.07</v>
+      </c>
+      <c r="AP278">
+        <v>1.79</v>
+      </c>
+      <c r="AQ278">
+        <v>1.07</v>
+      </c>
+      <c r="AR278">
+        <v>1.7</v>
+      </c>
+      <c r="AS278">
+        <v>1.45</v>
+      </c>
+      <c r="AT278">
+        <v>3.15</v>
+      </c>
+      <c r="AU278">
+        <v>5</v>
+      </c>
+      <c r="AV278">
+        <v>2</v>
+      </c>
+      <c r="AW278">
+        <v>7</v>
+      </c>
+      <c r="AX278">
+        <v>3</v>
+      </c>
+      <c r="AY278">
+        <v>12</v>
+      </c>
+      <c r="AZ278">
+        <v>5</v>
+      </c>
+      <c r="BA278">
+        <v>7</v>
+      </c>
+      <c r="BB278">
+        <v>3</v>
+      </c>
+      <c r="BC278">
+        <v>10</v>
+      </c>
+      <c r="BD278">
+        <v>1.75</v>
+      </c>
+      <c r="BE278">
+        <v>8</v>
+      </c>
+      <c r="BF278">
+        <v>2.44</v>
+      </c>
+      <c r="BG278">
+        <v>1.36</v>
+      </c>
+      <c r="BH278">
+        <v>2.95</v>
+      </c>
+      <c r="BI278">
+        <v>1.67</v>
+      </c>
+      <c r="BJ278">
+        <v>2.12</v>
+      </c>
+      <c r="BK278">
+        <v>2.15</v>
+      </c>
+      <c r="BL278">
+        <v>1.65</v>
+      </c>
+      <c r="BM278">
+        <v>2.95</v>
+      </c>
+      <c r="BN278">
+        <v>1.37</v>
+      </c>
+      <c r="BO278">
+        <v>4.1</v>
+      </c>
+      <c r="BP278">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>6652110</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F279">
+        <v>28</v>
+      </c>
+      <c r="G279" t="s">
+        <v>72</v>
+      </c>
+      <c r="H279" t="s">
+        <v>73</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279">
+        <v>2</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>3</v>
+      </c>
+      <c r="N279">
+        <v>4</v>
+      </c>
+      <c r="O279" t="s">
+        <v>261</v>
+      </c>
+      <c r="P279" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q279">
+        <v>2.8</v>
+      </c>
+      <c r="R279">
+        <v>1.84</v>
+      </c>
+      <c r="S279">
+        <v>5.2</v>
+      </c>
+      <c r="T279">
+        <v>1.65</v>
+      </c>
+      <c r="U279">
+        <v>2.16</v>
+      </c>
+      <c r="V279">
+        <v>4.15</v>
+      </c>
+      <c r="W279">
+        <v>1.21</v>
+      </c>
+      <c r="X279">
+        <v>12</v>
+      </c>
+      <c r="Y279">
+        <v>1.02</v>
+      </c>
+      <c r="Z279">
+        <v>1.77</v>
+      </c>
+      <c r="AA279">
+        <v>3.18</v>
+      </c>
+      <c r="AB279">
+        <v>5.6</v>
+      </c>
+      <c r="AC279">
+        <v>1.1</v>
+      </c>
+      <c r="AD279">
+        <v>5.4</v>
+      </c>
+      <c r="AE279">
+        <v>1.56</v>
+      </c>
+      <c r="AF279">
+        <v>2.27</v>
+      </c>
+      <c r="AG279">
+        <v>2.94</v>
+      </c>
+      <c r="AH279">
+        <v>1.35</v>
+      </c>
+      <c r="AI279">
+        <v>2.45</v>
+      </c>
+      <c r="AJ279">
+        <v>1.51</v>
+      </c>
+      <c r="AK279">
+        <v>1.22</v>
+      </c>
+      <c r="AL279">
+        <v>1.38</v>
+      </c>
+      <c r="AM279">
+        <v>1.78</v>
+      </c>
+      <c r="AN279">
+        <v>2.23</v>
+      </c>
+      <c r="AO279">
+        <v>0.92</v>
+      </c>
+      <c r="AP279">
+        <v>2.07</v>
+      </c>
+      <c r="AQ279">
+        <v>1.07</v>
+      </c>
+      <c r="AR279">
+        <v>1.12</v>
+      </c>
+      <c r="AS279">
+        <v>1.14</v>
+      </c>
+      <c r="AT279">
+        <v>2.26</v>
+      </c>
+      <c r="AU279">
+        <v>8</v>
+      </c>
+      <c r="AV279">
+        <v>7</v>
+      </c>
+      <c r="AW279">
+        <v>4</v>
+      </c>
+      <c r="AX279">
+        <v>6</v>
+      </c>
+      <c r="AY279">
+        <v>12</v>
+      </c>
+      <c r="AZ279">
+        <v>13</v>
+      </c>
+      <c r="BA279">
+        <v>3</v>
+      </c>
+      <c r="BB279">
+        <v>5</v>
+      </c>
+      <c r="BC279">
+        <v>8</v>
+      </c>
+      <c r="BD279">
+        <v>1.91</v>
+      </c>
+      <c r="BE279">
+        <v>7</v>
+      </c>
+      <c r="BF279">
+        <v>2.2</v>
+      </c>
+      <c r="BG279">
+        <v>1.57</v>
+      </c>
+      <c r="BH279">
+        <v>2.3</v>
+      </c>
+      <c r="BI279">
+        <v>2.02</v>
+      </c>
+      <c r="BJ279">
+        <v>1.74</v>
+      </c>
+      <c r="BK279">
+        <v>2.75</v>
+      </c>
+      <c r="BL279">
+        <v>1.41</v>
+      </c>
+      <c r="BM279">
+        <v>3.9</v>
+      </c>
+      <c r="BN279">
+        <v>1.23</v>
+      </c>
+      <c r="BO279">
+        <v>6.25</v>
+      </c>
+      <c r="BP279">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>6652113</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F280">
+        <v>28</v>
+      </c>
+      <c r="G280" t="s">
+        <v>83</v>
+      </c>
+      <c r="H280" t="s">
+        <v>76</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+      <c r="N280">
+        <v>1</v>
+      </c>
+      <c r="O280" t="s">
+        <v>90</v>
+      </c>
+      <c r="P280" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q280">
+        <v>3</v>
+      </c>
+      <c r="R280">
+        <v>1.95</v>
+      </c>
+      <c r="S280">
+        <v>3.75</v>
+      </c>
+      <c r="T280">
+        <v>1.51</v>
+      </c>
+      <c r="U280">
+        <v>2.4</v>
+      </c>
+      <c r="V280">
+        <v>3.25</v>
+      </c>
+      <c r="W280">
+        <v>1.3</v>
+      </c>
+      <c r="X280">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y280">
+        <v>1.04</v>
+      </c>
+      <c r="Z280">
+        <v>2.29</v>
+      </c>
+      <c r="AA280">
+        <v>3.15</v>
+      </c>
+      <c r="AB280">
+        <v>3.25</v>
+      </c>
+      <c r="AC280">
+        <v>1.05</v>
+      </c>
+      <c r="AD280">
+        <v>7.5</v>
+      </c>
+      <c r="AE280">
+        <v>1.42</v>
+      </c>
+      <c r="AF280">
+        <v>2.7</v>
+      </c>
+      <c r="AG280">
+        <v>2.15</v>
+      </c>
+      <c r="AH280">
+        <v>1.62</v>
+      </c>
+      <c r="AI280">
+        <v>1.95</v>
+      </c>
+      <c r="AJ280">
+        <v>1.78</v>
+      </c>
+      <c r="AK280">
+        <v>1.3</v>
+      </c>
+      <c r="AL280">
+        <v>1.33</v>
+      </c>
+      <c r="AM280">
+        <v>1.6</v>
+      </c>
+      <c r="AN280">
+        <v>1.85</v>
+      </c>
+      <c r="AO280">
+        <v>1.31</v>
+      </c>
+      <c r="AP280">
+        <v>1.71</v>
+      </c>
+      <c r="AQ280">
+        <v>1.43</v>
+      </c>
+      <c r="AR280">
+        <v>1.42</v>
+      </c>
+      <c r="AS280">
+        <v>1.3</v>
+      </c>
+      <c r="AT280">
+        <v>2.72</v>
+      </c>
+      <c r="AU280">
+        <v>2</v>
+      </c>
+      <c r="AV280">
+        <v>3</v>
+      </c>
+      <c r="AW280">
+        <v>6</v>
+      </c>
+      <c r="AX280">
+        <v>9</v>
+      </c>
+      <c r="AY280">
+        <v>8</v>
+      </c>
+      <c r="AZ280">
+        <v>12</v>
+      </c>
+      <c r="BA280">
+        <v>2</v>
+      </c>
+      <c r="BB280">
+        <v>5</v>
+      </c>
+      <c r="BC280">
+        <v>7</v>
+      </c>
+      <c r="BD280">
+        <v>1.69</v>
+      </c>
+      <c r="BE280">
+        <v>8</v>
+      </c>
+      <c r="BF280">
+        <v>2.62</v>
+      </c>
+      <c r="BG280">
+        <v>1.36</v>
+      </c>
+      <c r="BH280">
+        <v>3</v>
+      </c>
+      <c r="BI280">
+        <v>1.66</v>
+      </c>
+      <c r="BJ280">
+        <v>2.15</v>
+      </c>
+      <c r="BK280">
+        <v>2.12</v>
+      </c>
+      <c r="BL280">
+        <v>1.66</v>
+      </c>
+      <c r="BM280">
+        <v>2.88</v>
+      </c>
+      <c r="BN280">
+        <v>1.38</v>
+      </c>
+      <c r="BO280">
+        <v>4.1</v>
+      </c>
+      <c r="BP280">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="374">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1134,6 +1134,9 @@
   <si>
     <t>['45+6', '54', '62']</t>
   </si>
+  <si>
+    <t>['31', '73']</t>
+  </si>
 </sst>
 </file>
 
@@ -1494,7 +1497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4924,7 +4927,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ17">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5127,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ18">
         <v>1.43</v>
@@ -6157,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ23">
         <v>0.79</v>
@@ -8220,7 +8223,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ33">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.15</v>
@@ -10483,7 +10486,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ44">
         <v>0.71</v>
@@ -12752,7 +12755,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ55">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.96</v>
@@ -14809,7 +14812,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ65">
         <v>1.07</v>
@@ -17078,7 +17081,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ76">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>1.1</v>
@@ -19547,7 +19550,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ88">
         <v>0.93</v>
@@ -20374,7 +20377,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ92">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR92">
         <v>1.89</v>
@@ -23873,7 +23876,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ109">
         <v>0.57</v>
@@ -24906,7 +24909,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ114">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR114">
         <v>1.35</v>
@@ -26966,7 +26969,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ124">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR124">
         <v>1.38</v>
@@ -27993,7 +27996,7 @@
         <v>0.83</v>
       </c>
       <c r="AP129">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ129">
         <v>0.64</v>
@@ -31498,7 +31501,7 @@
         <v>1</v>
       </c>
       <c r="AQ146">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR146">
         <v>1.56</v>
@@ -31907,7 +31910,7 @@
         <v>0.86</v>
       </c>
       <c r="AP148">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ148">
         <v>1.13</v>
@@ -35000,7 +35003,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ163">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR163">
         <v>1.25</v>
@@ -37469,7 +37472,7 @@
         <v>1.13</v>
       </c>
       <c r="AP175">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ175">
         <v>1.07</v>
@@ -40974,7 +40977,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ192">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR192">
         <v>1.33</v>
@@ -41589,7 +41592,7 @@
         <v>1.22</v>
       </c>
       <c r="AP195">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ195">
         <v>1.46</v>
@@ -43237,7 +43240,7 @@
         <v>2.1</v>
       </c>
       <c r="AP203">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ203">
         <v>1.86</v>
@@ -45300,7 +45303,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ213">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR213">
         <v>1.81</v>
@@ -48799,7 +48802,7 @@
         <v>1.36</v>
       </c>
       <c r="AP230">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ230">
         <v>1.29</v>
@@ -50244,7 +50247,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ237">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR237">
         <v>1.47</v>
@@ -53743,7 +53746,7 @@
         <v>1.17</v>
       </c>
       <c r="AP254">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ254">
         <v>1.21</v>
@@ -54364,7 +54367,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ257">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR257">
         <v>1.35</v>
@@ -59177,6 +59180,212 @@
         <v>4.1</v>
       </c>
       <c r="BP280">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>6652118</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45362.69791666666</v>
+      </c>
+      <c r="F281">
+        <v>28</v>
+      </c>
+      <c r="G281" t="s">
+        <v>86</v>
+      </c>
+      <c r="H281" t="s">
+        <v>75</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>2</v>
+      </c>
+      <c r="N281">
+        <v>2</v>
+      </c>
+      <c r="O281" t="s">
+        <v>90</v>
+      </c>
+      <c r="P281" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q281">
+        <v>3.12</v>
+      </c>
+      <c r="R281">
+        <v>2.01</v>
+      </c>
+      <c r="S281">
+        <v>4.19</v>
+      </c>
+      <c r="T281">
+        <v>1.54</v>
+      </c>
+      <c r="U281">
+        <v>2.48</v>
+      </c>
+      <c r="V281">
+        <v>3.48</v>
+      </c>
+      <c r="W281">
+        <v>1.28</v>
+      </c>
+      <c r="X281">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y281">
+        <v>1.04</v>
+      </c>
+      <c r="Z281">
+        <v>2.3</v>
+      </c>
+      <c r="AA281">
+        <v>2.88</v>
+      </c>
+      <c r="AB281">
+        <v>3.25</v>
+      </c>
+      <c r="AC281">
+        <v>1.11</v>
+      </c>
+      <c r="AD281">
+        <v>6.89</v>
+      </c>
+      <c r="AE281">
+        <v>1.57</v>
+      </c>
+      <c r="AF281">
+        <v>2.4</v>
+      </c>
+      <c r="AG281">
+        <v>2.4</v>
+      </c>
+      <c r="AH281">
+        <v>1.5</v>
+      </c>
+      <c r="AI281">
+        <v>2.06</v>
+      </c>
+      <c r="AJ281">
+        <v>1.72</v>
+      </c>
+      <c r="AK281">
+        <v>1.33</v>
+      </c>
+      <c r="AL281">
+        <v>1.36</v>
+      </c>
+      <c r="AM281">
+        <v>1.64</v>
+      </c>
+      <c r="AN281">
+        <v>1.77</v>
+      </c>
+      <c r="AO281">
+        <v>1.92</v>
+      </c>
+      <c r="AP281">
+        <v>1.64</v>
+      </c>
+      <c r="AQ281">
+        <v>2</v>
+      </c>
+      <c r="AR281">
+        <v>1.64</v>
+      </c>
+      <c r="AS281">
+        <v>1.24</v>
+      </c>
+      <c r="AT281">
+        <v>2.88</v>
+      </c>
+      <c r="AU281">
+        <v>2</v>
+      </c>
+      <c r="AV281">
+        <v>7</v>
+      </c>
+      <c r="AW281">
+        <v>2</v>
+      </c>
+      <c r="AX281">
+        <v>4</v>
+      </c>
+      <c r="AY281">
+        <v>4</v>
+      </c>
+      <c r="AZ281">
+        <v>11</v>
+      </c>
+      <c r="BA281">
+        <v>4</v>
+      </c>
+      <c r="BB281">
+        <v>7</v>
+      </c>
+      <c r="BC281">
+        <v>11</v>
+      </c>
+      <c r="BD281">
+        <v>1.82</v>
+      </c>
+      <c r="BE281">
+        <v>7.5</v>
+      </c>
+      <c r="BF281">
+        <v>2.34</v>
+      </c>
+      <c r="BG281">
+        <v>1.36</v>
+      </c>
+      <c r="BH281">
+        <v>3</v>
+      </c>
+      <c r="BI281">
+        <v>1.66</v>
+      </c>
+      <c r="BJ281">
+        <v>2.15</v>
+      </c>
+      <c r="BK281">
+        <v>2.12</v>
+      </c>
+      <c r="BL281">
+        <v>1.66</v>
+      </c>
+      <c r="BM281">
+        <v>2.88</v>
+      </c>
+      <c r="BN281">
+        <v>1.38</v>
+      </c>
+      <c r="BO281">
+        <v>4.1</v>
+      </c>
+      <c r="BP281">
         <v>1.22</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="385">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -802,6 +802,30 @@
     <t>['45+2']</t>
   </si>
   <si>
+    <t>['76', '82']</t>
+  </si>
+  <si>
+    <t>['7', '22', '64']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['53', '64']</t>
+  </si>
+  <si>
+    <t>['21', '54', '61']</t>
+  </si>
+  <si>
+    <t>['53', '74']</t>
+  </si>
+  <si>
+    <t>['8', '45+3', '65']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['54', '72', '74', '90']</t>
   </si>
   <si>
@@ -1105,9 +1129,6 @@
     <t>['12', '82']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['34', '81']</t>
   </si>
   <si>
@@ -1136,6 +1157,18 @@
   </si>
   <si>
     <t>['31', '73']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['59', '68', '90+6']</t>
+  </si>
+  <si>
+    <t>['16', '45+3', '67', '78']</t>
+  </si>
+  <si>
+    <t>['9', '44']</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP281"/>
+  <dimension ref="A1:BP291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1837,7 +1870,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ2">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2374,7 +2407,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2452,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.47</v>
@@ -2580,7 +2613,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2864,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>1.07</v>
@@ -2992,7 +3025,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3070,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ8">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3198,7 +3231,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3279,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3688,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ11">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3816,7 +3849,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3894,10 +3927,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ12">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4100,10 +4133,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ13">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4306,10 +4339,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ14">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4640,7 +4673,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4718,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ16">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5336,10 +5369,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ19">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5542,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ20">
         <v>1.07</v>
@@ -5751,7 +5784,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ21">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5876,7 +5909,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5954,7 +5987,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ22">
         <v>1.86</v>
@@ -6163,7 +6196,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ23">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>1.66</v>
@@ -6288,7 +6321,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6369,7 +6402,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
         <v>1.31</v>
@@ -6572,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
         <v>1.13</v>
@@ -7190,10 +7223,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR28">
         <v>1.29</v>
@@ -7318,7 +7351,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7602,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ30">
         <v>1.43</v>
@@ -7811,7 +7844,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ31">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR31">
         <v>2.08</v>
@@ -8017,7 +8050,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ32">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR32">
         <v>1.83</v>
@@ -8220,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -8348,7 +8381,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8426,10 +8459,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ34">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR34">
         <v>1.86</v>
@@ -8632,10 +8665,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ35">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR35">
         <v>1.4</v>
@@ -8841,7 +8874,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ36">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR36">
         <v>1.97</v>
@@ -9044,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ37">
         <v>1.21</v>
@@ -9250,10 +9283,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ38">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR38">
         <v>0.44</v>
@@ -9662,10 +9695,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ40">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR40">
         <v>2.1</v>
@@ -9790,7 +9823,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9868,10 +9901,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR41">
         <v>1.26</v>
@@ -9996,7 +10029,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q42">
         <v>2.65</v>
@@ -10202,7 +10235,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q43">
         <v>2.65</v>
@@ -10283,7 +10316,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ43">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR43">
         <v>1.51</v>
@@ -10820,7 +10853,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q46">
         <v>2.7</v>
@@ -11026,7 +11059,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -11104,10 +11137,10 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -11516,7 +11549,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ49">
         <v>1.43</v>
@@ -11644,7 +11677,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11722,7 +11755,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ50">
         <v>1.13</v>
@@ -11931,7 +11964,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ51">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR51">
         <v>1.6</v>
@@ -12056,7 +12089,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12137,7 +12170,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ52">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR52">
         <v>1.67</v>
@@ -12262,7 +12295,7 @@
         <v>124</v>
       </c>
       <c r="P53" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q53">
         <v>2.1</v>
@@ -12340,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ53">
         <v>1.21</v>
@@ -12546,10 +12579,10 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -12674,7 +12707,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12752,7 +12785,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ55">
         <v>2</v>
@@ -12880,7 +12913,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12958,7 +12991,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ56">
         <v>1.07</v>
@@ -13086,7 +13119,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q57">
         <v>4.5</v>
@@ -13167,7 +13200,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ57">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR57">
         <v>1.28</v>
@@ -13370,10 +13403,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
+        <v>1.47</v>
+      </c>
+      <c r="AQ58">
         <v>1.36</v>
-      </c>
-      <c r="AQ58">
-        <v>1.23</v>
       </c>
       <c r="AR58">
         <v>1.08</v>
@@ -13579,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR59">
         <v>1.91</v>
@@ -13704,7 +13737,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13782,10 +13815,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ60">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR60">
         <v>1.15</v>
@@ -13988,10 +14021,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ61">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -14116,7 +14149,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -14322,7 +14355,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14403,7 +14436,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ63">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR63">
         <v>1.33</v>
@@ -14528,7 +14561,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14940,7 +14973,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -15018,7 +15051,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66">
         <v>1.47</v>
@@ -15224,7 +15257,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ67">
         <v>0.71</v>
@@ -15352,7 +15385,7 @@
         <v>90</v>
       </c>
       <c r="P68" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q68">
         <v>3.4</v>
@@ -15430,7 +15463,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ68">
         <v>1.07</v>
@@ -15558,7 +15591,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q69">
         <v>2.65</v>
@@ -15845,7 +15878,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ70">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR70">
         <v>1.4</v>
@@ -16048,10 +16081,10 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ71">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR71">
         <v>1.97</v>
@@ -16254,7 +16287,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ72">
         <v>1.07</v>
@@ -16460,10 +16493,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ73">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR73">
         <v>1.75</v>
@@ -16669,7 +16702,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ74">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR74">
         <v>1.35</v>
@@ -16794,7 +16827,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q75">
         <v>2.55</v>
@@ -16875,7 +16908,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ75">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR75">
         <v>1.62</v>
@@ -17078,7 +17111,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -17206,7 +17239,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17284,7 +17317,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ77">
         <v>1.21</v>
@@ -17493,7 +17526,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ78">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR78">
         <v>1.41</v>
@@ -17696,7 +17729,7 @@
         <v>1.67</v>
       </c>
       <c r="AP79">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ79">
         <v>1.07</v>
@@ -17905,7 +17938,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ80">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR80">
         <v>1.41</v>
@@ -18030,7 +18063,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -18236,7 +18269,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18314,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
         <v>1.43</v>
@@ -18520,10 +18553,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ83">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18726,10 +18759,10 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ84">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR84">
         <v>1.55</v>
@@ -18932,7 +18965,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ85">
         <v>1.13</v>
@@ -19060,7 +19093,7 @@
         <v>90</v>
       </c>
       <c r="P86" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19344,10 +19377,10 @@
         <v>1.25</v>
       </c>
       <c r="AP87">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR87">
         <v>1.35</v>
@@ -19553,7 +19586,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ88">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR88">
         <v>1.75</v>
@@ -19884,7 +19917,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q90">
         <v>2.81</v>
@@ -19965,7 +19998,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ90">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR90">
         <v>1.84</v>
@@ -20171,7 +20204,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ91">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR91">
         <v>1.43</v>
@@ -20502,7 +20535,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20786,7 +20819,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ94">
         <v>1.07</v>
@@ -20995,7 +21028,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ95">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR95">
         <v>1.49</v>
@@ -21201,7 +21234,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ96">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR96">
         <v>1.43</v>
@@ -21326,7 +21359,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q97">
         <v>2.9</v>
@@ -21404,10 +21437,10 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ97">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR97">
         <v>1.62</v>
@@ -21532,7 +21565,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21610,7 +21643,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ98">
         <v>1.86</v>
@@ -21738,7 +21771,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21819,7 +21852,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ99">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21944,7 +21977,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q100">
         <v>2.45</v>
@@ -22022,7 +22055,7 @@
         <v>1</v>
       </c>
       <c r="AP100">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ100">
         <v>1.21</v>
@@ -22150,7 +22183,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22228,10 +22261,10 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ101">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR101">
         <v>1.93</v>
@@ -22562,7 +22595,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22849,7 +22882,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ104">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR104">
         <v>1.47</v>
@@ -22974,7 +23007,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q105">
         <v>2.6</v>
@@ -23052,7 +23085,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ105">
         <v>1.07</v>
@@ -23180,7 +23213,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q106">
         <v>2.5</v>
@@ -23258,7 +23291,7 @@
         <v>0.4</v>
       </c>
       <c r="AP106">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ106">
         <v>0.71</v>
@@ -23464,10 +23497,10 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ107">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR107">
         <v>1.66</v>
@@ -23592,7 +23625,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23670,10 +23703,10 @@
         <v>0.75</v>
       </c>
       <c r="AP108">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR108">
         <v>1.41</v>
@@ -23798,7 +23831,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q109">
         <v>2.5</v>
@@ -23879,7 +23912,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ109">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR109">
         <v>1.7</v>
@@ -24210,7 +24243,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24288,10 +24321,10 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ111">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24416,7 +24449,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q112">
         <v>2.27</v>
@@ -24622,7 +24655,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24700,10 +24733,10 @@
         <v>1.8</v>
       </c>
       <c r="AP113">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ113">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR113">
         <v>1.37</v>
@@ -25034,7 +25067,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -25115,7 +25148,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ115">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR115">
         <v>1.37</v>
@@ -25240,7 +25273,7 @@
         <v>167</v>
       </c>
       <c r="P116" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q116">
         <v>2.55</v>
@@ -25318,10 +25351,10 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ116">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR116">
         <v>1.35</v>
@@ -25446,7 +25479,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q117">
         <v>3.5</v>
@@ -25527,7 +25560,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ117">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR117">
         <v>1.59</v>
@@ -25652,7 +25685,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q118">
         <v>2.7</v>
@@ -25730,7 +25763,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ118">
         <v>1.07</v>
@@ -25936,7 +25969,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ119">
         <v>1.47</v>
@@ -26064,7 +26097,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q120">
         <v>1.9</v>
@@ -26142,10 +26175,10 @@
         <v>0.8</v>
       </c>
       <c r="AP120">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ120">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR120">
         <v>1.64</v>
@@ -26760,7 +26793,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ123">
         <v>1.13</v>
@@ -26888,7 +26921,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q124">
         <v>3.45</v>
@@ -26966,7 +26999,7 @@
         <v>1.83</v>
       </c>
       <c r="AP124">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
         <v>2</v>
@@ -27172,10 +27205,10 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ125">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR125">
         <v>1.62</v>
@@ -27300,7 +27333,7 @@
         <v>174</v>
       </c>
       <c r="P126" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q126">
         <v>3.8</v>
@@ -27378,10 +27411,10 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ126">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27506,7 +27539,7 @@
         <v>175</v>
       </c>
       <c r="P127" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q127">
         <v>3.35</v>
@@ -27587,7 +27620,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ127">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR127">
         <v>1.37</v>
@@ -27793,7 +27826,7 @@
         <v>1</v>
       </c>
       <c r="AQ128">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR128">
         <v>1.56</v>
@@ -27918,7 +27951,7 @@
         <v>90</v>
       </c>
       <c r="P129" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q129">
         <v>2.95</v>
@@ -27999,7 +28032,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ129">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR129">
         <v>1.72</v>
@@ -28202,7 +28235,7 @@
         <v>2.33</v>
       </c>
       <c r="AP130">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ130">
         <v>1.86</v>
@@ -28330,7 +28363,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q131">
         <v>2.2</v>
@@ -28614,7 +28647,7 @@
         <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ132">
         <v>0.71</v>
@@ -28823,7 +28856,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ133">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR133">
         <v>1.57</v>
@@ -29026,7 +29059,7 @@
         <v>1.33</v>
       </c>
       <c r="AP134">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ134">
         <v>1.47</v>
@@ -29154,7 +29187,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q135">
         <v>2.35</v>
@@ -29232,10 +29265,10 @@
         <v>1.17</v>
       </c>
       <c r="AP135">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ135">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR135">
         <v>1.51</v>
@@ -29360,7 +29393,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q136">
         <v>2.9</v>
@@ -29566,7 +29599,7 @@
         <v>179</v>
       </c>
       <c r="P137" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q137">
         <v>3.85</v>
@@ -29644,7 +29677,7 @@
         <v>1.5</v>
       </c>
       <c r="AP137">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ137">
         <v>1.07</v>
@@ -29853,7 +29886,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ138">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR138">
         <v>1.27</v>
@@ -29978,7 +30011,7 @@
         <v>115</v>
       </c>
       <c r="P139" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q139">
         <v>3.1</v>
@@ -30059,7 +30092,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ139">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR139">
         <v>1.3</v>
@@ -30184,7 +30217,7 @@
         <v>180</v>
       </c>
       <c r="P140" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q140">
         <v>2.35</v>
@@ -30262,10 +30295,10 @@
         <v>2.17</v>
       </c>
       <c r="AP140">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ140">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR140">
         <v>1.81</v>
@@ -30390,7 +30423,7 @@
         <v>181</v>
       </c>
       <c r="P141" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q141">
         <v>2.2</v>
@@ -30596,7 +30629,7 @@
         <v>182</v>
       </c>
       <c r="P142" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q142">
         <v>3.4</v>
@@ -30674,10 +30707,10 @@
         <v>0.71</v>
       </c>
       <c r="AP142">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ142">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR142">
         <v>1.41</v>
@@ -30880,10 +30913,10 @@
         <v>1.14</v>
       </c>
       <c r="AP143">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR143">
         <v>1.3</v>
@@ -31086,7 +31119,7 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ144">
         <v>1.86</v>
@@ -31420,7 +31453,7 @@
         <v>90</v>
       </c>
       <c r="P146" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31707,7 +31740,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ147">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR147">
         <v>1.32</v>
@@ -32116,10 +32149,10 @@
         <v>0.86</v>
       </c>
       <c r="AP149">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ149">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR149">
         <v>1.63</v>
@@ -32322,10 +32355,10 @@
         <v>1.14</v>
       </c>
       <c r="AP150">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ150">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR150">
         <v>1.59</v>
@@ -32450,7 +32483,7 @@
         <v>138</v>
       </c>
       <c r="P151" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q151">
         <v>2.9</v>
@@ -32737,7 +32770,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ152">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR152">
         <v>1.77</v>
@@ -32862,7 +32895,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q153">
         <v>2.9</v>
@@ -32940,10 +32973,10 @@
         <v>1.71</v>
       </c>
       <c r="AP153">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ153">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR153">
         <v>1.49</v>
@@ -33146,10 +33179,10 @@
         <v>1.38</v>
       </c>
       <c r="AP154">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ154">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR154">
         <v>1.9</v>
@@ -33352,7 +33385,7 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ155">
         <v>1.43</v>
@@ -33686,7 +33719,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -33764,7 +33797,7 @@
         <v>0.86</v>
       </c>
       <c r="AP157">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ157">
         <v>1.07</v>
@@ -33892,7 +33925,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q158">
         <v>2.85</v>
@@ -33970,10 +34003,10 @@
         <v>1.43</v>
       </c>
       <c r="AP158">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ158">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR158">
         <v>1.45</v>
@@ -34385,7 +34418,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ160">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR160">
         <v>1.4</v>
@@ -34794,7 +34827,7 @@
         <v>0.75</v>
       </c>
       <c r="AP162">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ162">
         <v>1.13</v>
@@ -35128,7 +35161,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q164">
         <v>2.7</v>
@@ -35206,10 +35239,10 @@
         <v>0.88</v>
       </c>
       <c r="AP164">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ164">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR164">
         <v>1.45</v>
@@ -35412,10 +35445,10 @@
         <v>1.63</v>
       </c>
       <c r="AP165">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ165">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR165">
         <v>1.61</v>
@@ -35540,7 +35573,7 @@
         <v>141</v>
       </c>
       <c r="P166" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q166">
         <v>2.7</v>
@@ -35827,7 +35860,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ167">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR167">
         <v>1.3</v>
@@ -35952,7 +35985,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -36158,7 +36191,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q169">
         <v>4.4</v>
@@ -36364,7 +36397,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q170">
         <v>3.3</v>
@@ -36442,10 +36475,10 @@
         <v>1</v>
       </c>
       <c r="AP170">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ170">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR170">
         <v>1.66</v>
@@ -36570,7 +36603,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q171">
         <v>3.3</v>
@@ -36648,10 +36681,10 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ171">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR171">
         <v>1.35</v>
@@ -36857,7 +36890,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ172">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR172">
         <v>1.8</v>
@@ -37060,10 +37093,10 @@
         <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ173">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR173">
         <v>1.77</v>
@@ -37188,7 +37221,7 @@
         <v>161</v>
       </c>
       <c r="P174" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q174">
         <v>4.2</v>
@@ -37678,10 +37711,10 @@
         <v>1.22</v>
       </c>
       <c r="AP176">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ176">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR176">
         <v>1.45</v>
@@ -37806,7 +37839,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q177">
         <v>2.9</v>
@@ -37884,10 +37917,10 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ177">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR177">
         <v>1.85</v>
@@ -38299,7 +38332,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ179">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR179">
         <v>1.37</v>
@@ -38502,7 +38535,7 @@
         <v>0.75</v>
       </c>
       <c r="AP180">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ180">
         <v>1.07</v>
@@ -38630,7 +38663,7 @@
         <v>203</v>
       </c>
       <c r="P181" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q181">
         <v>2.45</v>
@@ -38708,7 +38741,7 @@
         <v>1.38</v>
       </c>
       <c r="AP181">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ181">
         <v>1.21</v>
@@ -38836,7 +38869,7 @@
         <v>204</v>
       </c>
       <c r="P182" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38914,7 +38947,7 @@
         <v>0.78</v>
       </c>
       <c r="AP182">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ182">
         <v>1.07</v>
@@ -39042,7 +39075,7 @@
         <v>191</v>
       </c>
       <c r="P183" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q183">
         <v>3.5</v>
@@ -39120,7 +39153,7 @@
         <v>2</v>
       </c>
       <c r="AP183">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ183">
         <v>1.86</v>
@@ -39248,7 +39281,7 @@
         <v>90</v>
       </c>
       <c r="P184" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q184">
         <v>3.7</v>
@@ -39329,7 +39362,7 @@
         <v>1</v>
       </c>
       <c r="AQ184">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR184">
         <v>1.51</v>
@@ -39454,7 +39487,7 @@
         <v>205</v>
       </c>
       <c r="P185" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q185">
         <v>2.49</v>
@@ -39660,7 +39693,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39741,7 +39774,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ186">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR186">
         <v>1.35</v>
@@ -39944,10 +39977,10 @@
         <v>0.89</v>
       </c>
       <c r="AP187">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ187">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR187">
         <v>1.5</v>
@@ -40072,7 +40105,7 @@
         <v>131</v>
       </c>
       <c r="P188" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40150,7 +40183,7 @@
         <v>0.67</v>
       </c>
       <c r="AP188">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ188">
         <v>1.13</v>
@@ -40359,7 +40392,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ189">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR189">
         <v>1.22</v>
@@ -40565,7 +40598,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ190">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR190">
         <v>1.35</v>
@@ -40768,7 +40801,7 @@
         <v>1.67</v>
       </c>
       <c r="AP191">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ191">
         <v>1.47</v>
@@ -41180,7 +41213,7 @@
         <v>1.33</v>
       </c>
       <c r="AP193">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ193">
         <v>1.21</v>
@@ -41386,7 +41419,7 @@
         <v>1.5</v>
       </c>
       <c r="AP194">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ194">
         <v>1.47</v>
@@ -41514,7 +41547,7 @@
         <v>209</v>
       </c>
       <c r="P195" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -41595,7 +41628,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ195">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR195">
         <v>1.69</v>
@@ -41720,7 +41753,7 @@
         <v>210</v>
       </c>
       <c r="P196" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q196">
         <v>3.75</v>
@@ -41801,7 +41834,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ196">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR196">
         <v>1.25</v>
@@ -41926,7 +41959,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42007,7 +42040,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ197">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR197">
         <v>1.48</v>
@@ -42213,7 +42246,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ198">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR198">
         <v>1.39</v>
@@ -42416,7 +42449,7 @@
         <v>1.56</v>
       </c>
       <c r="AP199">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ199">
         <v>1.07</v>
@@ -42622,7 +42655,7 @@
         <v>1</v>
       </c>
       <c r="AP200">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ200">
         <v>1.07</v>
@@ -42828,10 +42861,10 @@
         <v>1.1</v>
       </c>
       <c r="AP201">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ201">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR201">
         <v>1.71</v>
@@ -42956,7 +42989,7 @@
         <v>214</v>
       </c>
       <c r="P202" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q202">
         <v>2.75</v>
@@ -43034,7 +43067,7 @@
         <v>0.9</v>
       </c>
       <c r="AP202">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ202">
         <v>1.13</v>
@@ -43162,7 +43195,7 @@
         <v>215</v>
       </c>
       <c r="P203" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q203">
         <v>3.75</v>
@@ -43449,7 +43482,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ204">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR204">
         <v>1.4</v>
@@ -43574,7 +43607,7 @@
         <v>217</v>
       </c>
       <c r="P205" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q205">
         <v>3.25</v>
@@ -43652,7 +43685,7 @@
         <v>1.44</v>
       </c>
       <c r="AP205">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ205">
         <v>1.43</v>
@@ -43861,7 +43894,7 @@
         <v>1</v>
       </c>
       <c r="AQ206">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR206">
         <v>1.49</v>
@@ -44067,7 +44100,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ207">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR207">
         <v>1.79</v>
@@ -44192,7 +44225,7 @@
         <v>220</v>
       </c>
       <c r="P208" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q208">
         <v>2.88</v>
@@ -44270,7 +44303,7 @@
         <v>0.8</v>
       </c>
       <c r="AP208">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ208">
         <v>1.07</v>
@@ -44476,10 +44509,10 @@
         <v>1.56</v>
       </c>
       <c r="AP209">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ209">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR209">
         <v>1.55</v>
@@ -44810,7 +44843,7 @@
         <v>222</v>
       </c>
       <c r="P211" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -44888,10 +44921,10 @@
         <v>1.2</v>
       </c>
       <c r="AP211">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ211">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR211">
         <v>1.28</v>
@@ -45016,7 +45049,7 @@
         <v>90</v>
       </c>
       <c r="P212" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q212">
         <v>2.69</v>
@@ -45097,7 +45130,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ212">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR212">
         <v>1.33</v>
@@ -45222,7 +45255,7 @@
         <v>95</v>
       </c>
       <c r="P213" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q213">
         <v>2.87</v>
@@ -45300,7 +45333,7 @@
         <v>1.8</v>
       </c>
       <c r="AP213">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ213">
         <v>2</v>
@@ -45428,7 +45461,7 @@
         <v>223</v>
       </c>
       <c r="P214" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q214">
         <v>3.1</v>
@@ -45506,10 +45539,10 @@
         <v>1.6</v>
       </c>
       <c r="AP214">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ214">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR214">
         <v>1.67</v>
@@ -45921,7 +45954,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ216">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR216">
         <v>1.36</v>
@@ -46046,7 +46079,7 @@
         <v>225</v>
       </c>
       <c r="P217" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q217">
         <v>2.34</v>
@@ -46124,10 +46157,10 @@
         <v>1.2</v>
       </c>
       <c r="AP217">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ217">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR217">
         <v>1.38</v>
@@ -46330,7 +46363,7 @@
         <v>1.2</v>
       </c>
       <c r="AP218">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ218">
         <v>1.21</v>
@@ -46539,7 +46572,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ219">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR219">
         <v>1.18</v>
@@ -46742,7 +46775,7 @@
         <v>1.64</v>
       </c>
       <c r="AP220">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ220">
         <v>1.47</v>
@@ -47157,7 +47190,7 @@
         <v>1</v>
       </c>
       <c r="AQ222">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR222">
         <v>1.47</v>
@@ -47363,7 +47396,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ223">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR223">
         <v>1.36</v>
@@ -47488,7 +47521,7 @@
         <v>131</v>
       </c>
       <c r="P224" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -47694,7 +47727,7 @@
         <v>229</v>
       </c>
       <c r="P225" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q225">
         <v>4.33</v>
@@ -47772,7 +47805,7 @@
         <v>2</v>
       </c>
       <c r="AP225">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ225">
         <v>1.86</v>
@@ -47978,7 +48011,7 @@
         <v>0.91</v>
       </c>
       <c r="AP226">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ226">
         <v>1.13</v>
@@ -48106,7 +48139,7 @@
         <v>231</v>
       </c>
       <c r="P227" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -48184,7 +48217,7 @@
         <v>0.73</v>
       </c>
       <c r="AP227">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ227">
         <v>1.07</v>
@@ -48312,7 +48345,7 @@
         <v>226</v>
       </c>
       <c r="P228" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q228">
         <v>2.15</v>
@@ -48390,7 +48423,7 @@
         <v>0.82</v>
       </c>
       <c r="AP228">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ228">
         <v>1.07</v>
@@ -48518,7 +48551,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q229">
         <v>4.33</v>
@@ -48599,7 +48632,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ229">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR229">
         <v>1.25</v>
@@ -48805,7 +48838,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ230">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR230">
         <v>1.67</v>
@@ -49008,10 +49041,10 @@
         <v>0.73</v>
       </c>
       <c r="AP231">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ231">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR231">
         <v>1.28</v>
@@ -49214,7 +49247,7 @@
         <v>1.27</v>
       </c>
       <c r="AP232">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ232">
         <v>1.07</v>
@@ -49342,7 +49375,7 @@
         <v>90</v>
       </c>
       <c r="P233" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q233">
         <v>2.8</v>
@@ -49420,10 +49453,10 @@
         <v>1.17</v>
       </c>
       <c r="AP233">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ233">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR233">
         <v>1.36</v>
@@ -49629,7 +49662,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ234">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR234">
         <v>1.75</v>
@@ -50041,7 +50074,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ236">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR236">
         <v>1.43</v>
@@ -50372,7 +50405,7 @@
         <v>240</v>
       </c>
       <c r="P238" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q238">
         <v>2.5</v>
@@ -50450,7 +50483,7 @@
         <v>1.18</v>
       </c>
       <c r="AP238">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ238">
         <v>1.21</v>
@@ -50656,7 +50689,7 @@
         <v>0.55</v>
       </c>
       <c r="AP239">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ239">
         <v>0.71</v>
@@ -50862,10 +50895,10 @@
         <v>1.36</v>
       </c>
       <c r="AP240">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ240">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR240">
         <v>1.77</v>
@@ -51071,7 +51104,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ241">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR241">
         <v>1.34</v>
@@ -51196,7 +51229,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q242">
         <v>2.85</v>
@@ -51274,10 +51307,10 @@
         <v>1.55</v>
       </c>
       <c r="AP242">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ242">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR242">
         <v>1.48</v>
@@ -51402,7 +51435,7 @@
         <v>242</v>
       </c>
       <c r="P243" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q243">
         <v>3.6</v>
@@ -51608,7 +51641,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q244">
         <v>2.8</v>
@@ -51689,7 +51722,7 @@
         <v>1</v>
       </c>
       <c r="AQ244">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR244">
         <v>1.45</v>
@@ -51814,7 +51847,7 @@
         <v>244</v>
       </c>
       <c r="P245" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q245">
         <v>4</v>
@@ -51895,7 +51928,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ245">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR245">
         <v>1.25</v>
@@ -52098,10 +52131,10 @@
         <v>1.25</v>
       </c>
       <c r="AP246">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ246">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR246">
         <v>1.51</v>
@@ -52226,7 +52259,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q247">
         <v>3.3</v>
@@ -52304,7 +52337,7 @@
         <v>0.92</v>
       </c>
       <c r="AP247">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ247">
         <v>1.07</v>
@@ -52432,7 +52465,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q248">
         <v>3</v>
@@ -52510,7 +52543,7 @@
         <v>0.83</v>
       </c>
       <c r="AP248">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ248">
         <v>1.13</v>
@@ -52638,7 +52671,7 @@
         <v>90</v>
       </c>
       <c r="P249" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q249">
         <v>4.5</v>
@@ -52716,7 +52749,7 @@
         <v>1.92</v>
       </c>
       <c r="AP249">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ249">
         <v>1.86</v>
@@ -52844,7 +52877,7 @@
         <v>245</v>
       </c>
       <c r="P250" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q250">
         <v>3.2</v>
@@ -52922,10 +52955,10 @@
         <v>0.67</v>
       </c>
       <c r="AP250">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ250">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR250">
         <v>1.41</v>
@@ -53131,7 +53164,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ251">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR251">
         <v>1.32</v>
@@ -53256,7 +53289,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>363</v>
+        <v>269</v>
       </c>
       <c r="Q252">
         <v>2.2</v>
@@ -53462,7 +53495,7 @@
         <v>248</v>
       </c>
       <c r="P253" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q253">
         <v>2.71</v>
@@ -53543,7 +53576,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ253">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR253">
         <v>1.27</v>
@@ -53952,7 +53985,7 @@
         <v>1.33</v>
       </c>
       <c r="AP255">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ255">
         <v>1.43</v>
@@ -54286,7 +54319,7 @@
         <v>249</v>
       </c>
       <c r="P257" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q257">
         <v>3.7</v>
@@ -54570,7 +54603,7 @@
         <v>0.75</v>
       </c>
       <c r="AP258">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ258">
         <v>0.71</v>
@@ -54985,7 +55018,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ260">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR260">
         <v>1.14</v>
@@ -55394,10 +55427,10 @@
         <v>1.67</v>
       </c>
       <c r="AP262">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ262">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR262">
         <v>1.4</v>
@@ -55522,7 +55555,7 @@
         <v>253</v>
       </c>
       <c r="P263" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q263">
         <v>3.1</v>
@@ -55600,10 +55633,10 @@
         <v>0.92</v>
       </c>
       <c r="AP263">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ263">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR263">
         <v>1.7</v>
@@ -55728,7 +55761,7 @@
         <v>254</v>
       </c>
       <c r="P264" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q264">
         <v>3</v>
@@ -55809,7 +55842,7 @@
         <v>1</v>
       </c>
       <c r="AQ264">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR264">
         <v>1.48</v>
@@ -56012,10 +56045,10 @@
         <v>0.77</v>
       </c>
       <c r="AP265">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ265">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR265">
         <v>1.47</v>
@@ -56140,7 +56173,7 @@
         <v>250</v>
       </c>
       <c r="P266" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q266">
         <v>2.88</v>
@@ -56218,10 +56251,10 @@
         <v>1.25</v>
       </c>
       <c r="AP266">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ266">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR266">
         <v>1.39</v>
@@ -56424,10 +56457,10 @@
         <v>1.31</v>
       </c>
       <c r="AP267">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ267">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR267">
         <v>1.27</v>
@@ -56552,7 +56585,7 @@
         <v>256</v>
       </c>
       <c r="P268" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -56630,10 +56663,10 @@
         <v>1.15</v>
       </c>
       <c r="AP268">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ268">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR268">
         <v>1.52</v>
@@ -56836,7 +56869,7 @@
         <v>1.08</v>
       </c>
       <c r="AP269">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ269">
         <v>1.07</v>
@@ -57042,10 +57075,10 @@
         <v>0.54</v>
       </c>
       <c r="AP270">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ270">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR270">
         <v>1.66</v>
@@ -57248,10 +57281,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP271">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ271">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR271">
         <v>1.41</v>
@@ -57582,7 +57615,7 @@
         <v>258</v>
       </c>
       <c r="P273" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q273">
         <v>3.75</v>
@@ -58406,7 +58439,7 @@
         <v>260</v>
       </c>
       <c r="P277" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -58818,7 +58851,7 @@
         <v>261</v>
       </c>
       <c r="P279" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="Q279">
         <v>2.8</v>
@@ -59230,7 +59263,7 @@
         <v>90</v>
       </c>
       <c r="P281" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q281">
         <v>3.12</v>
@@ -59387,6 +59420,2066 @@
       </c>
       <c r="BP281">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>6652123</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F282">
+        <v>29</v>
+      </c>
+      <c r="G282" t="s">
+        <v>82</v>
+      </c>
+      <c r="H282" t="s">
+        <v>83</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>3</v>
+      </c>
+      <c r="O282" t="s">
+        <v>262</v>
+      </c>
+      <c r="P282" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q282">
+        <v>2.2</v>
+      </c>
+      <c r="R282">
+        <v>2.2</v>
+      </c>
+      <c r="S282">
+        <v>4.75</v>
+      </c>
+      <c r="T282">
+        <v>1.36</v>
+      </c>
+      <c r="U282">
+        <v>2.88</v>
+      </c>
+      <c r="V282">
+        <v>2.65</v>
+      </c>
+      <c r="W282">
+        <v>1.42</v>
+      </c>
+      <c r="X282">
+        <v>6</v>
+      </c>
+      <c r="Y282">
+        <v>1.11</v>
+      </c>
+      <c r="Z282">
+        <v>1.62</v>
+      </c>
+      <c r="AA282">
+        <v>3.6</v>
+      </c>
+      <c r="AB282">
+        <v>4.65</v>
+      </c>
+      <c r="AC282">
+        <v>1.05</v>
+      </c>
+      <c r="AD282">
+        <v>9.5</v>
+      </c>
+      <c r="AE282">
+        <v>1.28</v>
+      </c>
+      <c r="AF282">
+        <v>3.6</v>
+      </c>
+      <c r="AG282">
+        <v>1.72</v>
+      </c>
+      <c r="AH282">
+        <v>1.89</v>
+      </c>
+      <c r="AI282">
+        <v>1.77</v>
+      </c>
+      <c r="AJ282">
+        <v>1.91</v>
+      </c>
+      <c r="AK282">
+        <v>1.17</v>
+      </c>
+      <c r="AL282">
+        <v>1.22</v>
+      </c>
+      <c r="AM282">
+        <v>2.15</v>
+      </c>
+      <c r="AN282">
+        <v>1.86</v>
+      </c>
+      <c r="AO282">
+        <v>1.29</v>
+      </c>
+      <c r="AP282">
+        <v>1.93</v>
+      </c>
+      <c r="AQ282">
+        <v>1.2</v>
+      </c>
+      <c r="AR282">
+        <v>1.68</v>
+      </c>
+      <c r="AS282">
+        <v>1.36</v>
+      </c>
+      <c r="AT282">
+        <v>3.04</v>
+      </c>
+      <c r="AU282">
+        <v>8</v>
+      </c>
+      <c r="AV282">
+        <v>4</v>
+      </c>
+      <c r="AW282">
+        <v>10</v>
+      </c>
+      <c r="AX282">
+        <v>5</v>
+      </c>
+      <c r="AY282">
+        <v>18</v>
+      </c>
+      <c r="AZ282">
+        <v>9</v>
+      </c>
+      <c r="BA282">
+        <v>15</v>
+      </c>
+      <c r="BB282">
+        <v>5</v>
+      </c>
+      <c r="BC282">
+        <v>20</v>
+      </c>
+      <c r="BD282">
+        <v>1.59</v>
+      </c>
+      <c r="BE282">
+        <v>8</v>
+      </c>
+      <c r="BF282">
+        <v>2.8</v>
+      </c>
+      <c r="BG282">
+        <v>1.37</v>
+      </c>
+      <c r="BH282">
+        <v>2.95</v>
+      </c>
+      <c r="BI282">
+        <v>1.67</v>
+      </c>
+      <c r="BJ282">
+        <v>2.12</v>
+      </c>
+      <c r="BK282">
+        <v>2.16</v>
+      </c>
+      <c r="BL282">
+        <v>1.65</v>
+      </c>
+      <c r="BM282">
+        <v>2.95</v>
+      </c>
+      <c r="BN282">
+        <v>1.37</v>
+      </c>
+      <c r="BO282">
+        <v>4.1</v>
+      </c>
+      <c r="BP282">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>6652125</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45367.625</v>
+      </c>
+      <c r="F283">
+        <v>29</v>
+      </c>
+      <c r="G283" t="s">
+        <v>84</v>
+      </c>
+      <c r="H283" t="s">
+        <v>74</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+      <c r="L283">
+        <v>3</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>3</v>
+      </c>
+      <c r="O283" t="s">
+        <v>263</v>
+      </c>
+      <c r="P283" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q283">
+        <v>2.15</v>
+      </c>
+      <c r="R283">
+        <v>2.05</v>
+      </c>
+      <c r="S283">
+        <v>6</v>
+      </c>
+      <c r="T283">
+        <v>1.48</v>
+      </c>
+      <c r="U283">
+        <v>2.5</v>
+      </c>
+      <c r="V283">
+        <v>3.2</v>
+      </c>
+      <c r="W283">
+        <v>1.3</v>
+      </c>
+      <c r="X283">
+        <v>7.5</v>
+      </c>
+      <c r="Y283">
+        <v>1.07</v>
+      </c>
+      <c r="Z283">
+        <v>1.62</v>
+      </c>
+      <c r="AA283">
+        <v>3.6</v>
+      </c>
+      <c r="AB283">
+        <v>5.5</v>
+      </c>
+      <c r="AC283">
+        <v>1.07</v>
+      </c>
+      <c r="AD283">
+        <v>8</v>
+      </c>
+      <c r="AE283">
+        <v>1.4</v>
+      </c>
+      <c r="AF283">
+        <v>2.88</v>
+      </c>
+      <c r="AG283">
+        <v>2.2</v>
+      </c>
+      <c r="AH283">
+        <v>1.6</v>
+      </c>
+      <c r="AI283">
+        <v>2.2</v>
+      </c>
+      <c r="AJ283">
+        <v>1.57</v>
+      </c>
+      <c r="AK283">
+        <v>1.11</v>
+      </c>
+      <c r="AL283">
+        <v>1.2</v>
+      </c>
+      <c r="AM283">
+        <v>2.4</v>
+      </c>
+      <c r="AN283">
+        <v>1.31</v>
+      </c>
+      <c r="AO283">
+        <v>0.57</v>
+      </c>
+      <c r="AP283">
+        <v>1.43</v>
+      </c>
+      <c r="AQ283">
+        <v>0.53</v>
+      </c>
+      <c r="AR283">
+        <v>1.48</v>
+      </c>
+      <c r="AS283">
+        <v>1.02</v>
+      </c>
+      <c r="AT283">
+        <v>2.5</v>
+      </c>
+      <c r="AU283">
+        <v>9</v>
+      </c>
+      <c r="AV283">
+        <v>0</v>
+      </c>
+      <c r="AW283">
+        <v>4</v>
+      </c>
+      <c r="AX283">
+        <v>4</v>
+      </c>
+      <c r="AY283">
+        <v>13</v>
+      </c>
+      <c r="AZ283">
+        <v>4</v>
+      </c>
+      <c r="BA283">
+        <v>4</v>
+      </c>
+      <c r="BB283">
+        <v>3</v>
+      </c>
+      <c r="BC283">
+        <v>7</v>
+      </c>
+      <c r="BD283">
+        <v>1.31</v>
+      </c>
+      <c r="BE283">
+        <v>9</v>
+      </c>
+      <c r="BF283">
+        <v>4.43</v>
+      </c>
+      <c r="BG283">
+        <v>1.4</v>
+      </c>
+      <c r="BH283">
+        <v>2.8</v>
+      </c>
+      <c r="BI283">
+        <v>1.74</v>
+      </c>
+      <c r="BJ283">
+        <v>2.02</v>
+      </c>
+      <c r="BK283">
+        <v>2.28</v>
+      </c>
+      <c r="BL283">
+        <v>1.58</v>
+      </c>
+      <c r="BM283">
+        <v>3.1</v>
+      </c>
+      <c r="BN283">
+        <v>1.33</v>
+      </c>
+      <c r="BO283">
+        <v>4.4</v>
+      </c>
+      <c r="BP283">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>6652127</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45367.625</v>
+      </c>
+      <c r="F284">
+        <v>29</v>
+      </c>
+      <c r="G284" t="s">
+        <v>87</v>
+      </c>
+      <c r="H284" t="s">
+        <v>85</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>2</v>
+      </c>
+      <c r="O284" t="s">
+        <v>264</v>
+      </c>
+      <c r="P284" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q284">
+        <v>2.62</v>
+      </c>
+      <c r="R284">
+        <v>2</v>
+      </c>
+      <c r="S284">
+        <v>4.2</v>
+      </c>
+      <c r="T284">
+        <v>1.48</v>
+      </c>
+      <c r="U284">
+        <v>2.5</v>
+      </c>
+      <c r="V284">
+        <v>3.2</v>
+      </c>
+      <c r="W284">
+        <v>1.3</v>
+      </c>
+      <c r="X284">
+        <v>7</v>
+      </c>
+      <c r="Y284">
+        <v>1.08</v>
+      </c>
+      <c r="Z284">
+        <v>1.91</v>
+      </c>
+      <c r="AA284">
+        <v>3.4</v>
+      </c>
+      <c r="AB284">
+        <v>3.8</v>
+      </c>
+      <c r="AC284">
+        <v>1.07</v>
+      </c>
+      <c r="AD284">
+        <v>8</v>
+      </c>
+      <c r="AE284">
+        <v>1.4</v>
+      </c>
+      <c r="AF284">
+        <v>2.9</v>
+      </c>
+      <c r="AG284">
+        <v>2.15</v>
+      </c>
+      <c r="AH284">
+        <v>1.62</v>
+      </c>
+      <c r="AI284">
+        <v>1.91</v>
+      </c>
+      <c r="AJ284">
+        <v>1.77</v>
+      </c>
+      <c r="AK284">
+        <v>1.25</v>
+      </c>
+      <c r="AL284">
+        <v>1.28</v>
+      </c>
+      <c r="AM284">
+        <v>1.77</v>
+      </c>
+      <c r="AN284">
+        <v>0.85</v>
+      </c>
+      <c r="AO284">
+        <v>0.79</v>
+      </c>
+      <c r="AP284">
+        <v>0.86</v>
+      </c>
+      <c r="AQ284">
+        <v>0.8</v>
+      </c>
+      <c r="AR284">
+        <v>1.64</v>
+      </c>
+      <c r="AS284">
+        <v>0.97</v>
+      </c>
+      <c r="AT284">
+        <v>2.61</v>
+      </c>
+      <c r="AU284">
+        <v>4</v>
+      </c>
+      <c r="AV284">
+        <v>2</v>
+      </c>
+      <c r="AW284">
+        <v>3</v>
+      </c>
+      <c r="AX284">
+        <v>4</v>
+      </c>
+      <c r="AY284">
+        <v>7</v>
+      </c>
+      <c r="AZ284">
+        <v>6</v>
+      </c>
+      <c r="BA284">
+        <v>1</v>
+      </c>
+      <c r="BB284">
+        <v>1</v>
+      </c>
+      <c r="BC284">
+        <v>2</v>
+      </c>
+      <c r="BD284">
+        <v>1.37</v>
+      </c>
+      <c r="BE284">
+        <v>9</v>
+      </c>
+      <c r="BF284">
+        <v>3.7</v>
+      </c>
+      <c r="BG284">
+        <v>1.36</v>
+      </c>
+      <c r="BH284">
+        <v>3</v>
+      </c>
+      <c r="BI284">
+        <v>1.65</v>
+      </c>
+      <c r="BJ284">
+        <v>2.16</v>
+      </c>
+      <c r="BK284">
+        <v>2.12</v>
+      </c>
+      <c r="BL284">
+        <v>1.67</v>
+      </c>
+      <c r="BM284">
+        <v>2.88</v>
+      </c>
+      <c r="BN284">
+        <v>1.38</v>
+      </c>
+      <c r="BO284">
+        <v>4.1</v>
+      </c>
+      <c r="BP284">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>6652126</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45367.625</v>
+      </c>
+      <c r="F285">
+        <v>29</v>
+      </c>
+      <c r="G285" t="s">
+        <v>76</v>
+      </c>
+      <c r="H285" t="s">
+        <v>72</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>2</v>
+      </c>
+      <c r="O285" t="s">
+        <v>265</v>
+      </c>
+      <c r="P285" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q285">
+        <v>3</v>
+      </c>
+      <c r="R285">
+        <v>1.77</v>
+      </c>
+      <c r="S285">
+        <v>4.5</v>
+      </c>
+      <c r="T285">
+        <v>1.67</v>
+      </c>
+      <c r="U285">
+        <v>2.1</v>
+      </c>
+      <c r="V285">
+        <v>4.2</v>
+      </c>
+      <c r="W285">
+        <v>1.18</v>
+      </c>
+      <c r="X285">
+        <v>10</v>
+      </c>
+      <c r="Y285">
+        <v>1.04</v>
+      </c>
+      <c r="Z285">
+        <v>2.15</v>
+      </c>
+      <c r="AA285">
+        <v>3</v>
+      </c>
+      <c r="AB285">
+        <v>3.6</v>
+      </c>
+      <c r="AC285">
+        <v>1.14</v>
+      </c>
+      <c r="AD285">
+        <v>5.5</v>
+      </c>
+      <c r="AE285">
+        <v>1.6</v>
+      </c>
+      <c r="AF285">
+        <v>2.25</v>
+      </c>
+      <c r="AG285">
+        <v>3</v>
+      </c>
+      <c r="AH285">
+        <v>1.33</v>
+      </c>
+      <c r="AI285">
+        <v>2.3</v>
+      </c>
+      <c r="AJ285">
+        <v>1.53</v>
+      </c>
+      <c r="AK285">
+        <v>1.25</v>
+      </c>
+      <c r="AL285">
+        <v>1.35</v>
+      </c>
+      <c r="AM285">
+        <v>1.62</v>
+      </c>
+      <c r="AN285">
+        <v>1.36</v>
+      </c>
+      <c r="AO285">
+        <v>0.64</v>
+      </c>
+      <c r="AP285">
+        <v>1.47</v>
+      </c>
+      <c r="AQ285">
+        <v>0.6</v>
+      </c>
+      <c r="AR285">
+        <v>1.38</v>
+      </c>
+      <c r="AS285">
+        <v>0.99</v>
+      </c>
+      <c r="AT285">
+        <v>2.37</v>
+      </c>
+      <c r="AU285">
+        <v>5</v>
+      </c>
+      <c r="AV285">
+        <v>6</v>
+      </c>
+      <c r="AW285">
+        <v>2</v>
+      </c>
+      <c r="AX285">
+        <v>4</v>
+      </c>
+      <c r="AY285">
+        <v>7</v>
+      </c>
+      <c r="AZ285">
+        <v>10</v>
+      </c>
+      <c r="BA285">
+        <v>5</v>
+      </c>
+      <c r="BB285">
+        <v>3</v>
+      </c>
+      <c r="BC285">
+        <v>8</v>
+      </c>
+      <c r="BD285">
+        <v>1.64</v>
+      </c>
+      <c r="BE285">
+        <v>8</v>
+      </c>
+      <c r="BF285">
+        <v>2.77</v>
+      </c>
+      <c r="BG285">
+        <v>1.4</v>
+      </c>
+      <c r="BH285">
+        <v>2.8</v>
+      </c>
+      <c r="BI285">
+        <v>1.74</v>
+      </c>
+      <c r="BJ285">
+        <v>2.02</v>
+      </c>
+      <c r="BK285">
+        <v>2.28</v>
+      </c>
+      <c r="BL285">
+        <v>1.58</v>
+      </c>
+      <c r="BM285">
+        <v>3.1</v>
+      </c>
+      <c r="BN285">
+        <v>1.33</v>
+      </c>
+      <c r="BO285">
+        <v>4.5</v>
+      </c>
+      <c r="BP285">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>6652128</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45367.625</v>
+      </c>
+      <c r="F286">
+        <v>29</v>
+      </c>
+      <c r="G286" t="s">
+        <v>80</v>
+      </c>
+      <c r="H286" t="s">
+        <v>86</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286">
+        <v>2</v>
+      </c>
+      <c r="L286">
+        <v>3</v>
+      </c>
+      <c r="M286">
+        <v>1</v>
+      </c>
+      <c r="N286">
+        <v>4</v>
+      </c>
+      <c r="O286" t="s">
+        <v>266</v>
+      </c>
+      <c r="P286" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q286">
+        <v>2.7</v>
+      </c>
+      <c r="R286">
+        <v>2.16</v>
+      </c>
+      <c r="S286">
+        <v>3.96</v>
+      </c>
+      <c r="T286">
+        <v>1.38</v>
+      </c>
+      <c r="U286">
+        <v>2.91</v>
+      </c>
+      <c r="V286">
+        <v>2.75</v>
+      </c>
+      <c r="W286">
+        <v